--- a/reports/contracts/files/periods.xlsx
+++ b/reports/contracts/files/periods.xlsx
@@ -1,29 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Documents\python\ecm\reports\contracts\files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11400" windowHeight="5895" tabRatio="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11400" windowHeight="5895" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TDSheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519" refMode="R1C1"/>
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author/>
-  </authors>
-  <commentList/>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1096" uniqueCount="111">
   <si>
     <t>Индекс</t>
   </si>
@@ -361,48 +358,27 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="50" formatCode=""/>
-    <numFmt numFmtId="51" formatCode="#,##0.0"/>
-    <numFmt numFmtId="52" formatCode="0.0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="8"/>
       <name val="Arial"/>
-      <sz val="8"/>
     </font>
     <font>
+      <sz val="8"/>
+      <color rgb="FF594304"/>
       <name val="Arial"/>
-      <charset val="0"/>
       <family val="2"/>
-      <b val="false"/>
-      <i val="false"/>
-      <strike val="false"/>
-      <sz val="8"/>
-      <u val="none"/>
     </font>
     <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
-      <charset val="0"/>
       <family val="2"/>
-      <b val="false"/>
-      <i val="false"/>
-      <strike val="false"/>
-      <color rgb="594304"/>
-      <sz val="8"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <family val="2"/>
-      <b val="false"/>
-      <i val="false"/>
-      <strike val="false"/>
-      <color rgb="000000"/>
-      <sz val="8"/>
-      <u val="none"/>
     </font>
   </fonts>
   <fills count="4">
@@ -414,14 +390,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="F5F2DD"/>
-        <bgColor auto="true"/>
+        <fgColor rgb="FFF5F2DD"/>
+        <bgColor auto="1"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF"/>
-        <bgColor auto="true"/>
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor auto="1"/>
       </patternFill>
     </fill>
   </fills>
@@ -435,16 +411,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="B3AC86"/>
+        <color rgb="FFB3AC86"/>
       </left>
       <right style="thin">
-        <color rgb="B3AC86"/>
+        <color rgb="FFB3AC86"/>
       </right>
       <top style="thin">
-        <color rgb="B3AC86"/>
+        <color rgb="FFB3AC86"/>
       </top>
       <bottom style="thin">
-        <color rgb="B3AC86"/>
+        <color rgb="FFB3AC86"/>
       </bottom>
       <diagonal/>
     </border>
@@ -453,73 +429,352 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
-    <xf/>
-    <xf applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf fontId="2" fillId="2" borderId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="3" borderId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="1" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf fontId="3" fillId="3" borderId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="3" borderId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="3" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="4" fontId="3" fillId="3" borderId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="4" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="3" borderId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="51" fontId="3" fillId="3" borderId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="52" fontId="3" fillId="3" borderId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <outlinePr summaryBelow="false" summaryRight="false"/>
-    <pageSetUpPr autoPageBreaks="false" fitToPage="false"/>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="K218"/>
+  <dimension ref="A1:K218"/>
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5" customHeight="true" defaultRowHeight="11.429"/>
+  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.5" style="1" customWidth="true"/>
-    <col min="2" max="2" width="17.5" style="1" customWidth="true"/>
-    <col min="3" max="3" width="17.5" style="1" customWidth="true"/>
-    <col min="4" max="4" width="17.5" style="1" customWidth="true"/>
-    <col min="5" max="5" width="17.5" style="1" customWidth="true"/>
-    <col min="6" max="6" width="17.5" style="1" customWidth="true"/>
-    <col min="7" max="7" width="17.5" style="1" customWidth="true"/>
-    <col min="8" max="8" width="17.5" style="1" customWidth="true"/>
-    <col min="9" max="9" width="17.5" style="1" customWidth="true"/>
-    <col min="10" max="10" width="17.5" style="1" customWidth="true"/>
-    <col min="11" max="11" width="17.5" style="1" customWidth="true"/>
+    <col min="1" max="11" width="17.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="11" customHeight="true">
+    <row r="1" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -554,8 +809,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" ht="11" customHeight="true">
-      <c r="A2" s="3" t="n">
+    <row r="2" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -564,19 +819,19 @@
       <c r="C2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" s="5" t="n">
+      <c r="D2" s="3">
+        <v>0</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0</v>
+      </c>
+      <c r="F2" s="5">
         <v>68000</v>
       </c>
-      <c r="G2" s="5" t="n">
+      <c r="G2" s="5">
         <v>32000</v>
       </c>
-      <c r="H2" s="5" t="n">
+      <c r="H2" s="5">
         <v>32000</v>
       </c>
       <c r="I2" s="4" t="s">
@@ -589,8 +844,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" ht="11" customHeight="true">
-      <c r="A3" s="3" t="n">
+    <row r="3" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -599,19 +854,19 @@
       <c r="C3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="6" t="n">
+      <c r="D3" s="6">
         <v>14134.48</v>
       </c>
-      <c r="E3" s="6" t="n">
+      <c r="E3" s="6">
         <v>38398.92</v>
       </c>
-      <c r="F3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" s="3" t="n">
+      <c r="F3" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0</v>
+      </c>
+      <c r="H3" s="3">
         <v>0</v>
       </c>
       <c r="I3" s="4" t="s">
@@ -624,8 +879,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" ht="11" customHeight="true">
-      <c r="A4" s="3" t="n">
+    <row r="4" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -634,19 +889,19 @@
       <c r="C4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="6" t="n">
+      <c r="D4" s="6">
         <v>104152.56</v>
       </c>
-      <c r="E4" s="6" t="n">
-        <v>266109.66</v>
-      </c>
-      <c r="F4" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="3" t="n">
+      <c r="E4" s="6">
+        <v>266109.65999999997</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3">
         <v>0</v>
       </c>
       <c r="I4" s="4" t="s">
@@ -659,8 +914,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" ht="11" customHeight="true">
-      <c r="A5" s="3" t="n">
+    <row r="5" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -669,19 +924,19 @@
       <c r="C5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="6" t="n">
+      <c r="D5" s="6">
         <v>63951.46</v>
       </c>
-      <c r="E5" s="6" t="n">
-        <v>161710.95</v>
-      </c>
-      <c r="F5" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" s="3" t="n">
+      <c r="E5" s="6">
+        <v>161710.95000000001</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0</v>
+      </c>
+      <c r="H5" s="3">
         <v>0</v>
       </c>
       <c r="I5" s="4" t="s">
@@ -694,8 +949,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" ht="11" customHeight="true">
-      <c r="A6" s="3" t="n">
+    <row r="6" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -704,19 +959,19 @@
       <c r="C6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="5" t="n">
+      <c r="D6" s="5">
         <v>3000</v>
       </c>
-      <c r="E6" s="7" t="n">
+      <c r="E6" s="7">
         <v>741.67</v>
       </c>
-      <c r="F6" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" s="3" t="n">
+      <c r="F6" s="3">
+        <v>0</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0</v>
+      </c>
+      <c r="H6" s="3">
         <v>0</v>
       </c>
       <c r="I6" s="4" t="s">
@@ -729,8 +984,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" ht="11" customHeight="true">
-      <c r="A7" s="3" t="n">
+    <row r="7" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -739,19 +994,19 @@
       <c r="C7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" s="6" t="n">
-        <v>1274805.36</v>
-      </c>
-      <c r="F7" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="3" t="n">
+      <c r="D7" s="3">
+        <v>0</v>
+      </c>
+      <c r="E7" s="6">
+        <v>1274805.3600000001</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3">
         <v>0</v>
       </c>
       <c r="I7" s="4" t="s">
@@ -764,8 +1019,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" ht="11" customHeight="true">
-      <c r="A8" s="3" t="n">
+    <row r="8" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -774,19 +1029,19 @@
       <c r="C8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" s="5" t="n">
+      <c r="D8" s="3">
+        <v>0</v>
+      </c>
+      <c r="E8" s="5">
         <v>280000</v>
       </c>
-      <c r="F8" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3" t="n">
+      <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
         <v>0</v>
       </c>
       <c r="I8" s="4" t="s">
@@ -799,8 +1054,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" ht="11" customHeight="true">
-      <c r="A9" s="3" t="n">
+    <row r="9" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -809,19 +1064,19 @@
       <c r="C9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" s="5" t="n">
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="5">
         <v>280000</v>
       </c>
-      <c r="F9" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" s="3" t="n">
+      <c r="F9" s="3">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3">
         <v>0</v>
       </c>
       <c r="I9" s="4" t="s">
@@ -834,8 +1089,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" ht="11" customHeight="true">
-      <c r="A10" s="3" t="n">
+    <row r="10" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
@@ -844,19 +1099,19 @@
       <c r="C10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" s="5" t="n">
+      <c r="D10" s="3">
+        <v>0</v>
+      </c>
+      <c r="E10" s="5">
         <v>260000</v>
       </c>
-      <c r="F10" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" s="3" t="n">
+      <c r="F10" s="3">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
         <v>0</v>
       </c>
       <c r="I10" s="4" t="s">
@@ -869,8 +1124,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" ht="11" customHeight="true">
-      <c r="A11" s="3" t="n">
+    <row r="11" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -879,19 +1134,19 @@
       <c r="C11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" s="5" t="n">
+      <c r="D11" s="3">
+        <v>0</v>
+      </c>
+      <c r="E11" s="5">
         <v>280000</v>
       </c>
-      <c r="F11" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" s="3" t="n">
+      <c r="F11" s="3">
+        <v>0</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0</v>
+      </c>
+      <c r="H11" s="3">
         <v>0</v>
       </c>
       <c r="I11" s="4" t="s">
@@ -904,8 +1159,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" ht="11" customHeight="true">
-      <c r="A12" s="3" t="n">
+    <row r="12" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -914,19 +1169,19 @@
       <c r="C12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="6" t="n">
+      <c r="D12" s="6">
         <v>11452.87</v>
       </c>
-      <c r="E12" s="6" t="n">
+      <c r="E12" s="6">
         <v>29354.28</v>
       </c>
-      <c r="F12" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" s="3" t="n">
+      <c r="F12" s="3">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0</v>
+      </c>
+      <c r="H12" s="3">
         <v>0</v>
       </c>
       <c r="I12" s="4" t="s">
@@ -939,8 +1194,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" ht="11" customHeight="true">
-      <c r="A13" s="3" t="n">
+    <row r="13" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
         <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
@@ -949,19 +1204,19 @@
       <c r="C13" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="8" t="n">
+      <c r="D13" s="8">
         <v>48427.7</v>
       </c>
-      <c r="E13" s="6" t="n">
-        <v>67680.99</v>
-      </c>
-      <c r="F13" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" s="3" t="n">
+      <c r="E13" s="6">
+        <v>67680.990000000005</v>
+      </c>
+      <c r="F13" s="3">
+        <v>0</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0</v>
+      </c>
+      <c r="H13" s="3">
         <v>0</v>
       </c>
       <c r="I13" s="4" t="s">
@@ -974,8 +1229,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" ht="11" customHeight="true">
-      <c r="A14" s="3" t="n">
+    <row r="14" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
         <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -984,19 +1239,19 @@
       <c r="C14" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="5" t="n">
+      <c r="D14" s="5">
         <v>1000000</v>
       </c>
-      <c r="E14" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3" t="n">
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>0</v>
       </c>
       <c r="I14" s="4" t="s">
@@ -1009,8 +1264,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" ht="11" customHeight="true">
-      <c r="A15" s="3" t="n">
+    <row r="15" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -1019,19 +1274,19 @@
       <c r="C15" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="5" t="n">
+      <c r="D15" s="5">
         <v>90000</v>
       </c>
-      <c r="E15" s="5" t="n">
+      <c r="E15" s="5">
         <v>112500</v>
       </c>
-      <c r="F15" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3" t="n">
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3">
         <v>0</v>
       </c>
       <c r="I15" s="4" t="s">
@@ -1044,8 +1299,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" ht="11" customHeight="true">
-      <c r="A16" s="3" t="n">
+    <row r="16" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
         <v>14</v>
       </c>
       <c r="B16" s="4" t="s">
@@ -1054,19 +1309,19 @@
       <c r="C16" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" s="6" t="n">
+      <c r="D16" s="3">
+        <v>0</v>
+      </c>
+      <c r="E16" s="6">
         <v>15405.44</v>
       </c>
-      <c r="F16" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" s="3" t="n">
+      <c r="F16" s="3">
+        <v>0</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0</v>
+      </c>
+      <c r="H16" s="3">
         <v>0</v>
       </c>
       <c r="I16" s="4" t="s">
@@ -1079,8 +1334,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" ht="11" customHeight="true">
-      <c r="A17" s="3" t="n">
+    <row r="17" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
         <v>15</v>
       </c>
       <c r="B17" s="4" t="s">
@@ -1089,19 +1344,19 @@
       <c r="C17" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" s="5" t="n">
+      <c r="D17" s="3">
+        <v>0</v>
+      </c>
+      <c r="E17" s="5">
         <v>24750</v>
       </c>
-      <c r="F17" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" s="3" t="n">
+      <c r="F17" s="3">
+        <v>0</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0</v>
+      </c>
+      <c r="H17" s="3">
         <v>0</v>
       </c>
       <c r="I17" s="4" t="s">
@@ -1114,8 +1369,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" ht="11" customHeight="true">
-      <c r="A18" s="3" t="n">
+    <row r="18" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
         <v>16</v>
       </c>
       <c r="B18" s="4" t="s">
@@ -1124,19 +1379,19 @@
       <c r="C18" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="5" t="n">
+      <c r="D18" s="5">
         <v>20890</v>
       </c>
-      <c r="E18" s="5" t="n">
+      <c r="E18" s="5">
         <v>15000</v>
       </c>
-      <c r="F18" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" s="3" t="n">
+      <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
         <v>0</v>
       </c>
       <c r="I18" s="4" t="s">
@@ -1149,8 +1404,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" ht="11" customHeight="true">
-      <c r="A19" s="3" t="n">
+    <row r="19" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
         <v>17</v>
       </c>
       <c r="B19" s="4" t="s">
@@ -1159,19 +1414,19 @@
       <c r="C19" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" s="6" t="n">
+      <c r="D19" s="3">
+        <v>0</v>
+      </c>
+      <c r="E19" s="6">
         <v>3286.77</v>
       </c>
-      <c r="F19" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" s="3" t="n">
+      <c r="F19" s="3">
+        <v>0</v>
+      </c>
+      <c r="G19" s="3">
+        <v>0</v>
+      </c>
+      <c r="H19" s="3">
         <v>0</v>
       </c>
       <c r="I19" s="4" t="s">
@@ -1184,8 +1439,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" ht="11" customHeight="true">
-      <c r="A20" s="3" t="n">
+    <row r="20" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
         <v>18</v>
       </c>
       <c r="B20" s="4" t="s">
@@ -1194,19 +1449,19 @@
       <c r="C20" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="5" t="n">
+      <c r="D20" s="5">
         <v>100000</v>
       </c>
-      <c r="E20" s="6" t="n">
+      <c r="E20" s="6">
         <v>31625.01</v>
       </c>
-      <c r="F20" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3" t="n">
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>0</v>
       </c>
       <c r="I20" s="4" t="s">
@@ -1219,8 +1474,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" ht="11" customHeight="true">
-      <c r="A21" s="3" t="n">
+    <row r="21" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
         <v>19</v>
       </c>
       <c r="B21" s="4" t="s">
@@ -1229,19 +1484,19 @@
       <c r="C21" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="7" t="n">
+      <c r="D21" s="7">
         <v>450.54</v>
       </c>
-      <c r="E21" s="6" t="n">
+      <c r="E21" s="6">
         <v>1154.76</v>
       </c>
-      <c r="F21" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" s="3" t="n">
+      <c r="F21" s="3">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3">
+        <v>0</v>
+      </c>
+      <c r="H21" s="3">
         <v>0</v>
       </c>
       <c r="I21" s="4" t="s">
@@ -1254,8 +1509,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" ht="11" customHeight="true">
-      <c r="A22" s="3" t="n">
+    <row r="22" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
         <v>20</v>
       </c>
       <c r="B22" s="4" t="s">
@@ -1264,19 +1519,19 @@
       <c r="C22" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" s="6" t="n">
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="6">
         <v>22105.32</v>
       </c>
-      <c r="F22" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3" t="n">
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
         <v>0</v>
       </c>
       <c r="I22" s="4" t="s">
@@ -1289,8 +1544,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" ht="11" customHeight="true">
-      <c r="A23" s="3" t="n">
+    <row r="23" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
         <v>21</v>
       </c>
       <c r="B23" s="4" t="s">
@@ -1299,19 +1554,19 @@
       <c r="C23" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D23" s="6" t="n">
-        <v>2208.18</v>
-      </c>
-      <c r="E23" s="6" t="n">
+      <c r="D23" s="6">
+        <v>2208.1799999999998</v>
+      </c>
+      <c r="E23" s="6">
         <v>2573.58</v>
       </c>
-      <c r="F23" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" s="3" t="n">
+      <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3">
         <v>0</v>
       </c>
       <c r="I23" s="4" t="s">
@@ -1324,8 +1579,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" ht="11" customHeight="true">
-      <c r="A24" s="3" t="n">
+    <row r="24" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
         <v>22</v>
       </c>
       <c r="B24" s="4" t="s">
@@ -1334,19 +1589,19 @@
       <c r="C24" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D24" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E24" s="5" t="n">
+      <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="5">
         <v>7500</v>
       </c>
-      <c r="F24" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" s="3" t="n">
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>0</v>
       </c>
       <c r="I24" s="4" t="s">
@@ -1359,8 +1614,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" ht="11" customHeight="true">
-      <c r="A25" s="3" t="n">
+    <row r="25" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
         <v>23</v>
       </c>
       <c r="B25" s="4" t="s">
@@ -1369,19 +1624,19 @@
       <c r="C25" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D25" s="6" t="n">
+      <c r="D25" s="6">
         <v>6247547.71</v>
       </c>
-      <c r="E25" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" s="3" t="n">
+      <c r="E25" s="3">
+        <v>0</v>
+      </c>
+      <c r="F25" s="3">
+        <v>0</v>
+      </c>
+      <c r="G25" s="3">
+        <v>0</v>
+      </c>
+      <c r="H25" s="3">
         <v>0</v>
       </c>
       <c r="I25" s="4" t="s">
@@ -1394,8 +1649,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" ht="11" customHeight="true">
-      <c r="A26" s="3" t="n">
+    <row r="26" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
         <v>24</v>
       </c>
       <c r="B26" s="4" t="s">
@@ -1404,19 +1659,19 @@
       <c r="C26" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D26" s="6" t="n">
-        <v>21063757.06</v>
-      </c>
-      <c r="E26" s="6" t="n">
+      <c r="D26" s="6">
+        <v>21063757.059999999</v>
+      </c>
+      <c r="E26" s="6">
         <v>387158.69</v>
       </c>
-      <c r="F26" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" s="3" t="n">
+      <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3">
         <v>0</v>
       </c>
       <c r="I26" s="4" t="s">
@@ -1429,8 +1684,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" ht="11" customHeight="true">
-      <c r="A27" s="3" t="n">
+    <row r="27" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
         <v>25</v>
       </c>
       <c r="B27" s="4" t="s">
@@ -1439,19 +1694,19 @@
       <c r="C27" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D27" s="6" t="n">
+      <c r="D27" s="6">
         <v>306909.89</v>
       </c>
-      <c r="E27" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G27" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H27" s="3" t="n">
+      <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3">
         <v>0</v>
       </c>
       <c r="I27" s="4" t="s">
@@ -1464,8 +1719,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" ht="11" customHeight="true">
-      <c r="A28" s="3" t="n">
+    <row r="28" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
         <v>26</v>
       </c>
       <c r="B28" s="4" t="s">
@@ -1474,19 +1729,19 @@
       <c r="C28" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D28" s="6" t="n">
+      <c r="D28" s="6">
         <v>14246.25</v>
       </c>
-      <c r="E28" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" s="3" t="n">
+      <c r="E28" s="3">
+        <v>0</v>
+      </c>
+      <c r="F28" s="3">
+        <v>0</v>
+      </c>
+      <c r="G28" s="3">
+        <v>0</v>
+      </c>
+      <c r="H28" s="3">
         <v>0</v>
       </c>
       <c r="I28" s="4" t="s">
@@ -1499,8 +1754,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" ht="11" customHeight="true">
-      <c r="A29" s="3" t="n">
+    <row r="29" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
         <v>27</v>
       </c>
       <c r="B29" s="4" t="s">
@@ -1509,19 +1764,19 @@
       <c r="C29" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D29" s="5" t="n">
+      <c r="D29" s="5">
         <v>100000</v>
       </c>
-      <c r="E29" s="6" t="n">
+      <c r="E29" s="6">
         <v>125000.01</v>
       </c>
-      <c r="F29" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3" t="n">
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
         <v>0</v>
       </c>
       <c r="I29" s="4" t="s">
@@ -1534,8 +1789,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" ht="11" customHeight="true">
-      <c r="A30" s="3" t="n">
+    <row r="30" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="3">
         <v>28</v>
       </c>
       <c r="B30" s="4" t="s">
@@ -1544,19 +1799,19 @@
       <c r="C30" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D30" s="5" t="n">
+      <c r="D30" s="5">
         <v>40120</v>
       </c>
-      <c r="E30" s="5" t="n">
+      <c r="E30" s="5">
         <v>102000</v>
       </c>
-      <c r="F30" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G30" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H30" s="3" t="n">
+      <c r="F30" s="3">
+        <v>0</v>
+      </c>
+      <c r="G30" s="3">
+        <v>0</v>
+      </c>
+      <c r="H30" s="3">
         <v>0</v>
       </c>
       <c r="I30" s="4" t="s">
@@ -1569,8 +1824,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" ht="11" customHeight="true">
-      <c r="A31" s="3" t="n">
+    <row r="31" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="3">
         <v>29</v>
       </c>
       <c r="B31" s="4" t="s">
@@ -1579,19 +1834,19 @@
       <c r="C31" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D31" s="6" t="n">
+      <c r="D31" s="6">
         <v>157096.74</v>
       </c>
-      <c r="E31" s="6" t="n">
+      <c r="E31" s="6">
         <v>245102.61</v>
       </c>
-      <c r="F31" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G31" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" s="3" t="n">
+      <c r="F31" s="3">
+        <v>0</v>
+      </c>
+      <c r="G31" s="3">
+        <v>0</v>
+      </c>
+      <c r="H31" s="3">
         <v>0</v>
       </c>
       <c r="I31" s="4" t="s">
@@ -1604,8 +1859,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" ht="11" customHeight="true">
-      <c r="A32" s="3" t="n">
+    <row r="32" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="3">
         <v>30</v>
       </c>
       <c r="B32" s="4" t="s">
@@ -1614,19 +1869,19 @@
       <c r="C32" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D32" s="5" t="n">
+      <c r="D32" s="5">
         <v>6650</v>
       </c>
-      <c r="E32" s="5" t="n">
+      <c r="E32" s="5">
         <v>4750</v>
       </c>
-      <c r="F32" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3" t="n">
+      <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>0</v>
       </c>
       <c r="I32" s="4" t="s">
@@ -1639,8 +1894,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" ht="11" customHeight="true">
-      <c r="A33" s="3" t="n">
+    <row r="33" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="3">
         <v>31</v>
       </c>
       <c r="B33" s="4" t="s">
@@ -1649,19 +1904,19 @@
       <c r="C33" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D33" s="6" t="n">
+      <c r="D33" s="6">
         <v>214677.93</v>
       </c>
-      <c r="E33" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G33" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H33" s="3" t="n">
+      <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3">
+        <v>0</v>
+      </c>
+      <c r="H33" s="3">
         <v>0</v>
       </c>
       <c r="I33" s="4" t="s">
@@ -1674,8 +1929,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" ht="11" customHeight="true">
-      <c r="A34" s="3" t="n">
+    <row r="34" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="3">
         <v>32</v>
       </c>
       <c r="B34" s="4" t="s">
@@ -1684,19 +1939,19 @@
       <c r="C34" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D34" s="6" t="n">
+      <c r="D34" s="6">
         <v>1603768.68</v>
       </c>
-      <c r="E34" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G34" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" s="3" t="n">
+      <c r="E34" s="3">
+        <v>0</v>
+      </c>
+      <c r="F34" s="3">
+        <v>0</v>
+      </c>
+      <c r="G34" s="3">
+        <v>0</v>
+      </c>
+      <c r="H34" s="3">
         <v>0</v>
       </c>
       <c r="I34" s="4" t="s">
@@ -1709,8 +1964,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" ht="11" customHeight="true">
-      <c r="A35" s="3" t="n">
+    <row r="35" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="3">
         <v>33</v>
       </c>
       <c r="B35" s="4" t="s">
@@ -1719,19 +1974,19 @@
       <c r="C35" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D35" s="8" t="n">
-        <v>16716942.7</v>
-      </c>
-      <c r="E35" s="6" t="n">
+      <c r="D35" s="8">
+        <v>16716942.699999999</v>
+      </c>
+      <c r="E35" s="6">
         <v>2482927.37</v>
       </c>
-      <c r="F35" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" s="3" t="n">
+      <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3">
+        <v>0</v>
+      </c>
+      <c r="H35" s="3">
         <v>0</v>
       </c>
       <c r="I35" s="4" t="s">
@@ -1744,8 +1999,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="36" ht="11" customHeight="true">
-      <c r="A36" s="3" t="n">
+    <row r="36" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="3">
         <v>34</v>
       </c>
       <c r="B36" s="4" t="s">
@@ -1754,19 +2009,19 @@
       <c r="C36" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D36" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E36" s="6" t="n">
+      <c r="D36" s="3">
+        <v>0</v>
+      </c>
+      <c r="E36" s="6">
         <v>1790662.43</v>
       </c>
-      <c r="F36" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G36" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H36" s="3" t="n">
+      <c r="F36" s="3">
+        <v>0</v>
+      </c>
+      <c r="G36" s="3">
+        <v>0</v>
+      </c>
+      <c r="H36" s="3">
         <v>0</v>
       </c>
       <c r="I36" s="4" t="s">
@@ -1779,8 +2034,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="37" ht="11" customHeight="true">
-      <c r="A37" s="3" t="n">
+    <row r="37" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="3">
         <v>35</v>
       </c>
       <c r="B37" s="4" t="s">
@@ -1789,19 +2044,19 @@
       <c r="C37" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D37" s="6" t="n">
-        <v>5900604.53</v>
-      </c>
-      <c r="E37" s="5" t="n">
+      <c r="D37" s="6">
+        <v>5900604.5300000003</v>
+      </c>
+      <c r="E37" s="5">
         <v>420000</v>
       </c>
-      <c r="F37" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" s="3" t="n">
+      <c r="F37" s="3">
+        <v>0</v>
+      </c>
+      <c r="G37" s="3">
+        <v>0</v>
+      </c>
+      <c r="H37" s="3">
         <v>0</v>
       </c>
       <c r="I37" s="4" t="s">
@@ -1814,8 +2069,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="38" ht="11" customHeight="true">
-      <c r="A38" s="3" t="n">
+    <row r="38" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="3">
         <v>36</v>
       </c>
       <c r="B38" s="4" t="s">
@@ -1824,19 +2079,19 @@
       <c r="C38" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D38" s="6" t="n">
+      <c r="D38" s="6">
         <v>152716.82</v>
       </c>
-      <c r="E38" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" s="3" t="n">
+      <c r="E38" s="3">
+        <v>0</v>
+      </c>
+      <c r="F38" s="3">
+        <v>0</v>
+      </c>
+      <c r="G38" s="3">
+        <v>0</v>
+      </c>
+      <c r="H38" s="3">
         <v>0</v>
       </c>
       <c r="I38" s="4" t="s">
@@ -1849,8 +2104,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="39" ht="11" customHeight="true">
-      <c r="A39" s="3" t="n">
+    <row r="39" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="3">
         <v>37</v>
       </c>
       <c r="B39" s="4" t="s">
@@ -1859,19 +2114,19 @@
       <c r="C39" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D39" s="6" t="n">
+      <c r="D39" s="6">
         <v>751702.63</v>
       </c>
-      <c r="E39" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G39" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H39" s="3" t="n">
+      <c r="E39" s="3">
+        <v>0</v>
+      </c>
+      <c r="F39" s="3">
+        <v>0</v>
+      </c>
+      <c r="G39" s="3">
+        <v>0</v>
+      </c>
+      <c r="H39" s="3">
         <v>0</v>
       </c>
       <c r="I39" s="4" t="s">
@@ -1884,8 +2139,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="40" ht="11" customHeight="true">
-      <c r="A40" s="3" t="n">
+    <row r="40" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="3">
         <v>38</v>
       </c>
       <c r="B40" s="4" t="s">
@@ -1894,19 +2149,19 @@
       <c r="C40" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D40" s="6" t="n">
+      <c r="D40" s="6">
         <v>3323738.49</v>
       </c>
-      <c r="E40" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" s="3" t="n">
+      <c r="E40" s="3">
+        <v>0</v>
+      </c>
+      <c r="F40" s="3">
+        <v>0</v>
+      </c>
+      <c r="G40" s="3">
+        <v>0</v>
+      </c>
+      <c r="H40" s="3">
         <v>0</v>
       </c>
       <c r="I40" s="4" t="s">
@@ -1919,8 +2174,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="41" ht="11" customHeight="true">
-      <c r="A41" s="3" t="n">
+    <row r="41" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="3">
         <v>39</v>
       </c>
       <c r="B41" s="4" t="s">
@@ -1929,19 +2184,19 @@
       <c r="C41" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D41" s="6" t="n">
+      <c r="D41" s="6">
         <v>13840816.41</v>
       </c>
-      <c r="E41" s="6" t="n">
+      <c r="E41" s="6">
         <v>5105264.78</v>
       </c>
-      <c r="F41" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" s="3" t="n">
+      <c r="F41" s="3">
+        <v>0</v>
+      </c>
+      <c r="G41" s="3">
+        <v>0</v>
+      </c>
+      <c r="H41" s="3">
         <v>0</v>
       </c>
       <c r="I41" s="4" t="s">
@@ -1954,8 +2209,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="42" ht="11" customHeight="true">
-      <c r="A42" s="3" t="n">
+    <row r="42" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="3">
         <v>40</v>
       </c>
       <c r="B42" s="4" t="s">
@@ -1964,19 +2219,19 @@
       <c r="C42" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D42" s="6" t="n">
+      <c r="D42" s="6">
         <v>12431685.57</v>
       </c>
-      <c r="E42" s="6" t="n">
-        <v>2557047.99</v>
-      </c>
-      <c r="F42" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3" t="n">
+      <c r="E42" s="6">
+        <v>2557047.9900000002</v>
+      </c>
+      <c r="F42" s="3">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
+        <v>0</v>
+      </c>
+      <c r="H42" s="3">
         <v>0</v>
       </c>
       <c r="I42" s="4" t="s">
@@ -1989,8 +2244,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="43" ht="11" customHeight="true">
-      <c r="A43" s="3" t="n">
+    <row r="43" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="3">
         <v>41</v>
       </c>
       <c r="B43" s="4" t="s">
@@ -1999,19 +2254,19 @@
       <c r="C43" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D43" s="5" t="n">
+      <c r="D43" s="5">
         <v>10180</v>
       </c>
-      <c r="E43" s="8" t="n">
+      <c r="E43" s="8">
         <v>25042.5</v>
       </c>
-      <c r="F43" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G43" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H43" s="3" t="n">
+      <c r="F43" s="3">
+        <v>0</v>
+      </c>
+      <c r="G43" s="3">
+        <v>0</v>
+      </c>
+      <c r="H43" s="3">
         <v>0</v>
       </c>
       <c r="I43" s="4" t="s">
@@ -2024,8 +2279,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="44" ht="11" customHeight="true">
-      <c r="A44" s="3" t="n">
+    <row r="44" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="3">
         <v>42</v>
       </c>
       <c r="B44" s="4" t="s">
@@ -2034,19 +2289,19 @@
       <c r="C44" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D44" s="6" t="n">
+      <c r="D44" s="6">
         <v>15345776.59</v>
       </c>
-      <c r="E44" s="6" t="n">
-        <v>7334095.12</v>
-      </c>
-      <c r="F44" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H44" s="3" t="n">
+      <c r="E44" s="6">
+        <v>7334095.1200000001</v>
+      </c>
+      <c r="F44" s="3">
+        <v>0</v>
+      </c>
+      <c r="G44" s="3">
+        <v>0</v>
+      </c>
+      <c r="H44" s="3">
         <v>0</v>
       </c>
       <c r="I44" s="4" t="s">
@@ -2059,8 +2314,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="45" ht="11" customHeight="true">
-      <c r="A45" s="3" t="n">
+    <row r="45" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="3">
         <v>43</v>
       </c>
       <c r="B45" s="4" t="s">
@@ -2069,19 +2324,19 @@
       <c r="C45" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D45" s="8" t="n">
-        <v>39075.7</v>
-      </c>
-      <c r="E45" s="5" t="n">
+      <c r="D45" s="8">
+        <v>39075.699999999997</v>
+      </c>
+      <c r="E45" s="5">
         <v>99345</v>
       </c>
-      <c r="F45" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G45" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H45" s="3" t="n">
+      <c r="F45" s="3">
+        <v>0</v>
+      </c>
+      <c r="G45" s="3">
+        <v>0</v>
+      </c>
+      <c r="H45" s="3">
         <v>0</v>
       </c>
       <c r="I45" s="4" t="s">
@@ -2094,8 +2349,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="46" ht="11" customHeight="true">
-      <c r="A46" s="3" t="n">
+    <row r="46" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="3">
         <v>44</v>
       </c>
       <c r="B46" s="4" t="s">
@@ -2104,19 +2359,19 @@
       <c r="C46" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D46" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E46" s="5" t="n">
+      <c r="D46" s="3">
+        <v>0</v>
+      </c>
+      <c r="E46" s="5">
         <v>9660</v>
       </c>
-      <c r="F46" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G46" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H46" s="3" t="n">
+      <c r="F46" s="3">
+        <v>0</v>
+      </c>
+      <c r="G46" s="3">
+        <v>0</v>
+      </c>
+      <c r="H46" s="3">
         <v>0</v>
       </c>
       <c r="I46" s="4" t="s">
@@ -2129,8 +2384,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="47" ht="11" customHeight="true">
-      <c r="A47" s="3" t="n">
+    <row r="47" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="3">
         <v>45</v>
       </c>
       <c r="B47" s="4" t="s">
@@ -2139,19 +2394,19 @@
       <c r="C47" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D47" s="5" t="n">
+      <c r="D47" s="5">
         <v>72000</v>
       </c>
-      <c r="E47" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3" t="n">
+      <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3">
+        <v>0</v>
+      </c>
+      <c r="H47" s="3">
         <v>0</v>
       </c>
       <c r="I47" s="4" t="s">
@@ -2164,8 +2419,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="48" ht="11" customHeight="true">
-      <c r="A48" s="3" t="n">
+    <row r="48" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="3">
         <v>46</v>
       </c>
       <c r="B48" s="4" t="s">
@@ -2174,19 +2429,19 @@
       <c r="C48" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D48" s="6" t="n">
+      <c r="D48" s="6">
         <v>88923.77</v>
       </c>
-      <c r="E48" s="6" t="n">
+      <c r="E48" s="6">
         <v>801257.64</v>
       </c>
-      <c r="F48" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G48" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H48" s="3" t="n">
+      <c r="F48" s="3">
+        <v>0</v>
+      </c>
+      <c r="G48" s="3">
+        <v>0</v>
+      </c>
+      <c r="H48" s="3">
         <v>0</v>
       </c>
       <c r="I48" s="4" t="s">
@@ -2199,8 +2454,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="49" ht="11" customHeight="true">
-      <c r="A49" s="3" t="n">
+    <row r="49" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="3">
         <v>47</v>
       </c>
       <c r="B49" s="4" t="s">
@@ -2209,19 +2464,19 @@
       <c r="C49" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D49" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E49" s="5" t="n">
+      <c r="D49" s="3">
+        <v>0</v>
+      </c>
+      <c r="E49" s="5">
         <v>66960</v>
       </c>
-      <c r="F49" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G49" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H49" s="3" t="n">
+      <c r="F49" s="3">
+        <v>0</v>
+      </c>
+      <c r="G49" s="3">
+        <v>0</v>
+      </c>
+      <c r="H49" s="3">
         <v>0</v>
       </c>
       <c r="I49" s="4" t="s">
@@ -2234,8 +2489,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="50" ht="11" customHeight="true">
-      <c r="A50" s="3" t="n">
+    <row r="50" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="3">
         <v>48</v>
       </c>
       <c r="B50" s="4" t="s">
@@ -2244,19 +2499,19 @@
       <c r="C50" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D50" s="7" t="n">
+      <c r="D50" s="7">
         <v>699.74</v>
       </c>
-      <c r="E50" s="5" t="n">
+      <c r="E50" s="5">
         <v>1779</v>
       </c>
-      <c r="F50" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G50" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H50" s="3" t="n">
+      <c r="F50" s="3">
+        <v>0</v>
+      </c>
+      <c r="G50" s="3">
+        <v>0</v>
+      </c>
+      <c r="H50" s="3">
         <v>0</v>
       </c>
       <c r="I50" s="4" t="s">
@@ -2269,8 +2524,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="51" ht="11" customHeight="true">
-      <c r="A51" s="3" t="n">
+    <row r="51" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="3">
         <v>49</v>
       </c>
       <c r="B51" s="4" t="s">
@@ -2279,19 +2534,19 @@
       <c r="C51" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D51" s="8" t="n">
-        <v>80678.6</v>
-      </c>
-      <c r="E51" s="6" t="n">
+      <c r="D51" s="8">
+        <v>80678.600000000006</v>
+      </c>
+      <c r="E51" s="6">
         <v>163212.96</v>
       </c>
-      <c r="F51" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G51" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H51" s="3" t="n">
+      <c r="F51" s="3">
+        <v>0</v>
+      </c>
+      <c r="G51" s="3">
+        <v>0</v>
+      </c>
+      <c r="H51" s="3">
         <v>0</v>
       </c>
       <c r="I51" s="4" t="s">
@@ -2304,8 +2559,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="52" ht="11" customHeight="true">
-      <c r="A52" s="3" t="n">
+    <row r="52" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="3">
         <v>50</v>
       </c>
       <c r="B52" s="4" t="s">
@@ -2314,19 +2569,19 @@
       <c r="C52" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D52" s="6" t="n">
-        <v>8949.95</v>
-      </c>
-      <c r="E52" s="6" t="n">
+      <c r="D52" s="6">
+        <v>8949.9500000000007</v>
+      </c>
+      <c r="E52" s="6">
         <v>36733.71</v>
       </c>
-      <c r="F52" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G52" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H52" s="3" t="n">
+      <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3">
+        <v>0</v>
+      </c>
+      <c r="H52" s="3">
         <v>0</v>
       </c>
       <c r="I52" s="4" t="s">
@@ -2339,8 +2594,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="53" ht="11" customHeight="true">
-      <c r="A53" s="3" t="n">
+    <row r="53" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="3">
         <v>51</v>
       </c>
       <c r="B53" s="4" t="s">
@@ -2349,19 +2604,19 @@
       <c r="C53" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D53" s="6" t="n">
+      <c r="D53" s="6">
         <v>1257.08</v>
       </c>
-      <c r="E53" s="6" t="n">
+      <c r="E53" s="6">
         <v>1584.42</v>
       </c>
-      <c r="F53" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G53" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H53" s="3" t="n">
+      <c r="F53" s="3">
+        <v>0</v>
+      </c>
+      <c r="G53" s="3">
+        <v>0</v>
+      </c>
+      <c r="H53" s="3">
         <v>0</v>
       </c>
       <c r="I53" s="4" t="s">
@@ -2374,8 +2629,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="54" ht="11" customHeight="true">
-      <c r="A54" s="3" t="n">
+    <row r="54" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="3">
         <v>52</v>
       </c>
       <c r="B54" s="4" t="s">
@@ -2384,19 +2639,19 @@
       <c r="C54" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D54" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E54" s="5" t="n">
+      <c r="D54" s="3">
+        <v>0</v>
+      </c>
+      <c r="E54" s="5">
         <v>3200</v>
       </c>
-      <c r="F54" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G54" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H54" s="3" t="n">
+      <c r="F54" s="3">
+        <v>0</v>
+      </c>
+      <c r="G54" s="3">
+        <v>0</v>
+      </c>
+      <c r="H54" s="3">
         <v>0</v>
       </c>
       <c r="I54" s="4" t="s">
@@ -2409,8 +2664,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="55" ht="11" customHeight="true">
-      <c r="A55" s="3" t="n">
+    <row r="55" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="3">
         <v>53</v>
       </c>
       <c r="B55" s="4" t="s">
@@ -2419,19 +2674,19 @@
       <c r="C55" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D55" s="6" t="n">
+      <c r="D55" s="6">
         <v>118395.53</v>
       </c>
-      <c r="E55" s="6" t="n">
+      <c r="E55" s="6">
         <v>308914.62</v>
       </c>
-      <c r="F55" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G55" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H55" s="3" t="n">
+      <c r="F55" s="3">
+        <v>0</v>
+      </c>
+      <c r="G55" s="3">
+        <v>0</v>
+      </c>
+      <c r="H55" s="3">
         <v>0</v>
       </c>
       <c r="I55" s="4" t="s">
@@ -2444,8 +2699,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="56" ht="11" customHeight="true">
-      <c r="A56" s="3" t="n">
+    <row r="56" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="3">
         <v>54</v>
       </c>
       <c r="B56" s="4" t="s">
@@ -2454,19 +2709,19 @@
       <c r="C56" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D56" s="6" t="n">
+      <c r="D56" s="6">
         <v>12799.46</v>
       </c>
-      <c r="E56" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F56" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G56" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H56" s="3" t="n">
+      <c r="E56" s="3">
+        <v>0</v>
+      </c>
+      <c r="F56" s="3">
+        <v>0</v>
+      </c>
+      <c r="G56" s="3">
+        <v>0</v>
+      </c>
+      <c r="H56" s="3">
         <v>0</v>
       </c>
       <c r="I56" s="4" t="s">
@@ -2479,8 +2734,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="57" ht="11" customHeight="true">
-      <c r="A57" s="3" t="n">
+    <row r="57" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="3">
         <v>55</v>
       </c>
       <c r="B57" s="4" t="s">
@@ -2489,19 +2744,19 @@
       <c r="C57" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D57" s="8" t="n">
+      <c r="D57" s="8">
         <v>1708.2</v>
       </c>
-      <c r="E57" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F57" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G57" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H57" s="3" t="n">
+      <c r="E57" s="3">
+        <v>0</v>
+      </c>
+      <c r="F57" s="3">
+        <v>0</v>
+      </c>
+      <c r="G57" s="3">
+        <v>0</v>
+      </c>
+      <c r="H57" s="3">
         <v>0</v>
       </c>
       <c r="I57" s="4" t="s">
@@ -2514,8 +2769,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="58" ht="11" customHeight="true">
-      <c r="A58" s="3" t="n">
+    <row r="58" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="3">
         <v>56</v>
       </c>
       <c r="B58" s="4" t="s">
@@ -2524,19 +2779,19 @@
       <c r="C58" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D58" s="8" t="n">
-        <v>17547.6</v>
-      </c>
-      <c r="E58" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3" t="n">
+      <c r="D58" s="8">
+        <v>17547.599999999999</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
         <v>0</v>
       </c>
       <c r="I58" s="4" t="s">
@@ -2549,8 +2804,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="59" ht="11" customHeight="true">
-      <c r="A59" s="3" t="n">
+    <row r="59" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="3">
         <v>57</v>
       </c>
       <c r="B59" s="4" t="s">
@@ -2559,19 +2814,19 @@
       <c r="C59" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D59" s="5" t="n">
+      <c r="D59" s="5">
         <v>368928</v>
       </c>
-      <c r="E59" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F59" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G59" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H59" s="3" t="n">
+      <c r="E59" s="3">
+        <v>0</v>
+      </c>
+      <c r="F59" s="3">
+        <v>0</v>
+      </c>
+      <c r="G59" s="3">
+        <v>0</v>
+      </c>
+      <c r="H59" s="3">
         <v>0</v>
       </c>
       <c r="I59" s="4" t="s">
@@ -2584,8 +2839,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="60" ht="11" customHeight="true">
-      <c r="A60" s="3" t="n">
+    <row r="60" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="3">
         <v>58</v>
       </c>
       <c r="B60" s="4" t="s">
@@ -2594,19 +2849,19 @@
       <c r="C60" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D60" s="6" t="n">
+      <c r="D60" s="6">
         <v>5372.46</v>
       </c>
-      <c r="E60" s="6" t="n">
+      <c r="E60" s="6">
         <v>10362.81</v>
       </c>
-      <c r="F60" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G60" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H60" s="3" t="n">
+      <c r="F60" s="3">
+        <v>0</v>
+      </c>
+      <c r="G60" s="3">
+        <v>0</v>
+      </c>
+      <c r="H60" s="3">
         <v>0</v>
       </c>
       <c r="I60" s="4" t="s">
@@ -2619,8 +2874,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="61" ht="11" customHeight="true">
-      <c r="A61" s="3" t="n">
+    <row r="61" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="3">
         <v>59</v>
       </c>
       <c r="B61" s="4" t="s">
@@ -2629,19 +2884,19 @@
       <c r="C61" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D61" s="6" t="n">
-        <v>5677169.83</v>
-      </c>
-      <c r="E61" s="6" t="n">
-        <v>5586586.56</v>
-      </c>
-      <c r="F61" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G61" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H61" s="3" t="n">
+      <c r="D61" s="6">
+        <v>5677169.8300000001</v>
+      </c>
+      <c r="E61" s="6">
+        <v>5586586.5599999996</v>
+      </c>
+      <c r="F61" s="3">
+        <v>0</v>
+      </c>
+      <c r="G61" s="3">
+        <v>0</v>
+      </c>
+      <c r="H61" s="3">
         <v>0</v>
       </c>
       <c r="I61" s="4" t="s">
@@ -2654,8 +2909,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="62" ht="11" customHeight="true">
-      <c r="A62" s="3" t="n">
+    <row r="62" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="3">
         <v>60</v>
       </c>
       <c r="B62" s="4" t="s">
@@ -2664,19 +2919,19 @@
       <c r="C62" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D62" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E62" s="6" t="n">
+      <c r="D62" s="3">
+        <v>0</v>
+      </c>
+      <c r="E62" s="6">
         <v>1342996.82</v>
       </c>
-      <c r="F62" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3" t="n">
+      <c r="F62" s="3">
+        <v>0</v>
+      </c>
+      <c r="G62" s="3">
+        <v>0</v>
+      </c>
+      <c r="H62" s="3">
         <v>0</v>
       </c>
       <c r="I62" s="4" t="s">
@@ -2689,8 +2944,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="63" ht="11" customHeight="true">
-      <c r="A63" s="3" t="n">
+    <row r="63" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="3">
         <v>61</v>
       </c>
       <c r="B63" s="4" t="s">
@@ -2699,19 +2954,19 @@
       <c r="C63" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D63" s="6" t="n">
+      <c r="D63" s="6">
         <v>1762946.28</v>
       </c>
-      <c r="E63" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F63" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G63" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H63" s="3" t="n">
+      <c r="E63" s="3">
+        <v>0</v>
+      </c>
+      <c r="F63" s="3">
+        <v>0</v>
+      </c>
+      <c r="G63" s="3">
+        <v>0</v>
+      </c>
+      <c r="H63" s="3">
         <v>0</v>
       </c>
       <c r="I63" s="4" t="s">
@@ -2724,8 +2979,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="64" ht="11" customHeight="true">
-      <c r="A64" s="3" t="n">
+    <row r="64" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="3">
         <v>62</v>
       </c>
       <c r="B64" s="4" t="s">
@@ -2734,19 +2989,19 @@
       <c r="C64" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D64" s="8" t="n">
+      <c r="D64" s="8">
         <v>3988232.5</v>
       </c>
-      <c r="E64" s="6" t="n">
+      <c r="E64" s="6">
         <v>3828948.59</v>
       </c>
-      <c r="F64" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G64" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H64" s="3" t="n">
+      <c r="F64" s="3">
+        <v>0</v>
+      </c>
+      <c r="G64" s="3">
+        <v>0</v>
+      </c>
+      <c r="H64" s="3">
         <v>0</v>
       </c>
       <c r="I64" s="4" t="s">
@@ -2759,8 +3014,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="65" ht="11" customHeight="true">
-      <c r="A65" s="3" t="n">
+    <row r="65" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="3">
         <v>63</v>
       </c>
       <c r="B65" s="4" t="s">
@@ -2769,19 +3024,19 @@
       <c r="C65" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D65" s="6" t="n">
-        <v>8385387.34</v>
-      </c>
-      <c r="E65" s="6" t="n">
-        <v>5753357.97</v>
-      </c>
-      <c r="F65" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G65" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H65" s="3" t="n">
+      <c r="D65" s="6">
+        <v>8385387.3399999999</v>
+      </c>
+      <c r="E65" s="6">
+        <v>5753357.9699999997</v>
+      </c>
+      <c r="F65" s="3">
+        <v>0</v>
+      </c>
+      <c r="G65" s="3">
+        <v>0</v>
+      </c>
+      <c r="H65" s="3">
         <v>0</v>
       </c>
       <c r="I65" s="4" t="s">
@@ -2794,8 +3049,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="66" ht="11" customHeight="true">
-      <c r="A66" s="3" t="n">
+    <row r="66" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="3">
         <v>64</v>
       </c>
       <c r="B66" s="4" t="s">
@@ -2804,19 +3059,19 @@
       <c r="C66" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D66" s="8" t="n">
+      <c r="D66" s="8">
         <v>52917.3</v>
       </c>
-      <c r="E66" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F66" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G66" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H66" s="3" t="n">
+      <c r="E66" s="3">
+        <v>0</v>
+      </c>
+      <c r="F66" s="3">
+        <v>0</v>
+      </c>
+      <c r="G66" s="3">
+        <v>0</v>
+      </c>
+      <c r="H66" s="3">
         <v>0</v>
       </c>
       <c r="I66" s="4" t="s">
@@ -2829,8 +3084,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="67" ht="11" customHeight="true">
-      <c r="A67" s="3" t="n">
+    <row r="67" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="3">
         <v>65</v>
       </c>
       <c r="B67" s="4" t="s">
@@ -2839,19 +3094,19 @@
       <c r="C67" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D67" s="5" t="n">
+      <c r="D67" s="5">
         <v>3000</v>
       </c>
-      <c r="E67" s="8" t="n">
+      <c r="E67" s="8">
         <v>5494.5</v>
       </c>
-      <c r="F67" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G67" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H67" s="3" t="n">
+      <c r="F67" s="3">
+        <v>0</v>
+      </c>
+      <c r="G67" s="3">
+        <v>0</v>
+      </c>
+      <c r="H67" s="3">
         <v>0</v>
       </c>
       <c r="I67" s="4" t="s">
@@ -2864,8 +3119,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="68" ht="11" customHeight="true">
-      <c r="A68" s="3" t="n">
+    <row r="68" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="3">
         <v>66</v>
       </c>
       <c r="B68" s="4" t="s">
@@ -2874,19 +3129,19 @@
       <c r="C68" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D68" s="6" t="n">
-        <v>12837858.39</v>
-      </c>
-      <c r="E68" s="6" t="n">
+      <c r="D68" s="6">
+        <v>12837858.390000001</v>
+      </c>
+      <c r="E68" s="6">
         <v>180847.18</v>
       </c>
-      <c r="F68" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G68" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H68" s="3" t="n">
+      <c r="F68" s="3">
+        <v>0</v>
+      </c>
+      <c r="G68" s="3">
+        <v>0</v>
+      </c>
+      <c r="H68" s="3">
         <v>0</v>
       </c>
       <c r="I68" s="4" t="s">
@@ -2899,8 +3154,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="69" ht="11" customHeight="true">
-      <c r="A69" s="3" t="n">
+    <row r="69" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="3">
         <v>67</v>
       </c>
       <c r="B69" s="4" t="s">
@@ -2909,19 +3164,19 @@
       <c r="C69" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D69" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E69" s="5" t="n">
+      <c r="D69" s="3">
+        <v>0</v>
+      </c>
+      <c r="E69" s="5">
         <v>18000</v>
       </c>
-      <c r="F69" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G69" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H69" s="3" t="n">
+      <c r="F69" s="3">
+        <v>0</v>
+      </c>
+      <c r="G69" s="3">
+        <v>0</v>
+      </c>
+      <c r="H69" s="3">
         <v>0</v>
       </c>
       <c r="I69" s="4" t="s">
@@ -2934,8 +3189,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="70" ht="11" customHeight="true">
-      <c r="A70" s="3" t="n">
+    <row r="70" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="3">
         <v>68</v>
       </c>
       <c r="B70" s="4" t="s">
@@ -2944,19 +3199,19 @@
       <c r="C70" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D70" s="8" t="n">
+      <c r="D70" s="8">
         <v>14785.5</v>
       </c>
-      <c r="E70" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F70" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G70" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H70" s="3" t="n">
+      <c r="E70" s="3">
+        <v>0</v>
+      </c>
+      <c r="F70" s="3">
+        <v>0</v>
+      </c>
+      <c r="G70" s="3">
+        <v>0</v>
+      </c>
+      <c r="H70" s="3">
         <v>0</v>
       </c>
       <c r="I70" s="4" t="s">
@@ -2969,8 +3224,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="71" ht="11" customHeight="true">
-      <c r="A71" s="3" t="n">
+    <row r="71" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="3">
         <v>69</v>
       </c>
       <c r="B71" s="4" t="s">
@@ -2979,19 +3234,19 @@
       <c r="C71" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D71" s="6" t="n">
+      <c r="D71" s="6">
         <v>27310.19</v>
       </c>
-      <c r="E71" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F71" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G71" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H71" s="3" t="n">
+      <c r="E71" s="3">
+        <v>0</v>
+      </c>
+      <c r="F71" s="3">
+        <v>0</v>
+      </c>
+      <c r="G71" s="3">
+        <v>0</v>
+      </c>
+      <c r="H71" s="3">
         <v>0</v>
       </c>
       <c r="I71" s="4" t="s">
@@ -3004,8 +3259,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="72" ht="11" customHeight="true">
-      <c r="A72" s="3" t="n">
+    <row r="72" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="3">
         <v>70</v>
       </c>
       <c r="B72" s="4" t="s">
@@ -3014,19 +3269,19 @@
       <c r="C72" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D72" s="6" t="n">
+      <c r="D72" s="6">
         <v>5385.56</v>
       </c>
-      <c r="E72" s="6" t="n">
+      <c r="E72" s="6">
         <v>16105.83</v>
       </c>
-      <c r="F72" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G72" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H72" s="3" t="n">
+      <c r="F72" s="3">
+        <v>0</v>
+      </c>
+      <c r="G72" s="3">
+        <v>0</v>
+      </c>
+      <c r="H72" s="3">
         <v>0</v>
       </c>
       <c r="I72" s="4" t="s">
@@ -3039,8 +3294,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="73" ht="11" customHeight="true">
-      <c r="A73" s="3" t="n">
+    <row r="73" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="3">
         <v>71</v>
       </c>
       <c r="B73" s="4" t="s">
@@ -3049,19 +3304,19 @@
       <c r="C73" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D73" s="6" t="n">
+      <c r="D73" s="6">
         <v>122034.49</v>
       </c>
-      <c r="E73" s="6" t="n">
+      <c r="E73" s="6">
         <v>168995.76</v>
       </c>
-      <c r="F73" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G73" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H73" s="3" t="n">
+      <c r="F73" s="3">
+        <v>0</v>
+      </c>
+      <c r="G73" s="3">
+        <v>0</v>
+      </c>
+      <c r="H73" s="3">
         <v>0</v>
       </c>
       <c r="I73" s="4" t="s">
@@ -3074,8 +3329,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="74" ht="11" customHeight="true">
-      <c r="A74" s="3" t="n">
+    <row r="74" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="3">
         <v>72</v>
       </c>
       <c r="B74" s="4" t="s">
@@ -3084,19 +3339,19 @@
       <c r="C74" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D74" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E74" s="6" t="n">
-        <v>95761.92</v>
-      </c>
-      <c r="F74" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G74" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H74" s="3" t="n">
+      <c r="D74" s="3">
+        <v>0</v>
+      </c>
+      <c r="E74" s="6">
+        <v>95761.919999999998</v>
+      </c>
+      <c r="F74" s="3">
+        <v>0</v>
+      </c>
+      <c r="G74" s="3">
+        <v>0</v>
+      </c>
+      <c r="H74" s="3">
         <v>0</v>
       </c>
       <c r="I74" s="4" t="s">
@@ -3109,8 +3364,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="75" ht="11" customHeight="true">
-      <c r="A75" s="3" t="n">
+    <row r="75" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="3">
         <v>73</v>
       </c>
       <c r="B75" s="4" t="s">
@@ -3119,19 +3374,19 @@
       <c r="C75" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D75" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E75" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F75" s="5" t="n">
+      <c r="D75" s="3">
+        <v>0</v>
+      </c>
+      <c r="E75" s="3">
+        <v>0</v>
+      </c>
+      <c r="F75" s="5">
         <v>40000</v>
       </c>
-      <c r="G75" s="5" t="n">
+      <c r="G75" s="5">
         <v>60000</v>
       </c>
-      <c r="H75" s="5" t="n">
+      <c r="H75" s="5">
         <v>60000</v>
       </c>
       <c r="I75" s="4" t="s">
@@ -3144,8 +3399,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="76" ht="11" customHeight="true">
-      <c r="A76" s="3" t="n">
+    <row r="76" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="3">
         <v>74</v>
       </c>
       <c r="B76" s="4" t="s">
@@ -3154,19 +3409,19 @@
       <c r="C76" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D76" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E76" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F76" s="5" t="n">
+      <c r="D76" s="3">
+        <v>0</v>
+      </c>
+      <c r="E76" s="3">
+        <v>0</v>
+      </c>
+      <c r="F76" s="5">
         <v>9000</v>
       </c>
-      <c r="G76" s="5" t="n">
+      <c r="G76" s="5">
         <v>93000</v>
       </c>
-      <c r="H76" s="5" t="n">
+      <c r="H76" s="5">
         <v>93000</v>
       </c>
       <c r="I76" s="4" t="s">
@@ -3179,8 +3434,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="77" ht="11" customHeight="true">
-      <c r="A77" s="3" t="n">
+    <row r="77" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="3">
         <v>75</v>
       </c>
       <c r="B77" s="4" t="s">
@@ -3189,19 +3444,19 @@
       <c r="C77" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D77" s="6" t="n">
+      <c r="D77" s="6">
         <v>15310.77</v>
       </c>
-      <c r="E77" s="8" t="n">
-        <v>36023.7</v>
-      </c>
-      <c r="F77" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G77" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H77" s="3" t="n">
+      <c r="E77" s="8">
+        <v>36023.699999999997</v>
+      </c>
+      <c r="F77" s="3">
+        <v>0</v>
+      </c>
+      <c r="G77" s="3">
+        <v>0</v>
+      </c>
+      <c r="H77" s="3">
         <v>0</v>
       </c>
       <c r="I77" s="4" t="s">
@@ -3214,8 +3469,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="78" ht="11" customHeight="true">
-      <c r="A78" s="3" t="n">
+    <row r="78" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="3">
         <v>76</v>
       </c>
       <c r="B78" s="4" t="s">
@@ -3224,19 +3479,19 @@
       <c r="C78" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D78" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E78" s="6" t="n">
+      <c r="D78" s="3">
+        <v>0</v>
+      </c>
+      <c r="E78" s="6">
         <v>267436.86</v>
       </c>
-      <c r="F78" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G78" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H78" s="3" t="n">
+      <c r="F78" s="3">
+        <v>0</v>
+      </c>
+      <c r="G78" s="3">
+        <v>0</v>
+      </c>
+      <c r="H78" s="3">
         <v>0</v>
       </c>
       <c r="I78" s="4" t="s">
@@ -3249,8 +3504,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="79" ht="11" customHeight="true">
-      <c r="A79" s="3" t="n">
+    <row r="79" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="3">
         <v>77</v>
       </c>
       <c r="B79" s="4" t="s">
@@ -3259,19 +3514,19 @@
       <c r="C79" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D79" s="6" t="n">
+      <c r="D79" s="6">
         <v>64684.38</v>
       </c>
-      <c r="E79" s="5" t="n">
+      <c r="E79" s="5">
         <v>160917</v>
       </c>
-      <c r="F79" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G79" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H79" s="3" t="n">
+      <c r="F79" s="3">
+        <v>0</v>
+      </c>
+      <c r="G79" s="3">
+        <v>0</v>
+      </c>
+      <c r="H79" s="3">
         <v>0</v>
       </c>
       <c r="I79" s="4" t="s">
@@ -3284,8 +3539,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="80" ht="11" customHeight="true">
-      <c r="A80" s="3" t="n">
+    <row r="80" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="3">
         <v>78</v>
       </c>
       <c r="B80" s="4" t="s">
@@ -3294,19 +3549,19 @@
       <c r="C80" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D80" s="5" t="n">
+      <c r="D80" s="5">
         <v>78000</v>
       </c>
-      <c r="E80" s="5" t="n">
+      <c r="E80" s="5">
         <v>78000</v>
       </c>
-      <c r="F80" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G80" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H80" s="3" t="n">
+      <c r="F80" s="3">
+        <v>0</v>
+      </c>
+      <c r="G80" s="3">
+        <v>0</v>
+      </c>
+      <c r="H80" s="3">
         <v>0</v>
       </c>
       <c r="I80" s="4" t="s">
@@ -3319,8 +3574,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="81" ht="11" customHeight="true">
-      <c r="A81" s="3" t="n">
+    <row r="81" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="3">
         <v>79</v>
       </c>
       <c r="B81" s="4" t="s">
@@ -3329,19 +3584,19 @@
       <c r="C81" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D81" s="5" t="n">
+      <c r="D81" s="5">
         <v>4140</v>
       </c>
-      <c r="E81" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F81" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G81" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H81" s="3" t="n">
+      <c r="E81" s="3">
+        <v>0</v>
+      </c>
+      <c r="F81" s="3">
+        <v>0</v>
+      </c>
+      <c r="G81" s="3">
+        <v>0</v>
+      </c>
+      <c r="H81" s="3">
         <v>0</v>
       </c>
       <c r="I81" s="4" t="s">
@@ -3354,8 +3609,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="82" ht="11" customHeight="true">
-      <c r="A82" s="3" t="n">
+    <row r="82" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="3">
         <v>80</v>
       </c>
       <c r="B82" s="4" t="s">
@@ -3364,19 +3619,19 @@
       <c r="C82" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D82" s="6" t="n">
-        <v>1274805.36</v>
-      </c>
-      <c r="E82" s="6" t="n">
-        <v>1274805.36</v>
-      </c>
-      <c r="F82" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G82" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H82" s="3" t="n">
+      <c r="D82" s="6">
+        <v>1274805.3600000001</v>
+      </c>
+      <c r="E82" s="6">
+        <v>1274805.3600000001</v>
+      </c>
+      <c r="F82" s="3">
+        <v>0</v>
+      </c>
+      <c r="G82" s="3">
+        <v>0</v>
+      </c>
+      <c r="H82" s="3">
         <v>0</v>
       </c>
       <c r="I82" s="4" t="s">
@@ -3389,8 +3644,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="83" ht="11" customHeight="true">
-      <c r="A83" s="3" t="n">
+    <row r="83" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="3">
         <v>81</v>
       </c>
       <c r="B83" s="4" t="s">
@@ -3399,19 +3654,19 @@
       <c r="C83" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D83" s="5" t="n">
+      <c r="D83" s="5">
         <v>280000</v>
       </c>
-      <c r="E83" s="5" t="n">
+      <c r="E83" s="5">
         <v>280000</v>
       </c>
-      <c r="F83" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G83" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3" t="n">
+      <c r="F83" s="3">
+        <v>0</v>
+      </c>
+      <c r="G83" s="3">
+        <v>0</v>
+      </c>
+      <c r="H83" s="3">
         <v>0</v>
       </c>
       <c r="I83" s="4" t="s">
@@ -3424,8 +3679,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="84" ht="11" customHeight="true">
-      <c r="A84" s="3" t="n">
+    <row r="84" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="3">
         <v>82</v>
       </c>
       <c r="B84" s="4" t="s">
@@ -3434,19 +3689,19 @@
       <c r="C84" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D84" s="5" t="n">
+      <c r="D84" s="5">
         <v>280000</v>
       </c>
-      <c r="E84" s="5" t="n">
+      <c r="E84" s="5">
         <v>280000</v>
       </c>
-      <c r="F84" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G84" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H84" s="3" t="n">
+      <c r="F84" s="3">
+        <v>0</v>
+      </c>
+      <c r="G84" s="3">
+        <v>0</v>
+      </c>
+      <c r="H84" s="3">
         <v>0</v>
       </c>
       <c r="I84" s="4" t="s">
@@ -3459,8 +3714,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="85" ht="11" customHeight="true">
-      <c r="A85" s="3" t="n">
+    <row r="85" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="3">
         <v>83</v>
       </c>
       <c r="B85" s="4" t="s">
@@ -3469,19 +3724,19 @@
       <c r="C85" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D85" s="5" t="n">
+      <c r="D85" s="5">
         <v>260000</v>
       </c>
-      <c r="E85" s="5" t="n">
+      <c r="E85" s="5">
         <v>260000</v>
       </c>
-      <c r="F85" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G85" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H85" s="3" t="n">
+      <c r="F85" s="3">
+        <v>0</v>
+      </c>
+      <c r="G85" s="3">
+        <v>0</v>
+      </c>
+      <c r="H85" s="3">
         <v>0</v>
       </c>
       <c r="I85" s="4" t="s">
@@ -3494,8 +3749,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="86" ht="11" customHeight="true">
-      <c r="A86" s="3" t="n">
+    <row r="86" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="3">
         <v>84</v>
       </c>
       <c r="B86" s="4" t="s">
@@ -3504,19 +3759,19 @@
       <c r="C86" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D86" s="5" t="n">
+      <c r="D86" s="5">
         <v>280000</v>
       </c>
-      <c r="E86" s="5" t="n">
+      <c r="E86" s="5">
         <v>280000</v>
       </c>
-      <c r="F86" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G86" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H86" s="3" t="n">
+      <c r="F86" s="3">
+        <v>0</v>
+      </c>
+      <c r="G86" s="3">
+        <v>0</v>
+      </c>
+      <c r="H86" s="3">
         <v>0</v>
       </c>
       <c r="I86" s="4" t="s">
@@ -3529,8 +3784,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="87" ht="11" customHeight="true">
-      <c r="A87" s="3" t="n">
+    <row r="87" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="3">
         <v>85</v>
       </c>
       <c r="B87" s="4" t="s">
@@ -3539,19 +3794,19 @@
       <c r="C87" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D87" s="6" t="n">
+      <c r="D87" s="6">
         <v>11741.71</v>
       </c>
-      <c r="E87" s="6" t="n">
+      <c r="E87" s="6">
         <v>29354.28</v>
       </c>
-      <c r="F87" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G87" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H87" s="3" t="n">
+      <c r="F87" s="3">
+        <v>0</v>
+      </c>
+      <c r="G87" s="3">
+        <v>0</v>
+      </c>
+      <c r="H87" s="3">
         <v>0</v>
       </c>
       <c r="I87" s="4" t="s">
@@ -3564,8 +3819,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="88" ht="11" customHeight="true">
-      <c r="A88" s="3" t="n">
+    <row r="88" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="3">
         <v>86</v>
       </c>
       <c r="B88" s="4" t="s">
@@ -3574,19 +3829,19 @@
       <c r="C88" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D88" s="5" t="n">
+      <c r="D88" s="5">
         <v>2000000</v>
       </c>
-      <c r="E88" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F88" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G88" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H88" s="3" t="n">
+      <c r="E88" s="3">
+        <v>0</v>
+      </c>
+      <c r="F88" s="3">
+        <v>0</v>
+      </c>
+      <c r="G88" s="3">
+        <v>0</v>
+      </c>
+      <c r="H88" s="3">
         <v>0</v>
       </c>
       <c r="I88" s="4" t="s">
@@ -3599,8 +3854,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="89" ht="11" customHeight="true">
-      <c r="A89" s="3" t="n">
+    <row r="89" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="3">
         <v>87</v>
       </c>
       <c r="B89" s="4" t="s">
@@ -3609,19 +3864,19 @@
       <c r="C89" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D89" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E89" s="6" t="n">
+      <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="6">
         <v>62916.75</v>
       </c>
-      <c r="F89" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G89" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H89" s="3" t="n">
+      <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
         <v>0</v>
       </c>
       <c r="I89" s="4" t="s">
@@ -3634,8 +3889,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="90" ht="11" customHeight="true">
-      <c r="A90" s="3" t="n">
+    <row r="90" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="3">
         <v>88</v>
       </c>
       <c r="B90" s="4" t="s">
@@ -3644,19 +3899,19 @@
       <c r="C90" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D90" s="5" t="n">
+      <c r="D90" s="5">
         <v>45000</v>
       </c>
-      <c r="E90" s="5" t="n">
+      <c r="E90" s="5">
         <v>112500</v>
       </c>
-      <c r="F90" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G90" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H90" s="3" t="n">
+      <c r="F90" s="3">
+        <v>0</v>
+      </c>
+      <c r="G90" s="3">
+        <v>0</v>
+      </c>
+      <c r="H90" s="3">
         <v>0</v>
       </c>
       <c r="I90" s="4" t="s">
@@ -3669,8 +3924,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="91" ht="11" customHeight="true">
-      <c r="A91" s="3" t="n">
+    <row r="91" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="3">
         <v>89</v>
       </c>
       <c r="B91" s="4" t="s">
@@ -3679,19 +3934,19 @@
       <c r="C91" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D91" s="6" t="n">
+      <c r="D91" s="6">
         <v>15405.44</v>
       </c>
-      <c r="E91" s="6" t="n">
+      <c r="E91" s="6">
         <v>15405.44</v>
       </c>
-      <c r="F91" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3" t="n">
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
         <v>0</v>
       </c>
       <c r="I91" s="4" t="s">
@@ -3704,8 +3959,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="92" ht="11" customHeight="true">
-      <c r="A92" s="3" t="n">
+    <row r="92" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="3">
         <v>90</v>
       </c>
       <c r="B92" s="4" t="s">
@@ -3714,19 +3969,19 @@
       <c r="C92" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D92" s="6" t="n">
+      <c r="D92" s="6">
         <v>29348.87</v>
       </c>
-      <c r="E92" s="5" t="n">
+      <c r="E92" s="5">
         <v>24750</v>
       </c>
-      <c r="F92" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G92" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H92" s="3" t="n">
+      <c r="F92" s="3">
+        <v>0</v>
+      </c>
+      <c r="G92" s="3">
+        <v>0</v>
+      </c>
+      <c r="H92" s="3">
         <v>0</v>
       </c>
       <c r="I92" s="4" t="s">
@@ -3739,8 +3994,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="93" ht="11" customHeight="true">
-      <c r="A93" s="3" t="n">
+    <row r="93" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="3">
         <v>91</v>
       </c>
       <c r="B93" s="4" t="s">
@@ -3749,19 +4004,19 @@
       <c r="C93" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D93" s="5" t="n">
+      <c r="D93" s="5">
         <v>7560</v>
       </c>
-      <c r="E93" s="5" t="n">
+      <c r="E93" s="5">
         <v>14400</v>
       </c>
-      <c r="F93" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G93" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H93" s="3" t="n">
+      <c r="F93" s="3">
+        <v>0</v>
+      </c>
+      <c r="G93" s="3">
+        <v>0</v>
+      </c>
+      <c r="H93" s="3">
         <v>0</v>
       </c>
       <c r="I93" s="4" t="s">
@@ -3774,8 +4029,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="94" ht="11" customHeight="true">
-      <c r="A94" s="3" t="n">
+    <row r="94" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="3">
         <v>92</v>
       </c>
       <c r="B94" s="4" t="s">
@@ -3784,19 +4039,19 @@
       <c r="C94" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D94" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E94" s="6" t="n">
+      <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="6">
         <v>3286.77</v>
       </c>
-      <c r="F94" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3" t="n">
+      <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>0</v>
       </c>
       <c r="I94" s="4" t="s">
@@ -3809,8 +4064,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="95" ht="11" customHeight="true">
-      <c r="A95" s="3" t="n">
+    <row r="95" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="3">
         <v>93</v>
       </c>
       <c r="B95" s="4" t="s">
@@ -3819,19 +4074,19 @@
       <c r="C95" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D95" s="5" t="n">
+      <c r="D95" s="5">
         <v>180000</v>
       </c>
-      <c r="E95" s="6" t="n">
+      <c r="E95" s="6">
         <v>55974.99</v>
       </c>
-      <c r="F95" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G95" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H95" s="3" t="n">
+      <c r="F95" s="3">
+        <v>0</v>
+      </c>
+      <c r="G95" s="3">
+        <v>0</v>
+      </c>
+      <c r="H95" s="3">
         <v>0</v>
       </c>
       <c r="I95" s="4" t="s">
@@ -3844,8 +4099,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="96" ht="11" customHeight="true">
-      <c r="A96" s="3" t="n">
+    <row r="96" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="3">
         <v>94</v>
       </c>
       <c r="B96" s="4" t="s">
@@ -3854,19 +4109,19 @@
       <c r="C96" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D96" s="9" t="n">
+      <c r="D96" s="9">
         <v>461.9</v>
       </c>
-      <c r="E96" s="6" t="n">
+      <c r="E96" s="6">
         <v>1154.76</v>
       </c>
-      <c r="F96" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G96" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H96" s="3" t="n">
+      <c r="F96" s="3">
+        <v>0</v>
+      </c>
+      <c r="G96" s="3">
+        <v>0</v>
+      </c>
+      <c r="H96" s="3">
         <v>0</v>
       </c>
       <c r="I96" s="4" t="s">
@@ -3879,8 +4134,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="97" ht="11" customHeight="true">
-      <c r="A97" s="3" t="n">
+    <row r="97" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="3">
         <v>95</v>
       </c>
       <c r="B97" s="4" t="s">
@@ -3889,19 +4144,19 @@
       <c r="C97" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D97" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E97" s="6" t="n">
+      <c r="D97" s="3">
+        <v>0</v>
+      </c>
+      <c r="E97" s="6">
         <v>45184.05</v>
       </c>
-      <c r="F97" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G97" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H97" s="3" t="n">
+      <c r="F97" s="3">
+        <v>0</v>
+      </c>
+      <c r="G97" s="3">
+        <v>0</v>
+      </c>
+      <c r="H97" s="3">
         <v>0</v>
       </c>
       <c r="I97" s="4" t="s">
@@ -3914,8 +4169,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="98" ht="11" customHeight="true">
-      <c r="A98" s="3" t="n">
+    <row r="98" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="3">
         <v>96</v>
       </c>
       <c r="B98" s="4" t="s">
@@ -3924,19 +4179,19 @@
       <c r="C98" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D98" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E98" s="6" t="n">
+      <c r="D98" s="3">
+        <v>0</v>
+      </c>
+      <c r="E98" s="6">
         <v>2667.36</v>
       </c>
-      <c r="F98" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G98" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H98" s="3" t="n">
+      <c r="F98" s="3">
+        <v>0</v>
+      </c>
+      <c r="G98" s="3">
+        <v>0</v>
+      </c>
+      <c r="H98" s="3">
         <v>0</v>
       </c>
       <c r="I98" s="4" t="s">
@@ -3949,8 +4204,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="99" ht="11" customHeight="true">
-      <c r="A99" s="3" t="n">
+    <row r="99" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="3">
         <v>97</v>
       </c>
       <c r="B99" s="4" t="s">
@@ -3959,19 +4214,19 @@
       <c r="C99" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D99" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E99" s="5" t="n">
+      <c r="D99" s="3">
+        <v>0</v>
+      </c>
+      <c r="E99" s="5">
         <v>7500</v>
       </c>
-      <c r="F99" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G99" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H99" s="3" t="n">
+      <c r="F99" s="3">
+        <v>0</v>
+      </c>
+      <c r="G99" s="3">
+        <v>0</v>
+      </c>
+      <c r="H99" s="3">
         <v>0</v>
       </c>
       <c r="I99" s="4" t="s">
@@ -3984,8 +4239,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="100" ht="11" customHeight="true">
-      <c r="A100" s="3" t="n">
+    <row r="100" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="3">
         <v>98</v>
       </c>
       <c r="B100" s="4" t="s">
@@ -3994,19 +4249,19 @@
       <c r="C100" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D100" s="6" t="n">
+      <c r="D100" s="6">
         <v>348442.82</v>
       </c>
-      <c r="E100" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3" t="n">
+      <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>0</v>
       </c>
       <c r="I100" s="4" t="s">
@@ -4019,8 +4274,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="101" ht="11" customHeight="true">
-      <c r="A101" s="3" t="n">
+    <row r="101" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="3">
         <v>99</v>
       </c>
       <c r="B101" s="4" t="s">
@@ -4029,19 +4284,19 @@
       <c r="C101" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D101" s="6" t="n">
+      <c r="D101" s="6">
         <v>319689.31</v>
       </c>
-      <c r="E101" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F101" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G101" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H101" s="3" t="n">
+      <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
         <v>0</v>
       </c>
       <c r="I101" s="4" t="s">
@@ -4054,8 +4309,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="102" ht="11" customHeight="true">
-      <c r="A102" s="3" t="n">
+    <row r="102" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="3">
         <v>100</v>
       </c>
       <c r="B102" s="4" t="s">
@@ -4064,19 +4319,19 @@
       <c r="C102" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D102" s="6" t="n">
+      <c r="D102" s="6">
         <v>14585.95</v>
       </c>
-      <c r="E102" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F102" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G102" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H102" s="3" t="n">
+      <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>0</v>
       </c>
       <c r="I102" s="4" t="s">
@@ -4089,8 +4344,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="103" ht="11" customHeight="true">
-      <c r="A103" s="3" t="n">
+    <row r="103" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="3">
         <v>101</v>
       </c>
       <c r="B103" s="4" t="s">
@@ -4099,19 +4354,19 @@
       <c r="C103" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D103" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E103" s="6" t="n">
+      <c r="D103" s="3">
+        <v>0</v>
+      </c>
+      <c r="E103" s="6">
         <v>125000.01</v>
       </c>
-      <c r="F103" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G103" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H103" s="3" t="n">
+      <c r="F103" s="3">
+        <v>0</v>
+      </c>
+      <c r="G103" s="3">
+        <v>0</v>
+      </c>
+      <c r="H103" s="3">
         <v>0</v>
       </c>
       <c r="I103" s="4" t="s">
@@ -4124,8 +4379,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="104" ht="11" customHeight="true">
-      <c r="A104" s="3" t="n">
+    <row r="104" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="3">
         <v>102</v>
       </c>
       <c r="B104" s="4" t="s">
@@ -4134,19 +4389,19 @@
       <c r="C104" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D104" s="5" t="n">
+      <c r="D104" s="5">
         <v>40800</v>
       </c>
-      <c r="E104" s="5" t="n">
+      <c r="E104" s="5">
         <v>102000</v>
       </c>
-      <c r="F104" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G104" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H104" s="3" t="n">
+      <c r="F104" s="3">
+        <v>0</v>
+      </c>
+      <c r="G104" s="3">
+        <v>0</v>
+      </c>
+      <c r="H104" s="3">
         <v>0</v>
       </c>
       <c r="I104" s="4" t="s">
@@ -4159,8 +4414,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="105" ht="11" customHeight="true">
-      <c r="A105" s="3" t="n">
+    <row r="105" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="3">
         <v>103</v>
       </c>
       <c r="B105" s="4" t="s">
@@ -4169,19 +4424,19 @@
       <c r="C105" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D105" s="6" t="n">
+      <c r="D105" s="6">
         <v>98041.04</v>
       </c>
-      <c r="E105" s="6" t="n">
+      <c r="E105" s="6">
         <v>196575.72</v>
       </c>
-      <c r="F105" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G105" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H105" s="3" t="n">
+      <c r="F105" s="3">
+        <v>0</v>
+      </c>
+      <c r="G105" s="3">
+        <v>0</v>
+      </c>
+      <c r="H105" s="3">
         <v>0</v>
       </c>
       <c r="I105" s="4" t="s">
@@ -4194,8 +4449,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="106" ht="11" customHeight="true">
-      <c r="A106" s="3" t="n">
+    <row r="106" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="3">
         <v>104</v>
       </c>
       <c r="B106" s="4" t="s">
@@ -4204,19 +4459,19 @@
       <c r="C106" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D106" s="5" t="n">
+      <c r="D106" s="5">
         <v>4750</v>
       </c>
-      <c r="E106" s="5" t="n">
+      <c r="E106" s="5">
         <v>4750</v>
       </c>
-      <c r="F106" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G106" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H106" s="3" t="n">
+      <c r="F106" s="3">
+        <v>0</v>
+      </c>
+      <c r="G106" s="3">
+        <v>0</v>
+      </c>
+      <c r="H106" s="3">
         <v>0</v>
       </c>
       <c r="I106" s="4" t="s">
@@ -4229,8 +4484,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="107" ht="11" customHeight="true">
-      <c r="A107" s="3" t="n">
+    <row r="107" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="3">
         <v>105</v>
       </c>
       <c r="B107" s="4" t="s">
@@ -4239,19 +4494,19 @@
       <c r="C107" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D107" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E107" s="6" t="n">
+      <c r="D107" s="3">
+        <v>0</v>
+      </c>
+      <c r="E107" s="6">
         <v>2749219.49</v>
       </c>
-      <c r="F107" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G107" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H107" s="3" t="n">
+      <c r="F107" s="3">
+        <v>0</v>
+      </c>
+      <c r="G107" s="3">
+        <v>0</v>
+      </c>
+      <c r="H107" s="3">
         <v>0</v>
       </c>
       <c r="I107" s="4" t="s">
@@ -4264,8 +4519,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="108" ht="11" customHeight="true">
-      <c r="A108" s="3" t="n">
+    <row r="108" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="3">
         <v>106</v>
       </c>
       <c r="B108" s="4" t="s">
@@ -4274,19 +4529,19 @@
       <c r="C108" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D108" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E108" s="6" t="n">
+      <c r="D108" s="3">
+        <v>0</v>
+      </c>
+      <c r="E108" s="6">
         <v>2278862.38</v>
       </c>
-      <c r="F108" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G108" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H108" s="3" t="n">
+      <c r="F108" s="3">
+        <v>0</v>
+      </c>
+      <c r="G108" s="3">
+        <v>0</v>
+      </c>
+      <c r="H108" s="3">
         <v>0</v>
       </c>
       <c r="I108" s="4" t="s">
@@ -4299,8 +4554,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="109" ht="11" customHeight="true">
-      <c r="A109" s="3" t="n">
+    <row r="109" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="3">
         <v>107</v>
       </c>
       <c r="B109" s="4" t="s">
@@ -4309,19 +4564,19 @@
       <c r="C109" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D109" s="5" t="n">
+      <c r="D109" s="5">
         <v>420000</v>
       </c>
-      <c r="E109" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F109" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G109" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H109" s="3" t="n">
+      <c r="E109" s="3">
+        <v>0</v>
+      </c>
+      <c r="F109" s="3">
+        <v>0</v>
+      </c>
+      <c r="G109" s="3">
+        <v>0</v>
+      </c>
+      <c r="H109" s="3">
         <v>0</v>
       </c>
       <c r="I109" s="4" t="s">
@@ -4334,8 +4589,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="110" ht="11" customHeight="true">
-      <c r="A110" s="3" t="n">
+    <row r="110" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="3">
         <v>108</v>
       </c>
       <c r="B110" s="4" t="s">
@@ -4344,19 +4599,19 @@
       <c r="C110" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D110" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E110" s="8" t="n">
-        <v>7267993.9</v>
-      </c>
-      <c r="F110" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G110" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H110" s="3" t="n">
+      <c r="D110" s="3">
+        <v>0</v>
+      </c>
+      <c r="E110" s="8">
+        <v>7267993.9000000004</v>
+      </c>
+      <c r="F110" s="3">
+        <v>0</v>
+      </c>
+      <c r="G110" s="3">
+        <v>0</v>
+      </c>
+      <c r="H110" s="3">
         <v>0</v>
       </c>
       <c r="I110" s="4" t="s">
@@ -4369,8 +4624,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="111" ht="11" customHeight="true">
-      <c r="A111" s="3" t="n">
+    <row r="111" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="3">
         <v>109</v>
       </c>
       <c r="B111" s="4" t="s">
@@ -4379,19 +4634,19 @@
       <c r="C111" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D111" s="5" t="n">
+      <c r="D111" s="5">
         <v>10017</v>
       </c>
-      <c r="E111" s="8" t="n">
+      <c r="E111" s="8">
         <v>11902.5</v>
       </c>
-      <c r="F111" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G111" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H111" s="3" t="n">
+      <c r="F111" s="3">
+        <v>0</v>
+      </c>
+      <c r="G111" s="3">
+        <v>0</v>
+      </c>
+      <c r="H111" s="3">
         <v>0</v>
       </c>
       <c r="I111" s="4" t="s">
@@ -4404,8 +4659,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="112" ht="11" customHeight="true">
-      <c r="A112" s="3" t="n">
+    <row r="112" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="3">
         <v>110</v>
       </c>
       <c r="B112" s="4" t="s">
@@ -4414,19 +4669,19 @@
       <c r="C112" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D112" s="6" t="n">
-        <v>35211179.15</v>
-      </c>
-      <c r="E112" s="6" t="n">
-        <v>6321125.81</v>
-      </c>
-      <c r="F112" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G112" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H112" s="3" t="n">
+      <c r="D112" s="6">
+        <v>35211179.149999999</v>
+      </c>
+      <c r="E112" s="6">
+        <v>6321125.8099999996</v>
+      </c>
+      <c r="F112" s="3">
+        <v>0</v>
+      </c>
+      <c r="G112" s="3">
+        <v>0</v>
+      </c>
+      <c r="H112" s="3">
         <v>0</v>
       </c>
       <c r="I112" s="4" t="s">
@@ -4439,8 +4694,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="113" ht="11" customHeight="true">
-      <c r="A113" s="3" t="n">
+    <row r="113" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="3">
         <v>111</v>
       </c>
       <c r="B113" s="4" t="s">
@@ -4449,19 +4704,19 @@
       <c r="C113" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D113" s="5" t="n">
+      <c r="D113" s="5">
         <v>39738</v>
       </c>
-      <c r="E113" s="5" t="n">
+      <c r="E113" s="5">
         <v>99345</v>
       </c>
-      <c r="F113" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G113" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H113" s="3" t="n">
+      <c r="F113" s="3">
+        <v>0</v>
+      </c>
+      <c r="G113" s="3">
+        <v>0</v>
+      </c>
+      <c r="H113" s="3">
         <v>0</v>
       </c>
       <c r="I113" s="4" t="s">
@@ -4474,8 +4729,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="114" ht="11" customHeight="true">
-      <c r="A114" s="3" t="n">
+    <row r="114" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="3">
         <v>112</v>
       </c>
       <c r="B114" s="4" t="s">
@@ -4484,19 +4739,19 @@
       <c r="C114" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D114" s="6" t="n">
+      <c r="D114" s="6">
         <v>73220.34</v>
       </c>
-      <c r="E114" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F114" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G114" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H114" s="3" t="n">
+      <c r="E114" s="3">
+        <v>0</v>
+      </c>
+      <c r="F114" s="3">
+        <v>0</v>
+      </c>
+      <c r="G114" s="3">
+        <v>0</v>
+      </c>
+      <c r="H114" s="3">
         <v>0</v>
       </c>
       <c r="I114" s="4" t="s">
@@ -4509,8 +4764,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="115" ht="11" customHeight="true">
-      <c r="A115" s="3" t="n">
+    <row r="115" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="3">
         <v>113</v>
       </c>
       <c r="B115" s="4" t="s">
@@ -4519,19 +4774,19 @@
       <c r="C115" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D115" s="6" t="n">
+      <c r="D115" s="6">
         <v>320503.06</v>
       </c>
-      <c r="E115" s="6" t="n">
+      <c r="E115" s="6">
         <v>194347.23</v>
       </c>
-      <c r="F115" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G115" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H115" s="3" t="n">
+      <c r="F115" s="3">
+        <v>0</v>
+      </c>
+      <c r="G115" s="3">
+        <v>0</v>
+      </c>
+      <c r="H115" s="3">
         <v>0</v>
       </c>
       <c r="I115" s="4" t="s">
@@ -4544,8 +4799,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="116" ht="11" customHeight="true">
-      <c r="A116" s="3" t="n">
+    <row r="116" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="3">
         <v>114</v>
       </c>
       <c r="B116" s="4" t="s">
@@ -4554,19 +4809,19 @@
       <c r="C116" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D116" s="5" t="n">
+      <c r="D116" s="5">
         <v>66960</v>
       </c>
-      <c r="E116" s="5" t="n">
+      <c r="E116" s="5">
         <v>60480</v>
       </c>
-      <c r="F116" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G116" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H116" s="3" t="n">
+      <c r="F116" s="3">
+        <v>0</v>
+      </c>
+      <c r="G116" s="3">
+        <v>0</v>
+      </c>
+      <c r="H116" s="3">
         <v>0</v>
       </c>
       <c r="I116" s="4" t="s">
@@ -4579,8 +4834,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="117" ht="11" customHeight="true">
-      <c r="A117" s="3" t="n">
+    <row r="117" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="3">
         <v>115</v>
       </c>
       <c r="B117" s="4" t="s">
@@ -4589,19 +4844,19 @@
       <c r="C117" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D117" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E117" s="5" t="n">
+      <c r="D117" s="3">
+        <v>0</v>
+      </c>
+      <c r="E117" s="5">
         <v>1779</v>
       </c>
-      <c r="F117" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G117" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H117" s="3" t="n">
+      <c r="F117" s="3">
+        <v>0</v>
+      </c>
+      <c r="G117" s="3">
+        <v>0</v>
+      </c>
+      <c r="H117" s="3">
         <v>0</v>
       </c>
       <c r="I117" s="4" t="s">
@@ -4614,8 +4869,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="118" ht="11" customHeight="true">
-      <c r="A118" s="3" t="n">
+    <row r="118" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="3">
         <v>116</v>
       </c>
       <c r="B118" s="4" t="s">
@@ -4624,19 +4879,19 @@
       <c r="C118" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D118" s="6" t="n">
-        <v>71347.35</v>
-      </c>
-      <c r="E118" s="6" t="n">
+      <c r="D118" s="6">
+        <v>71347.350000000006</v>
+      </c>
+      <c r="E118" s="6">
         <v>199215.63</v>
       </c>
-      <c r="F118" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G118" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H118" s="3" t="n">
+      <c r="F118" s="3">
+        <v>0</v>
+      </c>
+      <c r="G118" s="3">
+        <v>0</v>
+      </c>
+      <c r="H118" s="3">
         <v>0</v>
       </c>
       <c r="I118" s="4" t="s">
@@ -4649,8 +4904,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="119" ht="11" customHeight="true">
-      <c r="A119" s="3" t="n">
+    <row r="119" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="3">
         <v>117</v>
       </c>
       <c r="B119" s="4" t="s">
@@ -4659,19 +4914,19 @@
       <c r="C119" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D119" s="6" t="n">
+      <c r="D119" s="6">
         <v>17905.73</v>
       </c>
-      <c r="E119" s="6" t="n">
+      <c r="E119" s="6">
         <v>86157.21</v>
       </c>
-      <c r="F119" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G119" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H119" s="3" t="n">
+      <c r="F119" s="3">
+        <v>0</v>
+      </c>
+      <c r="G119" s="3">
+        <v>0</v>
+      </c>
+      <c r="H119" s="3">
         <v>0</v>
       </c>
       <c r="I119" s="4" t="s">
@@ -4684,8 +4939,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="120" ht="11" customHeight="true">
-      <c r="A120" s="3" t="n">
+    <row r="120" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="3">
         <v>118</v>
       </c>
       <c r="B120" s="4" t="s">
@@ -4694,19 +4949,19 @@
       <c r="C120" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D120" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E120" s="6" t="n">
+      <c r="D120" s="3">
+        <v>0</v>
+      </c>
+      <c r="E120" s="6">
         <v>1596.12</v>
       </c>
-      <c r="F120" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G120" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H120" s="3" t="n">
+      <c r="F120" s="3">
+        <v>0</v>
+      </c>
+      <c r="G120" s="3">
+        <v>0</v>
+      </c>
+      <c r="H120" s="3">
         <v>0</v>
       </c>
       <c r="I120" s="4" t="s">
@@ -4719,8 +4974,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="121" ht="11" customHeight="true">
-      <c r="A121" s="3" t="n">
+    <row r="121" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="3">
         <v>119</v>
       </c>
       <c r="B121" s="4" t="s">
@@ -4729,19 +4984,19 @@
       <c r="C121" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D121" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E121" s="5" t="n">
+      <c r="D121" s="3">
+        <v>0</v>
+      </c>
+      <c r="E121" s="5">
         <v>3200</v>
       </c>
-      <c r="F121" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G121" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H121" s="3" t="n">
+      <c r="F121" s="3">
+        <v>0</v>
+      </c>
+      <c r="G121" s="3">
+        <v>0</v>
+      </c>
+      <c r="H121" s="3">
         <v>0</v>
       </c>
       <c r="I121" s="4" t="s">
@@ -4754,8 +5009,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="122" ht="11" customHeight="true">
-      <c r="A122" s="3" t="n">
+    <row r="122" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="3">
         <v>120</v>
       </c>
       <c r="B122" s="4" t="s">
@@ -4764,19 +5019,19 @@
       <c r="C122" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D122" s="6" t="n">
+      <c r="D122" s="6">
         <v>88984.02</v>
       </c>
-      <c r="E122" s="6" t="n">
-        <v>285286.59</v>
-      </c>
-      <c r="F122" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G122" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H122" s="3" t="n">
+      <c r="E122" s="6">
+        <v>285286.59000000003</v>
+      </c>
+      <c r="F122" s="3">
+        <v>0</v>
+      </c>
+      <c r="G122" s="3">
+        <v>0</v>
+      </c>
+      <c r="H122" s="3">
         <v>0</v>
       </c>
       <c r="I122" s="4" t="s">
@@ -4789,8 +5044,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="123" ht="11" customHeight="true">
-      <c r="A123" s="3" t="n">
+    <row r="123" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="3">
         <v>121</v>
       </c>
       <c r="B123" s="4" t="s">
@@ -4799,19 +5054,19 @@
       <c r="C123" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D123" s="7" t="n">
+      <c r="D123" s="7">
         <v>216.94</v>
       </c>
-      <c r="E123" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F123" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G123" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H123" s="3" t="n">
+      <c r="E123" s="3">
+        <v>0</v>
+      </c>
+      <c r="F123" s="3">
+        <v>0</v>
+      </c>
+      <c r="G123" s="3">
+        <v>0</v>
+      </c>
+      <c r="H123" s="3">
         <v>0</v>
       </c>
       <c r="I123" s="4" t="s">
@@ -4824,8 +5079,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="124" ht="11" customHeight="true">
-      <c r="A124" s="3" t="n">
+    <row r="124" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="3">
         <v>122</v>
       </c>
       <c r="B124" s="4" t="s">
@@ -4834,19 +5089,19 @@
       <c r="C124" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D124" s="8" t="n">
+      <c r="D124" s="8">
         <v>6832.8</v>
       </c>
-      <c r="E124" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F124" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G124" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H124" s="3" t="n">
+      <c r="E124" s="3">
+        <v>0</v>
+      </c>
+      <c r="F124" s="3">
+        <v>0</v>
+      </c>
+      <c r="G124" s="3">
+        <v>0</v>
+      </c>
+      <c r="H124" s="3">
         <v>0</v>
       </c>
       <c r="I124" s="4" t="s">
@@ -4859,8 +5114,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="125" ht="11" customHeight="true">
-      <c r="A125" s="3" t="n">
+    <row r="125" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A125" s="3">
         <v>123</v>
       </c>
       <c r="B125" s="4" t="s">
@@ -4869,19 +5124,19 @@
       <c r="C125" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D125" s="5" t="n">
+      <c r="D125" s="5">
         <v>29500</v>
       </c>
-      <c r="E125" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F125" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G125" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H125" s="3" t="n">
+      <c r="E125" s="3">
+        <v>0</v>
+      </c>
+      <c r="F125" s="3">
+        <v>0</v>
+      </c>
+      <c r="G125" s="3">
+        <v>0</v>
+      </c>
+      <c r="H125" s="3">
         <v>0</v>
       </c>
       <c r="I125" s="4" t="s">
@@ -4894,8 +5149,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="126" ht="11" customHeight="true">
-      <c r="A126" s="3" t="n">
+    <row r="126" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A126" s="3">
         <v>124</v>
       </c>
       <c r="B126" s="4" t="s">
@@ -4904,19 +5159,19 @@
       <c r="C126" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D126" s="5" t="n">
+      <c r="D126" s="5">
         <v>109440</v>
       </c>
-      <c r="E126" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F126" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G126" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H126" s="3" t="n">
+      <c r="E126" s="3">
+        <v>0</v>
+      </c>
+      <c r="F126" s="3">
+        <v>0</v>
+      </c>
+      <c r="G126" s="3">
+        <v>0</v>
+      </c>
+      <c r="H126" s="3">
         <v>0</v>
       </c>
       <c r="I126" s="4" t="s">
@@ -4929,8 +5184,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="127" ht="11" customHeight="true">
-      <c r="A127" s="3" t="n">
+    <row r="127" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A127" s="3">
         <v>125</v>
       </c>
       <c r="B127" s="4" t="s">
@@ -4939,19 +5194,19 @@
       <c r="C127" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D127" s="6" t="n">
+      <c r="D127" s="6">
         <v>4145.12</v>
       </c>
-      <c r="E127" s="6" t="n">
+      <c r="E127" s="6">
         <v>9408.51</v>
       </c>
-      <c r="F127" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G127" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H127" s="3" t="n">
+      <c r="F127" s="3">
+        <v>0</v>
+      </c>
+      <c r="G127" s="3">
+        <v>0</v>
+      </c>
+      <c r="H127" s="3">
         <v>0</v>
       </c>
       <c r="I127" s="4" t="s">
@@ -4964,8 +5219,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="128" ht="11" customHeight="true">
-      <c r="A128" s="3" t="n">
+    <row r="128" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="3">
         <v>126</v>
       </c>
       <c r="B128" s="4" t="s">
@@ -4974,19 +5229,19 @@
       <c r="C128" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D128" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E128" s="6" t="n">
+      <c r="D128" s="3">
+        <v>0</v>
+      </c>
+      <c r="E128" s="6">
         <v>4123829.24</v>
       </c>
-      <c r="F128" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G128" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H128" s="3" t="n">
+      <c r="F128" s="3">
+        <v>0</v>
+      </c>
+      <c r="G128" s="3">
+        <v>0</v>
+      </c>
+      <c r="H128" s="3">
         <v>0</v>
       </c>
       <c r="I128" s="4" t="s">
@@ -4999,8 +5254,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="129" ht="11" customHeight="true">
-      <c r="A129" s="3" t="n">
+    <row r="129" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="3">
         <v>127</v>
       </c>
       <c r="B129" s="4" t="s">
@@ -5009,19 +5264,19 @@
       <c r="C129" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D129" s="6" t="n">
-        <v>9368078.61</v>
-      </c>
-      <c r="E129" s="6" t="n">
+      <c r="D129" s="6">
+        <v>9368078.6099999994</v>
+      </c>
+      <c r="E129" s="6">
         <v>5127440.34</v>
       </c>
-      <c r="F129" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G129" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H129" s="3" t="n">
+      <c r="F129" s="3">
+        <v>0</v>
+      </c>
+      <c r="G129" s="3">
+        <v>0</v>
+      </c>
+      <c r="H129" s="3">
         <v>0</v>
       </c>
       <c r="I129" s="4" t="s">
@@ -5034,8 +5289,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="130" ht="11" customHeight="true">
-      <c r="A130" s="3" t="n">
+    <row r="130" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A130" s="3">
         <v>128</v>
       </c>
       <c r="B130" s="4" t="s">
@@ -5044,19 +5299,19 @@
       <c r="C130" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D130" s="6" t="n">
+      <c r="D130" s="6">
         <v>609000.03</v>
       </c>
-      <c r="E130" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F130" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G130" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H130" s="3" t="n">
+      <c r="E130" s="3">
+        <v>0</v>
+      </c>
+      <c r="F130" s="3">
+        <v>0</v>
+      </c>
+      <c r="G130" s="3">
+        <v>0</v>
+      </c>
+      <c r="H130" s="3">
         <v>0</v>
       </c>
       <c r="I130" s="4" t="s">
@@ -5069,8 +5324,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="131" ht="11" customHeight="true">
-      <c r="A131" s="3" t="n">
+    <row r="131" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A131" s="3">
         <v>129</v>
       </c>
       <c r="B131" s="4" t="s">
@@ -5079,19 +5334,19 @@
       <c r="C131" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D131" s="6" t="n">
+      <c r="D131" s="6">
         <v>2991364.64</v>
       </c>
-      <c r="E131" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F131" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G131" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H131" s="3" t="n">
+      <c r="E131" s="3">
+        <v>0</v>
+      </c>
+      <c r="F131" s="3">
+        <v>0</v>
+      </c>
+      <c r="G131" s="3">
+        <v>0</v>
+      </c>
+      <c r="H131" s="3">
         <v>0</v>
       </c>
       <c r="I131" s="4" t="s">
@@ -5104,8 +5359,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="132" ht="11" customHeight="true">
-      <c r="A132" s="3" t="n">
+    <row r="132" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A132" s="3">
         <v>130</v>
       </c>
       <c r="B132" s="4" t="s">
@@ -5114,19 +5369,19 @@
       <c r="C132" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D132" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E132" s="6" t="n">
+      <c r="D132" s="3">
+        <v>0</v>
+      </c>
+      <c r="E132" s="6">
         <v>949231.09</v>
       </c>
-      <c r="F132" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G132" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H132" s="3" t="n">
+      <c r="F132" s="3">
+        <v>0</v>
+      </c>
+      <c r="G132" s="3">
+        <v>0</v>
+      </c>
+      <c r="H132" s="3">
         <v>0</v>
       </c>
       <c r="I132" s="4" t="s">
@@ -5139,8 +5394,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="133" ht="11" customHeight="true">
-      <c r="A133" s="3" t="n">
+    <row r="133" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A133" s="3">
         <v>131</v>
       </c>
       <c r="B133" s="4" t="s">
@@ -5149,19 +5404,19 @@
       <c r="C133" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D133" s="6" t="n">
+      <c r="D133" s="6">
         <v>2803129.67</v>
       </c>
-      <c r="E133" s="6" t="n">
+      <c r="E133" s="6">
         <v>16352986.26</v>
       </c>
-      <c r="F133" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G133" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H133" s="3" t="n">
+      <c r="F133" s="3">
+        <v>0</v>
+      </c>
+      <c r="G133" s="3">
+        <v>0</v>
+      </c>
+      <c r="H133" s="3">
         <v>0</v>
       </c>
       <c r="I133" s="4" t="s">
@@ -5174,8 +5429,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="134" ht="11" customHeight="true">
-      <c r="A134" s="3" t="n">
+    <row r="134" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A134" s="3">
         <v>132</v>
       </c>
       <c r="B134" s="4" t="s">
@@ -5184,19 +5439,19 @@
       <c r="C134" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D134" s="6" t="n">
+      <c r="D134" s="6">
         <v>630193.61</v>
       </c>
-      <c r="E134" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F134" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G134" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H134" s="3" t="n">
+      <c r="E134" s="3">
+        <v>0</v>
+      </c>
+      <c r="F134" s="3">
+        <v>0</v>
+      </c>
+      <c r="G134" s="3">
+        <v>0</v>
+      </c>
+      <c r="H134" s="3">
         <v>0</v>
       </c>
       <c r="I134" s="4" t="s">
@@ -5209,8 +5464,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="135" ht="11" customHeight="true">
-      <c r="A135" s="3" t="n">
+    <row r="135" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A135" s="3">
         <v>133</v>
       </c>
       <c r="B135" s="4" t="s">
@@ -5219,19 +5474,19 @@
       <c r="C135" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D135" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E135" s="6" t="n">
+      <c r="D135" s="3">
+        <v>0</v>
+      </c>
+      <c r="E135" s="6">
         <v>5245.02</v>
       </c>
-      <c r="F135" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G135" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H135" s="3" t="n">
+      <c r="F135" s="3">
+        <v>0</v>
+      </c>
+      <c r="G135" s="3">
+        <v>0</v>
+      </c>
+      <c r="H135" s="3">
         <v>0</v>
       </c>
       <c r="I135" s="4" t="s">
@@ -5244,8 +5499,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="136" ht="11" customHeight="true">
-      <c r="A136" s="3" t="n">
+    <row r="136" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A136" s="3">
         <v>134</v>
       </c>
       <c r="B136" s="4" t="s">
@@ -5254,19 +5509,19 @@
       <c r="C136" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D136" s="6" t="n">
+      <c r="D136" s="6">
         <v>108508.31</v>
       </c>
-      <c r="E136" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F136" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G136" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H136" s="3" t="n">
+      <c r="E136" s="3">
+        <v>0</v>
+      </c>
+      <c r="F136" s="3">
+        <v>0</v>
+      </c>
+      <c r="G136" s="3">
+        <v>0</v>
+      </c>
+      <c r="H136" s="3">
         <v>0</v>
       </c>
       <c r="I136" s="4" t="s">
@@ -5279,8 +5534,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="137" ht="11" customHeight="true">
-      <c r="A137" s="3" t="n">
+    <row r="137" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A137" s="3">
         <v>135</v>
       </c>
       <c r="B137" s="4" t="s">
@@ -5289,19 +5544,19 @@
       <c r="C137" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D137" s="6" t="n">
-        <v>54209.76</v>
-      </c>
-      <c r="E137" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F137" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G137" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H137" s="3" t="n">
+      <c r="D137" s="6">
+        <v>54209.760000000002</v>
+      </c>
+      <c r="E137" s="3">
+        <v>0</v>
+      </c>
+      <c r="F137" s="3">
+        <v>0</v>
+      </c>
+      <c r="G137" s="3">
+        <v>0</v>
+      </c>
+      <c r="H137" s="3">
         <v>0</v>
       </c>
       <c r="I137" s="4" t="s">
@@ -5314,8 +5569,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="138" ht="11" customHeight="true">
-      <c r="A138" s="3" t="n">
+    <row r="138" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A138" s="3">
         <v>136</v>
       </c>
       <c r="B138" s="4" t="s">
@@ -5324,19 +5579,19 @@
       <c r="C138" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D138" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E138" s="6" t="n">
+      <c r="D138" s="3">
+        <v>0</v>
+      </c>
+      <c r="E138" s="6">
         <v>14928.12</v>
       </c>
-      <c r="F138" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G138" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H138" s="3" t="n">
+      <c r="F138" s="3">
+        <v>0</v>
+      </c>
+      <c r="G138" s="3">
+        <v>0</v>
+      </c>
+      <c r="H138" s="3">
         <v>0</v>
       </c>
       <c r="I138" s="4" t="s">
@@ -5349,8 +5604,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="139" ht="11" customHeight="true">
-      <c r="A139" s="3" t="n">
+    <row r="139" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A139" s="3">
         <v>137</v>
       </c>
       <c r="B139" s="4" t="s">
@@ -5359,19 +5614,19 @@
       <c r="C139" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D139" s="6" t="n">
+      <c r="D139" s="6">
         <v>5513.37</v>
       </c>
-      <c r="E139" s="6" t="n">
+      <c r="E139" s="6">
         <v>164581.65</v>
       </c>
-      <c r="F139" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G139" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H139" s="3" t="n">
+      <c r="F139" s="3">
+        <v>0</v>
+      </c>
+      <c r="G139" s="3">
+        <v>0</v>
+      </c>
+      <c r="H139" s="3">
         <v>0</v>
       </c>
       <c r="I139" s="4" t="s">
@@ -5384,8 +5639,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="140" ht="11" customHeight="true">
-      <c r="A140" s="3" t="n">
+    <row r="140" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A140" s="3">
         <v>138</v>
       </c>
       <c r="B140" s="4" t="s">
@@ -5394,19 +5649,19 @@
       <c r="C140" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D140" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E140" s="6" t="n">
+      <c r="D140" s="3">
+        <v>0</v>
+      </c>
+      <c r="E140" s="6">
         <v>72407.16</v>
       </c>
-      <c r="F140" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G140" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H140" s="3" t="n">
+      <c r="F140" s="3">
+        <v>0</v>
+      </c>
+      <c r="G140" s="3">
+        <v>0</v>
+      </c>
+      <c r="H140" s="3">
         <v>0</v>
       </c>
       <c r="I140" s="4" t="s">
@@ -5419,8 +5674,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="141" ht="11" customHeight="true">
-      <c r="A141" s="3" t="n">
+    <row r="141" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A141" s="3">
         <v>139</v>
       </c>
       <c r="B141" s="4" t="s">
@@ -5429,19 +5684,19 @@
       <c r="C141" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D141" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E141" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F141" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G141" s="5" t="n">
+      <c r="D141" s="3">
+        <v>0</v>
+      </c>
+      <c r="E141" s="3">
+        <v>0</v>
+      </c>
+      <c r="F141" s="3">
+        <v>0</v>
+      </c>
+      <c r="G141" s="5">
         <v>90000</v>
       </c>
-      <c r="H141" s="5" t="n">
+      <c r="H141" s="5">
         <v>90000</v>
       </c>
       <c r="I141" s="4" t="s">
@@ -5454,8 +5709,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="142" ht="11" customHeight="true">
-      <c r="A142" s="3" t="n">
+    <row r="142" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A142" s="3">
         <v>140</v>
       </c>
       <c r="B142" s="4" t="s">
@@ -5464,19 +5719,19 @@
       <c r="C142" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D142" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E142" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F142" s="5" t="n">
+      <c r="D142" s="3">
+        <v>0</v>
+      </c>
+      <c r="E142" s="3">
+        <v>0</v>
+      </c>
+      <c r="F142" s="5">
         <v>7000</v>
       </c>
-      <c r="G142" s="5" t="n">
+      <c r="G142" s="5">
         <v>1000</v>
       </c>
-      <c r="H142" s="5" t="n">
+      <c r="H142" s="5">
         <v>1000</v>
       </c>
       <c r="I142" s="4" t="s">
@@ -5489,8 +5744,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="143" ht="11" customHeight="true">
-      <c r="A143" s="3" t="n">
+    <row r="143" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A143" s="3">
         <v>141</v>
       </c>
       <c r="B143" s="4" t="s">
@@ -5499,19 +5754,19 @@
       <c r="C143" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D143" s="6" t="n">
+      <c r="D143" s="6">
         <v>14470.51</v>
       </c>
-      <c r="E143" s="6" t="n">
+      <c r="E143" s="6">
         <v>37155.24</v>
       </c>
-      <c r="F143" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G143" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H143" s="3" t="n">
+      <c r="F143" s="3">
+        <v>0</v>
+      </c>
+      <c r="G143" s="3">
+        <v>0</v>
+      </c>
+      <c r="H143" s="3">
         <v>0</v>
       </c>
       <c r="I143" s="4" t="s">
@@ -5524,8 +5779,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="144" ht="11" customHeight="true">
-      <c r="A144" s="3" t="n">
+    <row r="144" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A144" s="3">
         <v>142</v>
       </c>
       <c r="B144" s="4" t="s">
@@ -5534,19 +5789,19 @@
       <c r="C144" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D144" s="6" t="n">
+      <c r="D144" s="6">
         <v>213418.61</v>
       </c>
-      <c r="E144" s="8" t="n">
-        <v>270120.6</v>
-      </c>
-      <c r="F144" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G144" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H144" s="3" t="n">
+      <c r="E144" s="8">
+        <v>270120.59999999998</v>
+      </c>
+      <c r="F144" s="3">
+        <v>0</v>
+      </c>
+      <c r="G144" s="3">
+        <v>0</v>
+      </c>
+      <c r="H144" s="3">
         <v>0</v>
       </c>
       <c r="I144" s="4" t="s">
@@ -5559,8 +5814,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="145" ht="11" customHeight="true">
-      <c r="A145" s="3" t="n">
+    <row r="145" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A145" s="3">
         <v>143</v>
       </c>
       <c r="B145" s="4" t="s">
@@ -5569,19 +5824,19 @@
       <c r="C145" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D145" s="8" t="n">
+      <c r="D145" s="8">
         <v>64366.8</v>
       </c>
-      <c r="E145" s="8" t="n">
+      <c r="E145" s="8">
         <v>159913.5</v>
       </c>
-      <c r="F145" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G145" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H145" s="3" t="n">
+      <c r="F145" s="3">
+        <v>0</v>
+      </c>
+      <c r="G145" s="3">
+        <v>0</v>
+      </c>
+      <c r="H145" s="3">
         <v>0</v>
       </c>
       <c r="I145" s="4" t="s">
@@ -5594,8 +5849,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="146" ht="11" customHeight="true">
-      <c r="A146" s="3" t="n">
+    <row r="146" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A146" s="3">
         <v>144</v>
       </c>
       <c r="B146" s="4" t="s">
@@ -5604,19 +5859,19 @@
       <c r="C146" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D146" s="8" t="n">
-        <v>52324.8</v>
-      </c>
-      <c r="E146" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F146" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G146" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H146" s="3" t="n">
+      <c r="D146" s="8">
+        <v>52324.800000000003</v>
+      </c>
+      <c r="E146" s="3">
+        <v>0</v>
+      </c>
+      <c r="F146" s="3">
+        <v>0</v>
+      </c>
+      <c r="G146" s="3">
+        <v>0</v>
+      </c>
+      <c r="H146" s="3">
         <v>0</v>
       </c>
       <c r="I146" s="4" t="s">
@@ -5629,8 +5884,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="147" ht="11" customHeight="true">
-      <c r="A147" s="3" t="n">
+    <row r="147" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A147" s="3">
         <v>145</v>
       </c>
       <c r="B147" s="4" t="s">
@@ -5639,19 +5894,19 @@
       <c r="C147" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D147" s="5" t="n">
+      <c r="D147" s="5">
         <v>11600000</v>
       </c>
-      <c r="E147" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F147" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G147" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H147" s="3" t="n">
+      <c r="E147" s="3">
+        <v>0</v>
+      </c>
+      <c r="F147" s="3">
+        <v>0</v>
+      </c>
+      <c r="G147" s="3">
+        <v>0</v>
+      </c>
+      <c r="H147" s="3">
         <v>0</v>
       </c>
       <c r="I147" s="4" t="s">
@@ -5664,8 +5919,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="148" ht="11" customHeight="true">
-      <c r="A148" s="3" t="n">
+    <row r="148" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A148" s="3">
         <v>146</v>
       </c>
       <c r="B148" s="4" t="s">
@@ -5674,19 +5929,19 @@
       <c r="C148" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D148" s="6" t="n">
-        <v>1274805.36</v>
-      </c>
-      <c r="E148" s="6" t="n">
-        <v>1274805.36</v>
-      </c>
-      <c r="F148" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G148" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H148" s="3" t="n">
+      <c r="D148" s="6">
+        <v>1274805.3600000001</v>
+      </c>
+      <c r="E148" s="6">
+        <v>1274805.3600000001</v>
+      </c>
+      <c r="F148" s="3">
+        <v>0</v>
+      </c>
+      <c r="G148" s="3">
+        <v>0</v>
+      </c>
+      <c r="H148" s="3">
         <v>0</v>
       </c>
       <c r="I148" s="4" t="s">
@@ -5699,8 +5954,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="149" ht="11" customHeight="true">
-      <c r="A149" s="3" t="n">
+    <row r="149" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A149" s="3">
         <v>147</v>
       </c>
       <c r="B149" s="4" t="s">
@@ -5709,19 +5964,19 @@
       <c r="C149" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D149" s="5" t="n">
+      <c r="D149" s="5">
         <v>280000</v>
       </c>
-      <c r="E149" s="5" t="n">
+      <c r="E149" s="5">
         <v>280000</v>
       </c>
-      <c r="F149" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G149" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H149" s="3" t="n">
+      <c r="F149" s="3">
+        <v>0</v>
+      </c>
+      <c r="G149" s="3">
+        <v>0</v>
+      </c>
+      <c r="H149" s="3">
         <v>0</v>
       </c>
       <c r="I149" s="4" t="s">
@@ -5734,8 +5989,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="150" ht="11" customHeight="true">
-      <c r="A150" s="3" t="n">
+    <row r="150" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A150" s="3">
         <v>148</v>
       </c>
       <c r="B150" s="4" t="s">
@@ -5744,19 +5999,19 @@
       <c r="C150" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D150" s="5" t="n">
+      <c r="D150" s="5">
         <v>280000</v>
       </c>
-      <c r="E150" s="5" t="n">
+      <c r="E150" s="5">
         <v>280000</v>
       </c>
-      <c r="F150" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G150" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H150" s="3" t="n">
+      <c r="F150" s="3">
+        <v>0</v>
+      </c>
+      <c r="G150" s="3">
+        <v>0</v>
+      </c>
+      <c r="H150" s="3">
         <v>0</v>
       </c>
       <c r="I150" s="4" t="s">
@@ -5769,8 +6024,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="151" ht="11" customHeight="true">
-      <c r="A151" s="3" t="n">
+    <row r="151" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A151" s="3">
         <v>149</v>
       </c>
       <c r="B151" s="4" t="s">
@@ -5779,19 +6034,19 @@
       <c r="C151" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D151" s="5" t="n">
+      <c r="D151" s="5">
         <v>260000</v>
       </c>
-      <c r="E151" s="5" t="n">
+      <c r="E151" s="5">
         <v>260000</v>
       </c>
-      <c r="F151" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G151" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H151" s="3" t="n">
+      <c r="F151" s="3">
+        <v>0</v>
+      </c>
+      <c r="G151" s="3">
+        <v>0</v>
+      </c>
+      <c r="H151" s="3">
         <v>0</v>
       </c>
       <c r="I151" s="4" t="s">
@@ -5804,8 +6059,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="152" ht="11" customHeight="true">
-      <c r="A152" s="3" t="n">
+    <row r="152" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A152" s="3">
         <v>150</v>
       </c>
       <c r="B152" s="4" t="s">
@@ -5814,19 +6069,19 @@
       <c r="C152" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D152" s="5" t="n">
+      <c r="D152" s="5">
         <v>280000</v>
       </c>
-      <c r="E152" s="5" t="n">
+      <c r="E152" s="5">
         <v>280000</v>
       </c>
-      <c r="F152" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G152" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H152" s="3" t="n">
+      <c r="F152" s="3">
+        <v>0</v>
+      </c>
+      <c r="G152" s="3">
+        <v>0</v>
+      </c>
+      <c r="H152" s="3">
         <v>0</v>
       </c>
       <c r="I152" s="4" t="s">
@@ -5839,8 +6094,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="153" ht="11" customHeight="true">
-      <c r="A153" s="3" t="n">
+    <row r="153" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A153" s="3">
         <v>151</v>
       </c>
       <c r="B153" s="4" t="s">
@@ -5849,19 +6104,19 @@
       <c r="C153" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D153" s="6" t="n">
+      <c r="D153" s="6">
         <v>11741.71</v>
       </c>
-      <c r="E153" s="6" t="n">
+      <c r="E153" s="6">
         <v>29354.28</v>
       </c>
-      <c r="F153" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G153" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H153" s="3" t="n">
+      <c r="F153" s="3">
+        <v>0</v>
+      </c>
+      <c r="G153" s="3">
+        <v>0</v>
+      </c>
+      <c r="H153" s="3">
         <v>0</v>
       </c>
       <c r="I153" s="4" t="s">
@@ -5874,8 +6129,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="154" ht="11" customHeight="true">
-      <c r="A154" s="3" t="n">
+    <row r="154" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A154" s="3">
         <v>152</v>
       </c>
       <c r="B154" s="4" t="s">
@@ -5884,19 +6139,19 @@
       <c r="C154" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D154" s="6" t="n">
+      <c r="D154" s="6">
         <v>3032399.68</v>
       </c>
-      <c r="E154" s="6" t="n">
+      <c r="E154" s="6">
         <v>16112218.99</v>
       </c>
-      <c r="F154" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G154" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H154" s="3" t="n">
+      <c r="F154" s="3">
+        <v>0</v>
+      </c>
+      <c r="G154" s="3">
+        <v>0</v>
+      </c>
+      <c r="H154" s="3">
         <v>0</v>
       </c>
       <c r="I154" s="4" t="s">
@@ -5909,8 +6164,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="155" ht="11" customHeight="true">
-      <c r="A155" s="3" t="n">
+    <row r="155" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A155" s="3">
         <v>153</v>
       </c>
       <c r="B155" s="4" t="s">
@@ -5919,19 +6174,19 @@
       <c r="C155" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D155" s="6" t="n">
+      <c r="D155" s="6">
         <v>27390.01</v>
       </c>
-      <c r="E155" s="6" t="n">
+      <c r="E155" s="6">
         <v>65695.89</v>
       </c>
-      <c r="F155" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G155" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H155" s="3" t="n">
+      <c r="F155" s="3">
+        <v>0</v>
+      </c>
+      <c r="G155" s="3">
+        <v>0</v>
+      </c>
+      <c r="H155" s="3">
         <v>0</v>
       </c>
       <c r="I155" s="4" t="s">
@@ -5944,8 +6199,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="156" ht="11" customHeight="true">
-      <c r="A156" s="3" t="n">
+    <row r="156" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A156" s="3">
         <v>154</v>
       </c>
       <c r="B156" s="4" t="s">
@@ -5954,19 +6209,19 @@
       <c r="C156" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D156" s="5" t="n">
+      <c r="D156" s="5">
         <v>1000000</v>
       </c>
-      <c r="E156" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F156" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G156" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H156" s="3" t="n">
+      <c r="E156" s="3">
+        <v>0</v>
+      </c>
+      <c r="F156" s="3">
+        <v>0</v>
+      </c>
+      <c r="G156" s="3">
+        <v>0</v>
+      </c>
+      <c r="H156" s="3">
         <v>0</v>
       </c>
       <c r="I156" s="4" t="s">
@@ -5979,8 +6234,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="157" ht="11" customHeight="true">
-      <c r="A157" s="3" t="n">
+    <row r="157" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A157" s="3">
         <v>155</v>
       </c>
       <c r="B157" s="4" t="s">
@@ -5989,19 +6244,19 @@
       <c r="C157" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D157" s="5" t="n">
+      <c r="D157" s="5">
         <v>45000</v>
       </c>
-      <c r="E157" s="5" t="n">
+      <c r="E157" s="5">
         <v>112500</v>
       </c>
-      <c r="F157" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G157" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H157" s="3" t="n">
+      <c r="F157" s="3">
+        <v>0</v>
+      </c>
+      <c r="G157" s="3">
+        <v>0</v>
+      </c>
+      <c r="H157" s="3">
         <v>0</v>
       </c>
       <c r="I157" s="4" t="s">
@@ -6014,8 +6269,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="158" ht="11" customHeight="true">
-      <c r="A158" s="3" t="n">
+    <row r="158" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A158" s="3">
         <v>156</v>
       </c>
       <c r="B158" s="4" t="s">
@@ -6024,19 +6279,19 @@
       <c r="C158" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D158" s="6" t="n">
+      <c r="D158" s="6">
         <v>46216.32</v>
       </c>
-      <c r="E158" s="6" t="n">
+      <c r="E158" s="6">
         <v>15405.44</v>
       </c>
-      <c r="F158" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G158" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H158" s="3" t="n">
+      <c r="F158" s="3">
+        <v>0</v>
+      </c>
+      <c r="G158" s="3">
+        <v>0</v>
+      </c>
+      <c r="H158" s="3">
         <v>0</v>
       </c>
       <c r="I158" s="4" t="s">
@@ -6049,8 +6304,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="159" ht="11" customHeight="true">
-      <c r="A159" s="3" t="n">
+    <row r="159" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A159" s="3">
         <v>157</v>
       </c>
       <c r="B159" s="4" t="s">
@@ -6059,19 +6314,19 @@
       <c r="C159" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D159" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E159" s="5" t="n">
+      <c r="D159" s="3">
+        <v>0</v>
+      </c>
+      <c r="E159" s="5">
         <v>47250</v>
       </c>
-      <c r="F159" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G159" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H159" s="3" t="n">
+      <c r="F159" s="3">
+        <v>0</v>
+      </c>
+      <c r="G159" s="3">
+        <v>0</v>
+      </c>
+      <c r="H159" s="3">
         <v>0</v>
       </c>
       <c r="I159" s="4" t="s">
@@ -6084,8 +6339,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="160" ht="11" customHeight="true">
-      <c r="A160" s="3" t="n">
+    <row r="160" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A160" s="3">
         <v>158</v>
       </c>
       <c r="B160" s="4" t="s">
@@ -6094,19 +6349,19 @@
       <c r="C160" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D160" s="5" t="n">
+      <c r="D160" s="5">
         <v>7560</v>
       </c>
-      <c r="E160" s="5" t="n">
+      <c r="E160" s="5">
         <v>15000</v>
       </c>
-      <c r="F160" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G160" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H160" s="3" t="n">
+      <c r="F160" s="3">
+        <v>0</v>
+      </c>
+      <c r="G160" s="3">
+        <v>0</v>
+      </c>
+      <c r="H160" s="3">
         <v>0</v>
       </c>
       <c r="I160" s="4" t="s">
@@ -6119,8 +6374,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="161" ht="11" customHeight="true">
-      <c r="A161" s="3" t="n">
+    <row r="161" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A161" s="3">
         <v>159</v>
       </c>
       <c r="B161" s="4" t="s">
@@ -6129,19 +6384,19 @@
       <c r="C161" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D161" s="6" t="n">
+      <c r="D161" s="6">
         <v>6573.54</v>
       </c>
-      <c r="E161" s="6" t="n">
+      <c r="E161" s="6">
         <v>3286.77</v>
       </c>
-      <c r="F161" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G161" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H161" s="3" t="n">
+      <c r="F161" s="3">
+        <v>0</v>
+      </c>
+      <c r="G161" s="3">
+        <v>0</v>
+      </c>
+      <c r="H161" s="3">
         <v>0</v>
       </c>
       <c r="I161" s="4" t="s">
@@ -6154,8 +6409,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="162" ht="11" customHeight="true">
-      <c r="A162" s="3" t="n">
+    <row r="162" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A162" s="3">
         <v>160</v>
       </c>
       <c r="B162" s="4" t="s">
@@ -6164,19 +6419,19 @@
       <c r="C162" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D162" s="5" t="n">
+      <c r="D162" s="5">
         <v>300000</v>
       </c>
-      <c r="E162" s="6" t="n">
+      <c r="E162" s="6">
         <v>50090.01</v>
       </c>
-      <c r="F162" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G162" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H162" s="3" t="n">
+      <c r="F162" s="3">
+        <v>0</v>
+      </c>
+      <c r="G162" s="3">
+        <v>0</v>
+      </c>
+      <c r="H162" s="3">
         <v>0</v>
       </c>
       <c r="I162" s="4" t="s">
@@ -6189,8 +6444,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="163" ht="11" customHeight="true">
-      <c r="A163" s="3" t="n">
+    <row r="163" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A163" s="3">
         <v>161</v>
       </c>
       <c r="B163" s="4" t="s">
@@ -6199,19 +6454,19 @@
       <c r="C163" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D163" s="9" t="n">
+      <c r="D163" s="9">
         <v>461.9</v>
       </c>
-      <c r="E163" s="6" t="n">
+      <c r="E163" s="6">
         <v>1154.76</v>
       </c>
-      <c r="F163" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G163" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H163" s="3" t="n">
+      <c r="F163" s="3">
+        <v>0</v>
+      </c>
+      <c r="G163" s="3">
+        <v>0</v>
+      </c>
+      <c r="H163" s="3">
         <v>0</v>
       </c>
       <c r="I163" s="4" t="s">
@@ -6224,8 +6479,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="164" ht="11" customHeight="true">
-      <c r="A164" s="3" t="n">
+    <row r="164" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A164" s="3">
         <v>162</v>
       </c>
       <c r="B164" s="4" t="s">
@@ -6234,19 +6489,19 @@
       <c r="C164" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D164" s="5" t="n">
+      <c r="D164" s="5">
         <v>42000</v>
       </c>
-      <c r="E164" s="6" t="n">
-        <v>31465.92</v>
-      </c>
-      <c r="F164" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G164" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H164" s="3" t="n">
+      <c r="E164" s="6">
+        <v>31465.919999999998</v>
+      </c>
+      <c r="F164" s="3">
+        <v>0</v>
+      </c>
+      <c r="G164" s="3">
+        <v>0</v>
+      </c>
+      <c r="H164" s="3">
         <v>0</v>
       </c>
       <c r="I164" s="4" t="s">
@@ -6259,8 +6514,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="165" ht="11" customHeight="true">
-      <c r="A165" s="3" t="n">
+    <row r="165" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A165" s="3">
         <v>163</v>
       </c>
       <c r="B165" s="4" t="s">
@@ -6269,19 +6524,19 @@
       <c r="C165" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D165" s="6" t="n">
-        <v>5240.94</v>
-      </c>
-      <c r="E165" s="6" t="n">
+      <c r="D165" s="6">
+        <v>5240.9399999999996</v>
+      </c>
+      <c r="E165" s="6">
         <v>2156.69</v>
       </c>
-      <c r="F165" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G165" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H165" s="3" t="n">
+      <c r="F165" s="3">
+        <v>0</v>
+      </c>
+      <c r="G165" s="3">
+        <v>0</v>
+      </c>
+      <c r="H165" s="3">
         <v>0</v>
       </c>
       <c r="I165" s="4" t="s">
@@ -6294,8 +6549,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="166" ht="11" customHeight="true">
-      <c r="A166" s="3" t="n">
+    <row r="166" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A166" s="3">
         <v>164</v>
       </c>
       <c r="B166" s="4" t="s">
@@ -6304,19 +6559,19 @@
       <c r="C166" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D166" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E166" s="6" t="n">
+      <c r="D166" s="3">
+        <v>0</v>
+      </c>
+      <c r="E166" s="6">
         <v>14926.78</v>
       </c>
-      <c r="F166" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G166" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H166" s="3" t="n">
+      <c r="F166" s="3">
+        <v>0</v>
+      </c>
+      <c r="G166" s="3">
+        <v>0</v>
+      </c>
+      <c r="H166" s="3">
         <v>0</v>
       </c>
       <c r="I166" s="4" t="s">
@@ -6329,8 +6584,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="167" ht="11" customHeight="true">
-      <c r="A167" s="3" t="n">
+    <row r="167" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A167" s="3">
         <v>165</v>
       </c>
       <c r="B167" s="4" t="s">
@@ -6339,19 +6594,19 @@
       <c r="C167" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D167" s="5" t="n">
+      <c r="D167" s="5">
         <v>22500</v>
       </c>
-      <c r="E167" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F167" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G167" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H167" s="3" t="n">
+      <c r="E167" s="3">
+        <v>0</v>
+      </c>
+      <c r="F167" s="3">
+        <v>0</v>
+      </c>
+      <c r="G167" s="3">
+        <v>0</v>
+      </c>
+      <c r="H167" s="3">
         <v>0</v>
       </c>
       <c r="I167" s="4" t="s">
@@ -6364,8 +6619,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="168" ht="11" customHeight="true">
-      <c r="A168" s="3" t="n">
+    <row r="168" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A168" s="3">
         <v>166</v>
       </c>
       <c r="B168" s="4" t="s">
@@ -6374,19 +6629,19 @@
       <c r="C168" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D168" s="5" t="n">
+      <c r="D168" s="5">
         <v>76930</v>
       </c>
-      <c r="E168" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F168" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G168" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H168" s="3" t="n">
+      <c r="E168" s="3">
+        <v>0</v>
+      </c>
+      <c r="F168" s="3">
+        <v>0</v>
+      </c>
+      <c r="G168" s="3">
+        <v>0</v>
+      </c>
+      <c r="H168" s="3">
         <v>0</v>
       </c>
       <c r="I168" s="4" t="s">
@@ -6399,8 +6654,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="169" ht="11" customHeight="true">
-      <c r="A169" s="3" t="n">
+    <row r="169" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A169" s="3">
         <v>167</v>
       </c>
       <c r="B169" s="4" t="s">
@@ -6409,19 +6664,19 @@
       <c r="C169" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D169" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E169" s="6" t="n">
+      <c r="D169" s="3">
+        <v>0</v>
+      </c>
+      <c r="E169" s="6">
         <v>21602975.18</v>
       </c>
-      <c r="F169" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G169" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H169" s="3" t="n">
+      <c r="F169" s="3">
+        <v>0</v>
+      </c>
+      <c r="G169" s="3">
+        <v>0</v>
+      </c>
+      <c r="H169" s="3">
         <v>0</v>
       </c>
       <c r="I169" s="4" t="s">
@@ -6434,8 +6689,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="170" ht="11" customHeight="true">
-      <c r="A170" s="3" t="n">
+    <row r="170" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A170" s="3">
         <v>168</v>
       </c>
       <c r="B170" s="4" t="s">
@@ -6444,19 +6699,19 @@
       <c r="C170" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D170" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E170" s="6" t="n">
+      <c r="D170" s="3">
+        <v>0</v>
+      </c>
+      <c r="E170" s="6">
         <v>58237.37</v>
       </c>
-      <c r="F170" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G170" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H170" s="3" t="n">
+      <c r="F170" s="3">
+        <v>0</v>
+      </c>
+      <c r="G170" s="3">
+        <v>0</v>
+      </c>
+      <c r="H170" s="3">
         <v>0</v>
       </c>
       <c r="I170" s="4" t="s">
@@ -6469,8 +6724,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="171" ht="11" customHeight="true">
-      <c r="A171" s="3" t="n">
+    <row r="171" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A171" s="3">
         <v>169</v>
       </c>
       <c r="B171" s="4" t="s">
@@ -6479,19 +6734,19 @@
       <c r="C171" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D171" s="6" t="n">
+      <c r="D171" s="6">
         <v>300632.87</v>
       </c>
-      <c r="E171" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F171" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G171" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H171" s="3" t="n">
+      <c r="E171" s="3">
+        <v>0</v>
+      </c>
+      <c r="F171" s="3">
+        <v>0</v>
+      </c>
+      <c r="G171" s="3">
+        <v>0</v>
+      </c>
+      <c r="H171" s="3">
         <v>0</v>
       </c>
       <c r="I171" s="4" t="s">
@@ -6504,8 +6759,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="172" ht="11" customHeight="true">
-      <c r="A172" s="3" t="n">
+    <row r="172" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A172" s="3">
         <v>170</v>
       </c>
       <c r="B172" s="4" t="s">
@@ -6514,19 +6769,19 @@
       <c r="C172" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D172" s="6" t="n">
+      <c r="D172" s="6">
         <v>14647.79</v>
       </c>
-      <c r="E172" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F172" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G172" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H172" s="3" t="n">
+      <c r="E172" s="3">
+        <v>0</v>
+      </c>
+      <c r="F172" s="3">
+        <v>0</v>
+      </c>
+      <c r="G172" s="3">
+        <v>0</v>
+      </c>
+      <c r="H172" s="3">
         <v>0</v>
       </c>
       <c r="I172" s="4" t="s">
@@ -6539,8 +6794,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="173" ht="11" customHeight="true">
-      <c r="A173" s="3" t="n">
+    <row r="173" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A173" s="3">
         <v>171</v>
       </c>
       <c r="B173" s="4" t="s">
@@ -6549,19 +6804,19 @@
       <c r="C173" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D173" s="5" t="n">
+      <c r="D173" s="5">
         <v>100000</v>
       </c>
-      <c r="E173" s="6" t="n">
+      <c r="E173" s="6">
         <v>125000.01</v>
       </c>
-      <c r="F173" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G173" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H173" s="3" t="n">
+      <c r="F173" s="3">
+        <v>0</v>
+      </c>
+      <c r="G173" s="3">
+        <v>0</v>
+      </c>
+      <c r="H173" s="3">
         <v>0</v>
       </c>
       <c r="I173" s="4" t="s">
@@ -6574,8 +6829,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="174" ht="11" customHeight="true">
-      <c r="A174" s="3" t="n">
+    <row r="174" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A174" s="3">
         <v>172</v>
       </c>
       <c r="B174" s="4" t="s">
@@ -6584,19 +6839,19 @@
       <c r="C174" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D174" s="5" t="n">
+      <c r="D174" s="5">
         <v>40800</v>
       </c>
-      <c r="E174" s="5" t="n">
+      <c r="E174" s="5">
         <v>102000</v>
       </c>
-      <c r="F174" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G174" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H174" s="3" t="n">
+      <c r="F174" s="3">
+        <v>0</v>
+      </c>
+      <c r="G174" s="3">
+        <v>0</v>
+      </c>
+      <c r="H174" s="3">
         <v>0</v>
       </c>
       <c r="I174" s="4" t="s">
@@ -6609,8 +6864,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="175" ht="11" customHeight="true">
-      <c r="A175" s="3" t="n">
+    <row r="175" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A175" s="3">
         <v>173</v>
       </c>
       <c r="B175" s="4" t="s">
@@ -6619,19 +6874,19 @@
       <c r="C175" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D175" s="6" t="n">
-        <v>78630.29</v>
-      </c>
-      <c r="E175" s="6" t="n">
+      <c r="D175" s="6">
+        <v>78630.289999999994</v>
+      </c>
+      <c r="E175" s="6">
         <v>171570.09</v>
       </c>
-      <c r="F175" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G175" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H175" s="3" t="n">
+      <c r="F175" s="3">
+        <v>0</v>
+      </c>
+      <c r="G175" s="3">
+        <v>0</v>
+      </c>
+      <c r="H175" s="3">
         <v>0</v>
       </c>
       <c r="I175" s="4" t="s">
@@ -6644,8 +6899,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="176" ht="11" customHeight="true">
-      <c r="A176" s="3" t="n">
+    <row r="176" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A176" s="3">
         <v>174</v>
       </c>
       <c r="B176" s="4" t="s">
@@ -6654,19 +6909,19 @@
       <c r="C176" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D176" s="5" t="n">
+      <c r="D176" s="5">
         <v>4750</v>
       </c>
-      <c r="E176" s="5" t="n">
+      <c r="E176" s="5">
         <v>10450</v>
       </c>
-      <c r="F176" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G176" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H176" s="3" t="n">
+      <c r="F176" s="3">
+        <v>0</v>
+      </c>
+      <c r="G176" s="3">
+        <v>0</v>
+      </c>
+      <c r="H176" s="3">
         <v>0</v>
       </c>
       <c r="I176" s="4" t="s">
@@ -6679,8 +6934,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="177" ht="11" customHeight="true">
-      <c r="A177" s="3" t="n">
+    <row r="177" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A177" s="3">
         <v>175</v>
       </c>
       <c r="B177" s="4" t="s">
@@ -6689,19 +6944,19 @@
       <c r="C177" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D177" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E177" s="6" t="n">
+      <c r="D177" s="3">
+        <v>0</v>
+      </c>
+      <c r="E177" s="6">
         <v>2975594.14</v>
       </c>
-      <c r="F177" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G177" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H177" s="3" t="n">
+      <c r="F177" s="3">
+        <v>0</v>
+      </c>
+      <c r="G177" s="3">
+        <v>0</v>
+      </c>
+      <c r="H177" s="3">
         <v>0</v>
       </c>
       <c r="I177" s="4" t="s">
@@ -6714,8 +6969,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="178" ht="11" customHeight="true">
-      <c r="A178" s="3" t="n">
+    <row r="178" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A178" s="3">
         <v>176</v>
       </c>
       <c r="B178" s="4" t="s">
@@ -6724,19 +6979,19 @@
       <c r="C178" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D178" s="6" t="n">
+      <c r="D178" s="6">
         <v>2234634.63</v>
       </c>
-      <c r="E178" s="6" t="n">
-        <v>13334635.97</v>
-      </c>
-      <c r="F178" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G178" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H178" s="3" t="n">
+      <c r="E178" s="6">
+        <v>13334635.970000001</v>
+      </c>
+      <c r="F178" s="3">
+        <v>0</v>
+      </c>
+      <c r="G178" s="3">
+        <v>0</v>
+      </c>
+      <c r="H178" s="3">
         <v>0</v>
       </c>
       <c r="I178" s="4" t="s">
@@ -6749,8 +7004,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="179" ht="11" customHeight="true">
-      <c r="A179" s="3" t="n">
+    <row r="179" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A179" s="3">
         <v>177</v>
       </c>
       <c r="B179" s="4" t="s">
@@ -6759,19 +7014,19 @@
       <c r="C179" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D179" s="6" t="n">
+      <c r="D179" s="6">
         <v>1611596.19</v>
       </c>
-      <c r="E179" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F179" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G179" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H179" s="3" t="n">
+      <c r="E179" s="3">
+        <v>0</v>
+      </c>
+      <c r="F179" s="3">
+        <v>0</v>
+      </c>
+      <c r="G179" s="3">
+        <v>0</v>
+      </c>
+      <c r="H179" s="3">
         <v>0</v>
       </c>
       <c r="I179" s="4" t="s">
@@ -6784,8 +7039,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="180" ht="11" customHeight="true">
-      <c r="A180" s="3" t="n">
+    <row r="180" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A180" s="3">
         <v>178</v>
       </c>
       <c r="B180" s="4" t="s">
@@ -6794,19 +7049,19 @@
       <c r="C180" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D180" s="8" t="n">
+      <c r="D180" s="8">
         <v>4594738.3</v>
       </c>
-      <c r="E180" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F180" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G180" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H180" s="3" t="n">
+      <c r="E180" s="3">
+        <v>0</v>
+      </c>
+      <c r="F180" s="3">
+        <v>0</v>
+      </c>
+      <c r="G180" s="3">
+        <v>0</v>
+      </c>
+      <c r="H180" s="3">
         <v>0</v>
       </c>
       <c r="I180" s="4" t="s">
@@ -6819,8 +7074,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="181" ht="11" customHeight="true">
-      <c r="A181" s="3" t="n">
+    <row r="181" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A181" s="3">
         <v>179</v>
       </c>
       <c r="B181" s="4" t="s">
@@ -6829,19 +7084,19 @@
       <c r="C181" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D181" s="6" t="n">
+      <c r="D181" s="6">
         <v>2301343.19</v>
       </c>
-      <c r="E181" s="6" t="n">
-        <v>19582032.42</v>
-      </c>
-      <c r="F181" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G181" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H181" s="3" t="n">
+      <c r="E181" s="6">
+        <v>19582032.420000002</v>
+      </c>
+      <c r="F181" s="3">
+        <v>0</v>
+      </c>
+      <c r="G181" s="3">
+        <v>0</v>
+      </c>
+      <c r="H181" s="3">
         <v>0</v>
       </c>
       <c r="I181" s="4" t="s">
@@ -6854,8 +7109,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="182" ht="11" customHeight="true">
-      <c r="A182" s="3" t="n">
+    <row r="182" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A182" s="3">
         <v>180</v>
       </c>
       <c r="B182" s="4" t="s">
@@ -6864,19 +7119,19 @@
       <c r="C182" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D182" s="5" t="n">
+      <c r="D182" s="5">
         <v>4761</v>
       </c>
-      <c r="E182" s="6" t="n">
+      <c r="E182" s="6">
         <v>22449.99</v>
       </c>
-      <c r="F182" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G182" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H182" s="3" t="n">
+      <c r="F182" s="3">
+        <v>0</v>
+      </c>
+      <c r="G182" s="3">
+        <v>0</v>
+      </c>
+      <c r="H182" s="3">
         <v>0</v>
       </c>
       <c r="I182" s="4" t="s">
@@ -6889,8 +7144,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="183" ht="11" customHeight="true">
-      <c r="A183" s="3" t="n">
+    <row r="183" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A183" s="3">
         <v>181</v>
       </c>
       <c r="B183" s="4" t="s">
@@ -6899,19 +7154,19 @@
       <c r="C183" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D183" s="6" t="n">
+      <c r="D183" s="6">
         <v>52655.96</v>
       </c>
-      <c r="E183" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F183" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G183" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H183" s="3" t="n">
+      <c r="E183" s="3">
+        <v>0</v>
+      </c>
+      <c r="F183" s="3">
+        <v>0</v>
+      </c>
+      <c r="G183" s="3">
+        <v>0</v>
+      </c>
+      <c r="H183" s="3">
         <v>0</v>
       </c>
       <c r="I183" s="4" t="s">
@@ -6924,8 +7179,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="184" ht="11" customHeight="true">
-      <c r="A184" s="3" t="n">
+    <row r="184" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A184" s="3">
         <v>182</v>
       </c>
       <c r="B184" s="4" t="s">
@@ -6934,19 +7189,19 @@
       <c r="C184" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D184" s="5" t="n">
+      <c r="D184" s="5">
         <v>20000000</v>
       </c>
-      <c r="E184" s="6" t="n">
-        <v>45925065.69</v>
-      </c>
-      <c r="F184" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G184" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H184" s="3" t="n">
+      <c r="E184" s="6">
+        <v>45925065.689999998</v>
+      </c>
+      <c r="F184" s="3">
+        <v>0</v>
+      </c>
+      <c r="G184" s="3">
+        <v>0</v>
+      </c>
+      <c r="H184" s="3">
         <v>0</v>
       </c>
       <c r="I184" s="4" t="s">
@@ -6959,8 +7214,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="185" ht="11" customHeight="true">
-      <c r="A185" s="3" t="n">
+    <row r="185" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A185" s="3">
         <v>183</v>
       </c>
       <c r="B185" s="4" t="s">
@@ -6969,19 +7224,19 @@
       <c r="C185" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D185" s="8" t="n">
+      <c r="D185" s="8">
         <v>4067.8</v>
       </c>
-      <c r="E185" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F185" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G185" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H185" s="3" t="n">
+      <c r="E185" s="3">
+        <v>0</v>
+      </c>
+      <c r="F185" s="3">
+        <v>0</v>
+      </c>
+      <c r="G185" s="3">
+        <v>0</v>
+      </c>
+      <c r="H185" s="3">
         <v>0</v>
       </c>
       <c r="I185" s="4" t="s">
@@ -6994,8 +7249,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="186" ht="11" customHeight="true">
-      <c r="A186" s="3" t="n">
+    <row r="186" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A186" s="3">
         <v>184</v>
       </c>
       <c r="B186" s="4" t="s">
@@ -7004,19 +7259,19 @@
       <c r="C186" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D186" s="5" t="n">
+      <c r="D186" s="5">
         <v>39738</v>
       </c>
-      <c r="E186" s="5" t="n">
+      <c r="E186" s="5">
         <v>99345</v>
       </c>
-      <c r="F186" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G186" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H186" s="3" t="n">
+      <c r="F186" s="3">
+        <v>0</v>
+      </c>
+      <c r="G186" s="3">
+        <v>0</v>
+      </c>
+      <c r="H186" s="3">
         <v>0</v>
       </c>
       <c r="I186" s="4" t="s">
@@ -7029,8 +7284,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="187" ht="11" customHeight="true">
-      <c r="A187" s="3" t="n">
+    <row r="187" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A187" s="3">
         <v>185</v>
       </c>
       <c r="B187" s="4" t="s">
@@ -7039,19 +7294,19 @@
       <c r="C187" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D187" s="6" t="n">
+      <c r="D187" s="6">
         <v>42937.96</v>
       </c>
-      <c r="E187" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F187" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G187" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H187" s="3" t="n">
+      <c r="E187" s="3">
+        <v>0</v>
+      </c>
+      <c r="F187" s="3">
+        <v>0</v>
+      </c>
+      <c r="G187" s="3">
+        <v>0</v>
+      </c>
+      <c r="H187" s="3">
         <v>0</v>
       </c>
       <c r="I187" s="4" t="s">
@@ -7064,8 +7319,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="188" ht="11" customHeight="true">
-      <c r="A188" s="3" t="n">
+    <row r="188" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A188" s="3">
         <v>186</v>
       </c>
       <c r="B188" s="4" t="s">
@@ -7074,19 +7329,19 @@
       <c r="C188" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D188" s="6" t="n">
+      <c r="D188" s="6">
         <v>73220.34</v>
       </c>
-      <c r="E188" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F188" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G188" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H188" s="3" t="n">
+      <c r="E188" s="3">
+        <v>0</v>
+      </c>
+      <c r="F188" s="3">
+        <v>0</v>
+      </c>
+      <c r="G188" s="3">
+        <v>0</v>
+      </c>
+      <c r="H188" s="3">
         <v>0</v>
       </c>
       <c r="I188" s="4" t="s">
@@ -7099,8 +7354,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="189" ht="11" customHeight="true">
-      <c r="A189" s="3" t="n">
+    <row r="189" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A189" s="3">
         <v>187</v>
       </c>
       <c r="B189" s="4" t="s">
@@ -7109,19 +7364,19 @@
       <c r="C189" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D189" s="6" t="n">
+      <c r="D189" s="6">
         <v>77738.89</v>
       </c>
-      <c r="E189" s="6" t="n">
+      <c r="E189" s="6">
         <v>154684.53</v>
       </c>
-      <c r="F189" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G189" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H189" s="3" t="n">
+      <c r="F189" s="3">
+        <v>0</v>
+      </c>
+      <c r="G189" s="3">
+        <v>0</v>
+      </c>
+      <c r="H189" s="3">
         <v>0</v>
       </c>
       <c r="I189" s="4" t="s">
@@ -7134,8 +7389,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="190" ht="11" customHeight="true">
-      <c r="A190" s="3" t="n">
+    <row r="190" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A190" s="3">
         <v>188</v>
       </c>
       <c r="B190" s="4" t="s">
@@ -7144,19 +7399,19 @@
       <c r="C190" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D190" s="5" t="n">
+      <c r="D190" s="5">
         <v>60480</v>
       </c>
-      <c r="E190" s="5" t="n">
+      <c r="E190" s="5">
         <v>66960</v>
       </c>
-      <c r="F190" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G190" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H190" s="3" t="n">
+      <c r="F190" s="3">
+        <v>0</v>
+      </c>
+      <c r="G190" s="3">
+        <v>0</v>
+      </c>
+      <c r="H190" s="3">
         <v>0</v>
       </c>
       <c r="I190" s="4" t="s">
@@ -7169,8 +7424,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="191" ht="11" customHeight="true">
-      <c r="A191" s="3" t="n">
+    <row r="191" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A191" s="3">
         <v>189</v>
       </c>
       <c r="B191" s="4" t="s">
@@ -7179,19 +7434,19 @@
       <c r="C191" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D191" s="8" t="n">
+      <c r="D191" s="8">
         <v>1423.2</v>
       </c>
-      <c r="E191" s="5" t="n">
+      <c r="E191" s="5">
         <v>1779</v>
       </c>
-      <c r="F191" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G191" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H191" s="3" t="n">
+      <c r="F191" s="3">
+        <v>0</v>
+      </c>
+      <c r="G191" s="3">
+        <v>0</v>
+      </c>
+      <c r="H191" s="3">
         <v>0</v>
       </c>
       <c r="I191" s="4" t="s">
@@ -7204,8 +7459,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="192" ht="11" customHeight="true">
-      <c r="A192" s="3" t="n">
+    <row r="192" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A192" s="3">
         <v>190</v>
       </c>
       <c r="B192" s="4" t="s">
@@ -7214,19 +7469,19 @@
       <c r="C192" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D192" s="6" t="n">
-        <v>81096.29</v>
-      </c>
-      <c r="E192" s="6" t="n">
+      <c r="D192" s="6">
+        <v>81096.289999999994</v>
+      </c>
+      <c r="E192" s="6">
         <v>147501.84</v>
       </c>
-      <c r="F192" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G192" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H192" s="3" t="n">
+      <c r="F192" s="3">
+        <v>0</v>
+      </c>
+      <c r="G192" s="3">
+        <v>0</v>
+      </c>
+      <c r="H192" s="3">
         <v>0</v>
       </c>
       <c r="I192" s="4" t="s">
@@ -7239,8 +7494,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="193" ht="11" customHeight="true">
-      <c r="A193" s="3" t="n">
+    <row r="193" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A193" s="3">
         <v>191</v>
       </c>
       <c r="B193" s="4" t="s">
@@ -7249,19 +7504,19 @@
       <c r="C193" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D193" s="8" t="n">
+      <c r="D193" s="8">
         <v>48291.6</v>
       </c>
-      <c r="E193" s="6" t="n">
+      <c r="E193" s="6">
         <v>69450.75</v>
       </c>
-      <c r="F193" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G193" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H193" s="3" t="n">
+      <c r="F193" s="3">
+        <v>0</v>
+      </c>
+      <c r="G193" s="3">
+        <v>0</v>
+      </c>
+      <c r="H193" s="3">
         <v>0</v>
       </c>
       <c r="I193" s="4" t="s">
@@ -7274,8 +7529,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="194" ht="11" customHeight="true">
-      <c r="A194" s="3" t="n">
+    <row r="194" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A194" s="3">
         <v>192</v>
       </c>
       <c r="B194" s="4" t="s">
@@ -7284,19 +7539,19 @@
       <c r="C194" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D194" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E194" s="6" t="n">
+      <c r="D194" s="3">
+        <v>0</v>
+      </c>
+      <c r="E194" s="6">
         <v>1590.27</v>
       </c>
-      <c r="F194" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G194" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H194" s="3" t="n">
+      <c r="F194" s="3">
+        <v>0</v>
+      </c>
+      <c r="G194" s="3">
+        <v>0</v>
+      </c>
+      <c r="H194" s="3">
         <v>0</v>
       </c>
       <c r="I194" s="4" t="s">
@@ -7309,8 +7564,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="195" ht="11" customHeight="true">
-      <c r="A195" s="3" t="n">
+    <row r="195" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A195" s="3">
         <v>193</v>
       </c>
       <c r="B195" s="4" t="s">
@@ -7319,19 +7574,19 @@
       <c r="C195" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D195" s="5" t="n">
+      <c r="D195" s="5">
         <v>6400</v>
       </c>
-      <c r="E195" s="5" t="n">
+      <c r="E195" s="5">
         <v>3200</v>
       </c>
-      <c r="F195" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G195" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H195" s="3" t="n">
+      <c r="F195" s="3">
+        <v>0</v>
+      </c>
+      <c r="G195" s="3">
+        <v>0</v>
+      </c>
+      <c r="H195" s="3">
         <v>0</v>
       </c>
       <c r="I195" s="4" t="s">
@@ -7344,8 +7599,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="196" ht="11" customHeight="true">
-      <c r="A196" s="3" t="n">
+    <row r="196" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A196" s="3">
         <v>194</v>
       </c>
       <c r="B196" s="4" t="s">
@@ -7354,19 +7609,19 @@
       <c r="C196" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D196" s="6" t="n">
+      <c r="D196" s="6">
         <v>137187.87</v>
       </c>
-      <c r="E196" s="6" t="n">
+      <c r="E196" s="6">
         <v>250550.64</v>
       </c>
-      <c r="F196" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G196" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H196" s="3" t="n">
+      <c r="F196" s="3">
+        <v>0</v>
+      </c>
+      <c r="G196" s="3">
+        <v>0</v>
+      </c>
+      <c r="H196" s="3">
         <v>0</v>
       </c>
       <c r="I196" s="4" t="s">
@@ -7379,8 +7634,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="197" ht="11" customHeight="true">
-      <c r="A197" s="3" t="n">
+    <row r="197" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A197" s="3">
         <v>195</v>
       </c>
       <c r="B197" s="4" t="s">
@@ -7389,19 +7644,19 @@
       <c r="C197" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D197" s="8" t="n">
-        <v>5124.6</v>
-      </c>
-      <c r="E197" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F197" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G197" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H197" s="3" t="n">
+      <c r="D197" s="8">
+        <v>5124.6000000000004</v>
+      </c>
+      <c r="E197" s="3">
+        <v>0</v>
+      </c>
+      <c r="F197" s="3">
+        <v>0</v>
+      </c>
+      <c r="G197" s="3">
+        <v>0</v>
+      </c>
+      <c r="H197" s="3">
         <v>0</v>
       </c>
       <c r="I197" s="4" t="s">
@@ -7414,8 +7669,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="198" ht="11" customHeight="true">
-      <c r="A198" s="3" t="n">
+    <row r="198" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A198" s="3">
         <v>196</v>
       </c>
       <c r="B198" s="4" t="s">
@@ -7424,19 +7679,19 @@
       <c r="C198" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D198" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E198" s="5" t="n">
+      <c r="D198" s="3">
+        <v>0</v>
+      </c>
+      <c r="E198" s="5">
         <v>48495</v>
       </c>
-      <c r="F198" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G198" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H198" s="3" t="n">
+      <c r="F198" s="3">
+        <v>0</v>
+      </c>
+      <c r="G198" s="3">
+        <v>0</v>
+      </c>
+      <c r="H198" s="3">
         <v>0</v>
       </c>
       <c r="I198" s="4" t="s">
@@ -7449,8 +7704,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="199" ht="11" customHeight="true">
-      <c r="A199" s="3" t="n">
+    <row r="199" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A199" s="3">
         <v>197</v>
       </c>
       <c r="B199" s="4" t="s">
@@ -7459,19 +7714,19 @@
       <c r="C199" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D199" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E199" s="5" t="n">
+      <c r="D199" s="3">
+        <v>0</v>
+      </c>
+      <c r="E199" s="5">
         <v>59000</v>
       </c>
-      <c r="F199" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G199" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H199" s="3" t="n">
+      <c r="F199" s="3">
+        <v>0</v>
+      </c>
+      <c r="G199" s="3">
+        <v>0</v>
+      </c>
+      <c r="H199" s="3">
         <v>0</v>
       </c>
       <c r="I199" s="4" t="s">
@@ -7484,8 +7739,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="200" ht="11" customHeight="true">
-      <c r="A200" s="3" t="n">
+    <row r="200" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A200" s="3">
         <v>198</v>
       </c>
       <c r="B200" s="4" t="s">
@@ -7494,19 +7749,19 @@
       <c r="C200" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D200" s="8" t="n">
+      <c r="D200" s="8">
         <v>5956.7</v>
       </c>
-      <c r="E200" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F200" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G200" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H200" s="3" t="n">
+      <c r="E200" s="3">
+        <v>0</v>
+      </c>
+      <c r="F200" s="3">
+        <v>0</v>
+      </c>
+      <c r="G200" s="3">
+        <v>0</v>
+      </c>
+      <c r="H200" s="3">
         <v>0</v>
       </c>
       <c r="I200" s="4" t="s">
@@ -7519,8 +7774,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="201" ht="11" customHeight="true">
-      <c r="A201" s="3" t="n">
+    <row r="201" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A201" s="3">
         <v>199</v>
       </c>
       <c r="B201" s="4" t="s">
@@ -7529,19 +7784,19 @@
       <c r="C201" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D201" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E201" s="6" t="n">
+      <c r="D201" s="3">
+        <v>0</v>
+      </c>
+      <c r="E201" s="6">
         <v>9291.39</v>
       </c>
-      <c r="F201" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G201" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H201" s="3" t="n">
+      <c r="F201" s="3">
+        <v>0</v>
+      </c>
+      <c r="G201" s="3">
+        <v>0</v>
+      </c>
+      <c r="H201" s="3">
         <v>0</v>
       </c>
       <c r="I201" s="4" t="s">
@@ -7554,8 +7809,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="202" ht="11" customHeight="true">
-      <c r="A202" s="3" t="n">
+    <row r="202" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A202" s="3">
         <v>200</v>
       </c>
       <c r="B202" s="4" t="s">
@@ -7564,19 +7819,19 @@
       <c r="C202" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D202" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E202" s="6" t="n">
+      <c r="D202" s="3">
+        <v>0</v>
+      </c>
+      <c r="E202" s="6">
         <v>2402049.25</v>
       </c>
-      <c r="F202" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G202" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H202" s="3" t="n">
+      <c r="F202" s="3">
+        <v>0</v>
+      </c>
+      <c r="G202" s="3">
+        <v>0</v>
+      </c>
+      <c r="H202" s="3">
         <v>0</v>
       </c>
       <c r="I202" s="4" t="s">
@@ -7589,8 +7844,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="203" ht="11" customHeight="true">
-      <c r="A203" s="3" t="n">
+    <row r="203" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A203" s="3">
         <v>201</v>
       </c>
       <c r="B203" s="4" t="s">
@@ -7599,19 +7854,19 @@
       <c r="C203" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D203" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E203" s="8" t="n">
+      <c r="D203" s="3">
+        <v>0</v>
+      </c>
+      <c r="E203" s="8">
         <v>4463391.2</v>
       </c>
-      <c r="F203" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G203" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H203" s="3" t="n">
+      <c r="F203" s="3">
+        <v>0</v>
+      </c>
+      <c r="G203" s="3">
+        <v>0</v>
+      </c>
+      <c r="H203" s="3">
         <v>0</v>
       </c>
       <c r="I203" s="4" t="s">
@@ -7624,8 +7879,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="204" ht="11" customHeight="true">
-      <c r="A204" s="3" t="n">
+    <row r="204" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A204" s="3">
         <v>202</v>
       </c>
       <c r="B204" s="4" t="s">
@@ -7634,19 +7889,19 @@
       <c r="C204" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D204" s="6" t="n">
+      <c r="D204" s="6">
         <v>2011171.16</v>
       </c>
-      <c r="E204" s="6" t="n">
-        <v>30002930.94</v>
-      </c>
-      <c r="F204" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G204" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H204" s="3" t="n">
+      <c r="E204" s="6">
+        <v>30002930.940000001</v>
+      </c>
+      <c r="F204" s="3">
+        <v>0</v>
+      </c>
+      <c r="G204" s="3">
+        <v>0</v>
+      </c>
+      <c r="H204" s="3">
         <v>0</v>
       </c>
       <c r="I204" s="4" t="s">
@@ -7659,8 +7914,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="205" ht="11" customHeight="true">
-      <c r="A205" s="3" t="n">
+    <row r="205" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A205" s="3">
         <v>203</v>
       </c>
       <c r="B205" s="4" t="s">
@@ -7669,19 +7924,19 @@
       <c r="C205" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D205" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E205" s="6" t="n">
+      <c r="D205" s="3">
+        <v>0</v>
+      </c>
+      <c r="E205" s="6">
         <v>13931.66</v>
       </c>
-      <c r="F205" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G205" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H205" s="3" t="n">
+      <c r="F205" s="3">
+        <v>0</v>
+      </c>
+      <c r="G205" s="3">
+        <v>0</v>
+      </c>
+      <c r="H205" s="3">
         <v>0</v>
       </c>
       <c r="I205" s="4" t="s">
@@ -7694,8 +7949,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="206" ht="11" customHeight="true">
-      <c r="A206" s="3" t="n">
+    <row r="206" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A206" s="3">
         <v>204</v>
       </c>
       <c r="B206" s="4" t="s">
@@ -7704,19 +7959,19 @@
       <c r="C206" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D206" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E206" s="6" t="n">
+      <c r="D206" s="3">
+        <v>0</v>
+      </c>
+      <c r="E206" s="6">
         <v>1209056.95</v>
       </c>
-      <c r="F206" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G206" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H206" s="3" t="n">
+      <c r="F206" s="3">
+        <v>0</v>
+      </c>
+      <c r="G206" s="3">
+        <v>0</v>
+      </c>
+      <c r="H206" s="3">
         <v>0</v>
       </c>
       <c r="I206" s="4" t="s">
@@ -7729,8 +7984,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="207" ht="11" customHeight="true">
-      <c r="A207" s="3" t="n">
+    <row r="207" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A207" s="3">
         <v>205</v>
       </c>
       <c r="B207" s="4" t="s">
@@ -7739,19 +7994,19 @@
       <c r="C207" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D207" s="6" t="n">
-        <v>9899922.78</v>
-      </c>
-      <c r="E207" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F207" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G207" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H207" s="3" t="n">
+      <c r="D207" s="6">
+        <v>9899922.7799999993</v>
+      </c>
+      <c r="E207" s="3">
+        <v>0</v>
+      </c>
+      <c r="F207" s="3">
+        <v>0</v>
+      </c>
+      <c r="G207" s="3">
+        <v>0</v>
+      </c>
+      <c r="H207" s="3">
         <v>0</v>
       </c>
       <c r="I207" s="4" t="s">
@@ -7764,8 +8019,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="208" ht="11" customHeight="true">
-      <c r="A208" s="3" t="n">
+    <row r="208" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A208" s="3">
         <v>206</v>
       </c>
       <c r="B208" s="4" t="s">
@@ -7774,19 +8029,19 @@
       <c r="C208" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D208" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E208" s="6" t="n">
+      <c r="D208" s="3">
+        <v>0</v>
+      </c>
+      <c r="E208" s="6">
         <v>44059572.93</v>
       </c>
-      <c r="F208" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G208" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H208" s="3" t="n">
+      <c r="F208" s="3">
+        <v>0</v>
+      </c>
+      <c r="G208" s="3">
+        <v>0</v>
+      </c>
+      <c r="H208" s="3">
         <v>0</v>
       </c>
       <c r="I208" s="4" t="s">
@@ -7799,8 +8054,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="209" ht="11" customHeight="true">
-      <c r="A209" s="3" t="n">
+    <row r="209" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A209" s="3">
         <v>207</v>
       </c>
       <c r="B209" s="4" t="s">
@@ -7809,19 +8064,19 @@
       <c r="C209" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D209" s="5" t="n">
+      <c r="D209" s="5">
         <v>3000</v>
       </c>
-      <c r="E209" s="6" t="n">
+      <c r="E209" s="6">
         <v>5239.47</v>
       </c>
-      <c r="F209" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G209" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H209" s="3" t="n">
+      <c r="F209" s="3">
+        <v>0</v>
+      </c>
+      <c r="G209" s="3">
+        <v>0</v>
+      </c>
+      <c r="H209" s="3">
         <v>0</v>
       </c>
       <c r="I209" s="4" t="s">
@@ -7834,8 +8089,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="210" ht="11" customHeight="true">
-      <c r="A210" s="3" t="n">
+    <row r="210" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A210" s="3">
         <v>208</v>
       </c>
       <c r="B210" s="4" t="s">
@@ -7844,19 +8099,19 @@
       <c r="C210" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D210" s="7" t="n">
+      <c r="D210" s="7">
         <v>904.24</v>
       </c>
-      <c r="E210" s="6" t="n">
+      <c r="E210" s="6">
         <v>1808244.71</v>
       </c>
-      <c r="F210" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G210" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H210" s="3" t="n">
+      <c r="F210" s="3">
+        <v>0</v>
+      </c>
+      <c r="G210" s="3">
+        <v>0</v>
+      </c>
+      <c r="H210" s="3">
         <v>0</v>
       </c>
       <c r="I210" s="4" t="s">
@@ -7869,8 +8124,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="211" ht="11" customHeight="true">
-      <c r="A211" s="3" t="n">
+    <row r="211" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A211" s="3">
         <v>209</v>
       </c>
       <c r="B211" s="4" t="s">
@@ -7879,19 +8134,19 @@
       <c r="C211" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D211" s="5" t="n">
+      <c r="D211" s="5">
         <v>18000</v>
       </c>
-      <c r="E211" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F211" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G211" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H211" s="3" t="n">
+      <c r="E211" s="3">
+        <v>0</v>
+      </c>
+      <c r="F211" s="3">
+        <v>0</v>
+      </c>
+      <c r="G211" s="3">
+        <v>0</v>
+      </c>
+      <c r="H211" s="3">
         <v>0</v>
       </c>
       <c r="I211" s="4" t="s">
@@ -7904,8 +8159,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="212" ht="11" customHeight="true">
-      <c r="A212" s="3" t="n">
+    <row r="212" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A212" s="3">
         <v>210</v>
       </c>
       <c r="B212" s="4" t="s">
@@ -7914,19 +8169,19 @@
       <c r="C212" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D212" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E212" s="6" t="n">
+      <c r="D212" s="3">
+        <v>0</v>
+      </c>
+      <c r="E212" s="6">
         <v>190643.82</v>
       </c>
-      <c r="F212" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G212" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H212" s="3" t="n">
+      <c r="F212" s="3">
+        <v>0</v>
+      </c>
+      <c r="G212" s="3">
+        <v>0</v>
+      </c>
+      <c r="H212" s="3">
         <v>0</v>
       </c>
       <c r="I212" s="4" t="s">
@@ -7939,8 +8194,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="213" ht="11" customHeight="true">
-      <c r="A213" s="3" t="n">
+    <row r="213" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A213" s="3">
         <v>211</v>
       </c>
       <c r="B213" s="4" t="s">
@@ -7949,19 +8204,19 @@
       <c r="C213" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D213" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E213" s="6" t="n">
+      <c r="D213" s="3">
+        <v>0</v>
+      </c>
+      <c r="E213" s="6">
         <v>94548.04</v>
       </c>
-      <c r="F213" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G213" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H213" s="3" t="n">
+      <c r="F213" s="3">
+        <v>0</v>
+      </c>
+      <c r="G213" s="3">
+        <v>0</v>
+      </c>
+      <c r="H213" s="3">
         <v>0</v>
       </c>
       <c r="I213" s="4" t="s">
@@ -7974,8 +8229,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="214" ht="11" customHeight="true">
-      <c r="A214" s="3" t="n">
+    <row r="214" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A214" s="3">
         <v>212</v>
       </c>
       <c r="B214" s="4" t="s">
@@ -7984,19 +8239,19 @@
       <c r="C214" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D214" s="6" t="n">
+      <c r="D214" s="6">
         <v>76373.64</v>
       </c>
-      <c r="E214" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F214" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G214" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H214" s="3" t="n">
+      <c r="E214" s="3">
+        <v>0</v>
+      </c>
+      <c r="F214" s="3">
+        <v>0</v>
+      </c>
+      <c r="G214" s="3">
+        <v>0</v>
+      </c>
+      <c r="H214" s="3">
         <v>0</v>
       </c>
       <c r="I214" s="4" t="s">
@@ -8009,8 +8264,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="215" ht="11" customHeight="true">
-      <c r="A215" s="3" t="n">
+    <row r="215" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A215" s="3">
         <v>213</v>
       </c>
       <c r="B215" s="4" t="s">
@@ -8019,19 +8274,19 @@
       <c r="C215" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D215" s="6" t="n">
+      <c r="D215" s="6">
         <v>12413.58</v>
       </c>
-      <c r="E215" s="6" t="n">
+      <c r="E215" s="6">
         <v>10370.16</v>
       </c>
-      <c r="F215" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G215" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H215" s="3" t="n">
+      <c r="F215" s="3">
+        <v>0</v>
+      </c>
+      <c r="G215" s="3">
+        <v>0</v>
+      </c>
+      <c r="H215" s="3">
         <v>0</v>
       </c>
       <c r="I215" s="4" t="s">
@@ -8044,8 +8299,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="216" ht="11" customHeight="true">
-      <c r="A216" s="3" t="n">
+    <row r="216" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A216" s="3">
         <v>214</v>
       </c>
       <c r="B216" s="4" t="s">
@@ -8054,19 +8309,19 @@
       <c r="C216" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D216" s="6" t="n">
+      <c r="D216" s="6">
         <v>65450.43</v>
       </c>
-      <c r="E216" s="6" t="n">
+      <c r="E216" s="6">
         <v>180417.12</v>
       </c>
-      <c r="F216" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G216" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H216" s="3" t="n">
+      <c r="F216" s="3">
+        <v>0</v>
+      </c>
+      <c r="G216" s="3">
+        <v>0</v>
+      </c>
+      <c r="H216" s="3">
         <v>0</v>
       </c>
       <c r="I216" s="4" t="s">
@@ -8079,8 +8334,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="217" ht="11" customHeight="true">
-      <c r="A217" s="3" t="n">
+    <row r="217" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A217" s="3">
         <v>215</v>
       </c>
       <c r="B217" s="4" t="s">
@@ -8089,19 +8344,19 @@
       <c r="C217" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D217" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E217" s="6" t="n">
+      <c r="D217" s="3">
+        <v>0</v>
+      </c>
+      <c r="E217" s="6">
         <v>64827.42</v>
       </c>
-      <c r="F217" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G217" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H217" s="3" t="n">
+      <c r="F217" s="3">
+        <v>0</v>
+      </c>
+      <c r="G217" s="3">
+        <v>0</v>
+      </c>
+      <c r="H217" s="3">
         <v>0</v>
       </c>
       <c r="I217" s="4" t="s">
@@ -8114,8 +8369,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="218" ht="11" customHeight="true">
-      <c r="A218" s="3" t="n">
+    <row r="218" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A218" s="3">
         <v>216</v>
       </c>
       <c r="B218" s="4" t="s">
@@ -8124,19 +8379,19 @@
       <c r="C218" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D218" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E218" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F218" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G218" s="5" t="n">
+      <c r="D218" s="3">
+        <v>0</v>
+      </c>
+      <c r="E218" s="3">
+        <v>0</v>
+      </c>
+      <c r="F218" s="3">
+        <v>0</v>
+      </c>
+      <c r="G218" s="5">
         <v>10000</v>
       </c>
-      <c r="H218" s="5" t="n">
+      <c r="H218" s="5">
         <v>10000</v>
       </c>
       <c r="I218" s="4" t="s">
@@ -8150,10 +8405,19 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.393700787401574803149606299" top="0.393700787401574803149606299" right="0.393700787401574803149606299" bottom="0.393700787401574803149606299" header="0" footer="0"/>
-  <pageSetup blackAndWhite="false" scale="100" pageOrder="overThenDown" orientation="portrait"/>
-  <headerFooter alignWithMargins="true" scaleWithDoc="true"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
+  <pageSetup pageOrder="overThenDown" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/reports/contracts/files/periods.xlsx
+++ b/reports/contracts/files/periods.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="323">
   <si>
     <t>Индекс</t>
   </si>
@@ -932,6 +932,9 @@
   </si>
   <si>
     <t>"Договор 00000006413 от 19.11.2019 0:00:00"</t>
+  </si>
+  <si>
+    <t>"Договор 00000006421 от 26.11.2019 14:49:42"</t>
   </si>
   <si>
     <t>"Договор 00000006325 от 16.09.2019 0:00:00"</t>
@@ -1101,10 +1104,10 @@
     <xf numFmtId="4" fontId="3" fillId="3" borderId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="3" borderId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="51" fontId="3" fillId="3" borderId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="51" fontId="3" fillId="3" borderId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="3" fontId="3" fillId="3" borderId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="3" borderId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
@@ -1129,7 +1132,7 @@
     <outlinePr summaryBelow="false" summaryRight="false"/>
     <pageSetUpPr autoPageBreaks="false" fitToPage="false"/>
   </sheetPr>
-  <dimension ref="K591"/>
+  <dimension ref="K592"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0"/>
   </sheetViews>
@@ -1197,7 +1200,7 @@
         <v>44170.82</v>
       </c>
       <c r="E2" s="6" t="n">
-        <v>110427</v>
+        <v>55213.5</v>
       </c>
       <c r="F2" s="3" t="n">
         <v>0</v>
@@ -1232,7 +1235,7 @@
         <v>43915.76</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>148770.48</v>
+        <v>37192.62</v>
       </c>
       <c r="F3" s="3" t="n">
         <v>0</v>
@@ -1267,7 +1270,7 @@
         <v>317571.17</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1071556.16</v>
+        <v>267889.04</v>
       </c>
       <c r="F4" s="3" t="n">
         <v>0</v>
@@ -1301,8 +1304,8 @@
       <c r="D5" s="5" t="n">
         <v>193002.64</v>
       </c>
-      <c r="E5" s="7" t="n">
-        <v>643388.6</v>
+      <c r="E5" s="5" t="n">
+        <v>160847.15</v>
       </c>
       <c r="F5" s="3" t="n">
         <v>0</v>
@@ -1333,11 +1336,11 @@
       <c r="C6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="6" t="n">
+      <c r="D6" s="7" t="n">
         <v>3000</v>
       </c>
-      <c r="E6" s="5" t="n">
-        <v>1483.34</v>
+      <c r="E6" s="8" t="n">
+        <v>741.67</v>
       </c>
       <c r="F6" s="3" t="n">
         <v>0</v>
@@ -1368,7 +1371,7 @@
       <c r="C7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="7" t="n">
+      <c r="D7" s="6" t="n">
         <v>52324.8</v>
       </c>
       <c r="E7" s="3" t="n">
@@ -1403,10 +1406,10 @@
       <c r="C8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="6" t="n">
+      <c r="D8" s="7" t="n">
         <v>871010</v>
       </c>
-      <c r="E8" s="6" t="n">
+      <c r="E8" s="7" t="n">
         <v>871010</v>
       </c>
       <c r="F8" s="3" t="n">
@@ -1438,7 +1441,7 @@
       <c r="C9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="6" t="n">
+      <c r="D9" s="7" t="n">
         <v>338000</v>
       </c>
       <c r="E9" s="3" t="n">
@@ -1473,10 +1476,10 @@
       <c r="C10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="6" t="n">
+      <c r="D10" s="7" t="n">
         <v>78000</v>
       </c>
-      <c r="E10" s="6" t="n">
+      <c r="E10" s="7" t="n">
         <v>78000</v>
       </c>
       <c r="F10" s="3" t="n">
@@ -1508,10 +1511,10 @@
       <c r="C11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="6" t="n">
+      <c r="D11" s="7" t="n">
         <v>36000</v>
       </c>
-      <c r="E11" s="6" t="n">
+      <c r="E11" s="7" t="n">
         <v>36000</v>
       </c>
       <c r="F11" s="3" t="n">
@@ -1543,7 +1546,7 @@
       <c r="C12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="6" t="n">
+      <c r="D12" s="7" t="n">
         <v>4140</v>
       </c>
       <c r="E12" s="3" t="n">
@@ -1578,7 +1581,7 @@
       <c r="C13" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="6" t="n">
+      <c r="D13" s="7" t="n">
         <v>321000</v>
       </c>
       <c r="E13" s="3" t="n">
@@ -1648,7 +1651,7 @@
       <c r="C15" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="6" t="n">
+      <c r="D15" s="7" t="n">
         <v>11600000</v>
       </c>
       <c r="E15" s="3" t="n">
@@ -1683,7 +1686,7 @@
       <c r="C16" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="7" t="n">
+      <c r="D16" s="6" t="n">
         <v>3359.4</v>
       </c>
       <c r="E16" s="3" t="n">
@@ -1757,7 +1760,7 @@
         <v>4704.17</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>8016.66</v>
+        <v>4008.33</v>
       </c>
       <c r="F18" s="3" t="n">
         <v>0</v>
@@ -1788,10 +1791,10 @@
       <c r="C19" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="6" t="n">
+      <c r="D19" s="7" t="n">
         <v>560000</v>
       </c>
-      <c r="E19" s="6" t="n">
+      <c r="E19" s="7" t="n">
         <v>840000</v>
       </c>
       <c r="F19" s="3" t="n">
@@ -1823,10 +1826,10 @@
       <c r="C20" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="6" t="n">
+      <c r="D20" s="7" t="n">
         <v>560000</v>
       </c>
-      <c r="E20" s="6" t="n">
+      <c r="E20" s="7" t="n">
         <v>840000</v>
       </c>
       <c r="F20" s="3" t="n">
@@ -1858,10 +1861,10 @@
       <c r="C21" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="6" t="n">
+      <c r="D21" s="7" t="n">
         <v>520000</v>
       </c>
-      <c r="E21" s="6" t="n">
+      <c r="E21" s="7" t="n">
         <v>780000</v>
       </c>
       <c r="F21" s="3" t="n">
@@ -1893,10 +1896,10 @@
       <c r="C22" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="6" t="n">
+      <c r="D22" s="7" t="n">
         <v>560000</v>
       </c>
-      <c r="E22" s="6" t="n">
+      <c r="E22" s="7" t="n">
         <v>840000</v>
       </c>
       <c r="F22" s="3" t="n">
@@ -1928,7 +1931,7 @@
       <c r="C23" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D23" s="6" t="n">
+      <c r="D23" s="7" t="n">
         <v>650000</v>
       </c>
       <c r="E23" s="3" t="n">
@@ -1967,7 +1970,7 @@
         <v>34936.29</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>117417.12</v>
+        <v>29354.28</v>
       </c>
       <c r="F24" s="3" t="n">
         <v>0</v>
@@ -2002,7 +2005,7 @@
         <v>5032399.68</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>64448875.96</v>
+        <v>16112218.99</v>
       </c>
       <c r="F25" s="3" t="n">
         <v>0</v>
@@ -2037,7 +2040,7 @@
         <v>75817.71</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>261724.84</v>
+        <v>65431.21</v>
       </c>
       <c r="F26" s="3" t="n">
         <v>0</v>
@@ -2068,7 +2071,7 @@
       <c r="C27" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D27" s="6" t="n">
+      <c r="D27" s="7" t="n">
         <v>2000000</v>
       </c>
       <c r="E27" s="3" t="n">
@@ -2103,11 +2106,11 @@
       <c r="C28" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D28" s="6" t="n">
+      <c r="D28" s="7" t="n">
         <v>180000</v>
       </c>
-      <c r="E28" s="6" t="n">
-        <v>225000</v>
+      <c r="E28" s="7" t="n">
+        <v>112500</v>
       </c>
       <c r="F28" s="3" t="n">
         <v>0</v>
@@ -2173,7 +2176,7 @@
       <c r="C30" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D30" s="6" t="n">
+      <c r="D30" s="7" t="n">
         <v>700000</v>
       </c>
       <c r="E30" s="3" t="n">
@@ -2211,8 +2214,8 @@
       <c r="D31" s="5" t="n">
         <v>29348.87</v>
       </c>
-      <c r="E31" s="6" t="n">
-        <v>129000</v>
+      <c r="E31" s="7" t="n">
+        <v>32250</v>
       </c>
       <c r="F31" s="3" t="n">
         <v>0</v>
@@ -2243,11 +2246,11 @@
       <c r="C32" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D32" s="6" t="n">
+      <c r="D32" s="7" t="n">
         <v>36010</v>
       </c>
-      <c r="E32" s="6" t="n">
-        <v>66600</v>
+      <c r="E32" s="7" t="n">
+        <v>22200</v>
       </c>
       <c r="F32" s="3" t="n">
         <v>0</v>
@@ -2313,11 +2316,11 @@
       <c r="C34" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D34" s="6" t="n">
+      <c r="D34" s="7" t="n">
         <v>580000</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>183586.68</v>
+        <v>45896.67</v>
       </c>
       <c r="F34" s="3" t="n">
         <v>0</v>
@@ -2352,7 +2355,7 @@
         <v>1374.34</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>4619.04</v>
+        <v>1154.76</v>
       </c>
       <c r="F35" s="3" t="n">
         <v>0</v>
@@ -2383,11 +2386,11 @@
       <c r="C36" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D36" s="6" t="n">
+      <c r="D36" s="7" t="n">
         <v>42000</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>98755.29</v>
+        <v>32918.43</v>
       </c>
       <c r="F36" s="3" t="n">
         <v>0</v>
@@ -2488,10 +2491,10 @@
       <c r="C39" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D39" s="6" t="n">
+      <c r="D39" s="7" t="n">
         <v>22500</v>
       </c>
-      <c r="E39" s="6" t="n">
+      <c r="E39" s="7" t="n">
         <v>15000</v>
       </c>
       <c r="F39" s="3" t="n">
@@ -2523,7 +2526,7 @@
       <c r="C40" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D40" s="6" t="n">
+      <c r="D40" s="7" t="n">
         <v>76930</v>
       </c>
       <c r="E40" s="3" t="n">
@@ -2593,10 +2596,10 @@
       <c r="C42" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D42" s="7" t="n">
+      <c r="D42" s="6" t="n">
         <v>16449.7</v>
       </c>
-      <c r="E42" s="6" t="n">
+      <c r="E42" s="7" t="n">
         <v>29395</v>
       </c>
       <c r="F42" s="3" t="n">
@@ -2631,7 +2634,7 @@
       <c r="D43" s="5" t="n">
         <v>7991.92</v>
       </c>
-      <c r="E43" s="6" t="n">
+      <c r="E43" s="7" t="n">
         <v>16379</v>
       </c>
       <c r="F43" s="3" t="n">
@@ -2698,7 +2701,7 @@
       <c r="C45" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D45" s="6" t="n">
+      <c r="D45" s="7" t="n">
         <v>77458200</v>
       </c>
       <c r="E45" s="3" t="n">
@@ -2978,11 +2981,11 @@
       <c r="C53" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D53" s="6" t="n">
+      <c r="D53" s="7" t="n">
         <v>200000</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>500000.04</v>
+        <v>125000.01</v>
       </c>
       <c r="F53" s="3" t="n">
         <v>0</v>
@@ -3013,11 +3016,11 @@
       <c r="C54" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D54" s="6" t="n">
+      <c r="D54" s="7" t="n">
         <v>121720</v>
       </c>
-      <c r="E54" s="6" t="n">
-        <v>408000</v>
+      <c r="E54" s="7" t="n">
+        <v>102000</v>
       </c>
       <c r="F54" s="3" t="n">
         <v>0</v>
@@ -3052,7 +3055,7 @@
         <v>333768.07</v>
       </c>
       <c r="E55" s="5" t="n">
-        <v>817664.56</v>
+        <v>204416.14</v>
       </c>
       <c r="F55" s="3" t="n">
         <v>0</v>
@@ -3083,10 +3086,10 @@
       <c r="C56" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D56" s="6" t="n">
+      <c r="D56" s="7" t="n">
         <v>16150</v>
       </c>
-      <c r="E56" s="6" t="n">
+      <c r="E56" s="7" t="n">
         <v>19950</v>
       </c>
       <c r="F56" s="3" t="n">
@@ -3366,7 +3369,7 @@
       <c r="D64" s="5" t="n">
         <v>6320604.53</v>
       </c>
-      <c r="E64" s="6" t="n">
+      <c r="E64" s="7" t="n">
         <v>420000</v>
       </c>
       <c r="F64" s="3" t="n">
@@ -3786,7 +3789,7 @@
       <c r="D76" s="5" t="n">
         <v>1097043.75</v>
       </c>
-      <c r="E76" s="7" t="n">
+      <c r="E76" s="6" t="n">
         <v>806321.6</v>
       </c>
       <c r="F76" s="3" t="n">
@@ -3818,11 +3821,11 @@
       <c r="C77" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D77" s="6" t="n">
+      <c r="D77" s="7" t="n">
         <v>24958</v>
       </c>
       <c r="E77" s="5" t="n">
-        <v>79193.32</v>
+        <v>19798.33</v>
       </c>
       <c r="F77" s="3" t="n">
         <v>0</v>
@@ -3892,7 +3895,7 @@
         <v>70556955.74</v>
       </c>
       <c r="E79" s="5" t="n">
-        <v>59580286.62</v>
+        <v>57723000.82</v>
       </c>
       <c r="F79" s="3" t="n">
         <v>0</v>
@@ -3958,7 +3961,7 @@
       <c r="C81" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D81" s="7" t="n">
+      <c r="D81" s="6" t="n">
         <v>23822796.3</v>
       </c>
       <c r="E81" s="3" t="n">
@@ -3993,7 +3996,7 @@
       <c r="C82" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D82" s="7" t="n">
+      <c r="D82" s="6" t="n">
         <v>4067.8</v>
       </c>
       <c r="E82" s="3" t="n">
@@ -4028,11 +4031,11 @@
       <c r="C83" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D83" s="7" t="n">
+      <c r="D83" s="6" t="n">
         <v>118551.7</v>
       </c>
-      <c r="E83" s="6" t="n">
-        <v>397380</v>
+      <c r="E83" s="7" t="n">
+        <v>99345</v>
       </c>
       <c r="F83" s="3" t="n">
         <v>0</v>
@@ -4066,8 +4069,8 @@
       <c r="D84" s="5" t="n">
         <v>42937.96</v>
       </c>
-      <c r="E84" s="6" t="n">
-        <v>38640</v>
+      <c r="E84" s="7" t="n">
+        <v>9660</v>
       </c>
       <c r="F84" s="3" t="n">
         <v>0</v>
@@ -4098,10 +4101,10 @@
       <c r="C85" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D85" s="7" t="n">
+      <c r="D85" s="6" t="n">
         <v>8974.7</v>
       </c>
-      <c r="E85" s="6" t="n">
+      <c r="E85" s="7" t="n">
         <v>15687</v>
       </c>
       <c r="F85" s="3" t="n">
@@ -4136,7 +4139,7 @@
       <c r="D86" s="5" t="n">
         <v>30515.78</v>
       </c>
-      <c r="E86" s="6" t="n">
+      <c r="E86" s="7" t="n">
         <v>52453</v>
       </c>
       <c r="F86" s="3" t="n">
@@ -4206,8 +4209,8 @@
       <c r="D88" s="5" t="n">
         <v>487165.72</v>
       </c>
-      <c r="E88" s="7" t="n">
-        <v>766859.6</v>
+      <c r="E88" s="6" t="n">
+        <v>383429.8</v>
       </c>
       <c r="F88" s="3" t="n">
         <v>0</v>
@@ -4238,10 +4241,10 @@
       <c r="C89" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D89" s="6" t="n">
+      <c r="D89" s="7" t="n">
         <v>146140</v>
       </c>
-      <c r="E89" s="6" t="n">
+      <c r="E89" s="7" t="n">
         <v>73070</v>
       </c>
       <c r="F89" s="3" t="n">
@@ -4273,10 +4276,10 @@
       <c r="C90" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D90" s="6" t="n">
+      <c r="D90" s="7" t="n">
         <v>127440</v>
       </c>
-      <c r="E90" s="6" t="n">
+      <c r="E90" s="7" t="n">
         <v>194400</v>
       </c>
       <c r="F90" s="3" t="n">
@@ -4346,8 +4349,8 @@
       <c r="D92" s="5" t="n">
         <v>2122.94</v>
       </c>
-      <c r="E92" s="6" t="n">
-        <v>7116</v>
+      <c r="E92" s="7" t="n">
+        <v>1779</v>
       </c>
       <c r="F92" s="3" t="n">
         <v>0</v>
@@ -4378,10 +4381,10 @@
       <c r="C93" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D93" s="7" t="n">
+      <c r="D93" s="6" t="n">
         <v>4971.9</v>
       </c>
-      <c r="E93" s="7" t="n">
+      <c r="E93" s="6" t="n">
         <v>4971.9</v>
       </c>
       <c r="F93" s="3" t="n">
@@ -4417,7 +4420,7 @@
         <v>233122.24</v>
       </c>
       <c r="E94" s="5" t="n">
-        <v>679907.24</v>
+        <v>169976.81</v>
       </c>
       <c r="F94" s="3" t="n">
         <v>0</v>
@@ -4452,7 +4455,7 @@
         <v>75147.28</v>
       </c>
       <c r="E95" s="5" t="n">
-        <v>256455.56</v>
+        <v>64113.89</v>
       </c>
       <c r="F95" s="3" t="n">
         <v>0</v>
@@ -4487,7 +4490,7 @@
         <v>1257.08</v>
       </c>
       <c r="E96" s="5" t="n">
-        <v>6361.08</v>
+        <v>1590.27</v>
       </c>
       <c r="F96" s="3" t="n">
         <v>0</v>
@@ -4518,10 +4521,10 @@
       <c r="C97" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D97" s="6" t="n">
+      <c r="D97" s="7" t="n">
         <v>6400</v>
       </c>
-      <c r="E97" s="6" t="n">
+      <c r="E97" s="7" t="n">
         <v>9600</v>
       </c>
       <c r="F97" s="3" t="n">
@@ -4553,10 +4556,10 @@
       <c r="C98" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D98" s="6" t="n">
+      <c r="D98" s="7" t="n">
         <v>22050</v>
       </c>
-      <c r="E98" s="6" t="n">
+      <c r="E98" s="7" t="n">
         <v>22050</v>
       </c>
       <c r="F98" s="3" t="n">
@@ -4588,11 +4591,11 @@
       <c r="C99" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D99" s="6" t="n">
+      <c r="D99" s="7" t="n">
         <v>10000</v>
       </c>
       <c r="E99" s="5" t="n">
-        <v>37500.03</v>
+        <v>12500.01</v>
       </c>
       <c r="F99" s="3" t="n">
         <v>0</v>
@@ -4626,7 +4629,7 @@
       <c r="D100" s="5" t="n">
         <v>15315.61</v>
       </c>
-      <c r="E100" s="6" t="n">
+      <c r="E100" s="7" t="n">
         <v>30381</v>
       </c>
       <c r="F100" s="3" t="n">
@@ -4661,7 +4664,7 @@
       <c r="D101" s="5" t="n">
         <v>40113.68</v>
       </c>
-      <c r="E101" s="6" t="n">
+      <c r="E101" s="7" t="n">
         <v>83889</v>
       </c>
       <c r="F101" s="3" t="n">
@@ -4696,7 +4699,7 @@
       <c r="D102" s="5" t="n">
         <v>15082.22</v>
       </c>
-      <c r="E102" s="6" t="n">
+      <c r="E102" s="7" t="n">
         <v>32140</v>
       </c>
       <c r="F102" s="3" t="n">
@@ -4731,8 +4734,8 @@
       <c r="D103" s="5" t="n">
         <v>344567.42</v>
       </c>
-      <c r="E103" s="7" t="n">
-        <v>1126335.8</v>
+      <c r="E103" s="5" t="n">
+        <v>281583.95</v>
       </c>
       <c r="F103" s="3" t="n">
         <v>0</v>
@@ -4763,7 +4766,7 @@
       <c r="C104" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D104" s="7" t="n">
+      <c r="D104" s="6" t="n">
         <v>13016.4</v>
       </c>
       <c r="E104" s="3" t="n">
@@ -4801,7 +4804,7 @@
       <c r="D105" s="5" t="n">
         <v>21029.76</v>
       </c>
-      <c r="E105" s="6" t="n">
+      <c r="E105" s="7" t="n">
         <v>27714</v>
       </c>
       <c r="F105" s="3" t="n">
@@ -4833,7 +4836,7 @@
       <c r="C106" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D106" s="7" t="n">
+      <c r="D106" s="6" t="n">
         <v>13665.6</v>
       </c>
       <c r="E106" s="3" t="n">
@@ -4868,7 +4871,7 @@
       <c r="C107" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D107" s="7" t="n">
+      <c r="D107" s="6" t="n">
         <v>17547.6</v>
       </c>
       <c r="E107" s="3" t="n">
@@ -4903,11 +4906,11 @@
       <c r="C108" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D108" s="6" t="n">
+      <c r="D108" s="7" t="n">
         <v>368928</v>
       </c>
-      <c r="E108" s="6" t="n">
-        <v>96990</v>
+      <c r="E108" s="7" t="n">
+        <v>48495</v>
       </c>
       <c r="F108" s="3" t="n">
         <v>0</v>
@@ -4973,10 +4976,10 @@
       <c r="C110" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D110" s="6" t="n">
+      <c r="D110" s="7" t="n">
         <v>26000</v>
       </c>
-      <c r="E110" s="6" t="n">
+      <c r="E110" s="7" t="n">
         <v>26000</v>
       </c>
       <c r="F110" s="3" t="n">
@@ -5008,10 +5011,10 @@
       <c r="C111" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D111" s="6" t="n">
+      <c r="D111" s="7" t="n">
         <v>29500</v>
       </c>
-      <c r="E111" s="6" t="n">
+      <c r="E111" s="7" t="n">
         <v>59000</v>
       </c>
       <c r="F111" s="3" t="n">
@@ -5043,10 +5046,10 @@
       <c r="C112" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D112" s="6" t="n">
+      <c r="D112" s="7" t="n">
         <v>2500</v>
       </c>
-      <c r="E112" s="6" t="n">
+      <c r="E112" s="7" t="n">
         <v>2500</v>
       </c>
       <c r="F112" s="3" t="n">
@@ -5078,7 +5081,7 @@
       <c r="C113" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D113" s="7" t="n">
+      <c r="D113" s="6" t="n">
         <v>115396.7</v>
       </c>
       <c r="E113" s="3" t="n">
@@ -5117,7 +5120,7 @@
         <v>9517.58</v>
       </c>
       <c r="E114" s="5" t="n">
-        <v>38750.28</v>
+        <v>9687.57</v>
       </c>
       <c r="F114" s="3" t="n">
         <v>0</v>
@@ -5222,7 +5225,7 @@
         <v>0</v>
       </c>
       <c r="E117" s="5" t="n">
-        <v>12880830.66</v>
+        <v>4293610.22</v>
       </c>
       <c r="F117" s="3" t="n">
         <v>0</v>
@@ -5253,11 +5256,11 @@
       <c r="C118" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D118" s="7" t="n">
+      <c r="D118" s="6" t="n">
         <v>17056419.6</v>
       </c>
       <c r="E118" s="5" t="n">
-        <v>27144638.56</v>
+        <v>13572319.28</v>
       </c>
       <c r="F118" s="3" t="n">
         <v>0</v>
@@ -5572,7 +5575,7 @@
         <v>13888155.28</v>
       </c>
       <c r="E127" s="5" t="n">
-        <v>7657897.18</v>
+        <v>3828948.59</v>
       </c>
       <c r="F127" s="3" t="n">
         <v>0</v>
@@ -5642,7 +5645,7 @@
         <v>11188517.01</v>
       </c>
       <c r="E129" s="5" t="n">
-        <v>66165917.16</v>
+        <v>22055305.72</v>
       </c>
       <c r="F129" s="3" t="n">
         <v>0</v>
@@ -5708,7 +5711,7 @@
       <c r="C131" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D131" s="7" t="n">
+      <c r="D131" s="6" t="n">
         <v>52917.3</v>
       </c>
       <c r="E131" s="3" t="n">
@@ -5743,11 +5746,11 @@
       <c r="C132" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D132" s="6" t="n">
+      <c r="D132" s="7" t="n">
         <v>6000</v>
       </c>
       <c r="E132" s="5" t="n">
-        <v>21305.32</v>
+        <v>5326.33</v>
       </c>
       <c r="F132" s="3" t="n">
         <v>0</v>
@@ -5848,7 +5851,7 @@
       <c r="C135" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D135" s="7" t="n">
+      <c r="D135" s="6" t="n">
         <v>1193771.8</v>
       </c>
       <c r="E135" s="3" t="n">
@@ -5883,10 +5886,10 @@
       <c r="C136" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D136" s="6" t="n">
+      <c r="D136" s="7" t="n">
         <v>18000</v>
       </c>
-      <c r="E136" s="6" t="n">
+      <c r="E136" s="7" t="n">
         <v>18000</v>
       </c>
       <c r="F136" s="3" t="n">
@@ -5918,7 +5921,7 @@
       <c r="C137" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D137" s="7" t="n">
+      <c r="D137" s="6" t="n">
         <v>14785.5</v>
       </c>
       <c r="E137" s="5" t="n">
@@ -5988,7 +5991,7 @@
       <c r="C139" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D139" s="7" t="n">
+      <c r="D139" s="6" t="n">
         <v>130583.4</v>
       </c>
       <c r="E139" s="3" t="n">
@@ -6023,7 +6026,7 @@
       <c r="C140" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D140" s="6" t="n">
+      <c r="D140" s="7" t="n">
         <v>48000</v>
       </c>
       <c r="E140" s="3" t="n">
@@ -6062,7 +6065,7 @@
         <v>17799.14</v>
       </c>
       <c r="E141" s="5" t="n">
-        <v>55205.48</v>
+        <v>13801.37</v>
       </c>
       <c r="F141" s="3" t="n">
         <v>0</v>
@@ -6097,7 +6100,7 @@
         <v>192998.29</v>
       </c>
       <c r="E142" s="5" t="n">
-        <v>685326.04</v>
+        <v>171331.51</v>
       </c>
       <c r="F142" s="3" t="n">
         <v>0</v>
@@ -6132,7 +6135,7 @@
         <v>0</v>
       </c>
       <c r="E143" s="6" t="n">
-        <v>310662</v>
+        <v>77665.5</v>
       </c>
       <c r="F143" s="3" t="n">
         <v>0</v>
@@ -6163,7 +6166,7 @@
       <c r="C144" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D144" s="6" t="n">
+      <c r="D144" s="7" t="n">
         <v>24000</v>
       </c>
       <c r="E144" s="3" t="n">
@@ -6198,7 +6201,7 @@
       <c r="C145" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D145" s="6" t="n">
+      <c r="D145" s="7" t="n">
         <v>200000</v>
       </c>
       <c r="E145" s="3" t="n">
@@ -6233,10 +6236,10 @@
       <c r="C146" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D146" s="6" t="n">
+      <c r="D146" s="7" t="n">
         <v>250000</v>
       </c>
-      <c r="E146" s="6" t="n">
+      <c r="E146" s="7" t="n">
         <v>250000</v>
       </c>
       <c r="F146" s="3" t="n">
@@ -6268,11 +6271,11 @@
       <c r="C147" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D147" s="7" t="n">
+      <c r="D147" s="6" t="n">
         <v>44438.5</v>
       </c>
       <c r="E147" s="6" t="n">
-        <v>-110427</v>
+        <v>-55213.5</v>
       </c>
       <c r="F147" s="3" t="n">
         <v>0</v>
@@ -6307,7 +6310,7 @@
         <v>46504.16</v>
       </c>
       <c r="E148" s="5" t="n">
-        <v>156503.04</v>
+        <v>39125.76</v>
       </c>
       <c r="F148" s="3" t="n">
         <v>0</v>
@@ -6342,7 +6345,7 @@
         <v>325768.76</v>
       </c>
       <c r="E149" s="5" t="n">
-        <v>1093160.92</v>
+        <v>273290.23</v>
       </c>
       <c r="F149" s="3" t="n">
         <v>0</v>
@@ -6373,11 +6376,11 @@
       <c r="C150" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D150" s="7" t="n">
+      <c r="D150" s="6" t="n">
         <v>192656.1</v>
       </c>
-      <c r="E150" s="6" t="n">
-        <v>428969</v>
+      <c r="E150" s="5" t="n">
+        <v>107242.25</v>
       </c>
       <c r="F150" s="3" t="n">
         <v>0</v>
@@ -6408,11 +6411,11 @@
       <c r="C151" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D151" s="7" t="n">
+      <c r="D151" s="6" t="n">
         <v>317473.2</v>
       </c>
       <c r="E151" s="5" t="n">
-        <v>71000.04</v>
+        <v>17750.01</v>
       </c>
       <c r="F151" s="3" t="n">
         <v>0</v>
@@ -6443,10 +6446,10 @@
       <c r="C152" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D152" s="6" t="n">
+      <c r="D152" s="7" t="n">
         <v>36000</v>
       </c>
-      <c r="E152" s="6" t="n">
+      <c r="E152" s="7" t="n">
         <v>36000</v>
       </c>
       <c r="F152" s="3" t="n">
@@ -6513,10 +6516,10 @@
       <c r="C154" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D154" s="6" t="n">
+      <c r="D154" s="7" t="n">
         <v>36400</v>
       </c>
-      <c r="E154" s="6" t="n">
+      <c r="E154" s="7" t="n">
         <v>36400</v>
       </c>
       <c r="F154" s="3" t="n">
@@ -6548,7 +6551,7 @@
       <c r="C155" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D155" s="7" t="n">
+      <c r="D155" s="6" t="n">
         <v>23548.8</v>
       </c>
       <c r="E155" s="3" t="n">
@@ -6622,7 +6625,7 @@
         <v>0</v>
       </c>
       <c r="E157" s="5" t="n">
-        <v>7532107.56</v>
+        <v>3766053.78</v>
       </c>
       <c r="F157" s="3" t="n">
         <v>0</v>
@@ -6688,7 +6691,7 @@
       <c r="C159" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D159" s="7" t="n">
+      <c r="D159" s="6" t="n">
         <v>191903.4</v>
       </c>
       <c r="E159" s="3" t="n">
@@ -6723,7 +6726,7 @@
       <c r="C160" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D160" s="6" t="n">
+      <c r="D160" s="7" t="n">
         <v>57670000</v>
       </c>
       <c r="E160" s="3" t="n">
@@ -6793,11 +6796,11 @@
       <c r="C162" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D162" s="6" t="n">
+      <c r="D162" s="7" t="n">
         <v>3260</v>
       </c>
       <c r="E162" s="5" t="n">
-        <v>2716.66</v>
+        <v>1358.33</v>
       </c>
       <c r="F162" s="3" t="n">
         <v>0</v>
@@ -6828,10 +6831,10 @@
       <c r="C163" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D163" s="6" t="n">
+      <c r="D163" s="7" t="n">
         <v>840000</v>
       </c>
-      <c r="E163" s="6" t="n">
+      <c r="E163" s="7" t="n">
         <v>840000</v>
       </c>
       <c r="F163" s="3" t="n">
@@ -6863,10 +6866,10 @@
       <c r="C164" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D164" s="6" t="n">
+      <c r="D164" s="7" t="n">
         <v>840000</v>
       </c>
-      <c r="E164" s="6" t="n">
+      <c r="E164" s="7" t="n">
         <v>840000</v>
       </c>
       <c r="F164" s="3" t="n">
@@ -6898,10 +6901,10 @@
       <c r="C165" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D165" s="6" t="n">
+      <c r="D165" s="7" t="n">
         <v>780000</v>
       </c>
-      <c r="E165" s="6" t="n">
+      <c r="E165" s="7" t="n">
         <v>780000</v>
       </c>
       <c r="F165" s="3" t="n">
@@ -6933,10 +6936,10 @@
       <c r="C166" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D166" s="6" t="n">
+      <c r="D166" s="7" t="n">
         <v>840000</v>
       </c>
-      <c r="E166" s="6" t="n">
+      <c r="E166" s="7" t="n">
         <v>840000</v>
       </c>
       <c r="F166" s="3" t="n">
@@ -6968,10 +6971,10 @@
       <c r="C167" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D167" s="6" t="n">
+      <c r="D167" s="7" t="n">
         <v>390000</v>
       </c>
-      <c r="E167" s="6" t="n">
+      <c r="E167" s="7" t="n">
         <v>390000</v>
       </c>
       <c r="F167" s="3" t="n">
@@ -7007,7 +7010,7 @@
         <v>35225.13</v>
       </c>
       <c r="E168" s="5" t="n">
-        <v>117417.12</v>
+        <v>29354.28</v>
       </c>
       <c r="F168" s="3" t="n">
         <v>0</v>
@@ -7042,7 +7045,7 @@
         <v>21340351.03</v>
       </c>
       <c r="E169" s="5" t="n">
-        <v>48930677.56</v>
+        <v>12232669.39</v>
       </c>
       <c r="F169" s="3" t="n">
         <v>0</v>
@@ -7077,7 +7080,7 @@
         <v>388515.58</v>
       </c>
       <c r="E170" s="5" t="n">
-        <v>1313167.88</v>
+        <v>328291.97</v>
       </c>
       <c r="F170" s="3" t="n">
         <v>0</v>
@@ -7143,11 +7146,11 @@
       <c r="C172" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D172" s="6" t="n">
+      <c r="D172" s="7" t="n">
         <v>90000</v>
       </c>
-      <c r="E172" s="6" t="n">
-        <v>75000</v>
+      <c r="E172" s="7" t="n">
+        <v>37500</v>
       </c>
       <c r="F172" s="3" t="n">
         <v>0</v>
@@ -7213,11 +7216,11 @@
       <c r="C174" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D174" s="6" t="n">
+      <c r="D174" s="7" t="n">
         <v>38700</v>
       </c>
-      <c r="E174" s="6" t="n">
-        <v>129000</v>
+      <c r="E174" s="7" t="n">
+        <v>32250</v>
       </c>
       <c r="F174" s="3" t="n">
         <v>0</v>
@@ -7248,11 +7251,11 @@
       <c r="C175" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D175" s="6" t="n">
+      <c r="D175" s="7" t="n">
         <v>29440</v>
       </c>
-      <c r="E175" s="6" t="n">
-        <v>92400</v>
+      <c r="E175" s="7" t="n">
+        <v>30800</v>
       </c>
       <c r="F175" s="3" t="n">
         <v>0</v>
@@ -7318,11 +7321,11 @@
       <c r="C177" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D177" s="6" t="n">
+      <c r="D177" s="7" t="n">
         <v>600000</v>
       </c>
       <c r="E177" s="5" t="n">
-        <v>208033.36</v>
+        <v>52008.34</v>
       </c>
       <c r="F177" s="3" t="n">
         <v>0</v>
@@ -7353,11 +7356,11 @@
       <c r="C178" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D178" s="7" t="n">
+      <c r="D178" s="6" t="n">
         <v>1385.7</v>
       </c>
       <c r="E178" s="5" t="n">
-        <v>4619.04</v>
+        <v>1154.76</v>
       </c>
       <c r="F178" s="3" t="n">
         <v>0</v>
@@ -7388,11 +7391,11 @@
       <c r="C179" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D179" s="6" t="n">
+      <c r="D179" s="7" t="n">
         <v>18000</v>
       </c>
       <c r="E179" s="5" t="n">
-        <v>67441.02</v>
+        <v>22480.34</v>
       </c>
       <c r="F179" s="3" t="n">
         <v>0</v>
@@ -7598,7 +7601,7 @@
       <c r="C185" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D185" s="6" t="n">
+      <c r="D185" s="7" t="n">
         <v>62550</v>
       </c>
       <c r="E185" s="3" t="n">
@@ -7633,10 +7636,10 @@
       <c r="C186" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D186" s="6" t="n">
+      <c r="D186" s="7" t="n">
         <v>22500</v>
       </c>
-      <c r="E186" s="6" t="n">
+      <c r="E186" s="7" t="n">
         <v>30000</v>
       </c>
       <c r="F186" s="3" t="n">
@@ -7668,10 +7671,10 @@
       <c r="C187" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D187" s="6" t="n">
+      <c r="D187" s="7" t="n">
         <v>223070</v>
       </c>
-      <c r="E187" s="6" t="n">
+      <c r="E187" s="7" t="n">
         <v>375000</v>
       </c>
       <c r="F187" s="3" t="n">
@@ -7738,7 +7741,7 @@
       <c r="C189" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D189" s="6" t="n">
+      <c r="D189" s="7" t="n">
         <v>118000</v>
       </c>
       <c r="E189" s="3" t="n">
@@ -7773,11 +7776,11 @@
       <c r="C190" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D190" s="6" t="n">
+      <c r="D190" s="7" t="n">
         <v>60000</v>
       </c>
-      <c r="E190" s="6" t="n">
-        <v>50000</v>
+      <c r="E190" s="7" t="n">
+        <v>25000</v>
       </c>
       <c r="F190" s="3" t="n">
         <v>0</v>
@@ -7843,7 +7846,7 @@
       <c r="C192" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D192" s="6" t="n">
+      <c r="D192" s="7" t="n">
         <v>142775</v>
       </c>
       <c r="E192" s="3" t="n">
@@ -8018,7 +8021,7 @@
       <c r="C197" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D197" s="6" t="n">
+      <c r="D197" s="7" t="n">
         <v>3041800</v>
       </c>
       <c r="E197" s="3" t="n">
@@ -8193,11 +8196,11 @@
       <c r="C202" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D202" s="7" t="n">
+      <c r="D202" s="6" t="n">
         <v>948374.6</v>
       </c>
       <c r="E202" s="5" t="n">
-        <v>1580624.34</v>
+        <v>790312.17</v>
       </c>
       <c r="F202" s="3" t="n">
         <v>0</v>
@@ -8333,11 +8336,11 @@
       <c r="C206" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D206" s="6" t="n">
+      <c r="D206" s="7" t="n">
         <v>150000</v>
       </c>
       <c r="E206" s="5" t="n">
-        <v>500000.04</v>
+        <v>125000.01</v>
       </c>
       <c r="F206" s="3" t="n">
         <v>0</v>
@@ -8368,7 +8371,7 @@
       <c r="C207" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D207" s="7" t="n">
+      <c r="D207" s="6" t="n">
         <v>19637895.8</v>
       </c>
       <c r="E207" s="3" t="n">
@@ -8403,11 +8406,11 @@
       <c r="C208" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D208" s="6" t="n">
+      <c r="D208" s="7" t="n">
         <v>122400</v>
       </c>
-      <c r="E208" s="6" t="n">
-        <v>408000</v>
+      <c r="E208" s="7" t="n">
+        <v>102000</v>
       </c>
       <c r="F208" s="3" t="n">
         <v>0</v>
@@ -8438,7 +8441,7 @@
       <c r="C209" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D209" s="6" t="n">
+      <c r="D209" s="7" t="n">
         <v>265000</v>
       </c>
       <c r="E209" s="3" t="n">
@@ -8477,7 +8480,7 @@
         <v>91462.38</v>
       </c>
       <c r="E210" s="5" t="n">
-        <v>76114.48</v>
+        <v>19028.62</v>
       </c>
       <c r="F210" s="3" t="n">
         <v>0</v>
@@ -8508,7 +8511,7 @@
       <c r="C211" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D211" s="7" t="n">
+      <c r="D211" s="6" t="n">
         <v>382029.5</v>
       </c>
       <c r="E211" s="3" t="n">
@@ -8543,10 +8546,10 @@
       <c r="C212" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D212" s="6" t="n">
+      <c r="D212" s="7" t="n">
         <v>18050</v>
       </c>
-      <c r="E212" s="6" t="n">
+      <c r="E212" s="7" t="n">
         <v>20900</v>
       </c>
       <c r="F212" s="3" t="n">
@@ -8613,10 +8616,10 @@
       <c r="C214" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D214" s="6" t="n">
+      <c r="D214" s="7" t="n">
         <v>277000</v>
       </c>
-      <c r="E214" s="6" t="n">
+      <c r="E214" s="7" t="n">
         <v>277000</v>
       </c>
       <c r="F214" s="3" t="n">
@@ -8648,7 +8651,7 @@
       <c r="C215" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D215" s="7" t="n">
+      <c r="D215" s="6" t="n">
         <v>18332433.9</v>
       </c>
       <c r="E215" s="3" t="n">
@@ -9348,10 +9351,10 @@
       <c r="C235" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D235" s="6" t="n">
+      <c r="D235" s="7" t="n">
         <v>32000</v>
       </c>
-      <c r="E235" s="6" t="n">
+      <c r="E235" s="7" t="n">
         <v>40000</v>
       </c>
       <c r="F235" s="3" t="n">
@@ -9383,11 +9386,11 @@
       <c r="C236" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D236" s="6" t="n">
+      <c r="D236" s="7" t="n">
         <v>13911</v>
       </c>
       <c r="E236" s="6" t="n">
-        <v>33130</v>
+        <v>8282.5</v>
       </c>
       <c r="F236" s="3" t="n">
         <v>0</v>
@@ -9492,7 +9495,7 @@
         <v>63642603.93</v>
       </c>
       <c r="E239" s="5" t="n">
-        <v>161981389.07</v>
+        <v>160880793.21</v>
       </c>
       <c r="F239" s="3" t="n">
         <v>0</v>
@@ -9628,7 +9631,7 @@
       <c r="C243" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D243" s="7" t="n">
+      <c r="D243" s="6" t="n">
         <v>16271.2</v>
       </c>
       <c r="E243" s="3" t="n">
@@ -9666,8 +9669,8 @@
       <c r="D244" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="E244" s="7" t="n">
-        <v>6082425.7</v>
+      <c r="E244" s="5" t="n">
+        <v>3041212.85</v>
       </c>
       <c r="F244" s="3" t="n">
         <v>0</v>
@@ -9698,11 +9701,11 @@
       <c r="C245" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D245" s="6" t="n">
+      <c r="D245" s="7" t="n">
         <v>119214</v>
       </c>
-      <c r="E245" s="6" t="n">
-        <v>397380</v>
+      <c r="E245" s="7" t="n">
+        <v>99345</v>
       </c>
       <c r="F245" s="3" t="n">
         <v>0</v>
@@ -9733,11 +9736,11 @@
       <c r="C246" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D246" s="6" t="n">
+      <c r="D246" s="7" t="n">
         <v>46368</v>
       </c>
-      <c r="E246" s="6" t="n">
-        <v>193200</v>
+      <c r="E246" s="7" t="n">
+        <v>48300</v>
       </c>
       <c r="F246" s="3" t="n">
         <v>0</v>
@@ -9771,7 +9774,7 @@
       <c r="D247" s="5" t="n">
         <v>1356.28</v>
       </c>
-      <c r="E247" s="6" t="n">
+      <c r="E247" s="7" t="n">
         <v>20614</v>
       </c>
       <c r="F247" s="3" t="n">
@@ -9873,10 +9876,10 @@
       <c r="C250" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D250" s="6" t="n">
+      <c r="D250" s="7" t="n">
         <v>27800</v>
       </c>
-      <c r="E250" s="6" t="n">
+      <c r="E250" s="7" t="n">
         <v>8000</v>
       </c>
       <c r="F250" s="3" t="n">
@@ -9908,10 +9911,10 @@
       <c r="C251" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D251" s="6" t="n">
+      <c r="D251" s="7" t="n">
         <v>198720</v>
       </c>
-      <c r="E251" s="6" t="n">
+      <c r="E251" s="7" t="n">
         <v>196560</v>
       </c>
       <c r="F251" s="3" t="n">
@@ -9978,11 +9981,11 @@
       <c r="C253" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D253" s="7" t="n">
+      <c r="D253" s="6" t="n">
         <v>1423.2</v>
       </c>
-      <c r="E253" s="6" t="n">
-        <v>7116</v>
+      <c r="E253" s="7" t="n">
+        <v>1779</v>
       </c>
       <c r="F253" s="3" t="n">
         <v>0</v>
@@ -10087,7 +10090,7 @@
         <v>90879.56</v>
       </c>
       <c r="E256" s="5" t="n">
-        <v>143006.32</v>
+        <v>35751.58</v>
       </c>
       <c r="F256" s="3" t="n">
         <v>0</v>
@@ -10156,8 +10159,8 @@
       <c r="D258" s="5" t="n">
         <v>34283.62</v>
       </c>
-      <c r="E258" s="7" t="n">
-        <v>123144.4</v>
+      <c r="E258" s="6" t="n">
+        <v>30786.1</v>
       </c>
       <c r="F258" s="3" t="n">
         <v>0</v>
@@ -10192,7 +10195,7 @@
         <v>3182.89</v>
       </c>
       <c r="E259" s="5" t="n">
-        <v>6368.88</v>
+        <v>1592.22</v>
       </c>
       <c r="F259" s="3" t="n">
         <v>0</v>
@@ -10258,10 +10261,10 @@
       <c r="C261" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D261" s="6" t="n">
+      <c r="D261" s="7" t="n">
         <v>6400</v>
       </c>
-      <c r="E261" s="6" t="n">
+      <c r="E261" s="7" t="n">
         <v>9600</v>
       </c>
       <c r="F261" s="3" t="n">
@@ -10297,7 +10300,7 @@
         <v>0</v>
       </c>
       <c r="E262" s="5" t="n">
-        <v>2813168.44</v>
+        <v>1406584.22</v>
       </c>
       <c r="F262" s="3" t="n">
         <v>0</v>
@@ -10328,11 +10331,11 @@
       <c r="C263" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D263" s="6" t="n">
+      <c r="D263" s="7" t="n">
         <v>10000</v>
       </c>
       <c r="E263" s="5" t="n">
-        <v>37500.03</v>
+        <v>12500.01</v>
       </c>
       <c r="F263" s="3" t="n">
         <v>0</v>
@@ -10402,7 +10405,7 @@
         <v>224208.77</v>
       </c>
       <c r="E265" s="5" t="n">
-        <v>519998.68</v>
+        <v>129999.67</v>
       </c>
       <c r="F265" s="3" t="n">
         <v>0</v>
@@ -10468,7 +10471,7 @@
       <c r="C267" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D267" s="6" t="n">
+      <c r="D267" s="7" t="n">
         <v>17082</v>
       </c>
       <c r="E267" s="3" t="n">
@@ -10503,11 +10506,11 @@
       <c r="C268" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D268" s="6" t="n">
+      <c r="D268" s="7" t="n">
         <v>1630</v>
       </c>
       <c r="E268" s="5" t="n">
-        <v>8149.98</v>
+        <v>2716.66</v>
       </c>
       <c r="F268" s="3" t="n">
         <v>0</v>
@@ -10538,7 +10541,7 @@
       <c r="C269" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D269" s="6" t="n">
+      <c r="D269" s="7" t="n">
         <v>29500</v>
       </c>
       <c r="E269" s="3" t="n">
@@ -10573,10 +10576,10 @@
       <c r="C270" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D270" s="6" t="n">
+      <c r="D270" s="7" t="n">
         <v>141540</v>
       </c>
-      <c r="E270" s="6" t="n">
+      <c r="E270" s="7" t="n">
         <v>27500</v>
       </c>
       <c r="F270" s="3" t="n">
@@ -10646,7 +10649,7 @@
       <c r="D272" s="5" t="n">
         <v>566417.81</v>
       </c>
-      <c r="E272" s="6" t="n">
+      <c r="E272" s="7" t="n">
         <v>402805</v>
       </c>
       <c r="F272" s="3" t="n">
@@ -10678,10 +10681,10 @@
       <c r="C273" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D273" s="6" t="n">
+      <c r="D273" s="7" t="n">
         <v>357500</v>
       </c>
-      <c r="E273" s="6" t="n">
+      <c r="E273" s="7" t="n">
         <v>357500</v>
       </c>
       <c r="F273" s="3" t="n">
@@ -10717,7 +10720,7 @@
         <v>15372.55</v>
       </c>
       <c r="E274" s="5" t="n">
-        <v>38425.88</v>
+        <v>9606.47</v>
       </c>
       <c r="F274" s="3" t="n">
         <v>0</v>
@@ -10748,7 +10751,7 @@
       <c r="C275" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D275" s="6" t="n">
+      <c r="D275" s="7" t="n">
         <v>1400000</v>
       </c>
       <c r="E275" s="3" t="n">
@@ -10787,7 +10790,7 @@
         <v>1427466.43</v>
       </c>
       <c r="E276" s="5" t="n">
-        <v>29042859.27</v>
+        <v>9680953.09</v>
       </c>
       <c r="F276" s="3" t="n">
         <v>0</v>
@@ -10822,7 +10825,7 @@
         <v>15646933.66</v>
       </c>
       <c r="E277" s="5" t="n">
-        <v>64289334.64</v>
+        <v>32144667.32</v>
       </c>
       <c r="F277" s="3" t="n">
         <v>0</v>
@@ -10888,7 +10891,7 @@
       <c r="C279" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D279" s="6" t="n">
+      <c r="D279" s="7" t="n">
         <v>500000</v>
       </c>
       <c r="E279" s="3" t="n">
@@ -10923,7 +10926,7 @@
       <c r="C280" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D280" s="7" t="n">
+      <c r="D280" s="6" t="n">
         <v>8099393.1</v>
       </c>
       <c r="E280" s="5" t="n">
@@ -11032,7 +11035,7 @@
         <v>0</v>
       </c>
       <c r="E283" s="5" t="n">
-        <v>273391.42</v>
+        <v>136695.71</v>
       </c>
       <c r="F283" s="3" t="n">
         <v>0</v>
@@ -11168,11 +11171,11 @@
       <c r="C287" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D287" s="7" t="n">
+      <c r="D287" s="6" t="n">
         <v>32302724.8</v>
       </c>
       <c r="E287" s="5" t="n">
-        <v>52176306.84</v>
+        <v>17392102.28</v>
       </c>
       <c r="F287" s="3" t="n">
         <v>0</v>
@@ -11203,11 +11206,11 @@
       <c r="C288" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D288" s="6" t="n">
+      <c r="D288" s="7" t="n">
         <v>36000</v>
       </c>
       <c r="E288" s="5" t="n">
-        <v>21866.68</v>
+        <v>5466.67</v>
       </c>
       <c r="F288" s="3" t="n">
         <v>0</v>
@@ -11487,7 +11490,7 @@
         <v>0</v>
       </c>
       <c r="E296" s="5" t="n">
-        <v>33250.84</v>
+        <v>16625.42</v>
       </c>
       <c r="F296" s="3" t="n">
         <v>0</v>
@@ -11522,7 +11525,7 @@
         <v>15551.31</v>
       </c>
       <c r="E297" s="5" t="n">
-        <v>111779.12</v>
+        <v>27944.78</v>
       </c>
       <c r="F297" s="3" t="n">
         <v>0</v>
@@ -11556,8 +11559,8 @@
       <c r="D298" s="5" t="n">
         <v>228922.19</v>
       </c>
-      <c r="E298" s="7" t="n">
-        <v>780781.6</v>
+      <c r="E298" s="6" t="n">
+        <v>195195.4</v>
       </c>
       <c r="F298" s="3" t="n">
         <v>0</v>
@@ -11592,7 +11595,7 @@
         <v>0</v>
       </c>
       <c r="E299" s="5" t="n">
-        <v>60901.24</v>
+        <v>15225.31</v>
       </c>
       <c r="F299" s="3" t="n">
         <v>0</v>
@@ -11623,10 +11626,10 @@
       <c r="C300" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D300" s="6" t="n">
+      <c r="D300" s="7" t="n">
         <v>34900</v>
       </c>
-      <c r="E300" s="6" t="n">
+      <c r="E300" s="7" t="n">
         <v>34900</v>
       </c>
       <c r="F300" s="3" t="n">
@@ -11658,7 +11661,7 @@
       <c r="C301" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D301" s="6" t="n">
+      <c r="D301" s="7" t="n">
         <v>9420</v>
       </c>
       <c r="E301" s="3" t="n">
@@ -11696,7 +11699,7 @@
       <c r="D302" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="E302" s="7" t="n">
+      <c r="E302" s="6" t="n">
         <v>17167.7</v>
       </c>
       <c r="F302" s="3" t="n">
@@ -11728,10 +11731,10 @@
       <c r="C303" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D303" s="6" t="n">
+      <c r="D303" s="7" t="n">
         <v>360000</v>
       </c>
-      <c r="E303" s="6" t="n">
+      <c r="E303" s="7" t="n">
         <v>300000</v>
       </c>
       <c r="F303" s="3" t="n">
@@ -11763,7 +11766,7 @@
       <c r="C304" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D304" s="6" t="n">
+      <c r="D304" s="7" t="n">
         <v>56000</v>
       </c>
       <c r="E304" s="3" t="n">
@@ -11798,10 +11801,10 @@
       <c r="C305" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D305" s="7" t="n">
+      <c r="D305" s="6" t="n">
         <v>57704.4</v>
       </c>
-      <c r="E305" s="6" t="n">
+      <c r="E305" s="7" t="n">
         <v>48087</v>
       </c>
       <c r="F305" s="3" t="n">
@@ -11833,7 +11836,7 @@
       <c r="C306" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D306" s="6" t="n">
+      <c r="D306" s="7" t="n">
         <v>925900</v>
       </c>
       <c r="E306" s="3" t="n">
@@ -12008,7 +12011,7 @@
       <c r="C311" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D311" s="6" t="n">
+      <c r="D311" s="7" t="n">
         <v>569412</v>
       </c>
       <c r="E311" s="3" t="n">
@@ -12043,7 +12046,7 @@
       <c r="C312" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D312" s="6" t="n">
+      <c r="D312" s="7" t="n">
         <v>11220000</v>
       </c>
       <c r="E312" s="3" t="n">
@@ -12113,7 +12116,7 @@
       <c r="C314" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D314" s="6" t="n">
+      <c r="D314" s="7" t="n">
         <v>355420</v>
       </c>
       <c r="E314" s="3" t="n">
@@ -12151,7 +12154,7 @@
       <c r="D315" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="E315" s="6" t="n">
+      <c r="E315" s="7" t="n">
         <v>20800</v>
       </c>
       <c r="F315" s="3" t="n">
@@ -12186,7 +12189,7 @@
       <c r="D316" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="E316" s="6" t="n">
+      <c r="E316" s="7" t="n">
         <v>200000</v>
       </c>
       <c r="F316" s="3" t="n">
@@ -12257,7 +12260,7 @@
         <v>62938.38</v>
       </c>
       <c r="E318" s="5" t="n">
-        <v>201992.56</v>
+        <v>50498.14</v>
       </c>
       <c r="F318" s="3" t="n">
         <v>0</v>
@@ -12292,7 +12295,7 @@
         <v>332340.02</v>
       </c>
       <c r="E319" s="5" t="n">
-        <v>1113341.96</v>
+        <v>278335.49</v>
       </c>
       <c r="F319" s="3" t="n">
         <v>0</v>
@@ -12326,8 +12329,8 @@
       <c r="D320" s="5" t="n">
         <v>128472.72</v>
       </c>
-      <c r="E320" s="7" t="n">
-        <v>642059.6</v>
+      <c r="E320" s="6" t="n">
+        <v>160514.9</v>
       </c>
       <c r="F320" s="3" t="n">
         <v>0</v>
@@ -12361,8 +12364,8 @@
       <c r="D321" s="5" t="n">
         <v>389006.35</v>
       </c>
-      <c r="E321" s="6" t="n">
-        <v>24000</v>
+      <c r="E321" s="7" t="n">
+        <v>6000</v>
       </c>
       <c r="F321" s="3" t="n">
         <v>0</v>
@@ -12467,7 +12470,7 @@
         <v>4067338.09</v>
       </c>
       <c r="E324" s="5" t="n">
-        <v>15884326.94</v>
+        <v>7942163.47</v>
       </c>
       <c r="F324" s="3" t="n">
         <v>0</v>
@@ -12533,7 +12536,7 @@
       <c r="C326" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D326" s="6" t="n">
+      <c r="D326" s="7" t="n">
         <v>480000</v>
       </c>
       <c r="E326" s="3" t="n">
@@ -12568,10 +12571,10 @@
       <c r="C327" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D327" s="6" t="n">
+      <c r="D327" s="7" t="n">
         <v>42000</v>
       </c>
-      <c r="E327" s="6" t="n">
+      <c r="E327" s="7" t="n">
         <v>35000</v>
       </c>
       <c r="F327" s="3" t="n">
@@ -12603,7 +12606,7 @@
       <c r="C328" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D328" s="6" t="n">
+      <c r="D328" s="7" t="n">
         <v>900000</v>
       </c>
       <c r="E328" s="3" t="n">
@@ -12673,7 +12676,7 @@
       <c r="C330" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D330" s="6" t="n">
+      <c r="D330" s="7" t="n">
         <v>1000</v>
       </c>
       <c r="E330" s="8" t="n">
@@ -12708,11 +12711,11 @@
       <c r="C331" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D331" s="6" t="n">
+      <c r="D331" s="7" t="n">
         <v>16650</v>
       </c>
       <c r="E331" s="5" t="n">
-        <v>16071.34</v>
+        <v>8035.67</v>
       </c>
       <c r="F331" s="3" t="n">
         <v>0</v>
@@ -12743,7 +12746,7 @@
       <c r="C332" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D332" s="6" t="n">
+      <c r="D332" s="7" t="n">
         <v>10000</v>
       </c>
       <c r="E332" s="3" t="n">
@@ -12778,10 +12781,10 @@
       <c r="C333" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D333" s="6" t="n">
+      <c r="D333" s="7" t="n">
         <v>910000</v>
       </c>
-      <c r="E333" s="6" t="n">
+      <c r="E333" s="7" t="n">
         <v>910000</v>
       </c>
       <c r="F333" s="3" t="n">
@@ -12848,7 +12851,7 @@
       <c r="C335" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D335" s="6" t="n">
+      <c r="D335" s="7" t="n">
         <v>15000000</v>
       </c>
       <c r="E335" s="3" t="n">
@@ -12918,10 +12921,10 @@
       <c r="C337" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D337" s="6" t="n">
+      <c r="D337" s="7" t="n">
         <v>840000</v>
       </c>
-      <c r="E337" s="6" t="n">
+      <c r="E337" s="7" t="n">
         <v>840000</v>
       </c>
       <c r="F337" s="3" t="n">
@@ -12953,10 +12956,10 @@
       <c r="C338" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D338" s="6" t="n">
+      <c r="D338" s="7" t="n">
         <v>840000</v>
       </c>
-      <c r="E338" s="6" t="n">
+      <c r="E338" s="7" t="n">
         <v>840000</v>
       </c>
       <c r="F338" s="3" t="n">
@@ -12988,10 +12991,10 @@
       <c r="C339" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D339" s="6" t="n">
+      <c r="D339" s="7" t="n">
         <v>780000</v>
       </c>
-      <c r="E339" s="6" t="n">
+      <c r="E339" s="7" t="n">
         <v>780000</v>
       </c>
       <c r="F339" s="3" t="n">
@@ -13023,10 +13026,10 @@
       <c r="C340" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D340" s="6" t="n">
+      <c r="D340" s="7" t="n">
         <v>840000</v>
       </c>
-      <c r="E340" s="6" t="n">
+      <c r="E340" s="7" t="n">
         <v>840000</v>
       </c>
       <c r="F340" s="3" t="n">
@@ -13062,7 +13065,7 @@
         <v>35811.45</v>
       </c>
       <c r="E341" s="5" t="n">
-        <v>120348.72</v>
+        <v>30087.18</v>
       </c>
       <c r="F341" s="3" t="n">
         <v>0</v>
@@ -13097,7 +13100,7 @@
         <v>9272128.39</v>
       </c>
       <c r="E342" s="5" t="n">
-        <v>10451850.76</v>
+        <v>2612962.69</v>
       </c>
       <c r="F342" s="3" t="n">
         <v>0</v>
@@ -13131,8 +13134,8 @@
       <c r="D343" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="E343" s="7" t="n">
-        <v>4911124.7</v>
+      <c r="E343" s="5" t="n">
+        <v>2455562.35</v>
       </c>
       <c r="F343" s="3" t="n">
         <v>0</v>
@@ -13167,7 +13170,7 @@
         <v>103363.25</v>
       </c>
       <c r="E344" s="5" t="n">
-        <v>348635.04</v>
+        <v>87158.76</v>
       </c>
       <c r="F344" s="3" t="n">
         <v>0</v>
@@ -13233,11 +13236,11 @@
       <c r="C346" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D346" s="6" t="n">
+      <c r="D346" s="7" t="n">
         <v>48600</v>
       </c>
-      <c r="E346" s="6" t="n">
-        <v>129000</v>
+      <c r="E346" s="7" t="n">
+        <v>32250</v>
       </c>
       <c r="F346" s="3" t="n">
         <v>0</v>
@@ -13268,11 +13271,11 @@
       <c r="C347" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D347" s="6" t="n">
+      <c r="D347" s="7" t="n">
         <v>24320</v>
       </c>
-      <c r="E347" s="6" t="n">
-        <v>66900</v>
+      <c r="E347" s="7" t="n">
+        <v>22300</v>
       </c>
       <c r="F347" s="3" t="n">
         <v>0</v>
@@ -13338,11 +13341,11 @@
       <c r="C349" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D349" s="6" t="n">
+      <c r="D349" s="7" t="n">
         <v>604200</v>
       </c>
       <c r="E349" s="5" t="n">
-        <v>207719.92</v>
+        <v>51929.98</v>
       </c>
       <c r="F349" s="3" t="n">
         <v>0</v>
@@ -13377,7 +13380,7 @@
         <v>1408.78</v>
       </c>
       <c r="E350" s="5" t="n">
-        <v>4734.36</v>
+        <v>1183.59</v>
       </c>
       <c r="F350" s="3" t="n">
         <v>0</v>
@@ -13408,7 +13411,7 @@
       <c r="C351" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D351" s="7" t="n">
+      <c r="D351" s="6" t="n">
         <v>18000.6</v>
       </c>
       <c r="E351" s="3" t="n">
@@ -13447,7 +13450,7 @@
         <v>0</v>
       </c>
       <c r="E352" s="5" t="n">
-        <v>57115.53</v>
+        <v>19038.51</v>
       </c>
       <c r="F352" s="3" t="n">
         <v>0</v>
@@ -13516,7 +13519,7 @@
       <c r="D354" s="5" t="n">
         <v>766700.29</v>
       </c>
-      <c r="E354" s="6" t="n">
+      <c r="E354" s="7" t="n">
         <v>831920</v>
       </c>
       <c r="F354" s="3" t="n">
@@ -13653,10 +13656,10 @@
       <c r="C358" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D358" s="6" t="n">
+      <c r="D358" s="7" t="n">
         <v>22500</v>
       </c>
-      <c r="E358" s="6" t="n">
+      <c r="E358" s="7" t="n">
         <v>15000</v>
       </c>
       <c r="F358" s="3" t="n">
@@ -13688,10 +13691,10 @@
       <c r="C359" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D359" s="6" t="n">
+      <c r="D359" s="7" t="n">
         <v>225000</v>
       </c>
-      <c r="E359" s="6" t="n">
+      <c r="E359" s="7" t="n">
         <v>225000</v>
       </c>
       <c r="F359" s="3" t="n">
@@ -13758,7 +13761,7 @@
       <c r="C361" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D361" s="7" t="n">
+      <c r="D361" s="6" t="n">
         <v>823666.5</v>
       </c>
       <c r="E361" s="5" t="n">
@@ -13831,8 +13834,8 @@
       <c r="D363" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="E363" s="6" t="n">
-        <v>50000</v>
+      <c r="E363" s="7" t="n">
+        <v>25000</v>
       </c>
       <c r="F363" s="3" t="n">
         <v>0</v>
@@ -13867,7 +13870,7 @@
         <v>0</v>
       </c>
       <c r="E364" s="5" t="n">
-        <v>21427.68</v>
+        <v>10713.84</v>
       </c>
       <c r="F364" s="3" t="n">
         <v>0</v>
@@ -13901,7 +13904,7 @@
       <c r="D365" s="5" t="n">
         <v>105928.48</v>
       </c>
-      <c r="E365" s="7" t="n">
+      <c r="E365" s="6" t="n">
         <v>151326.4</v>
       </c>
       <c r="F365" s="3" t="n">
@@ -13933,10 +13936,10 @@
       <c r="C366" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D366" s="6" t="n">
+      <c r="D366" s="7" t="n">
         <v>18000</v>
       </c>
-      <c r="E366" s="6" t="n">
+      <c r="E366" s="7" t="n">
         <v>18000</v>
       </c>
       <c r="F366" s="3" t="n">
@@ -13968,10 +13971,10 @@
       <c r="C367" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D367" s="6" t="n">
+      <c r="D367" s="7" t="n">
         <v>25000</v>
       </c>
-      <c r="E367" s="6" t="n">
+      <c r="E367" s="7" t="n">
         <v>50000</v>
       </c>
       <c r="F367" s="3" t="n">
@@ -14038,7 +14041,7 @@
       <c r="C369" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D369" s="7" t="n">
+      <c r="D369" s="6" t="n">
         <v>64323445.1</v>
       </c>
       <c r="E369" s="3" t="n">
@@ -14111,7 +14114,7 @@
       <c r="D371" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="E371" s="7" t="n">
+      <c r="E371" s="6" t="n">
         <v>3292374.1</v>
       </c>
       <c r="F371" s="3" t="n">
@@ -14287,7 +14290,7 @@
         <v>1442182.21</v>
       </c>
       <c r="E376" s="5" t="n">
-        <v>2403637.02</v>
+        <v>1201818.51</v>
       </c>
       <c r="F376" s="3" t="n">
         <v>0</v>
@@ -14388,11 +14391,11 @@
       <c r="C379" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D379" s="6" t="n">
+      <c r="D379" s="7" t="n">
         <v>150000</v>
       </c>
       <c r="E379" s="5" t="n">
-        <v>500000.04</v>
+        <v>125000.01</v>
       </c>
       <c r="F379" s="3" t="n">
         <v>0</v>
@@ -14423,11 +14426,11 @@
       <c r="C380" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D380" s="6" t="n">
+      <c r="D380" s="7" t="n">
         <v>122400</v>
       </c>
-      <c r="E380" s="6" t="n">
-        <v>408000</v>
+      <c r="E380" s="7" t="n">
+        <v>102000</v>
       </c>
       <c r="F380" s="3" t="n">
         <v>0</v>
@@ -14462,7 +14465,7 @@
         <v>0</v>
       </c>
       <c r="E381" s="5" t="n">
-        <v>11256.64</v>
+        <v>2814.16</v>
       </c>
       <c r="F381" s="3" t="n">
         <v>0</v>
@@ -14493,10 +14496,10 @@
       <c r="C382" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D382" s="6" t="n">
+      <c r="D382" s="7" t="n">
         <v>26600</v>
       </c>
-      <c r="E382" s="6" t="n">
+      <c r="E382" s="7" t="n">
         <v>19000</v>
       </c>
       <c r="F382" s="3" t="n">
@@ -14598,7 +14601,7 @@
       <c r="C385" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D385" s="6" t="n">
+      <c r="D385" s="7" t="n">
         <v>483366</v>
       </c>
       <c r="E385" s="3" t="n">
@@ -14703,7 +14706,7 @@
       <c r="C388" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D388" s="7" t="n">
+      <c r="D388" s="6" t="n">
         <v>1332837.1</v>
       </c>
       <c r="E388" s="3" t="n">
@@ -14776,7 +14779,7 @@
       <c r="D390" s="5" t="n">
         <v>8241625.33</v>
       </c>
-      <c r="E390" s="7" t="n">
+      <c r="E390" s="6" t="n">
         <v>10589551.3</v>
       </c>
       <c r="F390" s="3" t="n">
@@ -14808,10 +14811,10 @@
       <c r="C391" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D391" s="6" t="n">
+      <c r="D391" s="7" t="n">
         <v>200000</v>
       </c>
-      <c r="E391" s="6" t="n">
+      <c r="E391" s="7" t="n">
         <v>200000</v>
       </c>
       <c r="F391" s="3" t="n">
@@ -14913,11 +14916,11 @@
       <c r="C394" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D394" s="6" t="n">
+      <c r="D394" s="7" t="n">
         <v>4000000</v>
       </c>
-      <c r="E394" s="6" t="n">
-        <v>22175391</v>
+      <c r="E394" s="5" t="n">
+        <v>11466580.67</v>
       </c>
       <c r="F394" s="3" t="n">
         <v>0</v>
@@ -14948,7 +14951,7 @@
       <c r="C395" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D395" s="6" t="n">
+      <c r="D395" s="7" t="n">
         <v>355420</v>
       </c>
       <c r="E395" s="3" t="n">
@@ -15018,7 +15021,7 @@
       <c r="C397" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D397" s="6" t="n">
+      <c r="D397" s="7" t="n">
         <v>16038</v>
       </c>
       <c r="E397" s="3" t="n">
@@ -15088,11 +15091,11 @@
       <c r="C399" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D399" s="6" t="n">
+      <c r="D399" s="7" t="n">
         <v>5000</v>
       </c>
       <c r="E399" s="5" t="n">
-        <v>16666.68</v>
+        <v>8333.34</v>
       </c>
       <c r="F399" s="3" t="n">
         <v>0</v>
@@ -15127,7 +15130,7 @@
         <v>0</v>
       </c>
       <c r="E400" s="5" t="n">
-        <v>9333.34</v>
+        <v>4666.67</v>
       </c>
       <c r="F400" s="3" t="n">
         <v>0</v>
@@ -15158,10 +15161,10 @@
       <c r="C401" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D401" s="6" t="n">
+      <c r="D401" s="7" t="n">
         <v>69000</v>
       </c>
-      <c r="E401" s="6" t="n">
+      <c r="E401" s="7" t="n">
         <v>69000</v>
       </c>
       <c r="F401" s="3" t="n">
@@ -15228,7 +15231,7 @@
       <c r="C403" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D403" s="6" t="n">
+      <c r="D403" s="7" t="n">
         <v>1145562</v>
       </c>
       <c r="E403" s="3" t="n">
@@ -15298,10 +15301,10 @@
       <c r="C405" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D405" s="6" t="n">
+      <c r="D405" s="7" t="n">
         <v>25830</v>
       </c>
-      <c r="E405" s="6" t="n">
+      <c r="E405" s="7" t="n">
         <v>25830</v>
       </c>
       <c r="F405" s="3" t="n">
@@ -15476,7 +15479,7 @@
       <c r="D410" s="5" t="n">
         <v>1589395.58</v>
       </c>
-      <c r="E410" s="7" t="n">
+      <c r="E410" s="6" t="n">
         <v>2309577.4</v>
       </c>
       <c r="F410" s="3" t="n">
@@ -15546,7 +15549,7 @@
       <c r="D412" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="E412" s="7" t="n">
+      <c r="E412" s="6" t="n">
         <v>3964986.9</v>
       </c>
       <c r="F412" s="3" t="n">
@@ -15651,7 +15654,7 @@
       <c r="D415" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="E415" s="6" t="n">
+      <c r="E415" s="7" t="n">
         <v>200000</v>
       </c>
       <c r="F415" s="3" t="n">
@@ -15718,10 +15721,10 @@
       <c r="C417" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D417" s="6" t="n">
+      <c r="D417" s="7" t="n">
         <v>24000</v>
       </c>
-      <c r="E417" s="6" t="n">
+      <c r="E417" s="7" t="n">
         <v>24000</v>
       </c>
       <c r="F417" s="3" t="n">
@@ -15753,10 +15756,10 @@
       <c r="C418" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D418" s="7" t="n">
+      <c r="D418" s="6" t="n">
         <v>8466.2</v>
       </c>
-      <c r="E418" s="6" t="n">
+      <c r="E418" s="7" t="n">
         <v>6027</v>
       </c>
       <c r="F418" s="3" t="n">
@@ -15788,11 +15791,11 @@
       <c r="C419" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D419" s="6" t="n">
+      <c r="D419" s="7" t="n">
         <v>30865</v>
       </c>
       <c r="E419" s="5" t="n">
-        <v>105416.68</v>
+        <v>26354.17</v>
       </c>
       <c r="F419" s="3" t="n">
         <v>0</v>
@@ -15897,7 +15900,7 @@
         <v>69857677.62</v>
       </c>
       <c r="E422" s="5" t="n">
-        <v>140430025.74</v>
+        <v>139891723.54</v>
       </c>
       <c r="F422" s="3" t="n">
         <v>0</v>
@@ -16138,7 +16141,7 @@
       <c r="C429" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D429" s="7" t="n">
+      <c r="D429" s="6" t="n">
         <v>12203.4</v>
       </c>
       <c r="E429" s="3" t="n">
@@ -16176,8 +16179,8 @@
       <c r="D430" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="E430" s="7" t="n">
-        <v>3464366.1</v>
+      <c r="E430" s="5" t="n">
+        <v>1732183.05</v>
       </c>
       <c r="F430" s="3" t="n">
         <v>0</v>
@@ -16208,11 +16211,11 @@
       <c r="C431" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D431" s="6" t="n">
+      <c r="D431" s="7" t="n">
         <v>119214</v>
       </c>
-      <c r="E431" s="6" t="n">
-        <v>264920</v>
+      <c r="E431" s="7" t="n">
+        <v>66230</v>
       </c>
       <c r="F431" s="3" t="n">
         <v>0</v>
@@ -16243,11 +16246,11 @@
       <c r="C432" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D432" s="6" t="n">
+      <c r="D432" s="7" t="n">
         <v>34776</v>
       </c>
-      <c r="E432" s="6" t="n">
-        <v>115920</v>
+      <c r="E432" s="7" t="n">
+        <v>28980</v>
       </c>
       <c r="F432" s="3" t="n">
         <v>0</v>
@@ -16313,10 +16316,10 @@
       <c r="C434" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D434" s="6" t="n">
+      <c r="D434" s="7" t="n">
         <v>198720</v>
       </c>
-      <c r="E434" s="6" t="n">
+      <c r="E434" s="7" t="n">
         <v>198720</v>
       </c>
       <c r="F434" s="3" t="n">
@@ -16351,8 +16354,8 @@
       <c r="D435" s="5" t="n">
         <v>2880.96</v>
       </c>
-      <c r="E435" s="7" t="n">
-        <v>7307.2</v>
+      <c r="E435" s="6" t="n">
+        <v>1826.8</v>
       </c>
       <c r="F435" s="3" t="n">
         <v>0</v>
@@ -16421,8 +16424,8 @@
       <c r="D437" s="5" t="n">
         <v>16588.63</v>
       </c>
-      <c r="E437" s="7" t="n">
-        <v>112871.8</v>
+      <c r="E437" s="5" t="n">
+        <v>28217.95</v>
       </c>
       <c r="F437" s="3" t="n">
         <v>0</v>
@@ -16492,7 +16495,7 @@
         <v>41160.79</v>
       </c>
       <c r="E439" s="5" t="n">
-        <v>154475.64</v>
+        <v>38618.91</v>
       </c>
       <c r="F439" s="3" t="n">
         <v>0</v>
@@ -16527,7 +16530,7 @@
         <v>1936.72</v>
       </c>
       <c r="E440" s="5" t="n">
-        <v>6466.76</v>
+        <v>1616.69</v>
       </c>
       <c r="F440" s="3" t="n">
         <v>0</v>
@@ -16593,10 +16596,10 @@
       <c r="C442" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D442" s="6" t="n">
+      <c r="D442" s="7" t="n">
         <v>16000</v>
       </c>
-      <c r="E442" s="6" t="n">
+      <c r="E442" s="7" t="n">
         <v>9600</v>
       </c>
       <c r="F442" s="3" t="n">
@@ -16632,7 +16635,7 @@
         <v>1519110.96</v>
       </c>
       <c r="E443" s="5" t="n">
-        <v>354989.76</v>
+        <v>177494.88</v>
       </c>
       <c r="F443" s="3" t="n">
         <v>0</v>
@@ -16663,11 +16666,11 @@
       <c r="C444" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D444" s="6" t="n">
+      <c r="D444" s="7" t="n">
         <v>15000</v>
       </c>
       <c r="E444" s="5" t="n">
-        <v>12500.01</v>
+        <v>4166.67</v>
       </c>
       <c r="F444" s="3" t="n">
         <v>0</v>
@@ -16702,7 +16705,7 @@
         <v>31364.77</v>
       </c>
       <c r="E445" s="5" t="n">
-        <v>398354.68</v>
+        <v>99588.67</v>
       </c>
       <c r="F445" s="3" t="n">
         <v>0</v>
@@ -16733,7 +16736,7 @@
       <c r="C446" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D446" s="7" t="n">
+      <c r="D446" s="6" t="n">
         <v>18790.2</v>
       </c>
       <c r="E446" s="3" t="n">
@@ -16771,8 +16774,8 @@
       <c r="D447" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="E447" s="6" t="n">
-        <v>307440</v>
+      <c r="E447" s="7" t="n">
+        <v>153720</v>
       </c>
       <c r="F447" s="3" t="n">
         <v>0</v>
@@ -16803,11 +16806,11 @@
       <c r="C448" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D448" s="6" t="n">
+      <c r="D448" s="7" t="n">
         <v>4890</v>
       </c>
       <c r="E448" s="5" t="n">
-        <v>12224.97</v>
+        <v>4074.99</v>
       </c>
       <c r="F448" s="3" t="n">
         <v>0</v>
@@ -16838,7 +16841,7 @@
       <c r="C449" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D449" s="7" t="n">
+      <c r="D449" s="6" t="n">
         <v>435029.4</v>
       </c>
       <c r="E449" s="3" t="n">
@@ -16912,7 +16915,7 @@
         <v>11931.55</v>
       </c>
       <c r="E451" s="5" t="n">
-        <v>45018.72</v>
+        <v>11254.68</v>
       </c>
       <c r="F451" s="3" t="n">
         <v>0</v>
@@ -16982,7 +16985,7 @@
         <v>10010231.24</v>
       </c>
       <c r="E453" s="5" t="n">
-        <v>13100932.56</v>
+        <v>4366977.52</v>
       </c>
       <c r="F453" s="3" t="n">
         <v>0</v>
@@ -17013,7 +17016,7 @@
       <c r="C454" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D454" s="7" t="n">
+      <c r="D454" s="6" t="n">
         <v>31716240.7</v>
       </c>
       <c r="E454" s="3" t="n">
@@ -17191,8 +17194,8 @@
       <c r="D459" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="E459" s="7" t="n">
-        <v>183884.1</v>
+      <c r="E459" s="5" t="n">
+        <v>91942.05</v>
       </c>
       <c r="F459" s="3" t="n">
         <v>0</v>
@@ -17262,7 +17265,7 @@
         <v>1746146.15</v>
       </c>
       <c r="E461" s="5" t="n">
-        <v>6660676.22</v>
+        <v>3330338.11</v>
       </c>
       <c r="F461" s="3" t="n">
         <v>0</v>
@@ -17297,7 +17300,7 @@
         <v>10300475.83</v>
       </c>
       <c r="E462" s="5" t="n">
-        <v>48168911.79</v>
+        <v>16056303.93</v>
       </c>
       <c r="F462" s="3" t="n">
         <v>0</v>
@@ -17437,7 +17440,7 @@
         <v>0</v>
       </c>
       <c r="E466" s="5" t="n">
-        <v>20699.44</v>
+        <v>5174.86</v>
       </c>
       <c r="F466" s="3" t="n">
         <v>0</v>
@@ -17573,7 +17576,7 @@
       <c r="C470" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D470" s="6" t="n">
+      <c r="D470" s="7" t="n">
         <v>5392</v>
       </c>
       <c r="E470" s="5" t="n">
@@ -17748,11 +17751,11 @@
       <c r="C475" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D475" s="6" t="n">
+      <c r="D475" s="7" t="n">
         <v>16850</v>
       </c>
       <c r="E475" s="5" t="n">
-        <v>32716.66</v>
+        <v>16358.33</v>
       </c>
       <c r="F475" s="3" t="n">
         <v>0</v>
@@ -17787,7 +17790,7 @@
         <v>29672.76</v>
       </c>
       <c r="E476" s="5" t="n">
-        <v>75683.44</v>
+        <v>18920.86</v>
       </c>
       <c r="F476" s="3" t="n">
         <v>0</v>
@@ -17822,7 +17825,7 @@
         <v>248069.25</v>
       </c>
       <c r="E477" s="5" t="n">
-        <v>792474.88</v>
+        <v>198118.72</v>
       </c>
       <c r="F477" s="3" t="n">
         <v>0</v>
@@ -17857,7 +17860,7 @@
         <v>0</v>
       </c>
       <c r="E478" s="5" t="n">
-        <v>43157.36</v>
+        <v>10789.34</v>
       </c>
       <c r="F478" s="3" t="n">
         <v>0</v>
@@ -17888,7 +17891,7 @@
       <c r="C479" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D479" s="7" t="n">
+      <c r="D479" s="6" t="n">
         <v>17167.7</v>
       </c>
       <c r="E479" s="3" t="n">
@@ -17958,7 +17961,7 @@
       <c r="C481" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D481" s="7" t="n">
+      <c r="D481" s="6" t="n">
         <v>969002.6</v>
       </c>
       <c r="E481" s="3" t="n">
@@ -18028,7 +18031,7 @@
       <c r="C483" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D483" s="6" t="n">
+      <c r="D483" s="7" t="n">
         <v>1328628</v>
       </c>
       <c r="E483" s="3" t="n">
@@ -18098,7 +18101,7 @@
       <c r="C485" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D485" s="6" t="n">
+      <c r="D485" s="7" t="n">
         <v>360240</v>
       </c>
       <c r="E485" s="3" t="n">
@@ -18133,10 +18136,10 @@
       <c r="C486" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D486" s="6" t="n">
+      <c r="D486" s="7" t="n">
         <v>14700</v>
       </c>
-      <c r="E486" s="6" t="n">
+      <c r="E486" s="7" t="n">
         <v>14700</v>
       </c>
       <c r="F486" s="3" t="n">
@@ -18168,10 +18171,10 @@
       <c r="C487" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D487" s="6" t="n">
+      <c r="D487" s="7" t="n">
         <v>3000</v>
       </c>
-      <c r="E487" s="6" t="n">
+      <c r="E487" s="7" t="n">
         <v>3000</v>
       </c>
       <c r="F487" s="3" t="n">
@@ -18206,8 +18209,8 @@
       <c r="D488" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="E488" s="6" t="n">
-        <v>150000</v>
+      <c r="E488" s="7" t="n">
+        <v>300000</v>
       </c>
       <c r="F488" s="3" t="n">
         <v>0</v>
@@ -18238,7 +18241,7 @@
       <c r="C489" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D489" s="7" t="n">
+      <c r="D489" s="6" t="n">
         <v>425517.5</v>
       </c>
       <c r="E489" s="3" t="n">
@@ -18273,10 +18276,10 @@
       <c r="C490" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D490" s="6" t="n">
+      <c r="D490" s="7" t="n">
         <v>42200</v>
       </c>
-      <c r="E490" s="6" t="n">
+      <c r="E490" s="7" t="n">
         <v>42200</v>
       </c>
       <c r="F490" s="3" t="n">
@@ -18308,11 +18311,11 @@
       <c r="C491" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D491" s="5" t="n">
-        <v>32407.48</v>
-      </c>
-      <c r="E491" s="5" t="n">
-        <v>52532.16</v>
+      <c r="D491" s="7" t="n">
+        <v>1100000</v>
+      </c>
+      <c r="E491" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F491" s="3" t="n">
         <v>0</v>
@@ -18324,7 +18327,7 @@
         <v>0</v>
       </c>
       <c r="I491" s="4" t="s">
-        <v>15</v>
+        <v>303</v>
       </c>
       <c r="J491" s="4" t="s">
         <v>296</v>
@@ -18344,10 +18347,10 @@
         <v>11</v>
       </c>
       <c r="D492" s="5" t="n">
-        <v>224820.13</v>
-      </c>
-      <c r="E492" s="7" t="n">
-        <v>374832.6</v>
+        <v>32407.48</v>
+      </c>
+      <c r="E492" s="5" t="n">
+        <v>13133.04</v>
       </c>
       <c r="F492" s="3" t="n">
         <v>0</v>
@@ -18359,7 +18362,7 @@
         <v>0</v>
       </c>
       <c r="I492" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J492" s="4" t="s">
         <v>296</v>
@@ -18379,10 +18382,10 @@
         <v>11</v>
       </c>
       <c r="D493" s="5" t="n">
-        <v>195930.46</v>
+        <v>224820.13</v>
       </c>
       <c r="E493" s="5" t="n">
-        <v>439284.32</v>
+        <v>93708.15</v>
       </c>
       <c r="F493" s="3" t="n">
         <v>0</v>
@@ -18394,7 +18397,7 @@
         <v>0</v>
       </c>
       <c r="I493" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J493" s="4" t="s">
         <v>296</v>
@@ -18413,11 +18416,11 @@
       <c r="C494" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D494" s="6" t="n">
-        <v>110700</v>
-      </c>
-      <c r="E494" s="6" t="n">
-        <v>20500</v>
+      <c r="D494" s="5" t="n">
+        <v>195930.46</v>
+      </c>
+      <c r="E494" s="5" t="n">
+        <v>109821.08</v>
       </c>
       <c r="F494" s="3" t="n">
         <v>0</v>
@@ -18429,7 +18432,7 @@
         <v>0</v>
       </c>
       <c r="I494" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J494" s="4" t="s">
         <v>296</v>
@@ -18448,11 +18451,11 @@
       <c r="C495" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D495" s="5" t="n">
-        <v>257181.48</v>
-      </c>
-      <c r="E495" s="3" t="n">
-        <v>0</v>
+      <c r="D495" s="7" t="n">
+        <v>110700</v>
+      </c>
+      <c r="E495" s="7" t="n">
+        <v>10250</v>
       </c>
       <c r="F495" s="3" t="n">
         <v>0</v>
@@ -18464,7 +18467,7 @@
         <v>0</v>
       </c>
       <c r="I495" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J495" s="4" t="s">
         <v>296</v>
@@ -18484,7 +18487,7 @@
         <v>11</v>
       </c>
       <c r="D496" s="5" t="n">
-        <v>8577535.95</v>
+        <v>257181.48</v>
       </c>
       <c r="E496" s="3" t="n">
         <v>0</v>
@@ -18499,7 +18502,7 @@
         <v>0</v>
       </c>
       <c r="I496" s="4" t="s">
-        <v>165</v>
+        <v>19</v>
       </c>
       <c r="J496" s="4" t="s">
         <v>296</v>
@@ -18519,7 +18522,7 @@
         <v>11</v>
       </c>
       <c r="D497" s="5" t="n">
-        <v>170847.48</v>
+        <v>8577535.95</v>
       </c>
       <c r="E497" s="3" t="n">
         <v>0</v>
@@ -18534,7 +18537,7 @@
         <v>0</v>
       </c>
       <c r="I497" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J497" s="4" t="s">
         <v>296</v>
@@ -18553,11 +18556,11 @@
       <c r="C498" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D498" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E498" s="6" t="n">
-        <v>400000</v>
+      <c r="D498" s="5" t="n">
+        <v>170847.48</v>
+      </c>
+      <c r="E498" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F498" s="3" t="n">
         <v>0</v>
@@ -18569,7 +18572,7 @@
         <v>0</v>
       </c>
       <c r="I498" s="4" t="s">
-        <v>241</v>
+        <v>166</v>
       </c>
       <c r="J498" s="4" t="s">
         <v>296</v>
@@ -18588,11 +18591,11 @@
       <c r="C499" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D499" s="6" t="n">
-        <v>5000</v>
-      </c>
-      <c r="E499" s="6" t="n">
-        <v>5000</v>
+      <c r="D499" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E499" s="7" t="n">
+        <v>400000</v>
       </c>
       <c r="F499" s="3" t="n">
         <v>0</v>
@@ -18604,7 +18607,7 @@
         <v>0</v>
       </c>
       <c r="I499" s="4" t="s">
-        <v>303</v>
+        <v>241</v>
       </c>
       <c r="J499" s="4" t="s">
         <v>296</v>
@@ -18623,11 +18626,11 @@
       <c r="C500" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D500" s="6" t="n">
-        <v>3450000</v>
-      </c>
-      <c r="E500" s="3" t="n">
-        <v>0</v>
+      <c r="D500" s="7" t="n">
+        <v>5000</v>
+      </c>
+      <c r="E500" s="7" t="n">
+        <v>5000</v>
       </c>
       <c r="F500" s="3" t="n">
         <v>0</v>
@@ -18658,8 +18661,8 @@
       <c r="C501" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D501" s="5" t="n">
-        <v>17169230.88</v>
+      <c r="D501" s="7" t="n">
+        <v>3450000</v>
       </c>
       <c r="E501" s="3" t="n">
         <v>0</v>
@@ -18693,11 +18696,11 @@
       <c r="C502" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D502" s="7" t="n">
-        <v>12791.5</v>
-      </c>
-      <c r="E502" s="7" t="n">
-        <v>12791.5</v>
+      <c r="D502" s="5" t="n">
+        <v>20613446.16</v>
+      </c>
+      <c r="E502" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F502" s="3" t="n">
         <v>0</v>
@@ -18728,11 +18731,11 @@
       <c r="C503" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D503" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E503" s="5" t="n">
-        <v>6514.66</v>
+      <c r="D503" s="6" t="n">
+        <v>12791.5</v>
+      </c>
+      <c r="E503" s="6" t="n">
+        <v>12791.5</v>
       </c>
       <c r="F503" s="3" t="n">
         <v>0</v>
@@ -18744,7 +18747,7 @@
         <v>0</v>
       </c>
       <c r="I503" s="4" t="s">
-        <v>246</v>
+        <v>307</v>
       </c>
       <c r="J503" s="4" t="s">
         <v>296</v>
@@ -18763,11 +18766,11 @@
       <c r="C504" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D504" s="6" t="n">
-        <v>72000</v>
-      </c>
-      <c r="E504" s="6" t="n">
-        <v>72000</v>
+      <c r="D504" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E504" s="5" t="n">
+        <v>6213.33</v>
       </c>
       <c r="F504" s="3" t="n">
         <v>0</v>
@@ -18779,7 +18782,7 @@
         <v>0</v>
       </c>
       <c r="I504" s="4" t="s">
-        <v>307</v>
+        <v>246</v>
       </c>
       <c r="J504" s="4" t="s">
         <v>296</v>
@@ -18798,11 +18801,11 @@
       <c r="C505" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D505" s="6" t="n">
-        <v>17180000</v>
-      </c>
-      <c r="E505" s="3" t="n">
-        <v>0</v>
+      <c r="D505" s="7" t="n">
+        <v>72000</v>
+      </c>
+      <c r="E505" s="7" t="n">
+        <v>72000</v>
       </c>
       <c r="F505" s="3" t="n">
         <v>0</v>
@@ -18814,7 +18817,7 @@
         <v>0</v>
       </c>
       <c r="I505" s="4" t="s">
-        <v>27</v>
+        <v>308</v>
       </c>
       <c r="J505" s="4" t="s">
         <v>296</v>
@@ -18833,11 +18836,11 @@
       <c r="C506" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D506" s="5" t="n">
-        <v>2568110.72</v>
-      </c>
-      <c r="E506" s="5" t="n">
-        <v>2568110.72</v>
+      <c r="D506" s="7" t="n">
+        <v>17180000</v>
+      </c>
+      <c r="E506" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F506" s="3" t="n">
         <v>0</v>
@@ -18849,7 +18852,7 @@
         <v>0</v>
       </c>
       <c r="I506" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J506" s="4" t="s">
         <v>296</v>
@@ -18868,11 +18871,11 @@
       <c r="C507" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D507" s="6" t="n">
-        <v>560000</v>
-      </c>
-      <c r="E507" s="6" t="n">
-        <v>560000</v>
+      <c r="D507" s="5" t="n">
+        <v>3842916.08</v>
+      </c>
+      <c r="E507" s="5" t="n">
+        <v>2568110.72</v>
       </c>
       <c r="F507" s="3" t="n">
         <v>0</v>
@@ -18884,7 +18887,7 @@
         <v>0</v>
       </c>
       <c r="I507" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J507" s="4" t="s">
         <v>296</v>
@@ -18903,10 +18906,10 @@
       <c r="C508" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D508" s="6" t="n">
+      <c r="D508" s="7" t="n">
         <v>560000</v>
       </c>
-      <c r="E508" s="6" t="n">
+      <c r="E508" s="7" t="n">
         <v>560000</v>
       </c>
       <c r="F508" s="3" t="n">
@@ -18919,7 +18922,7 @@
         <v>0</v>
       </c>
       <c r="I508" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J508" s="4" t="s">
         <v>296</v>
@@ -18938,11 +18941,11 @@
       <c r="C509" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D509" s="6" t="n">
-        <v>520000</v>
-      </c>
-      <c r="E509" s="6" t="n">
-        <v>520000</v>
+      <c r="D509" s="7" t="n">
+        <v>560000</v>
+      </c>
+      <c r="E509" s="7" t="n">
+        <v>560000</v>
       </c>
       <c r="F509" s="3" t="n">
         <v>0</v>
@@ -18954,7 +18957,7 @@
         <v>0</v>
       </c>
       <c r="I509" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J509" s="4" t="s">
         <v>296</v>
@@ -18973,11 +18976,11 @@
       <c r="C510" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D510" s="6" t="n">
-        <v>560000</v>
-      </c>
-      <c r="E510" s="6" t="n">
-        <v>560000</v>
+      <c r="D510" s="7" t="n">
+        <v>520000</v>
+      </c>
+      <c r="E510" s="7" t="n">
+        <v>520000</v>
       </c>
       <c r="F510" s="3" t="n">
         <v>0</v>
@@ -18989,7 +18992,7 @@
         <v>0</v>
       </c>
       <c r="I510" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J510" s="4" t="s">
         <v>296</v>
@@ -19008,11 +19011,11 @@
       <c r="C511" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D511" s="5" t="n">
-        <v>36104.61</v>
-      </c>
-      <c r="E511" s="5" t="n">
-        <v>80232.48</v>
+      <c r="D511" s="7" t="n">
+        <v>560000</v>
+      </c>
+      <c r="E511" s="7" t="n">
+        <v>560000</v>
       </c>
       <c r="F511" s="3" t="n">
         <v>0</v>
@@ -19024,7 +19027,7 @@
         <v>0</v>
       </c>
       <c r="I511" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J511" s="4" t="s">
         <v>296</v>
@@ -19044,10 +19047,10 @@
         <v>11</v>
       </c>
       <c r="D512" s="5" t="n">
-        <v>2821999.69</v>
+        <v>36104.61</v>
       </c>
       <c r="E512" s="5" t="n">
-        <v>11957254.48</v>
+        <v>20058.12</v>
       </c>
       <c r="F512" s="3" t="n">
         <v>0</v>
@@ -19059,7 +19062,7 @@
         <v>0</v>
       </c>
       <c r="I512" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J512" s="4" t="s">
         <v>296</v>
@@ -19078,11 +19081,11 @@
       <c r="C513" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D513" s="6" t="n">
-        <v>1600000</v>
+      <c r="D513" s="5" t="n">
+        <v>2821999.69</v>
       </c>
       <c r="E513" s="5" t="n">
-        <v>13509682.96</v>
+        <v>2989313.62</v>
       </c>
       <c r="F513" s="3" t="n">
         <v>0</v>
@@ -19094,7 +19097,7 @@
         <v>0</v>
       </c>
       <c r="I513" s="4" t="s">
-        <v>250</v>
+        <v>37</v>
       </c>
       <c r="J513" s="4" t="s">
         <v>296</v>
@@ -19113,11 +19116,11 @@
       <c r="C514" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D514" s="5" t="n">
-        <v>69572.91</v>
+      <c r="D514" s="7" t="n">
+        <v>1600000</v>
       </c>
       <c r="E514" s="5" t="n">
-        <v>232890.36</v>
+        <v>6754841.48</v>
       </c>
       <c r="F514" s="3" t="n">
         <v>0</v>
@@ -19129,7 +19132,7 @@
         <v>0</v>
       </c>
       <c r="I514" s="4" t="s">
-        <v>38</v>
+        <v>250</v>
       </c>
       <c r="J514" s="4" t="s">
         <v>296</v>
@@ -19149,10 +19152,10 @@
         <v>11</v>
       </c>
       <c r="D515" s="5" t="n">
-        <v>261765.92</v>
+        <v>103763.94</v>
       </c>
       <c r="E515" s="5" t="n">
-        <v>63051.45</v>
+        <v>58222.59</v>
       </c>
       <c r="F515" s="3" t="n">
         <v>0</v>
@@ -19164,7 +19167,7 @@
         <v>0</v>
       </c>
       <c r="I515" s="4" t="s">
-        <v>308</v>
+        <v>38</v>
       </c>
       <c r="J515" s="4" t="s">
         <v>296</v>
@@ -19184,10 +19187,10 @@
         <v>11</v>
       </c>
       <c r="D516" s="5" t="n">
-        <v>46216.32</v>
+        <v>261765.92</v>
       </c>
       <c r="E516" s="5" t="n">
-        <v>30810.88</v>
+        <v>63051.45</v>
       </c>
       <c r="F516" s="3" t="n">
         <v>0</v>
@@ -19199,7 +19202,7 @@
         <v>0</v>
       </c>
       <c r="I516" s="4" t="s">
-        <v>41</v>
+        <v>309</v>
       </c>
       <c r="J516" s="4" t="s">
         <v>296</v>
@@ -19218,11 +19221,11 @@
       <c r="C517" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D517" s="6" t="n">
-        <v>28800</v>
-      </c>
-      <c r="E517" s="6" t="n">
-        <v>66000</v>
+      <c r="D517" s="5" t="n">
+        <v>46216.32</v>
+      </c>
+      <c r="E517" s="5" t="n">
+        <v>30810.88</v>
       </c>
       <c r="F517" s="3" t="n">
         <v>0</v>
@@ -19234,7 +19237,7 @@
         <v>0</v>
       </c>
       <c r="I517" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J517" s="4" t="s">
         <v>296</v>
@@ -19253,11 +19256,11 @@
       <c r="C518" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D518" s="6" t="n">
-        <v>7320</v>
-      </c>
-      <c r="E518" s="6" t="n">
-        <v>21600</v>
+      <c r="D518" s="7" t="n">
+        <v>28800</v>
+      </c>
+      <c r="E518" s="7" t="n">
+        <v>16500</v>
       </c>
       <c r="F518" s="3" t="n">
         <v>0</v>
@@ -19269,7 +19272,7 @@
         <v>0</v>
       </c>
       <c r="I518" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J518" s="4" t="s">
         <v>296</v>
@@ -19288,11 +19291,11 @@
       <c r="C519" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D519" s="5" t="n">
-        <v>6573.54</v>
-      </c>
-      <c r="E519" s="5" t="n">
-        <v>6573.54</v>
+      <c r="D519" s="7" t="n">
+        <v>7320</v>
+      </c>
+      <c r="E519" s="7" t="n">
+        <v>7300</v>
       </c>
       <c r="F519" s="3" t="n">
         <v>0</v>
@@ -19304,7 +19307,7 @@
         <v>0</v>
       </c>
       <c r="I519" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J519" s="4" t="s">
         <v>296</v>
@@ -19323,11 +19326,11 @@
       <c r="C520" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D520" s="6" t="n">
-        <v>450000</v>
-      </c>
-      <c r="E520" s="6" t="n">
-        <v>63320</v>
+      <c r="D520" s="5" t="n">
+        <v>6573.54</v>
+      </c>
+      <c r="E520" s="5" t="n">
+        <v>6573.54</v>
       </c>
       <c r="F520" s="3" t="n">
         <v>0</v>
@@ -19339,7 +19342,7 @@
         <v>0</v>
       </c>
       <c r="I520" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J520" s="4" t="s">
         <v>296</v>
@@ -19358,11 +19361,11 @@
       <c r="C521" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D521" s="5" t="n">
-        <v>1420.32</v>
+      <c r="D521" s="7" t="n">
+        <v>600000</v>
       </c>
       <c r="E521" s="5" t="n">
-        <v>3156.24</v>
+        <v>32223.32</v>
       </c>
       <c r="F521" s="3" t="n">
         <v>0</v>
@@ -19374,7 +19377,7 @@
         <v>0</v>
       </c>
       <c r="I521" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J521" s="4" t="s">
         <v>296</v>
@@ -19394,10 +19397,10 @@
         <v>11</v>
       </c>
       <c r="D522" s="5" t="n">
-        <v>10525.81</v>
-      </c>
-      <c r="E522" s="5" t="n">
-        <v>4001.71</v>
+        <v>1420.32</v>
+      </c>
+      <c r="E522" s="8" t="n">
+        <v>789.06</v>
       </c>
       <c r="F522" s="3" t="n">
         <v>0</v>
@@ -19409,7 +19412,7 @@
         <v>0</v>
       </c>
       <c r="I522" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J522" s="4" t="s">
         <v>296</v>
@@ -19429,10 +19432,10 @@
         <v>11</v>
       </c>
       <c r="D523" s="5" t="n">
-        <v>65219.71</v>
-      </c>
-      <c r="E523" s="3" t="n">
-        <v>0</v>
+        <v>10525.81</v>
+      </c>
+      <c r="E523" s="5" t="n">
+        <v>4001.71</v>
       </c>
       <c r="F523" s="3" t="n">
         <v>0</v>
@@ -19444,7 +19447,7 @@
         <v>0</v>
       </c>
       <c r="I523" s="4" t="s">
-        <v>252</v>
+        <v>49</v>
       </c>
       <c r="J523" s="4" t="s">
         <v>296</v>
@@ -19463,11 +19466,11 @@
       <c r="C524" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D524" s="6" t="n">
-        <v>3000000</v>
-      </c>
-      <c r="E524" s="5" t="n">
-        <v>18810576.44</v>
+      <c r="D524" s="5" t="n">
+        <v>65219.71</v>
+      </c>
+      <c r="E524" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F524" s="3" t="n">
         <v>0</v>
@@ -19479,7 +19482,7 @@
         <v>0</v>
       </c>
       <c r="I524" s="4" t="s">
-        <v>309</v>
+        <v>252</v>
       </c>
       <c r="J524" s="4" t="s">
         <v>296</v>
@@ -19498,11 +19501,11 @@
       <c r="C525" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D525" s="6" t="n">
-        <v>9500</v>
+      <c r="D525" s="7" t="n">
+        <v>3000000</v>
       </c>
       <c r="E525" s="5" t="n">
-        <v>9183.33</v>
+        <v>18810576.44</v>
       </c>
       <c r="F525" s="3" t="n">
         <v>0</v>
@@ -19533,11 +19536,11 @@
       <c r="C526" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D526" s="6" t="n">
-        <v>15000</v>
-      </c>
-      <c r="E526" s="6" t="n">
-        <v>22500</v>
+      <c r="D526" s="7" t="n">
+        <v>9500</v>
+      </c>
+      <c r="E526" s="5" t="n">
+        <v>9183.33</v>
       </c>
       <c r="F526" s="3" t="n">
         <v>0</v>
@@ -19549,7 +19552,7 @@
         <v>0</v>
       </c>
       <c r="I526" s="4" t="s">
-        <v>51</v>
+        <v>311</v>
       </c>
       <c r="J526" s="4" t="s">
         <v>296</v>
@@ -19568,11 +19571,11 @@
       <c r="C527" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D527" s="6" t="n">
-        <v>150000</v>
-      </c>
-      <c r="E527" s="6" t="n">
-        <v>75000</v>
+      <c r="D527" s="7" t="n">
+        <v>15000</v>
+      </c>
+      <c r="E527" s="7" t="n">
+        <v>22500</v>
       </c>
       <c r="F527" s="3" t="n">
         <v>0</v>
@@ -19584,7 +19587,7 @@
         <v>0</v>
       </c>
       <c r="I527" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J527" s="4" t="s">
         <v>296</v>
@@ -19603,11 +19606,11 @@
       <c r="C528" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D528" s="6" t="n">
-        <v>30000</v>
-      </c>
-      <c r="E528" s="3" t="n">
-        <v>0</v>
+      <c r="D528" s="7" t="n">
+        <v>150000</v>
+      </c>
+      <c r="E528" s="7" t="n">
+        <v>75000</v>
       </c>
       <c r="F528" s="3" t="n">
         <v>0</v>
@@ -19619,7 +19622,7 @@
         <v>0</v>
       </c>
       <c r="I528" s="4" t="s">
-        <v>174</v>
+        <v>52</v>
       </c>
       <c r="J528" s="4" t="s">
         <v>296</v>
@@ -19638,11 +19641,11 @@
       <c r="C529" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D529" s="6" t="n">
-        <v>32775</v>
-      </c>
-      <c r="E529" s="6" t="n">
-        <v>63365</v>
+      <c r="D529" s="7" t="n">
+        <v>30000</v>
+      </c>
+      <c r="E529" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F529" s="3" t="n">
         <v>0</v>
@@ -19654,7 +19657,7 @@
         <v>0</v>
       </c>
       <c r="I529" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J529" s="4" t="s">
         <v>296</v>
@@ -19673,11 +19676,11 @@
       <c r="C530" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D530" s="6" t="n">
-        <v>613080</v>
+      <c r="D530" s="7" t="n">
+        <v>32775</v>
       </c>
       <c r="E530" s="6" t="n">
-        <v>510900</v>
+        <v>31682.5</v>
       </c>
       <c r="F530" s="3" t="n">
         <v>0</v>
@@ -19689,7 +19692,7 @@
         <v>0</v>
       </c>
       <c r="I530" s="4" t="s">
-        <v>311</v>
+        <v>175</v>
       </c>
       <c r="J530" s="4" t="s">
         <v>296</v>
@@ -19708,11 +19711,11 @@
       <c r="C531" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D531" s="6" t="n">
-        <v>6000</v>
-      </c>
-      <c r="E531" s="3" t="n">
-        <v>0</v>
+      <c r="D531" s="7" t="n">
+        <v>613080</v>
+      </c>
+      <c r="E531" s="7" t="n">
+        <v>510900</v>
       </c>
       <c r="F531" s="3" t="n">
         <v>0</v>
@@ -19724,7 +19727,7 @@
         <v>0</v>
       </c>
       <c r="I531" s="4" t="s">
-        <v>254</v>
+        <v>312</v>
       </c>
       <c r="J531" s="4" t="s">
         <v>296</v>
@@ -19743,8 +19746,8 @@
       <c r="C532" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D532" s="6" t="n">
-        <v>25000</v>
+      <c r="D532" s="7" t="n">
+        <v>6000</v>
       </c>
       <c r="E532" s="3" t="n">
         <v>0</v>
@@ -19759,7 +19762,7 @@
         <v>0</v>
       </c>
       <c r="I532" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="J532" s="4" t="s">
         <v>296</v>
@@ -19778,11 +19781,11 @@
       <c r="C533" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D533" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E533" s="5" t="n">
-        <v>62692056.55</v>
+      <c r="D533" s="7" t="n">
+        <v>25000</v>
+      </c>
+      <c r="E533" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F533" s="3" t="n">
         <v>0</v>
@@ -19794,7 +19797,7 @@
         <v>0</v>
       </c>
       <c r="I533" s="4" t="s">
-        <v>178</v>
+        <v>255</v>
       </c>
       <c r="J533" s="4" t="s">
         <v>296</v>
@@ -19813,11 +19816,11 @@
       <c r="C534" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D534" s="5" t="n">
-        <v>4008018.26</v>
+      <c r="D534" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="E534" s="5" t="n">
-        <v>4008018.26</v>
+        <v>62692056.55</v>
       </c>
       <c r="F534" s="3" t="n">
         <v>0</v>
@@ -19829,7 +19832,7 @@
         <v>0</v>
       </c>
       <c r="I534" s="4" t="s">
-        <v>58</v>
+        <v>178</v>
       </c>
       <c r="J534" s="4" t="s">
         <v>296</v>
@@ -19849,10 +19852,10 @@
         <v>11</v>
       </c>
       <c r="D535" s="5" t="n">
-        <v>9056770.69</v>
+        <v>4008018.26</v>
       </c>
       <c r="E535" s="5" t="n">
-        <v>9056770.69</v>
+        <v>4008018.26</v>
       </c>
       <c r="F535" s="3" t="n">
         <v>0</v>
@@ -19864,7 +19867,7 @@
         <v>0</v>
       </c>
       <c r="I535" s="4" t="s">
-        <v>256</v>
+        <v>58</v>
       </c>
       <c r="J535" s="4" t="s">
         <v>296</v>
@@ -19883,11 +19886,11 @@
       <c r="C536" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D536" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E536" s="7" t="n">
-        <v>3347240.3</v>
+      <c r="D536" s="5" t="n">
+        <v>9056770.69</v>
+      </c>
+      <c r="E536" s="5" t="n">
+        <v>9056770.69</v>
       </c>
       <c r="F536" s="3" t="n">
         <v>0</v>
@@ -19899,7 +19902,7 @@
         <v>0</v>
       </c>
       <c r="I536" s="4" t="s">
-        <v>59</v>
+        <v>256</v>
       </c>
       <c r="J536" s="4" t="s">
         <v>296</v>
@@ -19918,11 +19921,11 @@
       <c r="C537" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D537" s="5" t="n">
-        <v>695928.31</v>
-      </c>
-      <c r="E537" s="3" t="n">
-        <v>0</v>
+      <c r="D537" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E537" s="6" t="n">
+        <v>3347240.3</v>
       </c>
       <c r="F537" s="3" t="n">
         <v>0</v>
@@ -19934,7 +19937,7 @@
         <v>0</v>
       </c>
       <c r="I537" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J537" s="4" t="s">
         <v>296</v>
@@ -19954,7 +19957,7 @@
         <v>11</v>
       </c>
       <c r="D538" s="5" t="n">
-        <v>651262.61</v>
+        <v>695928.31</v>
       </c>
       <c r="E538" s="3" t="n">
         <v>0</v>
@@ -19969,7 +19972,7 @@
         <v>0</v>
       </c>
       <c r="I538" s="4" t="s">
-        <v>257</v>
+        <v>60</v>
       </c>
       <c r="J538" s="4" t="s">
         <v>296</v>
@@ -19989,7 +19992,7 @@
         <v>11</v>
       </c>
       <c r="D539" s="5" t="n">
-        <v>27811.61</v>
+        <v>651262.61</v>
       </c>
       <c r="E539" s="3" t="n">
         <v>0</v>
@@ -20004,7 +20007,7 @@
         <v>0</v>
       </c>
       <c r="I539" s="4" t="s">
-        <v>64</v>
+        <v>257</v>
       </c>
       <c r="J539" s="4" t="s">
         <v>296</v>
@@ -20023,11 +20026,11 @@
       <c r="C540" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D540" s="6" t="n">
-        <v>100000</v>
-      </c>
-      <c r="E540" s="5" t="n">
-        <v>333333.36</v>
+      <c r="D540" s="5" t="n">
+        <v>27811.61</v>
+      </c>
+      <c r="E540" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F540" s="3" t="n">
         <v>0</v>
@@ -20039,7 +20042,7 @@
         <v>0</v>
       </c>
       <c r="I540" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J540" s="4" t="s">
         <v>296</v>
@@ -20058,11 +20061,11 @@
       <c r="C541" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D541" s="6" t="n">
-        <v>81600</v>
-      </c>
-      <c r="E541" s="6" t="n">
-        <v>136000</v>
+      <c r="D541" s="7" t="n">
+        <v>100000</v>
+      </c>
+      <c r="E541" s="5" t="n">
+        <v>83333.34</v>
       </c>
       <c r="F541" s="3" t="n">
         <v>0</v>
@@ -20074,7 +20077,7 @@
         <v>0</v>
       </c>
       <c r="I541" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J541" s="4" t="s">
         <v>296</v>
@@ -20094,10 +20097,10 @@
         <v>11</v>
       </c>
       <c r="D542" s="7" t="n">
-        <v>50288.4</v>
-      </c>
-      <c r="E542" s="5" t="n">
-        <v>347805.68</v>
+        <v>81600</v>
+      </c>
+      <c r="E542" s="7" t="n">
+        <v>34000</v>
       </c>
       <c r="F542" s="3" t="n">
         <v>0</v>
@@ -20109,7 +20112,7 @@
         <v>0</v>
       </c>
       <c r="I542" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J542" s="4" t="s">
         <v>296</v>
@@ -20129,10 +20132,10 @@
         <v>11</v>
       </c>
       <c r="D543" s="6" t="n">
-        <v>19000</v>
-      </c>
-      <c r="E543" s="6" t="n">
-        <v>13300</v>
+        <v>50288.4</v>
+      </c>
+      <c r="E543" s="5" t="n">
+        <v>86951.42</v>
       </c>
       <c r="F543" s="3" t="n">
         <v>0</v>
@@ -20144,7 +20147,7 @@
         <v>0</v>
       </c>
       <c r="I543" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J543" s="4" t="s">
         <v>296</v>
@@ -20164,10 +20167,10 @@
         <v>11</v>
       </c>
       <c r="D544" s="7" t="n">
-        <v>20654.4</v>
-      </c>
-      <c r="E544" s="5" t="n">
-        <v>17211.99</v>
+        <v>19000</v>
+      </c>
+      <c r="E544" s="7" t="n">
+        <v>13300</v>
       </c>
       <c r="F544" s="3" t="n">
         <v>0</v>
@@ -20179,7 +20182,7 @@
         <v>0</v>
       </c>
       <c r="I544" s="4" t="s">
-        <v>312</v>
+        <v>68</v>
       </c>
       <c r="J544" s="4" t="s">
         <v>296</v>
@@ -20198,11 +20201,11 @@
       <c r="C545" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D545" s="7" t="n">
-        <v>13769.6</v>
+      <c r="D545" s="6" t="n">
+        <v>20654.4</v>
       </c>
       <c r="E545" s="5" t="n">
-        <v>11474.66</v>
+        <v>17211.99</v>
       </c>
       <c r="F545" s="3" t="n">
         <v>0</v>
@@ -20233,11 +20236,11 @@
       <c r="C546" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D546" s="5" t="n">
-        <v>1529716.05</v>
-      </c>
-      <c r="E546" s="3" t="n">
-        <v>0</v>
+      <c r="D546" s="6" t="n">
+        <v>13769.6</v>
+      </c>
+      <c r="E546" s="5" t="n">
+        <v>11474.66</v>
       </c>
       <c r="F546" s="3" t="n">
         <v>0</v>
@@ -20249,7 +20252,7 @@
         <v>0</v>
       </c>
       <c r="I546" s="4" t="s">
-        <v>260</v>
+        <v>314</v>
       </c>
       <c r="J546" s="4" t="s">
         <v>296</v>
@@ -20268,8 +20271,8 @@
       <c r="C547" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D547" s="7" t="n">
-        <v>199077.5</v>
+      <c r="D547" s="5" t="n">
+        <v>1529716.05</v>
       </c>
       <c r="E547" s="3" t="n">
         <v>0</v>
@@ -20284,7 +20287,7 @@
         <v>0</v>
       </c>
       <c r="I547" s="4" t="s">
-        <v>314</v>
+        <v>260</v>
       </c>
       <c r="J547" s="4" t="s">
         <v>296</v>
@@ -20303,8 +20306,8 @@
       <c r="C548" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D548" s="5" t="n">
-        <v>2640510.62</v>
+      <c r="D548" s="6" t="n">
+        <v>199077.5</v>
       </c>
       <c r="E548" s="3" t="n">
         <v>0</v>
@@ -20319,7 +20322,7 @@
         <v>0</v>
       </c>
       <c r="I548" s="4" t="s">
-        <v>193</v>
+        <v>315</v>
       </c>
       <c r="J548" s="4" t="s">
         <v>296</v>
@@ -20339,7 +20342,7 @@
         <v>11</v>
       </c>
       <c r="D549" s="5" t="n">
-        <v>1786980.11</v>
+        <v>2640510.62</v>
       </c>
       <c r="E549" s="3" t="n">
         <v>0</v>
@@ -20354,7 +20357,7 @@
         <v>0</v>
       </c>
       <c r="I549" s="4" t="s">
-        <v>263</v>
+        <v>193</v>
       </c>
       <c r="J549" s="4" t="s">
         <v>296</v>
@@ -20374,10 +20377,10 @@
         <v>11</v>
       </c>
       <c r="D550" s="5" t="n">
-        <v>22558661.83</v>
-      </c>
-      <c r="E550" s="5" t="n">
-        <v>43844848.03</v>
+        <v>1786980.11</v>
+      </c>
+      <c r="E550" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F550" s="3" t="n">
         <v>0</v>
@@ -20389,7 +20392,7 @@
         <v>0</v>
       </c>
       <c r="I550" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J550" s="4" t="s">
         <v>296</v>
@@ -20409,10 +20412,10 @@
         <v>11</v>
       </c>
       <c r="D551" s="5" t="n">
-        <v>16418756.47</v>
+        <v>22558661.83</v>
       </c>
       <c r="E551" s="5" t="n">
-        <v>2206678.58</v>
+        <v>43844848.03</v>
       </c>
       <c r="F551" s="3" t="n">
         <v>0</v>
@@ -20424,7 +20427,7 @@
         <v>0</v>
       </c>
       <c r="I551" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="J551" s="4" t="s">
         <v>296</v>
@@ -20444,10 +20447,10 @@
         <v>11</v>
       </c>
       <c r="D552" s="5" t="n">
-        <v>303217.92</v>
-      </c>
-      <c r="E552" s="3" t="n">
-        <v>0</v>
+        <v>16418756.47</v>
+      </c>
+      <c r="E552" s="5" t="n">
+        <v>1149890.69</v>
       </c>
       <c r="F552" s="3" t="n">
         <v>0</v>
@@ -20459,7 +20462,7 @@
         <v>0</v>
       </c>
       <c r="I552" s="4" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="J552" s="4" t="s">
         <v>296</v>
@@ -20478,11 +20481,11 @@
       <c r="C553" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D553" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E553" s="5" t="n">
-        <v>395262.44</v>
+      <c r="D553" s="5" t="n">
+        <v>303217.92</v>
+      </c>
+      <c r="E553" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F553" s="3" t="n">
         <v>0</v>
@@ -20494,7 +20497,7 @@
         <v>0</v>
       </c>
       <c r="I553" s="4" t="s">
-        <v>315</v>
+        <v>269</v>
       </c>
       <c r="J553" s="4" t="s">
         <v>296</v>
@@ -20513,11 +20516,11 @@
       <c r="C554" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D554" s="6" t="n">
-        <v>10000</v>
+      <c r="D554" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="E554" s="5" t="n">
-        <v>8333.34</v>
+        <v>395262.44</v>
       </c>
       <c r="F554" s="3" t="n">
         <v>0</v>
@@ -20529,7 +20532,7 @@
         <v>0</v>
       </c>
       <c r="I554" s="4" t="s">
-        <v>270</v>
+        <v>316</v>
       </c>
       <c r="J554" s="4" t="s">
         <v>296</v>
@@ -20549,10 +20552,10 @@
         <v>11</v>
       </c>
       <c r="D555" s="7" t="n">
-        <v>535786.9</v>
-      </c>
-      <c r="E555" s="3" t="n">
-        <v>0</v>
+        <v>10000</v>
+      </c>
+      <c r="E555" s="5" t="n">
+        <v>4166.67</v>
       </c>
       <c r="F555" s="3" t="n">
         <v>0</v>
@@ -20564,7 +20567,7 @@
         <v>0</v>
       </c>
       <c r="I555" s="4" t="s">
-        <v>316</v>
+        <v>270</v>
       </c>
       <c r="J555" s="4" t="s">
         <v>296</v>
@@ -20584,10 +20587,10 @@
         <v>11</v>
       </c>
       <c r="D556" s="6" t="n">
-        <v>11200</v>
-      </c>
-      <c r="E556" s="5" t="n">
-        <v>9333.34</v>
+        <v>535786.9</v>
+      </c>
+      <c r="E556" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F556" s="3" t="n">
         <v>0</v>
@@ -20599,7 +20602,7 @@
         <v>0</v>
       </c>
       <c r="I556" s="4" t="s">
-        <v>271</v>
+        <v>317</v>
       </c>
       <c r="J556" s="4" t="s">
         <v>296</v>
@@ -20618,11 +20621,11 @@
       <c r="C557" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D557" s="5" t="n">
-        <v>537111.13</v>
-      </c>
-      <c r="E557" s="3" t="n">
-        <v>0</v>
+      <c r="D557" s="7" t="n">
+        <v>11200</v>
+      </c>
+      <c r="E557" s="5" t="n">
+        <v>4666.67</v>
       </c>
       <c r="F557" s="3" t="n">
         <v>0</v>
@@ -20634,7 +20637,7 @@
         <v>0</v>
       </c>
       <c r="I557" s="4" t="s">
-        <v>317</v>
+        <v>271</v>
       </c>
       <c r="J557" s="4" t="s">
         <v>296</v>
@@ -20653,8 +20656,8 @@
       <c r="C558" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D558" s="6" t="n">
-        <v>2800000</v>
+      <c r="D558" s="5" t="n">
+        <v>537111.13</v>
       </c>
       <c r="E558" s="3" t="n">
         <v>0</v>
@@ -20688,8 +20691,8 @@
       <c r="C559" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D559" s="5" t="n">
-        <v>27717.54</v>
+      <c r="D559" s="7" t="n">
+        <v>2800000</v>
       </c>
       <c r="E559" s="3" t="n">
         <v>0</v>
@@ -20723,11 +20726,11 @@
       <c r="C560" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D560" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E560" s="5" t="n">
-        <v>-1175811.32</v>
+      <c r="D560" s="5" t="n">
+        <v>27717.54</v>
+      </c>
+      <c r="E560" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F560" s="3" t="n">
         <v>0</v>
@@ -20739,7 +20742,7 @@
         <v>0</v>
       </c>
       <c r="I560" s="4" t="s">
-        <v>83</v>
+        <v>320</v>
       </c>
       <c r="J560" s="4" t="s">
         <v>296</v>
@@ -20758,11 +20761,11 @@
       <c r="C561" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D561" s="6" t="n">
-        <v>16000</v>
-      </c>
-      <c r="E561" s="6" t="n">
-        <v>8000</v>
+      <c r="D561" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E561" s="5" t="n">
+        <v>-1175811.32</v>
       </c>
       <c r="F561" s="3" t="n">
         <v>0</v>
@@ -20774,7 +20777,7 @@
         <v>0</v>
       </c>
       <c r="I561" s="4" t="s">
-        <v>201</v>
+        <v>83</v>
       </c>
       <c r="J561" s="4" t="s">
         <v>296</v>
@@ -20793,11 +20796,11 @@
       <c r="C562" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D562" s="6" t="n">
-        <v>14021</v>
-      </c>
-      <c r="E562" s="6" t="n">
-        <v>27510</v>
+      <c r="D562" s="7" t="n">
+        <v>16000</v>
+      </c>
+      <c r="E562" s="7" t="n">
+        <v>8000</v>
       </c>
       <c r="F562" s="3" t="n">
         <v>0</v>
@@ -20809,7 +20812,7 @@
         <v>0</v>
       </c>
       <c r="I562" s="4" t="s">
-        <v>89</v>
+        <v>201</v>
       </c>
       <c r="J562" s="4" t="s">
         <v>296</v>
@@ -20828,11 +20831,11 @@
       <c r="C563" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D563" s="5" t="n">
-        <v>800120.44</v>
-      </c>
-      <c r="E563" s="3" t="n">
-        <v>0</v>
+      <c r="D563" s="7" t="n">
+        <v>14021</v>
+      </c>
+      <c r="E563" s="6" t="n">
+        <v>6877.5</v>
       </c>
       <c r="F563" s="3" t="n">
         <v>0</v>
@@ -20844,7 +20847,7 @@
         <v>0</v>
       </c>
       <c r="I563" s="4" t="s">
-        <v>283</v>
+        <v>89</v>
       </c>
       <c r="J563" s="4" t="s">
         <v>296</v>
@@ -20864,7 +20867,7 @@
         <v>11</v>
       </c>
       <c r="D564" s="5" t="n">
-        <v>15299.54</v>
+        <v>800120.44</v>
       </c>
       <c r="E564" s="3" t="n">
         <v>0</v>
@@ -20879,7 +20882,7 @@
         <v>0</v>
       </c>
       <c r="I564" s="4" t="s">
-        <v>90</v>
+        <v>283</v>
       </c>
       <c r="J564" s="4" t="s">
         <v>296</v>
@@ -20898,11 +20901,11 @@
       <c r="C565" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D565" s="6" t="n">
-        <v>50000000</v>
-      </c>
-      <c r="E565" s="5" t="n">
-        <v>45068023.13</v>
+      <c r="D565" s="5" t="n">
+        <v>15299.54</v>
+      </c>
+      <c r="E565" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F565" s="3" t="n">
         <v>0</v>
@@ -20914,7 +20917,7 @@
         <v>0</v>
       </c>
       <c r="I565" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J565" s="4" t="s">
         <v>296</v>
@@ -20933,11 +20936,11 @@
       <c r="C566" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D566" s="6" t="n">
-        <v>500000</v>
-      </c>
-      <c r="E566" s="3" t="n">
-        <v>0</v>
+      <c r="D566" s="7" t="n">
+        <v>50000000</v>
+      </c>
+      <c r="E566" s="5" t="n">
+        <v>45068023.13</v>
       </c>
       <c r="F566" s="3" t="n">
         <v>0</v>
@@ -20949,7 +20952,7 @@
         <v>0</v>
       </c>
       <c r="I566" s="4" t="s">
-        <v>286</v>
+        <v>91</v>
       </c>
       <c r="J566" s="4" t="s">
         <v>296</v>
@@ -20969,7 +20972,7 @@
         <v>11</v>
       </c>
       <c r="D567" s="7" t="n">
-        <v>12203.4</v>
+        <v>500000</v>
       </c>
       <c r="E567" s="3" t="n">
         <v>0</v>
@@ -20984,7 +20987,7 @@
         <v>0</v>
       </c>
       <c r="I567" s="4" t="s">
-        <v>94</v>
+        <v>286</v>
       </c>
       <c r="J567" s="4" t="s">
         <v>296</v>
@@ -21004,10 +21007,10 @@
         <v>11</v>
       </c>
       <c r="D568" s="6" t="n">
-        <v>119214</v>
-      </c>
-      <c r="E568" s="6" t="n">
-        <v>397380</v>
+        <v>12203.4</v>
+      </c>
+      <c r="E568" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F568" s="3" t="n">
         <v>0</v>
@@ -21019,7 +21022,7 @@
         <v>0</v>
       </c>
       <c r="I568" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J568" s="4" t="s">
         <v>296</v>
@@ -21038,11 +21041,11 @@
       <c r="C569" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D569" s="6" t="n">
-        <v>23184</v>
-      </c>
-      <c r="E569" s="6" t="n">
-        <v>77280</v>
+      <c r="D569" s="7" t="n">
+        <v>119214</v>
+      </c>
+      <c r="E569" s="7" t="n">
+        <v>99345</v>
       </c>
       <c r="F569" s="3" t="n">
         <v>0</v>
@@ -21054,7 +21057,7 @@
         <v>0</v>
       </c>
       <c r="I569" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J569" s="4" t="s">
         <v>296</v>
@@ -21073,11 +21076,11 @@
       <c r="C570" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D570" s="5" t="n">
-        <v>219661.02</v>
-      </c>
-      <c r="E570" s="3" t="n">
-        <v>0</v>
+      <c r="D570" s="7" t="n">
+        <v>34776</v>
+      </c>
+      <c r="E570" s="7" t="n">
+        <v>19320</v>
       </c>
       <c r="F570" s="3" t="n">
         <v>0</v>
@@ -21089,7 +21092,7 @@
         <v>0</v>
       </c>
       <c r="I570" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="J570" s="4" t="s">
         <v>296</v>
@@ -21108,11 +21111,11 @@
       <c r="C571" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D571" s="7" t="n">
-        <v>81684.6</v>
-      </c>
-      <c r="E571" s="6" t="n">
-        <v>136141</v>
+      <c r="D571" s="5" t="n">
+        <v>219661.02</v>
+      </c>
+      <c r="E571" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F571" s="3" t="n">
         <v>0</v>
@@ -21124,7 +21127,7 @@
         <v>0</v>
       </c>
       <c r="I571" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J571" s="4" t="s">
         <v>296</v>
@@ -21144,10 +21147,10 @@
         <v>11</v>
       </c>
       <c r="D572" s="6" t="n">
-        <v>131760</v>
+        <v>81684.6</v>
       </c>
       <c r="E572" s="6" t="n">
-        <v>131760</v>
+        <v>68070.5</v>
       </c>
       <c r="F572" s="3" t="n">
         <v>0</v>
@@ -21159,7 +21162,7 @@
         <v>0</v>
       </c>
       <c r="I572" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J572" s="4" t="s">
         <v>296</v>
@@ -21179,10 +21182,10 @@
         <v>11</v>
       </c>
       <c r="D573" s="7" t="n">
-        <v>2203.2</v>
-      </c>
-      <c r="E573" s="6" t="n">
-        <v>4896</v>
+        <v>131760</v>
+      </c>
+      <c r="E573" s="7" t="n">
+        <v>131760</v>
       </c>
       <c r="F573" s="3" t="n">
         <v>0</v>
@@ -21194,7 +21197,7 @@
         <v>0</v>
       </c>
       <c r="I573" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="J573" s="4" t="s">
         <v>296</v>
@@ -21213,11 +21216,11 @@
       <c r="C574" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D574" s="5" t="n">
-        <v>9065.42</v>
-      </c>
-      <c r="E574" s="5" t="n">
-        <v>43168.68</v>
+      <c r="D574" s="6" t="n">
+        <v>2203.2</v>
+      </c>
+      <c r="E574" s="7" t="n">
+        <v>1224</v>
       </c>
       <c r="F574" s="3" t="n">
         <v>0</v>
@@ -21229,7 +21232,7 @@
         <v>0</v>
       </c>
       <c r="I574" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J574" s="4" t="s">
         <v>296</v>
@@ -21249,10 +21252,10 @@
         <v>11</v>
       </c>
       <c r="D575" s="5" t="n">
-        <v>52828.14</v>
+        <v>9065.42</v>
       </c>
       <c r="E575" s="5" t="n">
-        <v>81029.88</v>
+        <v>10792.17</v>
       </c>
       <c r="F575" s="3" t="n">
         <v>0</v>
@@ -21264,7 +21267,7 @@
         <v>0</v>
       </c>
       <c r="I575" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J575" s="4" t="s">
         <v>296</v>
@@ -21284,10 +21287,10 @@
         <v>11</v>
       </c>
       <c r="D576" s="5" t="n">
-        <v>1954.54</v>
+        <v>52828.14</v>
       </c>
       <c r="E576" s="5" t="n">
-        <v>4383.72</v>
+        <v>20257.47</v>
       </c>
       <c r="F576" s="3" t="n">
         <v>0</v>
@@ -21299,7 +21302,7 @@
         <v>0</v>
       </c>
       <c r="I576" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J576" s="4" t="s">
         <v>296</v>
@@ -21318,11 +21321,11 @@
       <c r="C577" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D577" s="6" t="n">
-        <v>6400</v>
-      </c>
-      <c r="E577" s="6" t="n">
-        <v>6400</v>
+      <c r="D577" s="5" t="n">
+        <v>1954.54</v>
+      </c>
+      <c r="E577" s="5" t="n">
+        <v>1095.93</v>
       </c>
       <c r="F577" s="3" t="n">
         <v>0</v>
@@ -21334,7 +21337,7 @@
         <v>0</v>
       </c>
       <c r="I577" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J577" s="4" t="s">
         <v>296</v>
@@ -21353,11 +21356,11 @@
       <c r="C578" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D578" s="5" t="n">
-        <v>274431.82</v>
-      </c>
-      <c r="E578" s="5" t="n">
-        <v>352113.16</v>
+      <c r="D578" s="7" t="n">
+        <v>6400</v>
+      </c>
+      <c r="E578" s="7" t="n">
+        <v>6400</v>
       </c>
       <c r="F578" s="3" t="n">
         <v>0</v>
@@ -21369,7 +21372,7 @@
         <v>0</v>
       </c>
       <c r="I578" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="J578" s="4" t="s">
         <v>296</v>
@@ -21388,11 +21391,11 @@
       <c r="C579" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D579" s="7" t="n">
-        <v>13665.6</v>
-      </c>
-      <c r="E579" s="3" t="n">
-        <v>0</v>
+      <c r="D579" s="5" t="n">
+        <v>274431.82</v>
+      </c>
+      <c r="E579" s="5" t="n">
+        <v>88028.29</v>
       </c>
       <c r="F579" s="3" t="n">
         <v>0</v>
@@ -21404,7 +21407,7 @@
         <v>0</v>
       </c>
       <c r="I579" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="J579" s="4" t="s">
         <v>296</v>
@@ -21424,10 +21427,10 @@
         <v>11</v>
       </c>
       <c r="D580" s="6" t="n">
-        <v>4890</v>
-      </c>
-      <c r="E580" s="5" t="n">
-        <v>8149.98</v>
+        <v>13665.6</v>
+      </c>
+      <c r="E580" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F580" s="3" t="n">
         <v>0</v>
@@ -21439,7 +21442,7 @@
         <v>0</v>
       </c>
       <c r="I580" s="4" t="s">
-        <v>212</v>
+        <v>118</v>
       </c>
       <c r="J580" s="4" t="s">
         <v>296</v>
@@ -21458,11 +21461,11 @@
       <c r="C581" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D581" s="5" t="n">
-        <v>14044.79</v>
+      <c r="D581" s="7" t="n">
+        <v>4890</v>
       </c>
       <c r="E581" s="5" t="n">
-        <v>29451.92</v>
+        <v>2716.66</v>
       </c>
       <c r="F581" s="3" t="n">
         <v>0</v>
@@ -21474,7 +21477,7 @@
         <v>0</v>
       </c>
       <c r="I581" s="4" t="s">
-        <v>126</v>
+        <v>212</v>
       </c>
       <c r="J581" s="4" t="s">
         <v>296</v>
@@ -21493,11 +21496,11 @@
       <c r="C582" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D582" s="7" t="n">
-        <v>1482459.1</v>
-      </c>
-      <c r="E582" s="3" t="n">
-        <v>0</v>
+      <c r="D582" s="5" t="n">
+        <v>14044.79</v>
+      </c>
+      <c r="E582" s="5" t="n">
+        <v>7362.98</v>
       </c>
       <c r="F582" s="3" t="n">
         <v>0</v>
@@ -21509,7 +21512,7 @@
         <v>0</v>
       </c>
       <c r="I582" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="J582" s="4" t="s">
         <v>296</v>
@@ -21528,8 +21531,8 @@
       <c r="C583" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D583" s="5" t="n">
-        <v>199345.25</v>
+      <c r="D583" s="6" t="n">
+        <v>1482459.1</v>
       </c>
       <c r="E583" s="3" t="n">
         <v>0</v>
@@ -21544,7 +21547,7 @@
         <v>0</v>
       </c>
       <c r="I583" s="4" t="s">
-        <v>320</v>
+        <v>128</v>
       </c>
       <c r="J583" s="4" t="s">
         <v>296</v>
@@ -21563,8 +21566,8 @@
       <c r="C584" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D584" s="6" t="n">
-        <v>6500000</v>
+      <c r="D584" s="5" t="n">
+        <v>199345.25</v>
       </c>
       <c r="E584" s="3" t="n">
         <v>0</v>
@@ -21579,7 +21582,7 @@
         <v>0</v>
       </c>
       <c r="I584" s="4" t="s">
-        <v>141</v>
+        <v>321</v>
       </c>
       <c r="J584" s="4" t="s">
         <v>296</v>
@@ -21598,8 +21601,8 @@
       <c r="C585" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D585" s="5" t="n">
-        <v>577804.23</v>
+      <c r="D585" s="7" t="n">
+        <v>6500000</v>
       </c>
       <c r="E585" s="3" t="n">
         <v>0</v>
@@ -21614,7 +21617,7 @@
         <v>0</v>
       </c>
       <c r="I585" s="4" t="s">
-        <v>293</v>
+        <v>141</v>
       </c>
       <c r="J585" s="4" t="s">
         <v>296</v>
@@ -21633,11 +21636,11 @@
       <c r="C586" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D586" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E586" s="5" t="n">
-        <v>14197.28</v>
+      <c r="D586" s="5" t="n">
+        <v>577804.23</v>
+      </c>
+      <c r="E586" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F586" s="3" t="n">
         <v>0</v>
@@ -21649,7 +21652,7 @@
         <v>0</v>
       </c>
       <c r="I586" s="4" t="s">
-        <v>144</v>
+        <v>293</v>
       </c>
       <c r="J586" s="4" t="s">
         <v>296</v>
@@ -21668,11 +21671,11 @@
       <c r="C587" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D587" s="5" t="n">
-        <v>5890677.11</v>
-      </c>
-      <c r="E587" s="3" t="n">
-        <v>0</v>
+      <c r="D587" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E587" s="5" t="n">
+        <v>3549.32</v>
       </c>
       <c r="F587" s="3" t="n">
         <v>0</v>
@@ -21684,7 +21687,7 @@
         <v>0</v>
       </c>
       <c r="I587" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J587" s="4" t="s">
         <v>296</v>
@@ -21704,10 +21707,10 @@
         <v>11</v>
       </c>
       <c r="D588" s="5" t="n">
-        <v>22212.35</v>
-      </c>
-      <c r="E588" s="7" t="n">
-        <v>23498.6</v>
+        <v>5890677.11</v>
+      </c>
+      <c r="E588" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F588" s="3" t="n">
         <v>0</v>
@@ -21719,7 +21722,7 @@
         <v>0</v>
       </c>
       <c r="I588" s="4" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="J588" s="4" t="s">
         <v>296</v>
@@ -21739,10 +21742,10 @@
         <v>11</v>
       </c>
       <c r="D589" s="5" t="n">
-        <v>232298.09</v>
+        <v>22212.35</v>
       </c>
       <c r="E589" s="5" t="n">
-        <v>270410.08</v>
+        <v>5874.65</v>
       </c>
       <c r="F589" s="3" t="n">
         <v>0</v>
@@ -21754,7 +21757,7 @@
         <v>0</v>
       </c>
       <c r="I589" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J589" s="4" t="s">
         <v>296</v>
@@ -21773,11 +21776,11 @@
       <c r="C590" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D590" s="6" t="n">
-        <v>200000</v>
-      </c>
-      <c r="E590" s="3" t="n">
-        <v>0</v>
+      <c r="D590" s="5" t="n">
+        <v>232298.09</v>
+      </c>
+      <c r="E590" s="5" t="n">
+        <v>67602.52</v>
       </c>
       <c r="F590" s="3" t="n">
         <v>0</v>
@@ -21789,7 +21792,7 @@
         <v>0</v>
       </c>
       <c r="I590" s="4" t="s">
-        <v>321</v>
+        <v>154</v>
       </c>
       <c r="J590" s="4" t="s">
         <v>296</v>
@@ -21809,10 +21812,10 @@
         <v>11</v>
       </c>
       <c r="D591" s="7" t="n">
-        <v>77416.6</v>
-      </c>
-      <c r="E591" s="5" t="n">
-        <v>76805.96</v>
+        <v>200000</v>
+      </c>
+      <c r="E591" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F591" s="3" t="n">
         <v>0</v>
@@ -21824,12 +21827,47 @@
         <v>0</v>
       </c>
       <c r="I591" s="4" t="s">
-        <v>155</v>
+        <v>322</v>
       </c>
       <c r="J591" s="4" t="s">
         <v>296</v>
       </c>
       <c r="K591" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="592" ht="11" customHeight="true">
+      <c r="A592" s="3" t="n">
+        <v>590</v>
+      </c>
+      <c r="B592" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C592" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D592" s="6" t="n">
+        <v>77416.6</v>
+      </c>
+      <c r="E592" s="5" t="n">
+        <v>19201.49</v>
+      </c>
+      <c r="F592" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G592" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H592" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I592" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="J592" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="K592" s="4" t="s">
         <v>14</v>
       </c>
     </row>

--- a/reports/contracts/files/periods.xlsx
+++ b/reports/contracts/files/periods.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="296">
   <si>
     <t>Индекс</t>
   </si>
@@ -911,87 +911,6 @@
   </si>
   <si>
     <t>"Договор 00000004591 от 07.07.2014 16:29:50"</t>
-  </si>
-  <si>
-    <t>01.10.2019 0:00:00</t>
-  </si>
-  <si>
-    <t>"Договор 00000006372 от 10.10.2019 12:00:00"</t>
-  </si>
-  <si>
-    <t>"Договор 00000006374 от 11.09.2019 0:00:01"</t>
-  </si>
-  <si>
-    <t>"Договор 00000006377 от 15.10.2019 12:00:00"</t>
-  </si>
-  <si>
-    <t>"Договор 00000006384 от 01.01.2019 12:00:00"</t>
-  </si>
-  <si>
-    <t>"Договор 00000006388 от 28.10.2019 12:00:00"</t>
-  </si>
-  <si>
-    <t>"Договор 00000006413 от 19.11.2019 0:00:00"</t>
-  </si>
-  <si>
-    <t>"Договор 00000006421 от 26.11.2019 14:49:42"</t>
-  </si>
-  <si>
-    <t>"Договор 00000006325 от 16.09.2019 0:00:00"</t>
-  </si>
-  <si>
-    <t>"Договор 00000006349 от 09.09.2019 0:00:00"</t>
-  </si>
-  <si>
-    <t>"Договор 00000006351 от 20.09.2019 12:00:00"</t>
-  </si>
-  <si>
-    <t>"Договор 00000006353 от 07.10.2019 0:00:00"</t>
-  </si>
-  <si>
-    <t>"Договор 00000006192 от 11.06.2019 0:00:00"</t>
-  </si>
-  <si>
-    <t>"Договор 00000005790 от 01.02.2013 11:30:09"</t>
-  </si>
-  <si>
-    <t>"Договор 00000003761 от 25.03.2016 12:00:00"</t>
-  </si>
-  <si>
-    <t>"Договор 00000005802 от 22.08.2018 0:00:00"</t>
-  </si>
-  <si>
-    <t>"Договор 00000006157 от 06.08.2019 0:00:00"</t>
-  </si>
-  <si>
-    <t>"Договор 00000004982 от 10.05.2017 0:00:00"</t>
-  </si>
-  <si>
-    <t>"Договор 00000004988 от 09.01.2017 0:00:00"</t>
-  </si>
-  <si>
-    <t>"Договор 00000005050 от 13.06.2016 0:00:00"</t>
-  </si>
-  <si>
-    <t>"Договор 00000006275 от 30.08.2019 0:00:00"</t>
-  </si>
-  <si>
-    <t>"Договор 00000006282 от 01.10.2019 0:00:00"</t>
-  </si>
-  <si>
-    <t>"Договор 00000006290 от 01.10.2019 0:00:00"</t>
-  </si>
-  <si>
-    <t>"Договор 00000006303 от 30.08.2019 0:00:00"</t>
-  </si>
-  <si>
-    <t>"Договор 00000006307 от 18.09.2019 0:00:00"</t>
-  </si>
-  <si>
-    <t>"Договор 00000004212 от 05.11.2019 0:00:00"</t>
-  </si>
-  <si>
-    <t>"Договор 00000004829 от 27.11.2019 0:00:00"</t>
   </si>
 </sst>
 </file>
@@ -1104,13 +1023,13 @@
     <xf numFmtId="4" fontId="3" fillId="3" borderId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="51" fontId="3" fillId="3" borderId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="3" fontId="3" fillId="3" borderId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="3" borderId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="51" fontId="3" fillId="3" borderId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1132,7 +1051,7 @@
     <outlinePr summaryBelow="false" summaryRight="false"/>
     <pageSetUpPr autoPageBreaks="false" fitToPage="false"/>
   </sheetPr>
-  <dimension ref="K592"/>
+  <dimension ref="K479"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0"/>
   </sheetViews>
@@ -1199,8 +1118,8 @@
       <c r="D2" s="5" t="n">
         <v>44170.82</v>
       </c>
-      <c r="E2" s="6" t="n">
-        <v>55213.5</v>
+      <c r="E2" s="5" t="n">
+        <v>44170.77</v>
       </c>
       <c r="F2" s="3" t="n">
         <v>0</v>
@@ -1235,7 +1154,7 @@
         <v>43915.76</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>37192.62</v>
+        <v>29754.09</v>
       </c>
       <c r="F3" s="3" t="n">
         <v>0</v>
@@ -1270,7 +1189,7 @@
         <v>317571.17</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>267889.04</v>
+        <v>214311.23</v>
       </c>
       <c r="F4" s="3" t="n">
         <v>0</v>
@@ -1305,7 +1224,7 @@
         <v>193002.64</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>160847.15</v>
+        <v>128677.72</v>
       </c>
       <c r="F5" s="3" t="n">
         <v>0</v>
@@ -1336,11 +1255,11 @@
       <c r="C6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="7" t="n">
+      <c r="D6" s="6" t="n">
         <v>3000</v>
       </c>
-      <c r="E6" s="8" t="n">
-        <v>741.67</v>
+      <c r="E6" s="7" t="n">
+        <v>593.34</v>
       </c>
       <c r="F6" s="3" t="n">
         <v>0</v>
@@ -1371,7 +1290,7 @@
       <c r="C7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="6" t="n">
+      <c r="D7" s="8" t="n">
         <v>52324.8</v>
       </c>
       <c r="E7" s="3" t="n">
@@ -1406,10 +1325,10 @@
       <c r="C8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="7" t="n">
+      <c r="D8" s="6" t="n">
         <v>871010</v>
       </c>
-      <c r="E8" s="7" t="n">
+      <c r="E8" s="6" t="n">
         <v>871010</v>
       </c>
       <c r="F8" s="3" t="n">
@@ -1441,7 +1360,7 @@
       <c r="C9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="7" t="n">
+      <c r="D9" s="6" t="n">
         <v>338000</v>
       </c>
       <c r="E9" s="3" t="n">
@@ -1476,10 +1395,10 @@
       <c r="C10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="7" t="n">
+      <c r="D10" s="6" t="n">
         <v>78000</v>
       </c>
-      <c r="E10" s="7" t="n">
+      <c r="E10" s="6" t="n">
         <v>78000</v>
       </c>
       <c r="F10" s="3" t="n">
@@ -1511,10 +1430,10 @@
       <c r="C11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="7" t="n">
+      <c r="D11" s="6" t="n">
         <v>36000</v>
       </c>
-      <c r="E11" s="7" t="n">
+      <c r="E11" s="6" t="n">
         <v>36000</v>
       </c>
       <c r="F11" s="3" t="n">
@@ -1546,7 +1465,7 @@
       <c r="C12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="7" t="n">
+      <c r="D12" s="6" t="n">
         <v>4140</v>
       </c>
       <c r="E12" s="3" t="n">
@@ -1581,7 +1500,7 @@
       <c r="C13" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="7" t="n">
+      <c r="D13" s="6" t="n">
         <v>321000</v>
       </c>
       <c r="E13" s="3" t="n">
@@ -1651,7 +1570,7 @@
       <c r="C15" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="7" t="n">
+      <c r="D15" s="6" t="n">
         <v>11600000</v>
       </c>
       <c r="E15" s="3" t="n">
@@ -1686,7 +1605,7 @@
       <c r="C16" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="6" t="n">
+      <c r="D16" s="8" t="n">
         <v>3359.4</v>
       </c>
       <c r="E16" s="3" t="n">
@@ -1760,7 +1679,7 @@
         <v>4704.17</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>4008.33</v>
+        <v>3206.66</v>
       </c>
       <c r="F18" s="3" t="n">
         <v>0</v>
@@ -1791,10 +1710,10 @@
       <c r="C19" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="7" t="n">
+      <c r="D19" s="6" t="n">
         <v>560000</v>
       </c>
-      <c r="E19" s="7" t="n">
+      <c r="E19" s="6" t="n">
         <v>840000</v>
       </c>
       <c r="F19" s="3" t="n">
@@ -1826,10 +1745,10 @@
       <c r="C20" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="7" t="n">
+      <c r="D20" s="6" t="n">
         <v>560000</v>
       </c>
-      <c r="E20" s="7" t="n">
+      <c r="E20" s="6" t="n">
         <v>840000</v>
       </c>
       <c r="F20" s="3" t="n">
@@ -1861,10 +1780,10 @@
       <c r="C21" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="7" t="n">
+      <c r="D21" s="6" t="n">
         <v>520000</v>
       </c>
-      <c r="E21" s="7" t="n">
+      <c r="E21" s="6" t="n">
         <v>780000</v>
       </c>
       <c r="F21" s="3" t="n">
@@ -1896,10 +1815,10 @@
       <c r="C22" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="7" t="n">
+      <c r="D22" s="6" t="n">
         <v>560000</v>
       </c>
-      <c r="E22" s="7" t="n">
+      <c r="E22" s="6" t="n">
         <v>840000</v>
       </c>
       <c r="F22" s="3" t="n">
@@ -1931,7 +1850,7 @@
       <c r="C23" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D23" s="7" t="n">
+      <c r="D23" s="6" t="n">
         <v>650000</v>
       </c>
       <c r="E23" s="3" t="n">
@@ -1970,7 +1889,7 @@
         <v>34936.29</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>29354.28</v>
+        <v>23483.43</v>
       </c>
       <c r="F24" s="3" t="n">
         <v>0</v>
@@ -2005,7 +1924,7 @@
         <v>5032399.68</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>16112218.99</v>
+        <v>12889775.19</v>
       </c>
       <c r="F25" s="3" t="n">
         <v>0</v>
@@ -2040,7 +1959,7 @@
         <v>75817.71</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>65431.21</v>
+        <v>53324.29</v>
       </c>
       <c r="F26" s="3" t="n">
         <v>0</v>
@@ -2071,7 +1990,7 @@
       <c r="C27" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D27" s="7" t="n">
+      <c r="D27" s="6" t="n">
         <v>2000000</v>
       </c>
       <c r="E27" s="3" t="n">
@@ -2106,11 +2025,11 @@
       <c r="C28" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D28" s="7" t="n">
+      <c r="D28" s="6" t="n">
         <v>180000</v>
       </c>
-      <c r="E28" s="7" t="n">
-        <v>112500</v>
+      <c r="E28" s="6" t="n">
+        <v>90000</v>
       </c>
       <c r="F28" s="3" t="n">
         <v>0</v>
@@ -2176,7 +2095,7 @@
       <c r="C30" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D30" s="7" t="n">
+      <c r="D30" s="6" t="n">
         <v>700000</v>
       </c>
       <c r="E30" s="3" t="n">
@@ -2214,8 +2133,8 @@
       <c r="D31" s="5" t="n">
         <v>29348.87</v>
       </c>
-      <c r="E31" s="7" t="n">
-        <v>32250</v>
+      <c r="E31" s="6" t="n">
+        <v>25800</v>
       </c>
       <c r="F31" s="3" t="n">
         <v>0</v>
@@ -2246,11 +2165,11 @@
       <c r="C32" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D32" s="7" t="n">
+      <c r="D32" s="6" t="n">
         <v>36010</v>
       </c>
-      <c r="E32" s="7" t="n">
-        <v>22200</v>
+      <c r="E32" s="6" t="n">
+        <v>22080</v>
       </c>
       <c r="F32" s="3" t="n">
         <v>0</v>
@@ -2316,11 +2235,11 @@
       <c r="C34" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D34" s="7" t="n">
+      <c r="D34" s="6" t="n">
         <v>580000</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>45896.67</v>
+        <v>-46263.59</v>
       </c>
       <c r="F34" s="3" t="n">
         <v>0</v>
@@ -2354,8 +2273,8 @@
       <c r="D35" s="5" t="n">
         <v>1374.34</v>
       </c>
-      <c r="E35" s="5" t="n">
-        <v>1154.76</v>
+      <c r="E35" s="7" t="n">
+        <v>923.82</v>
       </c>
       <c r="F35" s="3" t="n">
         <v>0</v>
@@ -2386,11 +2305,11 @@
       <c r="C36" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D36" s="7" t="n">
+      <c r="D36" s="6" t="n">
         <v>42000</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>32918.43</v>
+        <v>26334.71</v>
       </c>
       <c r="F36" s="3" t="n">
         <v>0</v>
@@ -2460,7 +2379,7 @@
         <v>0</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>14926.78</v>
+        <v>12438.98</v>
       </c>
       <c r="F38" s="3" t="n">
         <v>0</v>
@@ -2491,10 +2410,10 @@
       <c r="C39" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D39" s="7" t="n">
+      <c r="D39" s="6" t="n">
         <v>22500</v>
       </c>
-      <c r="E39" s="7" t="n">
+      <c r="E39" s="6" t="n">
         <v>15000</v>
       </c>
       <c r="F39" s="3" t="n">
@@ -2526,7 +2445,7 @@
       <c r="C40" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D40" s="7" t="n">
+      <c r="D40" s="6" t="n">
         <v>76930</v>
       </c>
       <c r="E40" s="3" t="n">
@@ -2596,11 +2515,11 @@
       <c r="C42" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D42" s="6" t="n">
+      <c r="D42" s="8" t="n">
         <v>16449.7</v>
       </c>
-      <c r="E42" s="7" t="n">
-        <v>29395</v>
+      <c r="E42" s="6" t="n">
+        <v>23516</v>
       </c>
       <c r="F42" s="3" t="n">
         <v>0</v>
@@ -2634,8 +2553,8 @@
       <c r="D43" s="5" t="n">
         <v>7991.92</v>
       </c>
-      <c r="E43" s="7" t="n">
-        <v>16379</v>
+      <c r="E43" s="8" t="n">
+        <v>13103.2</v>
       </c>
       <c r="F43" s="3" t="n">
         <v>0</v>
@@ -2701,7 +2620,7 @@
       <c r="C45" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D45" s="7" t="n">
+      <c r="D45" s="6" t="n">
         <v>77458200</v>
       </c>
       <c r="E45" s="3" t="n">
@@ -2740,7 +2659,7 @@
         <v>6247547.71</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>21602975.18</v>
+        <v>18002479.32</v>
       </c>
       <c r="F46" s="3" t="n">
         <v>0</v>
@@ -2775,7 +2694,7 @@
         <v>21412199.88</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>445396.06</v>
+        <v>371163.38</v>
       </c>
       <c r="F47" s="3" t="n">
         <v>0</v>
@@ -2915,7 +2834,7 @@
         <v>0</v>
       </c>
       <c r="E51" s="5" t="n">
-        <v>330261.91</v>
+        <v>264209.53</v>
       </c>
       <c r="F51" s="3" t="n">
         <v>0</v>
@@ -2981,11 +2900,11 @@
       <c r="C53" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D53" s="7" t="n">
+      <c r="D53" s="6" t="n">
         <v>200000</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>125000.01</v>
+        <v>100000.02</v>
       </c>
       <c r="F53" s="3" t="n">
         <v>0</v>
@@ -3016,11 +2935,11 @@
       <c r="C54" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D54" s="7" t="n">
+      <c r="D54" s="6" t="n">
         <v>121720</v>
       </c>
-      <c r="E54" s="7" t="n">
-        <v>102000</v>
+      <c r="E54" s="6" t="n">
+        <v>81600</v>
       </c>
       <c r="F54" s="3" t="n">
         <v>0</v>
@@ -3055,7 +2974,7 @@
         <v>333768.07</v>
       </c>
       <c r="E55" s="5" t="n">
-        <v>204416.14</v>
+        <v>163532.91</v>
       </c>
       <c r="F55" s="3" t="n">
         <v>0</v>
@@ -3086,10 +3005,10 @@
       <c r="C56" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D56" s="7" t="n">
+      <c r="D56" s="6" t="n">
         <v>16150</v>
       </c>
-      <c r="E56" s="7" t="n">
+      <c r="E56" s="6" t="n">
         <v>19950</v>
       </c>
       <c r="F56" s="3" t="n">
@@ -3125,7 +3044,7 @@
         <v>0</v>
       </c>
       <c r="E57" s="5" t="n">
-        <v>3197088.92</v>
+        <v>2664240.77</v>
       </c>
       <c r="F57" s="3" t="n">
         <v>0</v>
@@ -3195,7 +3114,7 @@
         <v>0</v>
       </c>
       <c r="E59" s="5" t="n">
-        <v>5724813.63</v>
+        <v>4770678.03</v>
       </c>
       <c r="F59" s="3" t="n">
         <v>0</v>
@@ -3300,7 +3219,7 @@
         <v>18951577.33</v>
       </c>
       <c r="E62" s="5" t="n">
-        <v>18096425.72</v>
+        <v>15080354.77</v>
       </c>
       <c r="F62" s="3" t="n">
         <v>0</v>
@@ -3335,7 +3254,7 @@
         <v>1611596.19</v>
       </c>
       <c r="E63" s="5" t="n">
-        <v>1790662.43</v>
+        <v>1492218.69</v>
       </c>
       <c r="F63" s="3" t="n">
         <v>0</v>
@@ -3369,8 +3288,8 @@
       <c r="D64" s="5" t="n">
         <v>6320604.53</v>
       </c>
-      <c r="E64" s="7" t="n">
-        <v>420000</v>
+      <c r="E64" s="6" t="n">
+        <v>350000</v>
       </c>
       <c r="F64" s="3" t="n">
         <v>0</v>
@@ -3510,7 +3429,7 @@
         <v>0</v>
       </c>
       <c r="E68" s="5" t="n">
-        <v>1612075.93</v>
+        <v>1343396.61</v>
       </c>
       <c r="F68" s="3" t="n">
         <v>0</v>
@@ -3545,7 +3464,7 @@
         <v>18435554.71</v>
       </c>
       <c r="E69" s="5" t="n">
-        <v>5105264.78</v>
+        <v>4254387.32</v>
       </c>
       <c r="F69" s="3" t="n">
         <v>0</v>
@@ -3615,7 +3534,7 @@
         <v>14733028.76</v>
       </c>
       <c r="E71" s="5" t="n">
-        <v>29407074.31</v>
+        <v>24505895.26</v>
       </c>
       <c r="F71" s="3" t="n">
         <v>0</v>
@@ -3755,7 +3674,7 @@
         <v>0</v>
       </c>
       <c r="E75" s="5" t="n">
-        <v>440349.22</v>
+        <v>366957.68</v>
       </c>
       <c r="F75" s="3" t="n">
         <v>0</v>
@@ -3789,8 +3708,8 @@
       <c r="D76" s="5" t="n">
         <v>1097043.75</v>
       </c>
-      <c r="E76" s="6" t="n">
-        <v>806321.6</v>
+      <c r="E76" s="5" t="n">
+        <v>671934.67</v>
       </c>
       <c r="F76" s="3" t="n">
         <v>0</v>
@@ -3821,11 +3740,11 @@
       <c r="C77" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D77" s="7" t="n">
+      <c r="D77" s="6" t="n">
         <v>24958</v>
       </c>
       <c r="E77" s="5" t="n">
-        <v>19798.33</v>
+        <v>15838.66</v>
       </c>
       <c r="F77" s="3" t="n">
         <v>0</v>
@@ -3894,8 +3813,8 @@
       <c r="D79" s="5" t="n">
         <v>70556955.74</v>
       </c>
-      <c r="E79" s="5" t="n">
-        <v>57723000.82</v>
+      <c r="E79" s="8" t="n">
+        <v>48112020.9</v>
       </c>
       <c r="F79" s="3" t="n">
         <v>0</v>
@@ -3930,7 +3849,7 @@
         <v>0</v>
       </c>
       <c r="E80" s="5" t="n">
-        <v>1184154.68</v>
+        <v>986795.57</v>
       </c>
       <c r="F80" s="3" t="n">
         <v>0</v>
@@ -3961,7 +3880,7 @@
       <c r="C81" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D81" s="6" t="n">
+      <c r="D81" s="8" t="n">
         <v>23822796.3</v>
       </c>
       <c r="E81" s="3" t="n">
@@ -3996,7 +3915,7 @@
       <c r="C82" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D82" s="6" t="n">
+      <c r="D82" s="8" t="n">
         <v>4067.8</v>
       </c>
       <c r="E82" s="3" t="n">
@@ -4031,11 +3950,11 @@
       <c r="C83" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D83" s="6" t="n">
+      <c r="D83" s="8" t="n">
         <v>118551.7</v>
       </c>
-      <c r="E83" s="7" t="n">
-        <v>99345</v>
+      <c r="E83" s="6" t="n">
+        <v>79476</v>
       </c>
       <c r="F83" s="3" t="n">
         <v>0</v>
@@ -4069,8 +3988,8 @@
       <c r="D84" s="5" t="n">
         <v>42937.96</v>
       </c>
-      <c r="E84" s="7" t="n">
-        <v>9660</v>
+      <c r="E84" s="6" t="n">
+        <v>7728</v>
       </c>
       <c r="F84" s="3" t="n">
         <v>0</v>
@@ -4101,11 +4020,11 @@
       <c r="C85" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D85" s="6" t="n">
+      <c r="D85" s="8" t="n">
         <v>8974.7</v>
       </c>
-      <c r="E85" s="7" t="n">
-        <v>15687</v>
+      <c r="E85" s="8" t="n">
+        <v>12549.6</v>
       </c>
       <c r="F85" s="3" t="n">
         <v>0</v>
@@ -4139,8 +4058,8 @@
       <c r="D86" s="5" t="n">
         <v>30515.78</v>
       </c>
-      <c r="E86" s="7" t="n">
-        <v>52453</v>
+      <c r="E86" s="8" t="n">
+        <v>41962.4</v>
       </c>
       <c r="F86" s="3" t="n">
         <v>0</v>
@@ -4209,8 +4128,8 @@
       <c r="D88" s="5" t="n">
         <v>487165.72</v>
       </c>
-      <c r="E88" s="6" t="n">
-        <v>383429.8</v>
+      <c r="E88" s="5" t="n">
+        <v>306743.84</v>
       </c>
       <c r="F88" s="3" t="n">
         <v>0</v>
@@ -4241,10 +4160,10 @@
       <c r="C89" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D89" s="7" t="n">
+      <c r="D89" s="6" t="n">
         <v>146140</v>
       </c>
-      <c r="E89" s="7" t="n">
+      <c r="E89" s="6" t="n">
         <v>73070</v>
       </c>
       <c r="F89" s="3" t="n">
@@ -4276,10 +4195,10 @@
       <c r="C90" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D90" s="7" t="n">
+      <c r="D90" s="6" t="n">
         <v>127440</v>
       </c>
-      <c r="E90" s="7" t="n">
+      <c r="E90" s="6" t="n">
         <v>194400</v>
       </c>
       <c r="F90" s="3" t="n">
@@ -4349,8 +4268,8 @@
       <c r="D92" s="5" t="n">
         <v>2122.94</v>
       </c>
-      <c r="E92" s="7" t="n">
-        <v>1779</v>
+      <c r="E92" s="8" t="n">
+        <v>1423.2</v>
       </c>
       <c r="F92" s="3" t="n">
         <v>0</v>
@@ -4381,10 +4300,10 @@
       <c r="C93" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D93" s="6" t="n">
+      <c r="D93" s="8" t="n">
         <v>4971.9</v>
       </c>
-      <c r="E93" s="6" t="n">
+      <c r="E93" s="8" t="n">
         <v>4971.9</v>
       </c>
       <c r="F93" s="3" t="n">
@@ -4420,7 +4339,7 @@
         <v>233122.24</v>
       </c>
       <c r="E94" s="5" t="n">
-        <v>169976.81</v>
+        <v>135981.45</v>
       </c>
       <c r="F94" s="3" t="n">
         <v>0</v>
@@ -4455,7 +4374,7 @@
         <v>75147.28</v>
       </c>
       <c r="E95" s="5" t="n">
-        <v>64113.89</v>
+        <v>51291.81</v>
       </c>
       <c r="F95" s="3" t="n">
         <v>0</v>
@@ -4490,7 +4409,7 @@
         <v>1257.08</v>
       </c>
       <c r="E96" s="5" t="n">
-        <v>1590.27</v>
+        <v>1272.21</v>
       </c>
       <c r="F96" s="3" t="n">
         <v>0</v>
@@ -4521,10 +4440,10 @@
       <c r="C97" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D97" s="7" t="n">
+      <c r="D97" s="6" t="n">
         <v>6400</v>
       </c>
-      <c r="E97" s="7" t="n">
+      <c r="E97" s="6" t="n">
         <v>9600</v>
       </c>
       <c r="F97" s="3" t="n">
@@ -4556,10 +4475,10 @@
       <c r="C98" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D98" s="7" t="n">
+      <c r="D98" s="6" t="n">
         <v>22050</v>
       </c>
-      <c r="E98" s="7" t="n">
+      <c r="E98" s="6" t="n">
         <v>22050</v>
       </c>
       <c r="F98" s="3" t="n">
@@ -4591,11 +4510,11 @@
       <c r="C99" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D99" s="7" t="n">
+      <c r="D99" s="6" t="n">
         <v>10000</v>
       </c>
       <c r="E99" s="5" t="n">
-        <v>12500.01</v>
+        <v>10000.02</v>
       </c>
       <c r="F99" s="3" t="n">
         <v>0</v>
@@ -4629,8 +4548,8 @@
       <c r="D100" s="5" t="n">
         <v>15315.61</v>
       </c>
-      <c r="E100" s="7" t="n">
-        <v>30381</v>
+      <c r="E100" s="8" t="n">
+        <v>24304.8</v>
       </c>
       <c r="F100" s="3" t="n">
         <v>0</v>
@@ -4664,8 +4583,8 @@
       <c r="D101" s="5" t="n">
         <v>40113.68</v>
       </c>
-      <c r="E101" s="7" t="n">
-        <v>83889</v>
+      <c r="E101" s="8" t="n">
+        <v>67111.2</v>
       </c>
       <c r="F101" s="3" t="n">
         <v>0</v>
@@ -4699,8 +4618,8 @@
       <c r="D102" s="5" t="n">
         <v>15082.22</v>
       </c>
-      <c r="E102" s="7" t="n">
-        <v>32140</v>
+      <c r="E102" s="6" t="n">
+        <v>25712</v>
       </c>
       <c r="F102" s="3" t="n">
         <v>0</v>
@@ -4735,7 +4654,7 @@
         <v>344567.42</v>
       </c>
       <c r="E103" s="5" t="n">
-        <v>281583.95</v>
+        <v>225272.01</v>
       </c>
       <c r="F103" s="3" t="n">
         <v>0</v>
@@ -4766,7 +4685,7 @@
       <c r="C104" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D104" s="6" t="n">
+      <c r="D104" s="8" t="n">
         <v>13016.4</v>
       </c>
       <c r="E104" s="3" t="n">
@@ -4804,8 +4723,8 @@
       <c r="D105" s="5" t="n">
         <v>21029.76</v>
       </c>
-      <c r="E105" s="7" t="n">
-        <v>27714</v>
+      <c r="E105" s="8" t="n">
+        <v>22171.2</v>
       </c>
       <c r="F105" s="3" t="n">
         <v>0</v>
@@ -4836,7 +4755,7 @@
       <c r="C106" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D106" s="6" t="n">
+      <c r="D106" s="8" t="n">
         <v>13665.6</v>
       </c>
       <c r="E106" s="3" t="n">
@@ -4871,7 +4790,7 @@
       <c r="C107" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D107" s="6" t="n">
+      <c r="D107" s="8" t="n">
         <v>17547.6</v>
       </c>
       <c r="E107" s="3" t="n">
@@ -4906,11 +4825,11 @@
       <c r="C108" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D108" s="7" t="n">
+      <c r="D108" s="6" t="n">
         <v>368928</v>
       </c>
-      <c r="E108" s="7" t="n">
-        <v>48495</v>
+      <c r="E108" s="6" t="n">
+        <v>38796</v>
       </c>
       <c r="F108" s="3" t="n">
         <v>0</v>
@@ -4945,7 +4864,7 @@
         <v>0</v>
       </c>
       <c r="E109" s="5" t="n">
-        <v>29145.52</v>
+        <v>23316.42</v>
       </c>
       <c r="F109" s="3" t="n">
         <v>0</v>
@@ -4976,10 +4895,10 @@
       <c r="C110" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D110" s="7" t="n">
+      <c r="D110" s="6" t="n">
         <v>26000</v>
       </c>
-      <c r="E110" s="7" t="n">
+      <c r="E110" s="6" t="n">
         <v>26000</v>
       </c>
       <c r="F110" s="3" t="n">
@@ -5011,10 +4930,10 @@
       <c r="C111" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D111" s="7" t="n">
+      <c r="D111" s="6" t="n">
         <v>29500</v>
       </c>
-      <c r="E111" s="7" t="n">
+      <c r="E111" s="6" t="n">
         <v>59000</v>
       </c>
       <c r="F111" s="3" t="n">
@@ -5046,10 +4965,10 @@
       <c r="C112" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D112" s="7" t="n">
+      <c r="D112" s="6" t="n">
         <v>2500</v>
       </c>
-      <c r="E112" s="7" t="n">
+      <c r="E112" s="6" t="n">
         <v>2500</v>
       </c>
       <c r="F112" s="3" t="n">
@@ -5081,7 +5000,7 @@
       <c r="C113" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D113" s="6" t="n">
+      <c r="D113" s="8" t="n">
         <v>115396.7</v>
       </c>
       <c r="E113" s="3" t="n">
@@ -5120,7 +5039,7 @@
         <v>9517.58</v>
       </c>
       <c r="E114" s="5" t="n">
-        <v>9687.57</v>
+        <v>7750.06</v>
       </c>
       <c r="F114" s="3" t="n">
         <v>0</v>
@@ -5189,8 +5108,8 @@
       <c r="D116" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="E116" s="5" t="n">
-        <v>2402049.25</v>
+      <c r="E116" s="8" t="n">
+        <v>1921639.4</v>
       </c>
       <c r="F116" s="3" t="n">
         <v>0</v>
@@ -5225,7 +5144,7 @@
         <v>0</v>
       </c>
       <c r="E117" s="5" t="n">
-        <v>4293610.22</v>
+        <v>3434888.18</v>
       </c>
       <c r="F117" s="3" t="n">
         <v>0</v>
@@ -5256,11 +5175,11 @@
       <c r="C118" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D118" s="6" t="n">
+      <c r="D118" s="8" t="n">
         <v>17056419.6</v>
       </c>
       <c r="E118" s="5" t="n">
-        <v>13572319.28</v>
+        <v>10857855.43</v>
       </c>
       <c r="F118" s="3" t="n">
         <v>0</v>
@@ -5295,7 +5214,7 @@
         <v>0</v>
       </c>
       <c r="E119" s="5" t="n">
-        <v>1342996.82</v>
+        <v>1074397.46</v>
       </c>
       <c r="F119" s="3" t="n">
         <v>0</v>
@@ -5400,7 +5319,7 @@
         <v>0</v>
       </c>
       <c r="E122" s="5" t="n">
-        <v>13931.66</v>
+        <v>11195.08</v>
       </c>
       <c r="F122" s="3" t="n">
         <v>0</v>
@@ -5540,7 +5459,7 @@
         <v>0</v>
       </c>
       <c r="E126" s="5" t="n">
-        <v>1209056.95</v>
+        <v>967245.56</v>
       </c>
       <c r="F126" s="3" t="n">
         <v>0</v>
@@ -5575,7 +5494,7 @@
         <v>13888155.28</v>
       </c>
       <c r="E127" s="5" t="n">
-        <v>3828948.59</v>
+        <v>3063158.87</v>
       </c>
       <c r="F127" s="3" t="n">
         <v>0</v>
@@ -5610,7 +5529,7 @@
         <v>0</v>
       </c>
       <c r="E128" s="5" t="n">
-        <v>949231.09</v>
+        <v>771635.58</v>
       </c>
       <c r="F128" s="3" t="n">
         <v>0</v>
@@ -5645,7 +5564,7 @@
         <v>11188517.01</v>
       </c>
       <c r="E129" s="5" t="n">
-        <v>22055305.72</v>
+        <v>17644244.58</v>
       </c>
       <c r="F129" s="3" t="n">
         <v>0</v>
@@ -5711,7 +5630,7 @@
       <c r="C131" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D131" s="6" t="n">
+      <c r="D131" s="8" t="n">
         <v>52917.3</v>
       </c>
       <c r="E131" s="3" t="n">
@@ -5746,11 +5665,11 @@
       <c r="C132" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D132" s="7" t="n">
+      <c r="D132" s="6" t="n">
         <v>6000</v>
       </c>
       <c r="E132" s="5" t="n">
-        <v>5326.33</v>
+        <v>4261.07</v>
       </c>
       <c r="F132" s="3" t="n">
         <v>0</v>
@@ -5785,7 +5704,7 @@
         <v>12947270.94</v>
       </c>
       <c r="E133" s="5" t="n">
-        <v>1989091.89</v>
+        <v>1657576.58</v>
       </c>
       <c r="F133" s="3" t="n">
         <v>0</v>
@@ -5820,7 +5739,7 @@
         <v>0</v>
       </c>
       <c r="E134" s="5" t="n">
-        <v>888116.02</v>
+        <v>710492.82</v>
       </c>
       <c r="F134" s="3" t="n">
         <v>0</v>
@@ -5851,7 +5770,7 @@
       <c r="C135" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D135" s="6" t="n">
+      <c r="D135" s="8" t="n">
         <v>1193771.8</v>
       </c>
       <c r="E135" s="3" t="n">
@@ -5886,10 +5805,10 @@
       <c r="C136" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D136" s="7" t="n">
+      <c r="D136" s="6" t="n">
         <v>18000</v>
       </c>
-      <c r="E136" s="7" t="n">
+      <c r="E136" s="6" t="n">
         <v>18000</v>
       </c>
       <c r="F136" s="3" t="n">
@@ -5921,7 +5840,7 @@
       <c r="C137" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D137" s="6" t="n">
+      <c r="D137" s="8" t="n">
         <v>14785.5</v>
       </c>
       <c r="E137" s="5" t="n">
@@ -5991,7 +5910,7 @@
       <c r="C139" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D139" s="6" t="n">
+      <c r="D139" s="8" t="n">
         <v>130583.4</v>
       </c>
       <c r="E139" s="3" t="n">
@@ -6026,7 +5945,7 @@
       <c r="C140" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D140" s="7" t="n">
+      <c r="D140" s="6" t="n">
         <v>48000</v>
       </c>
       <c r="E140" s="3" t="n">
@@ -6064,8 +5983,8 @@
       <c r="D141" s="5" t="n">
         <v>17799.14</v>
       </c>
-      <c r="E141" s="5" t="n">
-        <v>13801.37</v>
+      <c r="E141" s="8" t="n">
+        <v>11041.1</v>
       </c>
       <c r="F141" s="3" t="n">
         <v>0</v>
@@ -6100,7 +6019,7 @@
         <v>192998.29</v>
       </c>
       <c r="E142" s="5" t="n">
-        <v>171331.51</v>
+        <v>137077.38</v>
       </c>
       <c r="F142" s="3" t="n">
         <v>0</v>
@@ -6134,8 +6053,8 @@
       <c r="D143" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="E143" s="6" t="n">
-        <v>77665.5</v>
+      <c r="E143" s="5" t="n">
+        <v>62132.39</v>
       </c>
       <c r="F143" s="3" t="n">
         <v>0</v>
@@ -6166,7 +6085,7 @@
       <c r="C144" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D144" s="7" t="n">
+      <c r="D144" s="6" t="n">
         <v>24000</v>
       </c>
       <c r="E144" s="3" t="n">
@@ -6201,7 +6120,7 @@
       <c r="C145" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D145" s="7" t="n">
+      <c r="D145" s="6" t="n">
         <v>200000</v>
       </c>
       <c r="E145" s="3" t="n">
@@ -6236,10 +6155,10 @@
       <c r="C146" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D146" s="7" t="n">
+      <c r="D146" s="6" t="n">
         <v>250000</v>
       </c>
-      <c r="E146" s="7" t="n">
+      <c r="E146" s="6" t="n">
         <v>250000</v>
       </c>
       <c r="F146" s="3" t="n">
@@ -6271,11 +6190,11 @@
       <c r="C147" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D147" s="6" t="n">
+      <c r="D147" s="8" t="n">
         <v>44438.5</v>
       </c>
-      <c r="E147" s="6" t="n">
-        <v>-55213.5</v>
+      <c r="E147" s="5" t="n">
+        <v>-28108.56</v>
       </c>
       <c r="F147" s="3" t="n">
         <v>0</v>
@@ -6310,7 +6229,7 @@
         <v>46504.16</v>
       </c>
       <c r="E148" s="5" t="n">
-        <v>39125.76</v>
+        <v>31300.61</v>
       </c>
       <c r="F148" s="3" t="n">
         <v>0</v>
@@ -6345,7 +6264,7 @@
         <v>325768.76</v>
       </c>
       <c r="E149" s="5" t="n">
-        <v>273290.23</v>
+        <v>218632.17</v>
       </c>
       <c r="F149" s="3" t="n">
         <v>0</v>
@@ -6376,11 +6295,11 @@
       <c r="C150" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D150" s="6" t="n">
+      <c r="D150" s="8" t="n">
         <v>192656.1</v>
       </c>
-      <c r="E150" s="5" t="n">
-        <v>107242.25</v>
+      <c r="E150" s="8" t="n">
+        <v>85793.8</v>
       </c>
       <c r="F150" s="3" t="n">
         <v>0</v>
@@ -6411,11 +6330,11 @@
       <c r="C151" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D151" s="6" t="n">
+      <c r="D151" s="8" t="n">
         <v>317473.2</v>
       </c>
       <c r="E151" s="5" t="n">
-        <v>17750.01</v>
+        <v>-64392.85</v>
       </c>
       <c r="F151" s="3" t="n">
         <v>0</v>
@@ -6446,10 +6365,10 @@
       <c r="C152" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D152" s="7" t="n">
+      <c r="D152" s="6" t="n">
         <v>36000</v>
       </c>
-      <c r="E152" s="7" t="n">
+      <c r="E152" s="6" t="n">
         <v>36000</v>
       </c>
       <c r="F152" s="3" t="n">
@@ -6484,8 +6403,8 @@
       <c r="D153" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="E153" s="5" t="n">
-        <v>2687542.37</v>
+      <c r="E153" s="8" t="n">
+        <v>2150033.9</v>
       </c>
       <c r="F153" s="3" t="n">
         <v>0</v>
@@ -6516,10 +6435,10 @@
       <c r="C154" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D154" s="7" t="n">
+      <c r="D154" s="6" t="n">
         <v>36400</v>
       </c>
-      <c r="E154" s="7" t="n">
+      <c r="E154" s="6" t="n">
         <v>36400</v>
       </c>
       <c r="F154" s="3" t="n">
@@ -6551,7 +6470,7 @@
       <c r="C155" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D155" s="6" t="n">
+      <c r="D155" s="8" t="n">
         <v>23548.8</v>
       </c>
       <c r="E155" s="3" t="n">
@@ -6590,7 +6509,7 @@
         <v>0</v>
       </c>
       <c r="E156" s="5" t="n">
-        <v>1439853.28</v>
+        <v>1151882.62</v>
       </c>
       <c r="F156" s="3" t="n">
         <v>0</v>
@@ -6625,7 +6544,7 @@
         <v>0</v>
       </c>
       <c r="E157" s="5" t="n">
-        <v>3766053.78</v>
+        <v>3012843.02</v>
       </c>
       <c r="F157" s="3" t="n">
         <v>0</v>
@@ -6691,7 +6610,7 @@
       <c r="C159" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D159" s="6" t="n">
+      <c r="D159" s="8" t="n">
         <v>191903.4</v>
       </c>
       <c r="E159" s="3" t="n">
@@ -6726,7 +6645,7 @@
       <c r="C160" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D160" s="7" t="n">
+      <c r="D160" s="6" t="n">
         <v>57670000</v>
       </c>
       <c r="E160" s="3" t="n">
@@ -6796,11 +6715,11 @@
       <c r="C162" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D162" s="7" t="n">
+      <c r="D162" s="6" t="n">
         <v>3260</v>
       </c>
       <c r="E162" s="5" t="n">
-        <v>1358.33</v>
+        <v>1086.66</v>
       </c>
       <c r="F162" s="3" t="n">
         <v>0</v>
@@ -6831,10 +6750,10 @@
       <c r="C163" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D163" s="7" t="n">
+      <c r="D163" s="6" t="n">
         <v>840000</v>
       </c>
-      <c r="E163" s="7" t="n">
+      <c r="E163" s="6" t="n">
         <v>840000</v>
       </c>
       <c r="F163" s="3" t="n">
@@ -6866,10 +6785,10 @@
       <c r="C164" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D164" s="7" t="n">
+      <c r="D164" s="6" t="n">
         <v>840000</v>
       </c>
-      <c r="E164" s="7" t="n">
+      <c r="E164" s="6" t="n">
         <v>840000</v>
       </c>
       <c r="F164" s="3" t="n">
@@ -6901,10 +6820,10 @@
       <c r="C165" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D165" s="7" t="n">
+      <c r="D165" s="6" t="n">
         <v>780000</v>
       </c>
-      <c r="E165" s="7" t="n">
+      <c r="E165" s="6" t="n">
         <v>780000</v>
       </c>
       <c r="F165" s="3" t="n">
@@ -6936,10 +6855,10 @@
       <c r="C166" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D166" s="7" t="n">
+      <c r="D166" s="6" t="n">
         <v>840000</v>
       </c>
-      <c r="E166" s="7" t="n">
+      <c r="E166" s="6" t="n">
         <v>840000</v>
       </c>
       <c r="F166" s="3" t="n">
@@ -6971,10 +6890,10 @@
       <c r="C167" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D167" s="7" t="n">
+      <c r="D167" s="6" t="n">
         <v>390000</v>
       </c>
-      <c r="E167" s="7" t="n">
+      <c r="E167" s="6" t="n">
         <v>390000</v>
       </c>
       <c r="F167" s="3" t="n">
@@ -7010,7 +6929,7 @@
         <v>35225.13</v>
       </c>
       <c r="E168" s="5" t="n">
-        <v>29354.28</v>
+        <v>23483.43</v>
       </c>
       <c r="F168" s="3" t="n">
         <v>0</v>
@@ -7045,7 +6964,7 @@
         <v>21340351.03</v>
       </c>
       <c r="E169" s="5" t="n">
-        <v>12232669.39</v>
+        <v>9786135.51</v>
       </c>
       <c r="F169" s="3" t="n">
         <v>0</v>
@@ -7080,7 +6999,7 @@
         <v>388515.58</v>
       </c>
       <c r="E170" s="5" t="n">
-        <v>328291.97</v>
+        <v>307188.53</v>
       </c>
       <c r="F170" s="3" t="n">
         <v>0</v>
@@ -7146,11 +7065,11 @@
       <c r="C172" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D172" s="7" t="n">
+      <c r="D172" s="6" t="n">
         <v>90000</v>
       </c>
-      <c r="E172" s="7" t="n">
-        <v>37500</v>
+      <c r="E172" s="6" t="n">
+        <v>30000</v>
       </c>
       <c r="F172" s="3" t="n">
         <v>0</v>
@@ -7216,11 +7135,11 @@
       <c r="C174" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D174" s="7" t="n">
+      <c r="D174" s="6" t="n">
         <v>38700</v>
       </c>
-      <c r="E174" s="7" t="n">
-        <v>32250</v>
+      <c r="E174" s="6" t="n">
+        <v>25800</v>
       </c>
       <c r="F174" s="3" t="n">
         <v>0</v>
@@ -7251,11 +7170,11 @@
       <c r="C175" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D175" s="7" t="n">
+      <c r="D175" s="6" t="n">
         <v>29440</v>
       </c>
-      <c r="E175" s="7" t="n">
-        <v>30800</v>
+      <c r="E175" s="6" t="n">
+        <v>30160</v>
       </c>
       <c r="F175" s="3" t="n">
         <v>0</v>
@@ -7321,11 +7240,11 @@
       <c r="C177" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D177" s="7" t="n">
+      <c r="D177" s="6" t="n">
         <v>600000</v>
       </c>
-      <c r="E177" s="5" t="n">
-        <v>52008.34</v>
+      <c r="E177" s="8" t="n">
+        <v>-45822.8</v>
       </c>
       <c r="F177" s="3" t="n">
         <v>0</v>
@@ -7356,11 +7275,11 @@
       <c r="C178" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D178" s="6" t="n">
+      <c r="D178" s="8" t="n">
         <v>1385.7</v>
       </c>
-      <c r="E178" s="5" t="n">
-        <v>1154.76</v>
+      <c r="E178" s="7" t="n">
+        <v>923.82</v>
       </c>
       <c r="F178" s="3" t="n">
         <v>0</v>
@@ -7391,11 +7310,11 @@
       <c r="C179" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D179" s="7" t="n">
+      <c r="D179" s="6" t="n">
         <v>18000</v>
       </c>
       <c r="E179" s="5" t="n">
-        <v>22480.34</v>
+        <v>17984.26</v>
       </c>
       <c r="F179" s="3" t="n">
         <v>0</v>
@@ -7500,7 +7419,7 @@
         <v>0</v>
       </c>
       <c r="E182" s="5" t="n">
-        <v>513415.37</v>
+        <v>427846.14</v>
       </c>
       <c r="F182" s="3" t="n">
         <v>0</v>
@@ -7535,7 +7454,7 @@
         <v>0</v>
       </c>
       <c r="E183" s="5" t="n">
-        <v>28068.28</v>
+        <v>23390.23</v>
       </c>
       <c r="F183" s="3" t="n">
         <v>0</v>
@@ -7570,7 +7489,7 @@
         <v>28387.27</v>
       </c>
       <c r="E184" s="5" t="n">
-        <v>28387.27</v>
+        <v>23656.06</v>
       </c>
       <c r="F184" s="3" t="n">
         <v>0</v>
@@ -7601,7 +7520,7 @@
       <c r="C185" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D185" s="7" t="n">
+      <c r="D185" s="6" t="n">
         <v>62550</v>
       </c>
       <c r="E185" s="3" t="n">
@@ -7636,10 +7555,10 @@
       <c r="C186" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D186" s="7" t="n">
+      <c r="D186" s="6" t="n">
         <v>22500</v>
       </c>
-      <c r="E186" s="7" t="n">
+      <c r="E186" s="6" t="n">
         <v>30000</v>
       </c>
       <c r="F186" s="3" t="n">
@@ -7671,10 +7590,10 @@
       <c r="C187" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D187" s="7" t="n">
+      <c r="D187" s="6" t="n">
         <v>223070</v>
       </c>
-      <c r="E187" s="7" t="n">
+      <c r="E187" s="6" t="n">
         <v>375000</v>
       </c>
       <c r="F187" s="3" t="n">
@@ -7710,7 +7629,7 @@
         <v>0</v>
       </c>
       <c r="E188" s="5" t="n">
-        <v>480293.58</v>
+        <v>400244.65</v>
       </c>
       <c r="F188" s="3" t="n">
         <v>0</v>
@@ -7741,7 +7660,7 @@
       <c r="C189" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D189" s="7" t="n">
+      <c r="D189" s="6" t="n">
         <v>118000</v>
       </c>
       <c r="E189" s="3" t="n">
@@ -7776,11 +7695,11 @@
       <c r="C190" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D190" s="7" t="n">
+      <c r="D190" s="6" t="n">
         <v>60000</v>
       </c>
-      <c r="E190" s="7" t="n">
-        <v>25000</v>
+      <c r="E190" s="6" t="n">
+        <v>20000</v>
       </c>
       <c r="F190" s="3" t="n">
         <v>0</v>
@@ -7846,7 +7765,7 @@
       <c r="C192" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D192" s="7" t="n">
+      <c r="D192" s="6" t="n">
         <v>142775</v>
       </c>
       <c r="E192" s="3" t="n">
@@ -7920,7 +7839,7 @@
         <v>0</v>
       </c>
       <c r="E194" s="5" t="n">
-        <v>448274.01</v>
+        <v>360220.19</v>
       </c>
       <c r="F194" s="3" t="n">
         <v>0</v>
@@ -7955,7 +7874,7 @@
         <v>0</v>
       </c>
       <c r="E195" s="5" t="n">
-        <v>30972022.27</v>
+        <v>25810018.56</v>
       </c>
       <c r="F195" s="3" t="n">
         <v>0</v>
@@ -8021,7 +7940,7 @@
       <c r="C197" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D197" s="7" t="n">
+      <c r="D197" s="6" t="n">
         <v>3041800</v>
       </c>
       <c r="E197" s="3" t="n">
@@ -8060,7 +7979,7 @@
         <v>26493297.38</v>
       </c>
       <c r="E198" s="5" t="n">
-        <v>16401344.42</v>
+        <v>13667787.02</v>
       </c>
       <c r="F198" s="3" t="n">
         <v>0</v>
@@ -8164,8 +8083,8 @@
       <c r="D201" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="E201" s="5" t="n">
-        <v>404948.38</v>
+      <c r="E201" s="8" t="n">
+        <v>323958.7</v>
       </c>
       <c r="F201" s="3" t="n">
         <v>0</v>
@@ -8196,11 +8115,11 @@
       <c r="C202" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D202" s="6" t="n">
+      <c r="D202" s="8" t="n">
         <v>948374.6</v>
       </c>
       <c r="E202" s="5" t="n">
-        <v>790312.17</v>
+        <v>632249.74</v>
       </c>
       <c r="F202" s="3" t="n">
         <v>0</v>
@@ -8336,11 +8255,11 @@
       <c r="C206" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D206" s="7" t="n">
+      <c r="D206" s="6" t="n">
         <v>150000</v>
       </c>
       <c r="E206" s="5" t="n">
-        <v>125000.01</v>
+        <v>100000.02</v>
       </c>
       <c r="F206" s="3" t="n">
         <v>0</v>
@@ -8371,7 +8290,7 @@
       <c r="C207" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D207" s="6" t="n">
+      <c r="D207" s="8" t="n">
         <v>19637895.8</v>
       </c>
       <c r="E207" s="3" t="n">
@@ -8406,11 +8325,11 @@
       <c r="C208" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D208" s="7" t="n">
+      <c r="D208" s="6" t="n">
         <v>122400</v>
       </c>
-      <c r="E208" s="7" t="n">
-        <v>102000</v>
+      <c r="E208" s="6" t="n">
+        <v>81600</v>
       </c>
       <c r="F208" s="3" t="n">
         <v>0</v>
@@ -8441,7 +8360,7 @@
       <c r="C209" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D209" s="7" t="n">
+      <c r="D209" s="6" t="n">
         <v>265000</v>
       </c>
       <c r="E209" s="3" t="n">
@@ -8479,8 +8398,8 @@
       <c r="D210" s="5" t="n">
         <v>91462.38</v>
       </c>
-      <c r="E210" s="5" t="n">
-        <v>19028.62</v>
+      <c r="E210" s="8" t="n">
+        <v>15222.9</v>
       </c>
       <c r="F210" s="3" t="n">
         <v>0</v>
@@ -8511,7 +8430,7 @@
       <c r="C211" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D211" s="6" t="n">
+      <c r="D211" s="8" t="n">
         <v>382029.5</v>
       </c>
       <c r="E211" s="3" t="n">
@@ -8546,10 +8465,10 @@
       <c r="C212" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D212" s="7" t="n">
+      <c r="D212" s="6" t="n">
         <v>18050</v>
       </c>
-      <c r="E212" s="7" t="n">
+      <c r="E212" s="6" t="n">
         <v>20900</v>
       </c>
       <c r="F212" s="3" t="n">
@@ -8585,7 +8504,7 @@
         <v>0</v>
       </c>
       <c r="E213" s="5" t="n">
-        <v>5737.33</v>
+        <v>4589.86</v>
       </c>
       <c r="F213" s="3" t="n">
         <v>0</v>
@@ -8616,10 +8535,10 @@
       <c r="C214" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D214" s="7" t="n">
+      <c r="D214" s="6" t="n">
         <v>277000</v>
       </c>
-      <c r="E214" s="7" t="n">
+      <c r="E214" s="6" t="n">
         <v>277000</v>
       </c>
       <c r="F214" s="3" t="n">
@@ -8651,7 +8570,7 @@
       <c r="C215" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D215" s="6" t="n">
+      <c r="D215" s="8" t="n">
         <v>18332433.9</v>
       </c>
       <c r="E215" s="3" t="n">
@@ -8760,7 +8679,7 @@
         <v>1053749.56</v>
       </c>
       <c r="E218" s="5" t="n">
-        <v>1053749.56</v>
+        <v>878124.63</v>
       </c>
       <c r="F218" s="3" t="n">
         <v>0</v>
@@ -8795,7 +8714,7 @@
         <v>1549085.77</v>
       </c>
       <c r="E219" s="5" t="n">
-        <v>1919804.38</v>
+        <v>1599836.98</v>
       </c>
       <c r="F219" s="3" t="n">
         <v>0</v>
@@ -8830,7 +8749,7 @@
         <v>0</v>
       </c>
       <c r="E220" s="5" t="n">
-        <v>537073.33</v>
+        <v>447561.11</v>
       </c>
       <c r="F220" s="3" t="n">
         <v>0</v>
@@ -8864,8 +8783,8 @@
       <c r="D221" s="5" t="n">
         <v>1635887.99</v>
       </c>
-      <c r="E221" s="5" t="n">
-        <v>1817653.32</v>
+      <c r="E221" s="8" t="n">
+        <v>1514711.1</v>
       </c>
       <c r="F221" s="3" t="n">
         <v>0</v>
@@ -8900,7 +8819,7 @@
         <v>14770141.14</v>
       </c>
       <c r="E222" s="5" t="n">
-        <v>12907937.46</v>
+        <v>10756614.55</v>
       </c>
       <c r="F222" s="3" t="n">
         <v>0</v>
@@ -8935,7 +8854,7 @@
         <v>16984651.82</v>
       </c>
       <c r="E223" s="5" t="n">
-        <v>42859556.42</v>
+        <v>35716297.02</v>
       </c>
       <c r="F223" s="3" t="n">
         <v>0</v>
@@ -8969,8 +8888,8 @@
       <c r="D224" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="E224" s="5" t="n">
-        <v>5021405.04</v>
+      <c r="E224" s="8" t="n">
+        <v>4184504.2</v>
       </c>
       <c r="F224" s="3" t="n">
         <v>0</v>
@@ -9075,7 +8994,7 @@
         <v>8999325.67</v>
       </c>
       <c r="E227" s="5" t="n">
-        <v>13704549.47</v>
+        <v>11420457.89</v>
       </c>
       <c r="F227" s="3" t="n">
         <v>0</v>
@@ -9110,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="E228" s="5" t="n">
-        <v>369684.14</v>
+        <v>308070.12</v>
       </c>
       <c r="F228" s="3" t="n">
         <v>0</v>
@@ -9144,8 +9063,8 @@
       <c r="D229" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="E229" s="5" t="n">
-        <v>4054950.48</v>
+      <c r="E229" s="8" t="n">
+        <v>3379125.4</v>
       </c>
       <c r="F229" s="3" t="n">
         <v>0</v>
@@ -9180,7 +9099,7 @@
         <v>29000422.94</v>
       </c>
       <c r="E230" s="5" t="n">
-        <v>23189469.77</v>
+        <v>19324558.14</v>
       </c>
       <c r="F230" s="3" t="n">
         <v>0</v>
@@ -9215,7 +9134,7 @@
         <v>539931.18</v>
       </c>
       <c r="E231" s="5" t="n">
-        <v>539931.18</v>
+        <v>449942.65</v>
       </c>
       <c r="F231" s="3" t="n">
         <v>0</v>
@@ -9285,7 +9204,7 @@
         <v>0</v>
       </c>
       <c r="E233" s="5" t="n">
-        <v>1875445.62</v>
+        <v>1562871.35</v>
       </c>
       <c r="F233" s="3" t="n">
         <v>0</v>
@@ -9320,7 +9239,7 @@
         <v>0</v>
       </c>
       <c r="E234" s="5" t="n">
-        <v>8521892.86</v>
+        <v>7101577.38</v>
       </c>
       <c r="F234" s="3" t="n">
         <v>0</v>
@@ -9351,10 +9270,10 @@
       <c r="C235" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D235" s="7" t="n">
+      <c r="D235" s="6" t="n">
         <v>32000</v>
       </c>
-      <c r="E235" s="7" t="n">
+      <c r="E235" s="6" t="n">
         <v>40000</v>
       </c>
       <c r="F235" s="3" t="n">
@@ -9386,11 +9305,11 @@
       <c r="C236" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D236" s="7" t="n">
+      <c r="D236" s="6" t="n">
         <v>13911</v>
       </c>
       <c r="E236" s="6" t="n">
-        <v>8282.5</v>
+        <v>6626</v>
       </c>
       <c r="F236" s="3" t="n">
         <v>0</v>
@@ -9425,7 +9344,7 @@
         <v>0</v>
       </c>
       <c r="E237" s="5" t="n">
-        <v>277263.11</v>
+        <v>238541.72</v>
       </c>
       <c r="F237" s="3" t="n">
         <v>0</v>
@@ -9495,7 +9414,7 @@
         <v>63642603.93</v>
       </c>
       <c r="E239" s="5" t="n">
-        <v>160880793.21</v>
+        <v>134059689.75</v>
       </c>
       <c r="F239" s="3" t="n">
         <v>0</v>
@@ -9530,7 +9449,7 @@
         <v>0</v>
       </c>
       <c r="E240" s="5" t="n">
-        <v>182260.96</v>
+        <v>151884.13</v>
       </c>
       <c r="F240" s="3" t="n">
         <v>0</v>
@@ -9600,7 +9519,7 @@
         <v>0</v>
       </c>
       <c r="E242" s="5" t="n">
-        <v>1607643.54</v>
+        <v>1339702.95</v>
       </c>
       <c r="F242" s="3" t="n">
         <v>0</v>
@@ -9631,7 +9550,7 @@
       <c r="C243" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D243" s="6" t="n">
+      <c r="D243" s="8" t="n">
         <v>16271.2</v>
       </c>
       <c r="E243" s="3" t="n">
@@ -9670,7 +9589,7 @@
         <v>0</v>
       </c>
       <c r="E244" s="5" t="n">
-        <v>3041212.85</v>
+        <v>2432970.28</v>
       </c>
       <c r="F244" s="3" t="n">
         <v>0</v>
@@ -9701,11 +9620,11 @@
       <c r="C245" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D245" s="7" t="n">
+      <c r="D245" s="6" t="n">
         <v>119214</v>
       </c>
-      <c r="E245" s="7" t="n">
-        <v>99345</v>
+      <c r="E245" s="6" t="n">
+        <v>79476</v>
       </c>
       <c r="F245" s="3" t="n">
         <v>0</v>
@@ -9736,11 +9655,11 @@
       <c r="C246" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D246" s="7" t="n">
+      <c r="D246" s="6" t="n">
         <v>46368</v>
       </c>
-      <c r="E246" s="7" t="n">
-        <v>48300</v>
+      <c r="E246" s="6" t="n">
+        <v>38640</v>
       </c>
       <c r="F246" s="3" t="n">
         <v>0</v>
@@ -9774,8 +9693,8 @@
       <c r="D247" s="5" t="n">
         <v>1356.28</v>
       </c>
-      <c r="E247" s="7" t="n">
-        <v>20614</v>
+      <c r="E247" s="8" t="n">
+        <v>16491.2</v>
       </c>
       <c r="F247" s="3" t="n">
         <v>0</v>
@@ -9876,10 +9795,10 @@
       <c r="C250" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D250" s="7" t="n">
+      <c r="D250" s="6" t="n">
         <v>27800</v>
       </c>
-      <c r="E250" s="7" t="n">
+      <c r="E250" s="6" t="n">
         <v>8000</v>
       </c>
       <c r="F250" s="3" t="n">
@@ -9911,10 +9830,10 @@
       <c r="C251" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D251" s="7" t="n">
+      <c r="D251" s="6" t="n">
         <v>198720</v>
       </c>
-      <c r="E251" s="7" t="n">
+      <c r="E251" s="6" t="n">
         <v>196560</v>
       </c>
       <c r="F251" s="3" t="n">
@@ -9981,11 +9900,11 @@
       <c r="C253" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D253" s="6" t="n">
+      <c r="D253" s="8" t="n">
         <v>1423.2</v>
       </c>
-      <c r="E253" s="7" t="n">
-        <v>1779</v>
+      <c r="E253" s="8" t="n">
+        <v>1423.2</v>
       </c>
       <c r="F253" s="3" t="n">
         <v>0</v>
@@ -10090,7 +10009,7 @@
         <v>90879.56</v>
       </c>
       <c r="E256" s="5" t="n">
-        <v>35751.58</v>
+        <v>28601.27</v>
       </c>
       <c r="F256" s="3" t="n">
         <v>0</v>
@@ -10159,8 +10078,8 @@
       <c r="D258" s="5" t="n">
         <v>34283.62</v>
       </c>
-      <c r="E258" s="6" t="n">
-        <v>30786.1</v>
+      <c r="E258" s="5" t="n">
+        <v>24628.88</v>
       </c>
       <c r="F258" s="3" t="n">
         <v>0</v>
@@ -10195,7 +10114,7 @@
         <v>3182.89</v>
       </c>
       <c r="E259" s="5" t="n">
-        <v>1592.22</v>
+        <v>1273.77</v>
       </c>
       <c r="F259" s="3" t="n">
         <v>0</v>
@@ -10226,11 +10145,11 @@
       <c r="C260" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D260" s="8" t="n">
+      <c r="D260" s="7" t="n">
         <v>99.29</v>
       </c>
-      <c r="E260" s="8" t="n">
-        <v>165.48</v>
+      <c r="E260" s="7" t="n">
+        <v>132.38</v>
       </c>
       <c r="F260" s="3" t="n">
         <v>0</v>
@@ -10261,10 +10180,10 @@
       <c r="C261" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D261" s="7" t="n">
+      <c r="D261" s="6" t="n">
         <v>6400</v>
       </c>
-      <c r="E261" s="7" t="n">
+      <c r="E261" s="6" t="n">
         <v>9600</v>
       </c>
       <c r="F261" s="3" t="n">
@@ -10300,7 +10219,7 @@
         <v>0</v>
       </c>
       <c r="E262" s="5" t="n">
-        <v>1406584.22</v>
+        <v>1125267.38</v>
       </c>
       <c r="F262" s="3" t="n">
         <v>0</v>
@@ -10331,11 +10250,11 @@
       <c r="C263" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D263" s="7" t="n">
+      <c r="D263" s="6" t="n">
         <v>10000</v>
       </c>
       <c r="E263" s="5" t="n">
-        <v>12500.01</v>
+        <v>10000.02</v>
       </c>
       <c r="F263" s="3" t="n">
         <v>0</v>
@@ -10370,7 +10289,7 @@
         <v>0</v>
       </c>
       <c r="E264" s="5" t="n">
-        <v>26666.67</v>
+        <v>21333.34</v>
       </c>
       <c r="F264" s="3" t="n">
         <v>0</v>
@@ -10405,7 +10324,7 @@
         <v>224208.77</v>
       </c>
       <c r="E265" s="5" t="n">
-        <v>129999.67</v>
+        <v>103999.73</v>
       </c>
       <c r="F265" s="3" t="n">
         <v>0</v>
@@ -10471,7 +10390,7 @@
       <c r="C267" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D267" s="7" t="n">
+      <c r="D267" s="6" t="n">
         <v>17082</v>
       </c>
       <c r="E267" s="3" t="n">
@@ -10506,11 +10425,11 @@
       <c r="C268" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D268" s="7" t="n">
+      <c r="D268" s="6" t="n">
         <v>1630</v>
       </c>
       <c r="E268" s="5" t="n">
-        <v>2716.66</v>
+        <v>2173.32</v>
       </c>
       <c r="F268" s="3" t="n">
         <v>0</v>
@@ -10541,7 +10460,7 @@
       <c r="C269" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D269" s="7" t="n">
+      <c r="D269" s="6" t="n">
         <v>29500</v>
       </c>
       <c r="E269" s="3" t="n">
@@ -10576,10 +10495,10 @@
       <c r="C270" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D270" s="7" t="n">
+      <c r="D270" s="6" t="n">
         <v>141540</v>
       </c>
-      <c r="E270" s="7" t="n">
+      <c r="E270" s="6" t="n">
         <v>27500</v>
       </c>
       <c r="F270" s="3" t="n">
@@ -10649,8 +10568,8 @@
       <c r="D272" s="5" t="n">
         <v>566417.81</v>
       </c>
-      <c r="E272" s="7" t="n">
-        <v>402805</v>
+      <c r="E272" s="6" t="n">
+        <v>322244</v>
       </c>
       <c r="F272" s="3" t="n">
         <v>0</v>
@@ -10681,10 +10600,10 @@
       <c r="C273" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D273" s="7" t="n">
+      <c r="D273" s="6" t="n">
         <v>357500</v>
       </c>
-      <c r="E273" s="7" t="n">
+      <c r="E273" s="6" t="n">
         <v>357500</v>
       </c>
       <c r="F273" s="3" t="n">
@@ -10720,7 +10639,7 @@
         <v>15372.55</v>
       </c>
       <c r="E274" s="5" t="n">
-        <v>9606.47</v>
+        <v>7685.18</v>
       </c>
       <c r="F274" s="3" t="n">
         <v>0</v>
@@ -10751,7 +10670,7 @@
       <c r="C275" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D275" s="7" t="n">
+      <c r="D275" s="6" t="n">
         <v>1400000</v>
       </c>
       <c r="E275" s="3" t="n">
@@ -10790,7 +10709,7 @@
         <v>1427466.43</v>
       </c>
       <c r="E276" s="5" t="n">
-        <v>9680953.09</v>
+        <v>7744762.47</v>
       </c>
       <c r="F276" s="3" t="n">
         <v>0</v>
@@ -10825,7 +10744,7 @@
         <v>15646933.66</v>
       </c>
       <c r="E277" s="5" t="n">
-        <v>32144667.32</v>
+        <v>25715733.86</v>
       </c>
       <c r="F277" s="3" t="n">
         <v>0</v>
@@ -10860,7 +10779,7 @@
         <v>0</v>
       </c>
       <c r="E278" s="5" t="n">
-        <v>1363239.99</v>
+        <v>1090591.99</v>
       </c>
       <c r="F278" s="3" t="n">
         <v>0</v>
@@ -10891,7 +10810,7 @@
       <c r="C279" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D279" s="7" t="n">
+      <c r="D279" s="6" t="n">
         <v>500000</v>
       </c>
       <c r="E279" s="3" t="n">
@@ -10926,11 +10845,11 @@
       <c r="C280" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D280" s="6" t="n">
+      <c r="D280" s="8" t="n">
         <v>8099393.1</v>
       </c>
       <c r="E280" s="5" t="n">
-        <v>11095339.32</v>
+        <v>9229403.75</v>
       </c>
       <c r="F280" s="3" t="n">
         <v>0</v>
@@ -11035,7 +10954,7 @@
         <v>0</v>
       </c>
       <c r="E283" s="5" t="n">
-        <v>136695.71</v>
+        <v>109356.57</v>
       </c>
       <c r="F283" s="3" t="n">
         <v>0</v>
@@ -11171,11 +11090,11 @@
       <c r="C287" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D287" s="6" t="n">
+      <c r="D287" s="8" t="n">
         <v>32302724.8</v>
       </c>
       <c r="E287" s="5" t="n">
-        <v>17392102.28</v>
+        <v>13913681.83</v>
       </c>
       <c r="F287" s="3" t="n">
         <v>0</v>
@@ -11206,11 +11125,11 @@
       <c r="C288" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D288" s="7" t="n">
+      <c r="D288" s="6" t="n">
         <v>36000</v>
       </c>
       <c r="E288" s="5" t="n">
-        <v>5466.67</v>
+        <v>4373.34</v>
       </c>
       <c r="F288" s="3" t="n">
         <v>0</v>
@@ -11245,7 +11164,7 @@
         <v>0</v>
       </c>
       <c r="E289" s="5" t="n">
-        <v>1205732.65</v>
+        <v>964586.12</v>
       </c>
       <c r="F289" s="3" t="n">
         <v>0</v>
@@ -11350,7 +11269,7 @@
         <v>0</v>
       </c>
       <c r="E292" s="5" t="n">
-        <v>1078303.34</v>
+        <v>862642.67</v>
       </c>
       <c r="F292" s="3" t="n">
         <v>0</v>
@@ -11490,7 +11409,7 @@
         <v>0</v>
       </c>
       <c r="E296" s="5" t="n">
-        <v>16625.42</v>
+        <v>15900.84</v>
       </c>
       <c r="F296" s="3" t="n">
         <v>0</v>
@@ -11525,7 +11444,7 @@
         <v>15551.31</v>
       </c>
       <c r="E297" s="5" t="n">
-        <v>27944.78</v>
+        <v>22355.81</v>
       </c>
       <c r="F297" s="3" t="n">
         <v>0</v>
@@ -11559,8 +11478,8 @@
       <c r="D298" s="5" t="n">
         <v>228922.19</v>
       </c>
-      <c r="E298" s="6" t="n">
-        <v>195195.4</v>
+      <c r="E298" s="5" t="n">
+        <v>156434.81</v>
       </c>
       <c r="F298" s="3" t="n">
         <v>0</v>
@@ -11595,7 +11514,7 @@
         <v>0</v>
       </c>
       <c r="E299" s="5" t="n">
-        <v>15225.31</v>
+        <v>12180.24</v>
       </c>
       <c r="F299" s="3" t="n">
         <v>0</v>
@@ -11626,10 +11545,10 @@
       <c r="C300" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D300" s="7" t="n">
+      <c r="D300" s="6" t="n">
         <v>34900</v>
       </c>
-      <c r="E300" s="7" t="n">
+      <c r="E300" s="6" t="n">
         <v>34900</v>
       </c>
       <c r="F300" s="3" t="n">
@@ -11661,7 +11580,7 @@
       <c r="C301" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D301" s="7" t="n">
+      <c r="D301" s="6" t="n">
         <v>9420</v>
       </c>
       <c r="E301" s="3" t="n">
@@ -11699,8 +11618,8 @@
       <c r="D302" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="E302" s="6" t="n">
-        <v>17167.7</v>
+      <c r="E302" s="5" t="n">
+        <v>14306.42</v>
       </c>
       <c r="F302" s="3" t="n">
         <v>0</v>
@@ -11731,11 +11650,11 @@
       <c r="C303" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D303" s="7" t="n">
+      <c r="D303" s="6" t="n">
         <v>360000</v>
       </c>
-      <c r="E303" s="7" t="n">
-        <v>300000</v>
+      <c r="E303" s="6" t="n">
+        <v>240000</v>
       </c>
       <c r="F303" s="3" t="n">
         <v>0</v>
@@ -11766,7 +11685,7 @@
       <c r="C304" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D304" s="7" t="n">
+      <c r="D304" s="6" t="n">
         <v>56000</v>
       </c>
       <c r="E304" s="3" t="n">
@@ -11801,11 +11720,11 @@
       <c r="C305" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D305" s="6" t="n">
+      <c r="D305" s="8" t="n">
         <v>57704.4</v>
       </c>
-      <c r="E305" s="7" t="n">
-        <v>48087</v>
+      <c r="E305" s="8" t="n">
+        <v>38469.6</v>
       </c>
       <c r="F305" s="3" t="n">
         <v>0</v>
@@ -11836,7 +11755,7 @@
       <c r="C306" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D306" s="7" t="n">
+      <c r="D306" s="6" t="n">
         <v>925900</v>
       </c>
       <c r="E306" s="3" t="n">
@@ -11945,7 +11864,7 @@
         <v>17331007.12</v>
       </c>
       <c r="E309" s="5" t="n">
-        <v>1939980.07</v>
+        <v>1553685.06</v>
       </c>
       <c r="F309" s="3" t="n">
         <v>0</v>
@@ -12011,7 +11930,7 @@
       <c r="C311" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D311" s="7" t="n">
+      <c r="D311" s="6" t="n">
         <v>569412</v>
       </c>
       <c r="E311" s="3" t="n">
@@ -12046,7 +11965,7 @@
       <c r="C312" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D312" s="7" t="n">
+      <c r="D312" s="6" t="n">
         <v>11220000</v>
       </c>
       <c r="E312" s="3" t="n">
@@ -12116,7 +12035,7 @@
       <c r="C314" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D314" s="7" t="n">
+      <c r="D314" s="6" t="n">
         <v>355420</v>
       </c>
       <c r="E314" s="3" t="n">
@@ -12154,8 +12073,8 @@
       <c r="D315" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="E315" s="7" t="n">
-        <v>20800</v>
+      <c r="E315" s="6" t="n">
+        <v>17600</v>
       </c>
       <c r="F315" s="3" t="n">
         <v>0</v>
@@ -12189,7 +12108,7 @@
       <c r="D316" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="E316" s="7" t="n">
+      <c r="E316" s="6" t="n">
         <v>200000</v>
       </c>
       <c r="F316" s="3" t="n">
@@ -12225,7 +12144,7 @@
         <v>0</v>
       </c>
       <c r="E317" s="5" t="n">
-        <v>956833.41</v>
+        <v>767272.08</v>
       </c>
       <c r="F317" s="3" t="n">
         <v>0</v>
@@ -12260,7 +12179,7 @@
         <v>62938.38</v>
       </c>
       <c r="E318" s="5" t="n">
-        <v>50498.14</v>
+        <v>40398.53</v>
       </c>
       <c r="F318" s="3" t="n">
         <v>0</v>
@@ -12295,7 +12214,7 @@
         <v>332340.02</v>
       </c>
       <c r="E319" s="5" t="n">
-        <v>278335.49</v>
+        <v>222668.38</v>
       </c>
       <c r="F319" s="3" t="n">
         <v>0</v>
@@ -12329,8 +12248,8 @@
       <c r="D320" s="5" t="n">
         <v>128472.72</v>
       </c>
-      <c r="E320" s="6" t="n">
-        <v>160514.9</v>
+      <c r="E320" s="5" t="n">
+        <v>128411.92</v>
       </c>
       <c r="F320" s="3" t="n">
         <v>0</v>
@@ -12364,8 +12283,8 @@
       <c r="D321" s="5" t="n">
         <v>389006.35</v>
       </c>
-      <c r="E321" s="7" t="n">
-        <v>6000</v>
+      <c r="E321" s="5" t="n">
+        <v>-32368.67</v>
       </c>
       <c r="F321" s="3" t="n">
         <v>0</v>
@@ -12470,7 +12389,7 @@
         <v>4067338.09</v>
       </c>
       <c r="E324" s="5" t="n">
-        <v>7942163.47</v>
+        <v>6353730.78</v>
       </c>
       <c r="F324" s="3" t="n">
         <v>0</v>
@@ -12536,7 +12455,7 @@
       <c r="C326" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D326" s="7" t="n">
+      <c r="D326" s="6" t="n">
         <v>480000</v>
       </c>
       <c r="E326" s="3" t="n">
@@ -12571,11 +12490,11 @@
       <c r="C327" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D327" s="7" t="n">
+      <c r="D327" s="6" t="n">
         <v>42000</v>
       </c>
-      <c r="E327" s="7" t="n">
-        <v>35000</v>
+      <c r="E327" s="6" t="n">
+        <v>28000</v>
       </c>
       <c r="F327" s="3" t="n">
         <v>0</v>
@@ -12606,7 +12525,7 @@
       <c r="C328" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D328" s="7" t="n">
+      <c r="D328" s="6" t="n">
         <v>900000</v>
       </c>
       <c r="E328" s="3" t="n">
@@ -12645,7 +12564,7 @@
         <v>0</v>
       </c>
       <c r="E329" s="5" t="n">
-        <v>98997548.02</v>
+        <v>82497956.68</v>
       </c>
       <c r="F329" s="3" t="n">
         <v>0</v>
@@ -12676,11 +12595,11 @@
       <c r="C330" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D330" s="7" t="n">
+      <c r="D330" s="6" t="n">
         <v>1000</v>
       </c>
-      <c r="E330" s="8" t="n">
-        <v>833.33</v>
+      <c r="E330" s="7" t="n">
+        <v>666.66</v>
       </c>
       <c r="F330" s="3" t="n">
         <v>0</v>
@@ -12711,11 +12630,11 @@
       <c r="C331" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D331" s="7" t="n">
+      <c r="D331" s="6" t="n">
         <v>16650</v>
       </c>
       <c r="E331" s="5" t="n">
-        <v>8035.67</v>
+        <v>7625.67</v>
       </c>
       <c r="F331" s="3" t="n">
         <v>0</v>
@@ -12746,7 +12665,7 @@
       <c r="C332" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D332" s="7" t="n">
+      <c r="D332" s="6" t="n">
         <v>10000</v>
       </c>
       <c r="E332" s="3" t="n">
@@ -12781,10 +12700,10 @@
       <c r="C333" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D333" s="7" t="n">
+      <c r="D333" s="6" t="n">
         <v>910000</v>
       </c>
-      <c r="E333" s="7" t="n">
+      <c r="E333" s="6" t="n">
         <v>910000</v>
       </c>
       <c r="F333" s="3" t="n">
@@ -12820,7 +12739,7 @@
         <v>68896.27</v>
       </c>
       <c r="E334" s="5" t="n">
-        <v>57413.56</v>
+        <v>45930.85</v>
       </c>
       <c r="F334" s="3" t="n">
         <v>0</v>
@@ -12851,7 +12770,7 @@
       <c r="C335" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D335" s="7" t="n">
+      <c r="D335" s="6" t="n">
         <v>15000000</v>
       </c>
       <c r="E335" s="3" t="n">
@@ -12921,10 +12840,10 @@
       <c r="C337" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D337" s="7" t="n">
+      <c r="D337" s="6" t="n">
         <v>840000</v>
       </c>
-      <c r="E337" s="7" t="n">
+      <c r="E337" s="6" t="n">
         <v>840000</v>
       </c>
       <c r="F337" s="3" t="n">
@@ -12956,10 +12875,10 @@
       <c r="C338" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D338" s="7" t="n">
+      <c r="D338" s="6" t="n">
         <v>840000</v>
       </c>
-      <c r="E338" s="7" t="n">
+      <c r="E338" s="6" t="n">
         <v>840000</v>
       </c>
       <c r="F338" s="3" t="n">
@@ -12991,10 +12910,10 @@
       <c r="C339" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D339" s="7" t="n">
+      <c r="D339" s="6" t="n">
         <v>780000</v>
       </c>
-      <c r="E339" s="7" t="n">
+      <c r="E339" s="6" t="n">
         <v>780000</v>
       </c>
       <c r="F339" s="3" t="n">
@@ -13026,10 +12945,10 @@
       <c r="C340" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D340" s="7" t="n">
+      <c r="D340" s="6" t="n">
         <v>840000</v>
       </c>
-      <c r="E340" s="7" t="n">
+      <c r="E340" s="6" t="n">
         <v>840000</v>
       </c>
       <c r="F340" s="3" t="n">
@@ -13065,7 +12984,7 @@
         <v>35811.45</v>
       </c>
       <c r="E341" s="5" t="n">
-        <v>30087.18</v>
+        <v>24069.75</v>
       </c>
       <c r="F341" s="3" t="n">
         <v>0</v>
@@ -13100,7 +13019,7 @@
         <v>9272128.39</v>
       </c>
       <c r="E342" s="5" t="n">
-        <v>2612962.69</v>
+        <v>2090370.16</v>
       </c>
       <c r="F342" s="3" t="n">
         <v>0</v>
@@ -13135,7 +13054,7 @@
         <v>0</v>
       </c>
       <c r="E343" s="5" t="n">
-        <v>2455562.35</v>
+        <v>1964449.88</v>
       </c>
       <c r="F343" s="3" t="n">
         <v>0</v>
@@ -13170,7 +13089,7 @@
         <v>103363.25</v>
       </c>
       <c r="E344" s="5" t="n">
-        <v>87158.76</v>
+        <v>70553.58</v>
       </c>
       <c r="F344" s="3" t="n">
         <v>0</v>
@@ -13236,11 +13155,11 @@
       <c r="C346" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D346" s="7" t="n">
+      <c r="D346" s="6" t="n">
         <v>48600</v>
       </c>
-      <c r="E346" s="7" t="n">
-        <v>32250</v>
+      <c r="E346" s="6" t="n">
+        <v>25800</v>
       </c>
       <c r="F346" s="3" t="n">
         <v>0</v>
@@ -13271,11 +13190,11 @@
       <c r="C347" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D347" s="7" t="n">
+      <c r="D347" s="6" t="n">
         <v>24320</v>
       </c>
-      <c r="E347" s="7" t="n">
-        <v>22300</v>
+      <c r="E347" s="6" t="n">
+        <v>22160</v>
       </c>
       <c r="F347" s="3" t="n">
         <v>0</v>
@@ -13341,11 +13260,11 @@
       <c r="C349" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D349" s="7" t="n">
+      <c r="D349" s="6" t="n">
         <v>604200</v>
       </c>
       <c r="E349" s="5" t="n">
-        <v>51929.98</v>
+        <v>-53806.69</v>
       </c>
       <c r="F349" s="3" t="n">
         <v>0</v>
@@ -13379,8 +13298,8 @@
       <c r="D350" s="5" t="n">
         <v>1408.78</v>
       </c>
-      <c r="E350" s="5" t="n">
-        <v>1183.59</v>
+      <c r="E350" s="7" t="n">
+        <v>946.86</v>
       </c>
       <c r="F350" s="3" t="n">
         <v>0</v>
@@ -13411,7 +13330,7 @@
       <c r="C351" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D351" s="6" t="n">
+      <c r="D351" s="8" t="n">
         <v>18000.6</v>
       </c>
       <c r="E351" s="3" t="n">
@@ -13450,7 +13369,7 @@
         <v>0</v>
       </c>
       <c r="E352" s="5" t="n">
-        <v>19038.51</v>
+        <v>15230.79</v>
       </c>
       <c r="F352" s="3" t="n">
         <v>0</v>
@@ -13519,8 +13438,8 @@
       <c r="D354" s="5" t="n">
         <v>766700.29</v>
       </c>
-      <c r="E354" s="7" t="n">
-        <v>831920</v>
+      <c r="E354" s="5" t="n">
+        <v>693266.67</v>
       </c>
       <c r="F354" s="3" t="n">
         <v>0</v>
@@ -13625,7 +13544,7 @@
         <v>0</v>
       </c>
       <c r="E357" s="5" t="n">
-        <v>52125.01</v>
+        <v>41700.02</v>
       </c>
       <c r="F357" s="3" t="n">
         <v>0</v>
@@ -13656,10 +13575,10 @@
       <c r="C358" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D358" s="7" t="n">
+      <c r="D358" s="6" t="n">
         <v>22500</v>
       </c>
-      <c r="E358" s="7" t="n">
+      <c r="E358" s="6" t="n">
         <v>15000</v>
       </c>
       <c r="F358" s="3" t="n">
@@ -13691,10 +13610,10 @@
       <c r="C359" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D359" s="7" t="n">
+      <c r="D359" s="6" t="n">
         <v>225000</v>
       </c>
-      <c r="E359" s="7" t="n">
+      <c r="E359" s="6" t="n">
         <v>225000</v>
       </c>
       <c r="F359" s="3" t="n">
@@ -13761,11 +13680,11 @@
       <c r="C361" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D361" s="6" t="n">
+      <c r="D361" s="8" t="n">
         <v>823666.5</v>
       </c>
-      <c r="E361" s="5" t="n">
-        <v>686388.75</v>
+      <c r="E361" s="6" t="n">
+        <v>549111</v>
       </c>
       <c r="F361" s="3" t="n">
         <v>0</v>
@@ -13800,7 +13719,7 @@
         <v>0</v>
       </c>
       <c r="E362" s="5" t="n">
-        <v>98333.33</v>
+        <v>78666.66</v>
       </c>
       <c r="F362" s="3" t="n">
         <v>0</v>
@@ -13834,8 +13753,8 @@
       <c r="D363" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="E363" s="7" t="n">
-        <v>25000</v>
+      <c r="E363" s="6" t="n">
+        <v>20000</v>
       </c>
       <c r="F363" s="3" t="n">
         <v>0</v>
@@ -13870,7 +13789,7 @@
         <v>0</v>
       </c>
       <c r="E364" s="5" t="n">
-        <v>10713.84</v>
+        <v>-7988.94</v>
       </c>
       <c r="F364" s="3" t="n">
         <v>0</v>
@@ -13904,7 +13823,7 @@
       <c r="D365" s="5" t="n">
         <v>105928.48</v>
       </c>
-      <c r="E365" s="6" t="n">
+      <c r="E365" s="8" t="n">
         <v>151326.4</v>
       </c>
       <c r="F365" s="3" t="n">
@@ -13936,10 +13855,10 @@
       <c r="C366" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D366" s="7" t="n">
+      <c r="D366" s="6" t="n">
         <v>18000</v>
       </c>
-      <c r="E366" s="7" t="n">
+      <c r="E366" s="6" t="n">
         <v>18000</v>
       </c>
       <c r="F366" s="3" t="n">
@@ -13971,10 +13890,10 @@
       <c r="C367" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D367" s="7" t="n">
+      <c r="D367" s="6" t="n">
         <v>25000</v>
       </c>
-      <c r="E367" s="7" t="n">
+      <c r="E367" s="6" t="n">
         <v>50000</v>
       </c>
       <c r="F367" s="3" t="n">
@@ -14041,7 +13960,7 @@
       <c r="C369" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D369" s="6" t="n">
+      <c r="D369" s="8" t="n">
         <v>64323445.1</v>
       </c>
       <c r="E369" s="3" t="n">
@@ -14080,7 +13999,7 @@
         <v>11511022.22</v>
       </c>
       <c r="E370" s="5" t="n">
-        <v>3503413.67</v>
+        <v>2919511.39</v>
       </c>
       <c r="F370" s="3" t="n">
         <v>0</v>
@@ -14114,8 +14033,8 @@
       <c r="D371" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="E371" s="6" t="n">
-        <v>3292374.1</v>
+      <c r="E371" s="5" t="n">
+        <v>2743645.08</v>
       </c>
       <c r="F371" s="3" t="n">
         <v>0</v>
@@ -14150,7 +14069,7 @@
         <v>5610280.42</v>
       </c>
       <c r="E372" s="5" t="n">
-        <v>6233644.91</v>
+        <v>5194704.09</v>
       </c>
       <c r="F372" s="3" t="n">
         <v>0</v>
@@ -14255,7 +14174,7 @@
         <v>0</v>
       </c>
       <c r="E375" s="5" t="n">
-        <v>542718.84</v>
+        <v>434175.07</v>
       </c>
       <c r="F375" s="3" t="n">
         <v>0</v>
@@ -14290,7 +14209,7 @@
         <v>1442182.21</v>
       </c>
       <c r="E376" s="5" t="n">
-        <v>1201818.51</v>
+        <v>961454.81</v>
       </c>
       <c r="F376" s="3" t="n">
         <v>0</v>
@@ -14325,7 +14244,7 @@
         <v>3186229.47</v>
       </c>
       <c r="E377" s="5" t="n">
-        <v>2655191.22</v>
+        <v>2124152.97</v>
       </c>
       <c r="F377" s="3" t="n">
         <v>0</v>
@@ -14391,11 +14310,11 @@
       <c r="C379" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D379" s="7" t="n">
+      <c r="D379" s="6" t="n">
         <v>150000</v>
       </c>
       <c r="E379" s="5" t="n">
-        <v>125000.01</v>
+        <v>100000.02</v>
       </c>
       <c r="F379" s="3" t="n">
         <v>0</v>
@@ -14426,11 +14345,11 @@
       <c r="C380" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D380" s="7" t="n">
+      <c r="D380" s="6" t="n">
         <v>122400</v>
       </c>
-      <c r="E380" s="7" t="n">
-        <v>102000</v>
+      <c r="E380" s="6" t="n">
+        <v>81600</v>
       </c>
       <c r="F380" s="3" t="n">
         <v>0</v>
@@ -14465,7 +14384,7 @@
         <v>0</v>
       </c>
       <c r="E381" s="5" t="n">
-        <v>2814.16</v>
+        <v>2251.33</v>
       </c>
       <c r="F381" s="3" t="n">
         <v>0</v>
@@ -14496,10 +14415,10 @@
       <c r="C382" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D382" s="7" t="n">
+      <c r="D382" s="6" t="n">
         <v>26600</v>
       </c>
-      <c r="E382" s="7" t="n">
+      <c r="E382" s="6" t="n">
         <v>19000</v>
       </c>
       <c r="F382" s="3" t="n">
@@ -14535,7 +14454,7 @@
         <v>0</v>
       </c>
       <c r="E383" s="5" t="n">
-        <v>3540254.96</v>
+        <v>2950212.47</v>
       </c>
       <c r="F383" s="3" t="n">
         <v>0</v>
@@ -14570,7 +14489,7 @@
         <v>0</v>
       </c>
       <c r="E384" s="5" t="n">
-        <v>1602424.67</v>
+        <v>1335353.89</v>
       </c>
       <c r="F384" s="3" t="n">
         <v>0</v>
@@ -14601,7 +14520,7 @@
       <c r="C385" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D385" s="7" t="n">
+      <c r="D385" s="6" t="n">
         <v>483366</v>
       </c>
       <c r="E385" s="3" t="n">
@@ -14640,7 +14559,7 @@
         <v>0</v>
       </c>
       <c r="E386" s="5" t="n">
-        <v>1884137.84</v>
+        <v>1570114.87</v>
       </c>
       <c r="F386" s="3" t="n">
         <v>0</v>
@@ -14675,7 +14594,7 @@
         <v>0</v>
       </c>
       <c r="E387" s="5" t="n">
-        <v>5822636.69</v>
+        <v>4852197.24</v>
       </c>
       <c r="F387" s="3" t="n">
         <v>0</v>
@@ -14706,7 +14625,7 @@
       <c r="C388" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D388" s="6" t="n">
+      <c r="D388" s="8" t="n">
         <v>1332837.1</v>
       </c>
       <c r="E388" s="3" t="n">
@@ -14779,8 +14698,8 @@
       <c r="D390" s="5" t="n">
         <v>8241625.33</v>
       </c>
-      <c r="E390" s="6" t="n">
-        <v>10589551.3</v>
+      <c r="E390" s="5" t="n">
+        <v>8824626.08</v>
       </c>
       <c r="F390" s="3" t="n">
         <v>0</v>
@@ -14811,10 +14730,10 @@
       <c r="C391" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D391" s="7" t="n">
+      <c r="D391" s="6" t="n">
         <v>200000</v>
       </c>
-      <c r="E391" s="7" t="n">
+      <c r="E391" s="6" t="n">
         <v>200000</v>
       </c>
       <c r="F391" s="3" t="n">
@@ -14850,7 +14769,7 @@
         <v>21107343.28</v>
       </c>
       <c r="E392" s="5" t="n">
-        <v>3971066.92</v>
+        <v>3309222.43</v>
       </c>
       <c r="F392" s="3" t="n">
         <v>0</v>
@@ -14885,7 +14804,7 @@
         <v>34089837.06</v>
       </c>
       <c r="E393" s="5" t="n">
-        <v>13188696.02</v>
+        <v>10990580.02</v>
       </c>
       <c r="F393" s="3" t="n">
         <v>0</v>
@@ -14916,11 +14835,11 @@
       <c r="C394" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D394" s="7" t="n">
+      <c r="D394" s="6" t="n">
         <v>4000000</v>
       </c>
       <c r="E394" s="5" t="n">
-        <v>11466580.67</v>
+        <v>9198523.54</v>
       </c>
       <c r="F394" s="3" t="n">
         <v>0</v>
@@ -14951,7 +14870,7 @@
       <c r="C395" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D395" s="7" t="n">
+      <c r="D395" s="6" t="n">
         <v>355420</v>
       </c>
       <c r="E395" s="3" t="n">
@@ -15021,7 +14940,7 @@
       <c r="C397" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D397" s="7" t="n">
+      <c r="D397" s="6" t="n">
         <v>16038</v>
       </c>
       <c r="E397" s="3" t="n">
@@ -15091,11 +15010,11 @@
       <c r="C399" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D399" s="7" t="n">
+      <c r="D399" s="6" t="n">
         <v>5000</v>
       </c>
       <c r="E399" s="5" t="n">
-        <v>8333.34</v>
+        <v>6666.68</v>
       </c>
       <c r="F399" s="3" t="n">
         <v>0</v>
@@ -15130,7 +15049,7 @@
         <v>0</v>
       </c>
       <c r="E400" s="5" t="n">
-        <v>4666.67</v>
+        <v>3733.34</v>
       </c>
       <c r="F400" s="3" t="n">
         <v>0</v>
@@ -15161,10 +15080,10 @@
       <c r="C401" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D401" s="7" t="n">
+      <c r="D401" s="6" t="n">
         <v>69000</v>
       </c>
-      <c r="E401" s="7" t="n">
+      <c r="E401" s="6" t="n">
         <v>69000</v>
       </c>
       <c r="F401" s="3" t="n">
@@ -15231,7 +15150,7 @@
       <c r="C403" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D403" s="7" t="n">
+      <c r="D403" s="6" t="n">
         <v>1145562</v>
       </c>
       <c r="E403" s="3" t="n">
@@ -15301,10 +15220,10 @@
       <c r="C405" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D405" s="7" t="n">
+      <c r="D405" s="6" t="n">
         <v>25830</v>
       </c>
-      <c r="E405" s="7" t="n">
+      <c r="E405" s="6" t="n">
         <v>25830</v>
       </c>
       <c r="F405" s="3" t="n">
@@ -15340,7 +15259,7 @@
         <v>0</v>
       </c>
       <c r="E406" s="5" t="n">
-        <v>987803.03</v>
+        <v>823169.19</v>
       </c>
       <c r="F406" s="3" t="n">
         <v>0</v>
@@ -15410,7 +15329,7 @@
         <v>0</v>
       </c>
       <c r="E408" s="5" t="n">
-        <v>4440450.85</v>
+        <v>3700375.71</v>
       </c>
       <c r="F408" s="3" t="n">
         <v>0</v>
@@ -15445,7 +15364,7 @@
         <v>0</v>
       </c>
       <c r="E409" s="5" t="n">
-        <v>2992269.44</v>
+        <v>2493557.87</v>
       </c>
       <c r="F409" s="3" t="n">
         <v>0</v>
@@ -15479,8 +15398,8 @@
       <c r="D410" s="5" t="n">
         <v>1589395.58</v>
       </c>
-      <c r="E410" s="6" t="n">
-        <v>2309577.4</v>
+      <c r="E410" s="5" t="n">
+        <v>1924647.83</v>
       </c>
       <c r="F410" s="3" t="n">
         <v>0</v>
@@ -15515,7 +15434,7 @@
         <v>11444973.18</v>
       </c>
       <c r="E411" s="5" t="n">
-        <v>21408405.23</v>
+        <v>17840337.69</v>
       </c>
       <c r="F411" s="3" t="n">
         <v>0</v>
@@ -15549,8 +15468,8 @@
       <c r="D412" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="E412" s="6" t="n">
-        <v>3964986.9</v>
+      <c r="E412" s="5" t="n">
+        <v>3304155.75</v>
       </c>
       <c r="F412" s="3" t="n">
         <v>0</v>
@@ -15585,7 +15504,7 @@
         <v>0</v>
       </c>
       <c r="E413" s="5" t="n">
-        <v>2147636.21</v>
+        <v>1789696.84</v>
       </c>
       <c r="F413" s="3" t="n">
         <v>0</v>
@@ -15620,7 +15539,7 @@
         <v>440934.86</v>
       </c>
       <c r="E414" s="5" t="n">
-        <v>236659.85</v>
+        <v>197216.54</v>
       </c>
       <c r="F414" s="3" t="n">
         <v>0</v>
@@ -15654,8 +15573,8 @@
       <c r="D415" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="E415" s="7" t="n">
-        <v>200000</v>
+      <c r="E415" s="5" t="n">
+        <v>166666.67</v>
       </c>
       <c r="F415" s="3" t="n">
         <v>0</v>
@@ -15721,10 +15640,10 @@
       <c r="C417" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D417" s="7" t="n">
+      <c r="D417" s="6" t="n">
         <v>24000</v>
       </c>
-      <c r="E417" s="7" t="n">
+      <c r="E417" s="6" t="n">
         <v>24000</v>
       </c>
       <c r="F417" s="3" t="n">
@@ -15756,10 +15675,10 @@
       <c r="C418" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D418" s="6" t="n">
+      <c r="D418" s="8" t="n">
         <v>8466.2</v>
       </c>
-      <c r="E418" s="7" t="n">
+      <c r="E418" s="6" t="n">
         <v>6027</v>
       </c>
       <c r="F418" s="3" t="n">
@@ -15791,11 +15710,11 @@
       <c r="C419" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D419" s="7" t="n">
+      <c r="D419" s="6" t="n">
         <v>30865</v>
       </c>
       <c r="E419" s="5" t="n">
-        <v>26354.17</v>
+        <v>21083.34</v>
       </c>
       <c r="F419" s="3" t="n">
         <v>0</v>
@@ -15865,7 +15784,7 @@
         <v>0</v>
       </c>
       <c r="E421" s="5" t="n">
-        <v>740852.27</v>
+        <v>592681.82</v>
       </c>
       <c r="F421" s="3" t="n">
         <v>0</v>
@@ -15899,8 +15818,8 @@
       <c r="D422" s="5" t="n">
         <v>69857677.62</v>
       </c>
-      <c r="E422" s="5" t="n">
-        <v>139891723.54</v>
+      <c r="E422" s="8" t="n">
+        <v>116570338.9</v>
       </c>
       <c r="F422" s="3" t="n">
         <v>0</v>
@@ -15935,7 +15854,7 @@
         <v>69241.13</v>
       </c>
       <c r="E423" s="5" t="n">
-        <v>122589.41</v>
+        <v>102157.84</v>
       </c>
       <c r="F423" s="3" t="n">
         <v>0</v>
@@ -16005,7 +15924,7 @@
         <v>0</v>
       </c>
       <c r="E425" s="5" t="n">
-        <v>949580.34</v>
+        <v>791316.95</v>
       </c>
       <c r="F425" s="3" t="n">
         <v>0</v>
@@ -16040,7 +15959,7 @@
         <v>0</v>
       </c>
       <c r="E426" s="5" t="n">
-        <v>723625.13</v>
+        <v>603020.94</v>
       </c>
       <c r="F426" s="3" t="n">
         <v>0</v>
@@ -16075,7 +15994,7 @@
         <v>0</v>
       </c>
       <c r="E427" s="5" t="n">
-        <v>1610727.16</v>
+        <v>1288581.73</v>
       </c>
       <c r="F427" s="3" t="n">
         <v>0</v>
@@ -16110,7 +16029,7 @@
         <v>0</v>
       </c>
       <c r="E428" s="5" t="n">
-        <v>2973740.18</v>
+        <v>2378992.14</v>
       </c>
       <c r="F428" s="3" t="n">
         <v>0</v>
@@ -16141,7 +16060,7 @@
       <c r="C429" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D429" s="6" t="n">
+      <c r="D429" s="8" t="n">
         <v>12203.4</v>
       </c>
       <c r="E429" s="3" t="n">
@@ -16180,7 +16099,7 @@
         <v>0</v>
       </c>
       <c r="E430" s="5" t="n">
-        <v>1732183.05</v>
+        <v>1385746.44</v>
       </c>
       <c r="F430" s="3" t="n">
         <v>0</v>
@@ -16211,11 +16130,11 @@
       <c r="C431" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D431" s="7" t="n">
+      <c r="D431" s="6" t="n">
         <v>119214</v>
       </c>
-      <c r="E431" s="7" t="n">
-        <v>66230</v>
+      <c r="E431" s="6" t="n">
+        <v>52984</v>
       </c>
       <c r="F431" s="3" t="n">
         <v>0</v>
@@ -16246,11 +16165,11 @@
       <c r="C432" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D432" s="7" t="n">
+      <c r="D432" s="6" t="n">
         <v>34776</v>
       </c>
-      <c r="E432" s="7" t="n">
-        <v>28980</v>
+      <c r="E432" s="6" t="n">
+        <v>23184</v>
       </c>
       <c r="F432" s="3" t="n">
         <v>0</v>
@@ -16316,10 +16235,10 @@
       <c r="C434" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D434" s="7" t="n">
+      <c r="D434" s="6" t="n">
         <v>198720</v>
       </c>
-      <c r="E434" s="7" t="n">
+      <c r="E434" s="6" t="n">
         <v>198720</v>
       </c>
       <c r="F434" s="3" t="n">
@@ -16354,8 +16273,8 @@
       <c r="D435" s="5" t="n">
         <v>2880.96</v>
       </c>
-      <c r="E435" s="6" t="n">
-        <v>1826.8</v>
+      <c r="E435" s="5" t="n">
+        <v>1461.44</v>
       </c>
       <c r="F435" s="3" t="n">
         <v>0</v>
@@ -16425,7 +16344,7 @@
         <v>16588.63</v>
       </c>
       <c r="E437" s="5" t="n">
-        <v>28217.95</v>
+        <v>22574.36</v>
       </c>
       <c r="F437" s="3" t="n">
         <v>0</v>
@@ -16460,7 +16379,7 @@
         <v>0</v>
       </c>
       <c r="E438" s="5" t="n">
-        <v>21892.71</v>
+        <v>17514.17</v>
       </c>
       <c r="F438" s="3" t="n">
         <v>0</v>
@@ -16495,7 +16414,7 @@
         <v>41160.79</v>
       </c>
       <c r="E439" s="5" t="n">
-        <v>38618.91</v>
+        <v>30895.13</v>
       </c>
       <c r="F439" s="3" t="n">
         <v>0</v>
@@ -16530,7 +16449,7 @@
         <v>1936.72</v>
       </c>
       <c r="E440" s="5" t="n">
-        <v>1616.69</v>
+        <v>1293.35</v>
       </c>
       <c r="F440" s="3" t="n">
         <v>0</v>
@@ -16561,7 +16480,7 @@
       <c r="C441" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D441" s="8" t="n">
+      <c r="D441" s="7" t="n">
         <v>99.29</v>
       </c>
       <c r="E441" s="3" t="n">
@@ -16596,10 +16515,10 @@
       <c r="C442" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D442" s="7" t="n">
+      <c r="D442" s="6" t="n">
         <v>16000</v>
       </c>
-      <c r="E442" s="7" t="n">
+      <c r="E442" s="6" t="n">
         <v>9600</v>
       </c>
       <c r="F442" s="3" t="n">
@@ -16634,8 +16553,8 @@
       <c r="D443" s="5" t="n">
         <v>1519110.96</v>
       </c>
-      <c r="E443" s="5" t="n">
-        <v>177494.88</v>
+      <c r="E443" s="8" t="n">
+        <v>141995.9</v>
       </c>
       <c r="F443" s="3" t="n">
         <v>0</v>
@@ -16666,11 +16585,11 @@
       <c r="C444" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D444" s="7" t="n">
+      <c r="D444" s="6" t="n">
         <v>15000</v>
       </c>
       <c r="E444" s="5" t="n">
-        <v>4166.67</v>
+        <v>3333.34</v>
       </c>
       <c r="F444" s="3" t="n">
         <v>0</v>
@@ -16705,7 +16624,7 @@
         <v>31364.77</v>
       </c>
       <c r="E445" s="5" t="n">
-        <v>99588.67</v>
+        <v>79670.94</v>
       </c>
       <c r="F445" s="3" t="n">
         <v>0</v>
@@ -16736,7 +16655,7 @@
       <c r="C446" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D446" s="6" t="n">
+      <c r="D446" s="8" t="n">
         <v>18790.2</v>
       </c>
       <c r="E446" s="3" t="n">
@@ -16774,8 +16693,8 @@
       <c r="D447" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="E447" s="7" t="n">
-        <v>153720</v>
+      <c r="E447" s="6" t="n">
+        <v>122976</v>
       </c>
       <c r="F447" s="3" t="n">
         <v>0</v>
@@ -16806,11 +16725,11 @@
       <c r="C448" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D448" s="7" t="n">
+      <c r="D448" s="6" t="n">
         <v>4890</v>
       </c>
       <c r="E448" s="5" t="n">
-        <v>4074.99</v>
+        <v>3259.98</v>
       </c>
       <c r="F448" s="3" t="n">
         <v>0</v>
@@ -16841,7 +16760,7 @@
       <c r="C449" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D449" s="6" t="n">
+      <c r="D449" s="8" t="n">
         <v>435029.4</v>
       </c>
       <c r="E449" s="3" t="n">
@@ -16880,7 +16799,7 @@
         <v>14163.47</v>
       </c>
       <c r="E450" s="5" t="n">
-        <v>708173.49</v>
+        <v>566538.79</v>
       </c>
       <c r="F450" s="3" t="n">
         <v>0</v>
@@ -16915,7 +16834,7 @@
         <v>11931.55</v>
       </c>
       <c r="E451" s="5" t="n">
-        <v>11254.68</v>
+        <v>9003.76</v>
       </c>
       <c r="F451" s="3" t="n">
         <v>0</v>
@@ -16950,7 +16869,7 @@
         <v>0</v>
       </c>
       <c r="E452" s="5" t="n">
-        <v>2244202.09</v>
+        <v>1795361.67</v>
       </c>
       <c r="F452" s="3" t="n">
         <v>0</v>
@@ -16985,7 +16904,7 @@
         <v>10010231.24</v>
       </c>
       <c r="E453" s="5" t="n">
-        <v>4366977.52</v>
+        <v>3493582.02</v>
       </c>
       <c r="F453" s="3" t="n">
         <v>0</v>
@@ -17016,7 +16935,7 @@
       <c r="C454" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D454" s="6" t="n">
+      <c r="D454" s="8" t="n">
         <v>31716240.7</v>
       </c>
       <c r="E454" s="3" t="n">
@@ -17195,7 +17114,7 @@
         <v>0</v>
       </c>
       <c r="E459" s="5" t="n">
-        <v>91942.05</v>
+        <v>73553.64</v>
       </c>
       <c r="F459" s="3" t="n">
         <v>0</v>
@@ -17265,7 +17184,7 @@
         <v>1746146.15</v>
       </c>
       <c r="E461" s="5" t="n">
-        <v>3330338.11</v>
+        <v>2944976.85</v>
       </c>
       <c r="F461" s="3" t="n">
         <v>0</v>
@@ -17300,7 +17219,7 @@
         <v>10300475.83</v>
       </c>
       <c r="E462" s="5" t="n">
-        <v>16056303.93</v>
+        <v>12845043.16</v>
       </c>
       <c r="F462" s="3" t="n">
         <v>0</v>
@@ -17370,7 +17289,7 @@
         <v>0</v>
       </c>
       <c r="E464" s="5" t="n">
-        <v>149999.99</v>
+        <v>119999.99</v>
       </c>
       <c r="F464" s="3" t="n">
         <v>0</v>
@@ -17405,7 +17324,7 @@
         <v>0</v>
       </c>
       <c r="E465" s="5" t="n">
-        <v>1454189.46</v>
+        <v>1196892.04</v>
       </c>
       <c r="F465" s="3" t="n">
         <v>0</v>
@@ -17440,7 +17359,7 @@
         <v>0</v>
       </c>
       <c r="E466" s="5" t="n">
-        <v>5174.86</v>
+        <v>4139.89</v>
       </c>
       <c r="F466" s="3" t="n">
         <v>0</v>
@@ -17510,7 +17429,7 @@
         <v>0</v>
       </c>
       <c r="E468" s="5" t="n">
-        <v>705063.41</v>
+        <v>564050.73</v>
       </c>
       <c r="F468" s="3" t="n">
         <v>0</v>
@@ -17545,7 +17464,7 @@
         <v>10776401.34</v>
       </c>
       <c r="E469" s="5" t="n">
-        <v>17812233.61</v>
+        <v>14843528.01</v>
       </c>
       <c r="F469" s="3" t="n">
         <v>0</v>
@@ -17576,11 +17495,11 @@
       <c r="C470" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D470" s="7" t="n">
+      <c r="D470" s="6" t="n">
         <v>5392</v>
       </c>
       <c r="E470" s="5" t="n">
-        <v>4493.33</v>
+        <v>3594.66</v>
       </c>
       <c r="F470" s="3" t="n">
         <v>0</v>
@@ -17751,11 +17670,11 @@
       <c r="C475" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D475" s="7" t="n">
+      <c r="D475" s="6" t="n">
         <v>16850</v>
       </c>
       <c r="E475" s="5" t="n">
-        <v>16358.33</v>
+        <v>15866.66</v>
       </c>
       <c r="F475" s="3" t="n">
         <v>0</v>
@@ -17790,7 +17709,7 @@
         <v>29672.76</v>
       </c>
       <c r="E476" s="5" t="n">
-        <v>18920.86</v>
+        <v>15136.69</v>
       </c>
       <c r="F476" s="3" t="n">
         <v>0</v>
@@ -17825,7 +17744,7 @@
         <v>248069.25</v>
       </c>
       <c r="E477" s="5" t="n">
-        <v>198118.72</v>
+        <v>158494.98</v>
       </c>
       <c r="F477" s="3" t="n">
         <v>0</v>
@@ -17860,7 +17779,7 @@
         <v>0</v>
       </c>
       <c r="E478" s="5" t="n">
-        <v>10789.34</v>
+        <v>8631.47</v>
       </c>
       <c r="F478" s="3" t="n">
         <v>0</v>
@@ -17891,7 +17810,7 @@
       <c r="C479" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D479" s="6" t="n">
+      <c r="D479" s="8" t="n">
         <v>17167.7</v>
       </c>
       <c r="E479" s="3" t="n">
@@ -17913,3961 +17832,6 @@
         <v>228</v>
       </c>
       <c r="K479" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="480" ht="11" customHeight="true">
-      <c r="A480" s="3" t="n">
-        <v>478</v>
-      </c>
-      <c r="B480" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C480" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D480" s="5" t="n">
-        <v>10754036.65</v>
-      </c>
-      <c r="E480" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F480" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G480" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H480" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I480" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="J480" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="K480" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="481" ht="11" customHeight="true">
-      <c r="A481" s="3" t="n">
-        <v>479</v>
-      </c>
-      <c r="B481" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C481" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D481" s="6" t="n">
-        <v>969002.6</v>
-      </c>
-      <c r="E481" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F481" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G481" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H481" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I481" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="J481" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="K481" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="482" ht="11" customHeight="true">
-      <c r="A482" s="3" t="n">
-        <v>480</v>
-      </c>
-      <c r="B482" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C482" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D482" s="5" t="n">
-        <v>844999.99</v>
-      </c>
-      <c r="E482" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F482" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G482" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H482" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I482" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="J482" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="K482" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="483" ht="11" customHeight="true">
-      <c r="A483" s="3" t="n">
-        <v>481</v>
-      </c>
-      <c r="B483" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C483" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D483" s="7" t="n">
-        <v>1328628</v>
-      </c>
-      <c r="E483" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F483" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G483" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H483" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I483" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="J483" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="K483" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="484" ht="11" customHeight="true">
-      <c r="A484" s="3" t="n">
-        <v>482</v>
-      </c>
-      <c r="B484" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C484" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D484" s="5" t="n">
-        <v>1034098.23</v>
-      </c>
-      <c r="E484" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F484" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G484" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H484" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I484" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="J484" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="K484" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="485" ht="11" customHeight="true">
-      <c r="A485" s="3" t="n">
-        <v>483</v>
-      </c>
-      <c r="B485" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C485" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D485" s="7" t="n">
-        <v>360240</v>
-      </c>
-      <c r="E485" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F485" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G485" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H485" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I485" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="J485" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="K485" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="486" ht="11" customHeight="true">
-      <c r="A486" s="3" t="n">
-        <v>484</v>
-      </c>
-      <c r="B486" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C486" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D486" s="7" t="n">
-        <v>14700</v>
-      </c>
-      <c r="E486" s="7" t="n">
-        <v>14700</v>
-      </c>
-      <c r="F486" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G486" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H486" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I486" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="J486" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="K486" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="487" ht="11" customHeight="true">
-      <c r="A487" s="3" t="n">
-        <v>485</v>
-      </c>
-      <c r="B487" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C487" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D487" s="7" t="n">
-        <v>3000</v>
-      </c>
-      <c r="E487" s="7" t="n">
-        <v>3000</v>
-      </c>
-      <c r="F487" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G487" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H487" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I487" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="J487" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="K487" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="488" ht="11" customHeight="true">
-      <c r="A488" s="3" t="n">
-        <v>486</v>
-      </c>
-      <c r="B488" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C488" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D488" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E488" s="7" t="n">
-        <v>300000</v>
-      </c>
-      <c r="F488" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G488" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H488" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I488" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="J488" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="K488" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="489" ht="11" customHeight="true">
-      <c r="A489" s="3" t="n">
-        <v>487</v>
-      </c>
-      <c r="B489" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C489" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D489" s="6" t="n">
-        <v>425517.5</v>
-      </c>
-      <c r="E489" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F489" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G489" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H489" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I489" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="J489" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="K489" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="490" ht="11" customHeight="true">
-      <c r="A490" s="3" t="n">
-        <v>488</v>
-      </c>
-      <c r="B490" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C490" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D490" s="7" t="n">
-        <v>42200</v>
-      </c>
-      <c r="E490" s="7" t="n">
-        <v>42200</v>
-      </c>
-      <c r="F490" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G490" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H490" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I490" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="J490" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="K490" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="491" ht="11" customHeight="true">
-      <c r="A491" s="3" t="n">
-        <v>489</v>
-      </c>
-      <c r="B491" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C491" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D491" s="7" t="n">
-        <v>1100000</v>
-      </c>
-      <c r="E491" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F491" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G491" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H491" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I491" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="J491" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="K491" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="492" ht="11" customHeight="true">
-      <c r="A492" s="3" t="n">
-        <v>490</v>
-      </c>
-      <c r="B492" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C492" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D492" s="5" t="n">
-        <v>32407.48</v>
-      </c>
-      <c r="E492" s="5" t="n">
-        <v>13133.04</v>
-      </c>
-      <c r="F492" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G492" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H492" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I492" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J492" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="K492" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="493" ht="11" customHeight="true">
-      <c r="A493" s="3" t="n">
-        <v>491</v>
-      </c>
-      <c r="B493" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C493" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D493" s="5" t="n">
-        <v>224820.13</v>
-      </c>
-      <c r="E493" s="5" t="n">
-        <v>93708.15</v>
-      </c>
-      <c r="F493" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G493" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H493" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I493" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J493" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="K493" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="494" ht="11" customHeight="true">
-      <c r="A494" s="3" t="n">
-        <v>492</v>
-      </c>
-      <c r="B494" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C494" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D494" s="5" t="n">
-        <v>195930.46</v>
-      </c>
-      <c r="E494" s="5" t="n">
-        <v>109821.08</v>
-      </c>
-      <c r="F494" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G494" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H494" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I494" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J494" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="K494" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="495" ht="11" customHeight="true">
-      <c r="A495" s="3" t="n">
-        <v>493</v>
-      </c>
-      <c r="B495" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C495" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D495" s="7" t="n">
-        <v>110700</v>
-      </c>
-      <c r="E495" s="7" t="n">
-        <v>10250</v>
-      </c>
-      <c r="F495" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G495" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H495" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I495" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J495" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="K495" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="496" ht="11" customHeight="true">
-      <c r="A496" s="3" t="n">
-        <v>494</v>
-      </c>
-      <c r="B496" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C496" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D496" s="5" t="n">
-        <v>257181.48</v>
-      </c>
-      <c r="E496" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F496" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G496" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H496" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I496" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J496" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="K496" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="497" ht="11" customHeight="true">
-      <c r="A497" s="3" t="n">
-        <v>495</v>
-      </c>
-      <c r="B497" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C497" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D497" s="5" t="n">
-        <v>8577535.95</v>
-      </c>
-      <c r="E497" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F497" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G497" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H497" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I497" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="J497" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="K497" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="498" ht="11" customHeight="true">
-      <c r="A498" s="3" t="n">
-        <v>496</v>
-      </c>
-      <c r="B498" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C498" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D498" s="5" t="n">
-        <v>170847.48</v>
-      </c>
-      <c r="E498" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F498" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G498" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H498" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I498" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="J498" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="K498" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="499" ht="11" customHeight="true">
-      <c r="A499" s="3" t="n">
-        <v>497</v>
-      </c>
-      <c r="B499" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C499" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D499" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E499" s="7" t="n">
-        <v>400000</v>
-      </c>
-      <c r="F499" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G499" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H499" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I499" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="J499" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="K499" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="500" ht="11" customHeight="true">
-      <c r="A500" s="3" t="n">
-        <v>498</v>
-      </c>
-      <c r="B500" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C500" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D500" s="7" t="n">
-        <v>5000</v>
-      </c>
-      <c r="E500" s="7" t="n">
-        <v>5000</v>
-      </c>
-      <c r="F500" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G500" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H500" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I500" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="J500" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="K500" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="501" ht="11" customHeight="true">
-      <c r="A501" s="3" t="n">
-        <v>499</v>
-      </c>
-      <c r="B501" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C501" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D501" s="7" t="n">
-        <v>3450000</v>
-      </c>
-      <c r="E501" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F501" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G501" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H501" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I501" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="J501" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="K501" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="502" ht="11" customHeight="true">
-      <c r="A502" s="3" t="n">
-        <v>500</v>
-      </c>
-      <c r="B502" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C502" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D502" s="5" t="n">
-        <v>20613446.16</v>
-      </c>
-      <c r="E502" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F502" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G502" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H502" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I502" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="J502" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="K502" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="503" ht="11" customHeight="true">
-      <c r="A503" s="3" t="n">
-        <v>501</v>
-      </c>
-      <c r="B503" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C503" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D503" s="6" t="n">
-        <v>12791.5</v>
-      </c>
-      <c r="E503" s="6" t="n">
-        <v>12791.5</v>
-      </c>
-      <c r="F503" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G503" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H503" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I503" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="J503" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="K503" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="504" ht="11" customHeight="true">
-      <c r="A504" s="3" t="n">
-        <v>502</v>
-      </c>
-      <c r="B504" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C504" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D504" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E504" s="5" t="n">
-        <v>6213.33</v>
-      </c>
-      <c r="F504" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G504" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H504" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I504" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="J504" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="K504" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="505" ht="11" customHeight="true">
-      <c r="A505" s="3" t="n">
-        <v>503</v>
-      </c>
-      <c r="B505" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C505" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D505" s="7" t="n">
-        <v>72000</v>
-      </c>
-      <c r="E505" s="7" t="n">
-        <v>72000</v>
-      </c>
-      <c r="F505" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G505" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H505" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I505" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="J505" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="K505" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="506" ht="11" customHeight="true">
-      <c r="A506" s="3" t="n">
-        <v>504</v>
-      </c>
-      <c r="B506" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C506" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D506" s="7" t="n">
-        <v>17180000</v>
-      </c>
-      <c r="E506" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F506" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G506" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H506" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I506" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="J506" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="K506" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="507" ht="11" customHeight="true">
-      <c r="A507" s="3" t="n">
-        <v>505</v>
-      </c>
-      <c r="B507" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C507" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D507" s="5" t="n">
-        <v>3842916.08</v>
-      </c>
-      <c r="E507" s="5" t="n">
-        <v>2568110.72</v>
-      </c>
-      <c r="F507" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G507" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H507" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I507" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="J507" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="K507" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="508" ht="11" customHeight="true">
-      <c r="A508" s="3" t="n">
-        <v>506</v>
-      </c>
-      <c r="B508" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C508" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D508" s="7" t="n">
-        <v>560000</v>
-      </c>
-      <c r="E508" s="7" t="n">
-        <v>560000</v>
-      </c>
-      <c r="F508" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G508" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H508" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I508" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="J508" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="K508" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="509" ht="11" customHeight="true">
-      <c r="A509" s="3" t="n">
-        <v>507</v>
-      </c>
-      <c r="B509" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C509" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D509" s="7" t="n">
-        <v>560000</v>
-      </c>
-      <c r="E509" s="7" t="n">
-        <v>560000</v>
-      </c>
-      <c r="F509" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G509" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H509" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I509" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="J509" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="K509" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="510" ht="11" customHeight="true">
-      <c r="A510" s="3" t="n">
-        <v>508</v>
-      </c>
-      <c r="B510" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C510" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D510" s="7" t="n">
-        <v>520000</v>
-      </c>
-      <c r="E510" s="7" t="n">
-        <v>520000</v>
-      </c>
-      <c r="F510" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G510" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H510" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I510" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="J510" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="K510" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="511" ht="11" customHeight="true">
-      <c r="A511" s="3" t="n">
-        <v>509</v>
-      </c>
-      <c r="B511" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C511" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D511" s="7" t="n">
-        <v>560000</v>
-      </c>
-      <c r="E511" s="7" t="n">
-        <v>560000</v>
-      </c>
-      <c r="F511" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G511" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H511" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I511" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="J511" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="K511" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="512" ht="11" customHeight="true">
-      <c r="A512" s="3" t="n">
-        <v>510</v>
-      </c>
-      <c r="B512" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C512" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D512" s="5" t="n">
-        <v>36104.61</v>
-      </c>
-      <c r="E512" s="5" t="n">
-        <v>20058.12</v>
-      </c>
-      <c r="F512" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G512" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H512" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I512" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="J512" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="K512" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="513" ht="11" customHeight="true">
-      <c r="A513" s="3" t="n">
-        <v>511</v>
-      </c>
-      <c r="B513" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C513" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D513" s="5" t="n">
-        <v>2821999.69</v>
-      </c>
-      <c r="E513" s="5" t="n">
-        <v>2989313.62</v>
-      </c>
-      <c r="F513" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G513" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H513" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I513" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="J513" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="K513" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="514" ht="11" customHeight="true">
-      <c r="A514" s="3" t="n">
-        <v>512</v>
-      </c>
-      <c r="B514" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C514" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D514" s="7" t="n">
-        <v>1600000</v>
-      </c>
-      <c r="E514" s="5" t="n">
-        <v>6754841.48</v>
-      </c>
-      <c r="F514" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G514" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H514" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I514" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="J514" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="K514" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="515" ht="11" customHeight="true">
-      <c r="A515" s="3" t="n">
-        <v>513</v>
-      </c>
-      <c r="B515" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C515" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D515" s="5" t="n">
-        <v>103763.94</v>
-      </c>
-      <c r="E515" s="5" t="n">
-        <v>58222.59</v>
-      </c>
-      <c r="F515" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G515" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H515" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I515" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="J515" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="K515" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="516" ht="11" customHeight="true">
-      <c r="A516" s="3" t="n">
-        <v>514</v>
-      </c>
-      <c r="B516" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C516" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D516" s="5" t="n">
-        <v>261765.92</v>
-      </c>
-      <c r="E516" s="5" t="n">
-        <v>63051.45</v>
-      </c>
-      <c r="F516" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G516" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H516" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I516" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="J516" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="K516" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="517" ht="11" customHeight="true">
-      <c r="A517" s="3" t="n">
-        <v>515</v>
-      </c>
-      <c r="B517" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C517" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D517" s="5" t="n">
-        <v>46216.32</v>
-      </c>
-      <c r="E517" s="5" t="n">
-        <v>30810.88</v>
-      </c>
-      <c r="F517" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G517" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H517" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I517" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="J517" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="K517" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="518" ht="11" customHeight="true">
-      <c r="A518" s="3" t="n">
-        <v>516</v>
-      </c>
-      <c r="B518" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C518" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D518" s="7" t="n">
-        <v>28800</v>
-      </c>
-      <c r="E518" s="7" t="n">
-        <v>16500</v>
-      </c>
-      <c r="F518" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G518" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H518" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I518" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="J518" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="K518" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="519" ht="11" customHeight="true">
-      <c r="A519" s="3" t="n">
-        <v>517</v>
-      </c>
-      <c r="B519" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C519" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D519" s="7" t="n">
-        <v>7320</v>
-      </c>
-      <c r="E519" s="7" t="n">
-        <v>7300</v>
-      </c>
-      <c r="F519" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G519" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H519" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I519" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="J519" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="K519" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="520" ht="11" customHeight="true">
-      <c r="A520" s="3" t="n">
-        <v>518</v>
-      </c>
-      <c r="B520" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C520" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D520" s="5" t="n">
-        <v>6573.54</v>
-      </c>
-      <c r="E520" s="5" t="n">
-        <v>6573.54</v>
-      </c>
-      <c r="F520" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G520" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H520" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I520" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="J520" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="K520" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="521" ht="11" customHeight="true">
-      <c r="A521" s="3" t="n">
-        <v>519</v>
-      </c>
-      <c r="B521" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C521" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D521" s="7" t="n">
-        <v>600000</v>
-      </c>
-      <c r="E521" s="5" t="n">
-        <v>32223.32</v>
-      </c>
-      <c r="F521" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G521" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H521" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I521" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="J521" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="K521" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="522" ht="11" customHeight="true">
-      <c r="A522" s="3" t="n">
-        <v>520</v>
-      </c>
-      <c r="B522" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C522" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D522" s="5" t="n">
-        <v>1420.32</v>
-      </c>
-      <c r="E522" s="8" t="n">
-        <v>789.06</v>
-      </c>
-      <c r="F522" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G522" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H522" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I522" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="J522" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="K522" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="523" ht="11" customHeight="true">
-      <c r="A523" s="3" t="n">
-        <v>521</v>
-      </c>
-      <c r="B523" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C523" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D523" s="5" t="n">
-        <v>10525.81</v>
-      </c>
-      <c r="E523" s="5" t="n">
-        <v>4001.71</v>
-      </c>
-      <c r="F523" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G523" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H523" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I523" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="J523" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="K523" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="524" ht="11" customHeight="true">
-      <c r="A524" s="3" t="n">
-        <v>522</v>
-      </c>
-      <c r="B524" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C524" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D524" s="5" t="n">
-        <v>65219.71</v>
-      </c>
-      <c r="E524" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F524" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G524" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H524" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I524" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="J524" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="K524" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="525" ht="11" customHeight="true">
-      <c r="A525" s="3" t="n">
-        <v>523</v>
-      </c>
-      <c r="B525" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C525" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D525" s="7" t="n">
-        <v>3000000</v>
-      </c>
-      <c r="E525" s="5" t="n">
-        <v>18810576.44</v>
-      </c>
-      <c r="F525" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G525" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H525" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I525" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="J525" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="K525" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="526" ht="11" customHeight="true">
-      <c r="A526" s="3" t="n">
-        <v>524</v>
-      </c>
-      <c r="B526" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C526" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D526" s="7" t="n">
-        <v>9500</v>
-      </c>
-      <c r="E526" s="5" t="n">
-        <v>9183.33</v>
-      </c>
-      <c r="F526" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G526" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H526" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I526" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="J526" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="K526" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="527" ht="11" customHeight="true">
-      <c r="A527" s="3" t="n">
-        <v>525</v>
-      </c>
-      <c r="B527" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C527" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D527" s="7" t="n">
-        <v>15000</v>
-      </c>
-      <c r="E527" s="7" t="n">
-        <v>22500</v>
-      </c>
-      <c r="F527" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G527" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H527" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I527" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="J527" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="K527" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="528" ht="11" customHeight="true">
-      <c r="A528" s="3" t="n">
-        <v>526</v>
-      </c>
-      <c r="B528" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C528" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D528" s="7" t="n">
-        <v>150000</v>
-      </c>
-      <c r="E528" s="7" t="n">
-        <v>75000</v>
-      </c>
-      <c r="F528" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G528" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H528" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I528" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="J528" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="K528" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="529" ht="11" customHeight="true">
-      <c r="A529" s="3" t="n">
-        <v>527</v>
-      </c>
-      <c r="B529" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C529" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D529" s="7" t="n">
-        <v>30000</v>
-      </c>
-      <c r="E529" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F529" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G529" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H529" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I529" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="J529" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="K529" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="530" ht="11" customHeight="true">
-      <c r="A530" s="3" t="n">
-        <v>528</v>
-      </c>
-      <c r="B530" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C530" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D530" s="7" t="n">
-        <v>32775</v>
-      </c>
-      <c r="E530" s="6" t="n">
-        <v>31682.5</v>
-      </c>
-      <c r="F530" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G530" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H530" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I530" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="J530" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="K530" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="531" ht="11" customHeight="true">
-      <c r="A531" s="3" t="n">
-        <v>529</v>
-      </c>
-      <c r="B531" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C531" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D531" s="7" t="n">
-        <v>613080</v>
-      </c>
-      <c r="E531" s="7" t="n">
-        <v>510900</v>
-      </c>
-      <c r="F531" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G531" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H531" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I531" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="J531" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="K531" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="532" ht="11" customHeight="true">
-      <c r="A532" s="3" t="n">
-        <v>530</v>
-      </c>
-      <c r="B532" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C532" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D532" s="7" t="n">
-        <v>6000</v>
-      </c>
-      <c r="E532" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F532" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G532" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H532" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I532" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="J532" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="K532" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="533" ht="11" customHeight="true">
-      <c r="A533" s="3" t="n">
-        <v>531</v>
-      </c>
-      <c r="B533" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C533" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D533" s="7" t="n">
-        <v>25000</v>
-      </c>
-      <c r="E533" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F533" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G533" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H533" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I533" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="J533" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="K533" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="534" ht="11" customHeight="true">
-      <c r="A534" s="3" t="n">
-        <v>532</v>
-      </c>
-      <c r="B534" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C534" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D534" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E534" s="5" t="n">
-        <v>62692056.55</v>
-      </c>
-      <c r="F534" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G534" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H534" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I534" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="J534" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="K534" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="535" ht="11" customHeight="true">
-      <c r="A535" s="3" t="n">
-        <v>533</v>
-      </c>
-      <c r="B535" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C535" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D535" s="5" t="n">
-        <v>4008018.26</v>
-      </c>
-      <c r="E535" s="5" t="n">
-        <v>4008018.26</v>
-      </c>
-      <c r="F535" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G535" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H535" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I535" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="J535" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="K535" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="536" ht="11" customHeight="true">
-      <c r="A536" s="3" t="n">
-        <v>534</v>
-      </c>
-      <c r="B536" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C536" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D536" s="5" t="n">
-        <v>9056770.69</v>
-      </c>
-      <c r="E536" s="5" t="n">
-        <v>9056770.69</v>
-      </c>
-      <c r="F536" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G536" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H536" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I536" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="J536" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="K536" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="537" ht="11" customHeight="true">
-      <c r="A537" s="3" t="n">
-        <v>535</v>
-      </c>
-      <c r="B537" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C537" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D537" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E537" s="6" t="n">
-        <v>3347240.3</v>
-      </c>
-      <c r="F537" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G537" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H537" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I537" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="J537" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="K537" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="538" ht="11" customHeight="true">
-      <c r="A538" s="3" t="n">
-        <v>536</v>
-      </c>
-      <c r="B538" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C538" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D538" s="5" t="n">
-        <v>695928.31</v>
-      </c>
-      <c r="E538" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F538" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G538" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H538" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I538" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="J538" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="K538" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="539" ht="11" customHeight="true">
-      <c r="A539" s="3" t="n">
-        <v>537</v>
-      </c>
-      <c r="B539" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C539" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D539" s="5" t="n">
-        <v>651262.61</v>
-      </c>
-      <c r="E539" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F539" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G539" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H539" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I539" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="J539" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="K539" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="540" ht="11" customHeight="true">
-      <c r="A540" s="3" t="n">
-        <v>538</v>
-      </c>
-      <c r="B540" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C540" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D540" s="5" t="n">
-        <v>27811.61</v>
-      </c>
-      <c r="E540" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F540" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G540" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H540" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I540" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="J540" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="K540" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="541" ht="11" customHeight="true">
-      <c r="A541" s="3" t="n">
-        <v>539</v>
-      </c>
-      <c r="B541" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C541" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D541" s="7" t="n">
-        <v>100000</v>
-      </c>
-      <c r="E541" s="5" t="n">
-        <v>83333.34</v>
-      </c>
-      <c r="F541" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G541" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H541" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I541" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="J541" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="K541" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="542" ht="11" customHeight="true">
-      <c r="A542" s="3" t="n">
-        <v>540</v>
-      </c>
-      <c r="B542" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C542" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D542" s="7" t="n">
-        <v>81600</v>
-      </c>
-      <c r="E542" s="7" t="n">
-        <v>34000</v>
-      </c>
-      <c r="F542" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G542" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H542" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I542" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="J542" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="K542" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="543" ht="11" customHeight="true">
-      <c r="A543" s="3" t="n">
-        <v>541</v>
-      </c>
-      <c r="B543" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C543" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D543" s="6" t="n">
-        <v>50288.4</v>
-      </c>
-      <c r="E543" s="5" t="n">
-        <v>86951.42</v>
-      </c>
-      <c r="F543" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G543" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H543" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I543" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="J543" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="K543" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="544" ht="11" customHeight="true">
-      <c r="A544" s="3" t="n">
-        <v>542</v>
-      </c>
-      <c r="B544" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C544" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D544" s="7" t="n">
-        <v>19000</v>
-      </c>
-      <c r="E544" s="7" t="n">
-        <v>13300</v>
-      </c>
-      <c r="F544" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G544" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H544" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I544" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="J544" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="K544" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="545" ht="11" customHeight="true">
-      <c r="A545" s="3" t="n">
-        <v>543</v>
-      </c>
-      <c r="B545" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C545" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D545" s="6" t="n">
-        <v>20654.4</v>
-      </c>
-      <c r="E545" s="5" t="n">
-        <v>17211.99</v>
-      </c>
-      <c r="F545" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G545" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H545" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I545" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="J545" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="K545" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="546" ht="11" customHeight="true">
-      <c r="A546" s="3" t="n">
-        <v>544</v>
-      </c>
-      <c r="B546" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C546" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D546" s="6" t="n">
-        <v>13769.6</v>
-      </c>
-      <c r="E546" s="5" t="n">
-        <v>11474.66</v>
-      </c>
-      <c r="F546" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G546" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H546" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I546" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="J546" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="K546" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="547" ht="11" customHeight="true">
-      <c r="A547" s="3" t="n">
-        <v>545</v>
-      </c>
-      <c r="B547" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C547" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D547" s="5" t="n">
-        <v>1529716.05</v>
-      </c>
-      <c r="E547" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F547" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G547" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H547" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I547" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="J547" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="K547" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="548" ht="11" customHeight="true">
-      <c r="A548" s="3" t="n">
-        <v>546</v>
-      </c>
-      <c r="B548" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C548" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D548" s="6" t="n">
-        <v>199077.5</v>
-      </c>
-      <c r="E548" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F548" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G548" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H548" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I548" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="J548" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="K548" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="549" ht="11" customHeight="true">
-      <c r="A549" s="3" t="n">
-        <v>547</v>
-      </c>
-      <c r="B549" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C549" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D549" s="5" t="n">
-        <v>2640510.62</v>
-      </c>
-      <c r="E549" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F549" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G549" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H549" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I549" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="J549" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="K549" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="550" ht="11" customHeight="true">
-      <c r="A550" s="3" t="n">
-        <v>548</v>
-      </c>
-      <c r="B550" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C550" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D550" s="5" t="n">
-        <v>1786980.11</v>
-      </c>
-      <c r="E550" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F550" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G550" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H550" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I550" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="J550" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="K550" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="551" ht="11" customHeight="true">
-      <c r="A551" s="3" t="n">
-        <v>549</v>
-      </c>
-      <c r="B551" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C551" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D551" s="5" t="n">
-        <v>22558661.83</v>
-      </c>
-      <c r="E551" s="5" t="n">
-        <v>43844848.03</v>
-      </c>
-      <c r="F551" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G551" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H551" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I551" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="J551" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="K551" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="552" ht="11" customHeight="true">
-      <c r="A552" s="3" t="n">
-        <v>550</v>
-      </c>
-      <c r="B552" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C552" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D552" s="5" t="n">
-        <v>16418756.47</v>
-      </c>
-      <c r="E552" s="5" t="n">
-        <v>1149890.69</v>
-      </c>
-      <c r="F552" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G552" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H552" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I552" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="J552" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="K552" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="553" ht="11" customHeight="true">
-      <c r="A553" s="3" t="n">
-        <v>551</v>
-      </c>
-      <c r="B553" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C553" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D553" s="5" t="n">
-        <v>303217.92</v>
-      </c>
-      <c r="E553" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F553" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G553" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H553" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I553" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="J553" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="K553" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="554" ht="11" customHeight="true">
-      <c r="A554" s="3" t="n">
-        <v>552</v>
-      </c>
-      <c r="B554" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C554" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D554" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E554" s="5" t="n">
-        <v>395262.44</v>
-      </c>
-      <c r="F554" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G554" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H554" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I554" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="J554" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="K554" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="555" ht="11" customHeight="true">
-      <c r="A555" s="3" t="n">
-        <v>553</v>
-      </c>
-      <c r="B555" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C555" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D555" s="7" t="n">
-        <v>10000</v>
-      </c>
-      <c r="E555" s="5" t="n">
-        <v>4166.67</v>
-      </c>
-      <c r="F555" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G555" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H555" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I555" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="J555" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="K555" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="556" ht="11" customHeight="true">
-      <c r="A556" s="3" t="n">
-        <v>554</v>
-      </c>
-      <c r="B556" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C556" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D556" s="6" t="n">
-        <v>535786.9</v>
-      </c>
-      <c r="E556" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F556" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G556" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H556" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I556" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="J556" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="K556" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="557" ht="11" customHeight="true">
-      <c r="A557" s="3" t="n">
-        <v>555</v>
-      </c>
-      <c r="B557" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C557" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D557" s="7" t="n">
-        <v>11200</v>
-      </c>
-      <c r="E557" s="5" t="n">
-        <v>4666.67</v>
-      </c>
-      <c r="F557" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G557" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H557" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I557" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="J557" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="K557" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="558" ht="11" customHeight="true">
-      <c r="A558" s="3" t="n">
-        <v>556</v>
-      </c>
-      <c r="B558" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C558" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D558" s="5" t="n">
-        <v>537111.13</v>
-      </c>
-      <c r="E558" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F558" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G558" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H558" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I558" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="J558" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="K558" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="559" ht="11" customHeight="true">
-      <c r="A559" s="3" t="n">
-        <v>557</v>
-      </c>
-      <c r="B559" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C559" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D559" s="7" t="n">
-        <v>2800000</v>
-      </c>
-      <c r="E559" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F559" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G559" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H559" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I559" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="J559" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="K559" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="560" ht="11" customHeight="true">
-      <c r="A560" s="3" t="n">
-        <v>558</v>
-      </c>
-      <c r="B560" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C560" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D560" s="5" t="n">
-        <v>27717.54</v>
-      </c>
-      <c r="E560" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F560" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G560" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H560" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I560" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="J560" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="K560" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="561" ht="11" customHeight="true">
-      <c r="A561" s="3" t="n">
-        <v>559</v>
-      </c>
-      <c r="B561" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C561" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D561" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E561" s="5" t="n">
-        <v>-1175811.32</v>
-      </c>
-      <c r="F561" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G561" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H561" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I561" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="J561" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="K561" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="562" ht="11" customHeight="true">
-      <c r="A562" s="3" t="n">
-        <v>560</v>
-      </c>
-      <c r="B562" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C562" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D562" s="7" t="n">
-        <v>16000</v>
-      </c>
-      <c r="E562" s="7" t="n">
-        <v>8000</v>
-      </c>
-      <c r="F562" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G562" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H562" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I562" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="J562" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="K562" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="563" ht="11" customHeight="true">
-      <c r="A563" s="3" t="n">
-        <v>561</v>
-      </c>
-      <c r="B563" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C563" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D563" s="7" t="n">
-        <v>14021</v>
-      </c>
-      <c r="E563" s="6" t="n">
-        <v>6877.5</v>
-      </c>
-      <c r="F563" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G563" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H563" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I563" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="J563" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="K563" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="564" ht="11" customHeight="true">
-      <c r="A564" s="3" t="n">
-        <v>562</v>
-      </c>
-      <c r="B564" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C564" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D564" s="5" t="n">
-        <v>800120.44</v>
-      </c>
-      <c r="E564" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F564" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G564" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H564" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I564" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="J564" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="K564" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="565" ht="11" customHeight="true">
-      <c r="A565" s="3" t="n">
-        <v>563</v>
-      </c>
-      <c r="B565" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C565" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D565" s="5" t="n">
-        <v>15299.54</v>
-      </c>
-      <c r="E565" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F565" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G565" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H565" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I565" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="J565" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="K565" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="566" ht="11" customHeight="true">
-      <c r="A566" s="3" t="n">
-        <v>564</v>
-      </c>
-      <c r="B566" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C566" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D566" s="7" t="n">
-        <v>50000000</v>
-      </c>
-      <c r="E566" s="5" t="n">
-        <v>45068023.13</v>
-      </c>
-      <c r="F566" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G566" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H566" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I566" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="J566" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="K566" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="567" ht="11" customHeight="true">
-      <c r="A567" s="3" t="n">
-        <v>565</v>
-      </c>
-      <c r="B567" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C567" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D567" s="7" t="n">
-        <v>500000</v>
-      </c>
-      <c r="E567" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F567" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G567" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H567" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I567" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="J567" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="K567" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="568" ht="11" customHeight="true">
-      <c r="A568" s="3" t="n">
-        <v>566</v>
-      </c>
-      <c r="B568" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C568" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D568" s="6" t="n">
-        <v>12203.4</v>
-      </c>
-      <c r="E568" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F568" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G568" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H568" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I568" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="J568" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="K568" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="569" ht="11" customHeight="true">
-      <c r="A569" s="3" t="n">
-        <v>567</v>
-      </c>
-      <c r="B569" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C569" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D569" s="7" t="n">
-        <v>119214</v>
-      </c>
-      <c r="E569" s="7" t="n">
-        <v>99345</v>
-      </c>
-      <c r="F569" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G569" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H569" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I569" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="J569" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="K569" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="570" ht="11" customHeight="true">
-      <c r="A570" s="3" t="n">
-        <v>568</v>
-      </c>
-      <c r="B570" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C570" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D570" s="7" t="n">
-        <v>34776</v>
-      </c>
-      <c r="E570" s="7" t="n">
-        <v>19320</v>
-      </c>
-      <c r="F570" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G570" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H570" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I570" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="J570" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="K570" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="571" ht="11" customHeight="true">
-      <c r="A571" s="3" t="n">
-        <v>569</v>
-      </c>
-      <c r="B571" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C571" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D571" s="5" t="n">
-        <v>219661.02</v>
-      </c>
-      <c r="E571" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F571" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G571" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H571" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I571" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="J571" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="K571" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="572" ht="11" customHeight="true">
-      <c r="A572" s="3" t="n">
-        <v>570</v>
-      </c>
-      <c r="B572" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C572" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D572" s="6" t="n">
-        <v>81684.6</v>
-      </c>
-      <c r="E572" s="6" t="n">
-        <v>68070.5</v>
-      </c>
-      <c r="F572" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G572" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H572" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I572" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="J572" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="K572" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="573" ht="11" customHeight="true">
-      <c r="A573" s="3" t="n">
-        <v>571</v>
-      </c>
-      <c r="B573" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C573" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D573" s="7" t="n">
-        <v>131760</v>
-      </c>
-      <c r="E573" s="7" t="n">
-        <v>131760</v>
-      </c>
-      <c r="F573" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G573" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H573" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I573" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="J573" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="K573" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="574" ht="11" customHeight="true">
-      <c r="A574" s="3" t="n">
-        <v>572</v>
-      </c>
-      <c r="B574" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C574" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D574" s="6" t="n">
-        <v>2203.2</v>
-      </c>
-      <c r="E574" s="7" t="n">
-        <v>1224</v>
-      </c>
-      <c r="F574" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G574" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H574" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I574" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="J574" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="K574" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="575" ht="11" customHeight="true">
-      <c r="A575" s="3" t="n">
-        <v>573</v>
-      </c>
-      <c r="B575" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C575" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D575" s="5" t="n">
-        <v>9065.42</v>
-      </c>
-      <c r="E575" s="5" t="n">
-        <v>10792.17</v>
-      </c>
-      <c r="F575" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G575" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H575" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I575" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="J575" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="K575" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="576" ht="11" customHeight="true">
-      <c r="A576" s="3" t="n">
-        <v>574</v>
-      </c>
-      <c r="B576" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C576" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D576" s="5" t="n">
-        <v>52828.14</v>
-      </c>
-      <c r="E576" s="5" t="n">
-        <v>20257.47</v>
-      </c>
-      <c r="F576" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G576" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H576" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I576" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="J576" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="K576" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="577" ht="11" customHeight="true">
-      <c r="A577" s="3" t="n">
-        <v>575</v>
-      </c>
-      <c r="B577" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C577" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D577" s="5" t="n">
-        <v>1954.54</v>
-      </c>
-      <c r="E577" s="5" t="n">
-        <v>1095.93</v>
-      </c>
-      <c r="F577" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G577" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H577" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I577" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="J577" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="K577" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="578" ht="11" customHeight="true">
-      <c r="A578" s="3" t="n">
-        <v>576</v>
-      </c>
-      <c r="B578" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C578" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D578" s="7" t="n">
-        <v>6400</v>
-      </c>
-      <c r="E578" s="7" t="n">
-        <v>6400</v>
-      </c>
-      <c r="F578" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G578" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H578" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I578" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="J578" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="K578" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="579" ht="11" customHeight="true">
-      <c r="A579" s="3" t="n">
-        <v>577</v>
-      </c>
-      <c r="B579" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C579" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D579" s="5" t="n">
-        <v>274431.82</v>
-      </c>
-      <c r="E579" s="5" t="n">
-        <v>88028.29</v>
-      </c>
-      <c r="F579" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G579" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H579" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I579" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="J579" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="K579" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="580" ht="11" customHeight="true">
-      <c r="A580" s="3" t="n">
-        <v>578</v>
-      </c>
-      <c r="B580" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C580" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D580" s="6" t="n">
-        <v>13665.6</v>
-      </c>
-      <c r="E580" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F580" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G580" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H580" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I580" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="J580" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="K580" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="581" ht="11" customHeight="true">
-      <c r="A581" s="3" t="n">
-        <v>579</v>
-      </c>
-      <c r="B581" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C581" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D581" s="7" t="n">
-        <v>4890</v>
-      </c>
-      <c r="E581" s="5" t="n">
-        <v>2716.66</v>
-      </c>
-      <c r="F581" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G581" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H581" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I581" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="J581" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="K581" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="582" ht="11" customHeight="true">
-      <c r="A582" s="3" t="n">
-        <v>580</v>
-      </c>
-      <c r="B582" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C582" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D582" s="5" t="n">
-        <v>14044.79</v>
-      </c>
-      <c r="E582" s="5" t="n">
-        <v>7362.98</v>
-      </c>
-      <c r="F582" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G582" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H582" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I582" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="J582" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="K582" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="583" ht="11" customHeight="true">
-      <c r="A583" s="3" t="n">
-        <v>581</v>
-      </c>
-      <c r="B583" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C583" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D583" s="6" t="n">
-        <v>1482459.1</v>
-      </c>
-      <c r="E583" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F583" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G583" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H583" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I583" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="J583" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="K583" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="584" ht="11" customHeight="true">
-      <c r="A584" s="3" t="n">
-        <v>582</v>
-      </c>
-      <c r="B584" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C584" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D584" s="5" t="n">
-        <v>199345.25</v>
-      </c>
-      <c r="E584" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F584" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G584" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H584" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I584" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="J584" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="K584" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="585" ht="11" customHeight="true">
-      <c r="A585" s="3" t="n">
-        <v>583</v>
-      </c>
-      <c r="B585" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C585" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D585" s="7" t="n">
-        <v>6500000</v>
-      </c>
-      <c r="E585" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F585" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G585" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H585" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I585" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="J585" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="K585" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="586" ht="11" customHeight="true">
-      <c r="A586" s="3" t="n">
-        <v>584</v>
-      </c>
-      <c r="B586" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C586" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D586" s="5" t="n">
-        <v>577804.23</v>
-      </c>
-      <c r="E586" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F586" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G586" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H586" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I586" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="J586" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="K586" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="587" ht="11" customHeight="true">
-      <c r="A587" s="3" t="n">
-        <v>585</v>
-      </c>
-      <c r="B587" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C587" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D587" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E587" s="5" t="n">
-        <v>3549.32</v>
-      </c>
-      <c r="F587" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G587" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H587" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I587" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="J587" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="K587" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="588" ht="11" customHeight="true">
-      <c r="A588" s="3" t="n">
-        <v>586</v>
-      </c>
-      <c r="B588" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C588" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D588" s="5" t="n">
-        <v>5890677.11</v>
-      </c>
-      <c r="E588" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F588" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G588" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H588" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I588" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="J588" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="K588" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="589" ht="11" customHeight="true">
-      <c r="A589" s="3" t="n">
-        <v>587</v>
-      </c>
-      <c r="B589" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C589" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D589" s="5" t="n">
-        <v>22212.35</v>
-      </c>
-      <c r="E589" s="5" t="n">
-        <v>5874.65</v>
-      </c>
-      <c r="F589" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G589" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H589" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I589" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="J589" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="K589" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="590" ht="11" customHeight="true">
-      <c r="A590" s="3" t="n">
-        <v>588</v>
-      </c>
-      <c r="B590" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C590" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D590" s="5" t="n">
-        <v>232298.09</v>
-      </c>
-      <c r="E590" s="5" t="n">
-        <v>67602.52</v>
-      </c>
-      <c r="F590" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G590" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H590" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I590" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="J590" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="K590" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="591" ht="11" customHeight="true">
-      <c r="A591" s="3" t="n">
-        <v>589</v>
-      </c>
-      <c r="B591" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C591" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D591" s="7" t="n">
-        <v>200000</v>
-      </c>
-      <c r="E591" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F591" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G591" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H591" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I591" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="J591" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="K591" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="592" ht="11" customHeight="true">
-      <c r="A592" s="3" t="n">
-        <v>590</v>
-      </c>
-      <c r="B592" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C592" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D592" s="6" t="n">
-        <v>77416.6</v>
-      </c>
-      <c r="E592" s="5" t="n">
-        <v>19201.49</v>
-      </c>
-      <c r="F592" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G592" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H592" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I592" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="J592" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="K592" s="4" t="s">
         <v>14</v>
       </c>
     </row>
